--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>741.5</v>
+        <v>601.5399780273438</v>
       </c>
       <c r="B2">
-        <v>753.77001953125</v>
+        <v>606.4600219726562</v>
       </c>
       <c r="C2">
-        <v>718.0399780273438</v>
+        <v>559.6500244140625</v>
       </c>
       <c r="D2">
-        <v>719.6900024414062</v>
+        <v>571.6900024414062</v>
       </c>
       <c r="E2">
-        <v>719.6900024414062</v>
+        <v>571.6900024414062</v>
       </c>
       <c r="F2">
-        <v>35590300</v>
+        <v>44184900</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>719.7999877929688</v>
+        <v>583.4099731445312</v>
       </c>
       <c r="B3">
-        <v>737.3599853515625</v>
+        <v>592.8699951171875</v>
       </c>
       <c r="C3">
-        <v>715.4600219726562</v>
+        <v>570.4600219726562</v>
       </c>
       <c r="D3">
-        <v>729.4000244140625</v>
+        <v>589.739990234375</v>
       </c>
       <c r="E3">
-        <v>729.4000244140625</v>
+        <v>589.739990234375</v>
       </c>
       <c r="F3">
-        <v>28370000</v>
+        <v>33370900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>741</v>
+        <v>575.5499877929688</v>
       </c>
       <c r="B4">
-        <v>749.2999877929688</v>
+        <v>589.72998046875</v>
       </c>
       <c r="C4">
-        <v>732.6099853515625</v>
+        <v>561.2000122070312</v>
       </c>
       <c r="D4">
-        <v>738.2000122070312</v>
+        <v>576.8300170898438</v>
       </c>
       <c r="E4">
-        <v>738.2000122070312</v>
+        <v>576.8300170898438</v>
       </c>
       <c r="F4">
-        <v>31038500</v>
+        <v>32390400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>717.9600219726562</v>
+        <v>568</v>
       </c>
       <c r="B5">
-        <v>724</v>
+        <v>596.25</v>
       </c>
       <c r="C5">
-        <v>703.3499755859375</v>
+        <v>563.3800048828125</v>
       </c>
       <c r="D5">
-        <v>704.739990234375</v>
+        <v>577.8699951171875</v>
       </c>
       <c r="E5">
-        <v>704.739990234375</v>
+        <v>577.8699951171875</v>
       </c>
       <c r="F5">
-        <v>29437000</v>
+        <v>36830600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>696.4099731445312</v>
+        <v>552.5499877929688</v>
       </c>
       <c r="B6">
-        <v>708.5</v>
+        <v>566.2100219726562</v>
       </c>
       <c r="C6">
-        <v>693.5999755859375</v>
+        <v>546.97998046875</v>
       </c>
       <c r="D6">
-        <v>694.4000244140625</v>
+        <v>563.4600219726562</v>
       </c>
       <c r="E6">
-        <v>694.4000244140625</v>
+        <v>563.4600219726562</v>
       </c>
       <c r="F6">
-        <v>22271000</v>
+        <v>39578400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>699.510009765625</v>
+        <v>575</v>
       </c>
       <c r="B7">
-        <v>702.25</v>
+        <v>588.8499755859375</v>
       </c>
       <c r="C7">
-        <v>668.5</v>
+        <v>571.0700073242188</v>
       </c>
       <c r="D7">
-        <v>677</v>
+        <v>586.780029296875</v>
       </c>
       <c r="E7">
-        <v>677</v>
+        <v>586.780029296875</v>
       </c>
       <c r="F7">
-        <v>28845400</v>
+        <v>30821100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>667.5900268554688</v>
+        <v>596.1099853515625</v>
       </c>
       <c r="B8">
-        <v>715.469970703125</v>
+        <v>596.6799926757812</v>
       </c>
       <c r="C8">
-        <v>666.1400146484375</v>
+        <v>580</v>
       </c>
       <c r="D8">
-        <v>709.4400024414062</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="E8">
-        <v>709.4400024414062</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="F8">
-        <v>40758700</v>
+        <v>26030600</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>703.7999877929688</v>
+        <v>581.5999755859375</v>
       </c>
       <c r="B9">
-        <v>706</v>
+        <v>614.47998046875</v>
       </c>
       <c r="C9">
-        <v>680.5</v>
+        <v>573.6500244140625</v>
       </c>
       <c r="D9">
-        <v>684.9000244140625</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="E9">
-        <v>684.9000244140625</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="F9">
-        <v>27043100</v>
+        <v>34558100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>678.9400024414062</v>
+        <v>607.3099975585938</v>
       </c>
       <c r="B10">
-        <v>683.4500122070312</v>
+        <v>613.989990234375</v>
       </c>
       <c r="C10">
-        <v>657.7000122070312</v>
+        <v>595.7100219726562</v>
       </c>
       <c r="D10">
-        <v>673.5999755859375</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="E10">
-        <v>673.5999755859375</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="F10">
-        <v>29739300</v>
+        <v>28005900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>681.0599975585938</v>
+        <v>607.5599975585938</v>
       </c>
       <c r="B11">
-        <v>685.2999877929688</v>
+        <v>626.1699829101562</v>
       </c>
       <c r="C11">
-        <v>667.3400268554688</v>
+        <v>601.5</v>
       </c>
       <c r="D11">
-        <v>670.9400024414062</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="E11">
-        <v>670.9400024414062</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="F11">
-        <v>21901900</v>
+        <v>28639300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>680.760009765625</v>
+        <v>620.239990234375</v>
       </c>
       <c r="B12">
-        <v>681.02001953125</v>
+        <v>631.1300048828125</v>
       </c>
       <c r="C12">
-        <v>650</v>
+        <v>616.2100219726562</v>
       </c>
       <c r="D12">
-        <v>663.5399780273438</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="E12">
-        <v>663.5399780273438</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="F12">
-        <v>27784600</v>
+        <v>26370600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>665.7999877929688</v>
+        <v>628.5</v>
       </c>
       <c r="B13">
-        <v>690</v>
+        <v>635.5900268554688</v>
       </c>
       <c r="C13">
-        <v>660.219970703125</v>
+        <v>622.3800048828125</v>
       </c>
       <c r="D13">
-        <v>672.3699951171875</v>
+        <v>625.219970703125</v>
       </c>
       <c r="E13">
-        <v>672.3699951171875</v>
+        <v>625.219970703125</v>
       </c>
       <c r="F13">
-        <v>23469200</v>
+        <v>22737000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>664.9000244140625</v>
+        <v>627.7999877929688</v>
       </c>
       <c r="B14">
-        <v>665.0499877929688</v>
+        <v>633.7999877929688</v>
       </c>
       <c r="C14">
-        <v>627.6099853515625</v>
+        <v>620.5499877929688</v>
       </c>
       <c r="D14">
-        <v>629.0399780273438</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="E14">
-        <v>629.0399780273438</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="F14">
-        <v>31392400</v>
+        <v>18084900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>599.239990234375</v>
+        <v>620.1300048828125</v>
       </c>
       <c r="B15">
-        <v>627.0999755859375</v>
+        <v>623.3599853515625</v>
       </c>
       <c r="C15">
-        <v>595.5999755859375</v>
+        <v>599.1400146484375</v>
       </c>
       <c r="D15">
-        <v>617.2000122070312</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="E15">
-        <v>617.2000122070312</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="F15">
-        <v>46503900</v>
+        <v>23302800</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>602.489990234375</v>
+        <v>601.7999877929688</v>
       </c>
       <c r="B16">
-        <v>620.4099731445312</v>
+        <v>604.5499877929688</v>
       </c>
       <c r="C16">
-        <v>586.77001953125</v>
+        <v>571.219970703125</v>
       </c>
       <c r="D16">
-        <v>589.8900146484375</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="E16">
-        <v>589.8900146484375</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="F16">
-        <v>33823600</v>
+        <v>30111900</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>601.5399780273438</v>
+        <v>579.7100219726562</v>
       </c>
       <c r="B17">
-        <v>606.4600219726562</v>
+        <v>600.6099853515625</v>
       </c>
       <c r="C17">
-        <v>559.6500244140625</v>
+        <v>577.2000122070312</v>
       </c>
       <c r="D17">
-        <v>571.6900024414062</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="E17">
-        <v>571.6900024414062</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="F17">
-        <v>44184900</v>
+        <v>24036900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>583.4099731445312</v>
+        <v>591.8300170898438</v>
       </c>
       <c r="B18">
-        <v>592.8699951171875</v>
+        <v>610</v>
       </c>
       <c r="C18">
-        <v>570.4600219726562</v>
+        <v>582.8800048828125</v>
       </c>
       <c r="D18">
-        <v>589.739990234375</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="E18">
-        <v>589.739990234375</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="F18">
-        <v>33370900</v>
+        <v>22543700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>575.5499877929688</v>
+        <v>623.010009765625</v>
       </c>
       <c r="B19">
-        <v>589.72998046875</v>
+        <v>623.0900268554688</v>
       </c>
       <c r="C19">
-        <v>561.2000122070312</v>
+        <v>595.5</v>
       </c>
       <c r="D19">
-        <v>576.8300170898438</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="E19">
-        <v>576.8300170898438</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="F19">
-        <v>32390400</v>
+        <v>26053400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>568</v>
+        <v>602.1699829101562</v>
       </c>
       <c r="B20">
-        <v>596.25</v>
+        <v>611.7899780273438</v>
       </c>
       <c r="C20">
-        <v>563.3800048828125</v>
+        <v>597.6300048828125</v>
       </c>
       <c r="D20">
-        <v>577.8699951171875</v>
+        <v>598.780029296875</v>
       </c>
       <c r="E20">
-        <v>577.8699951171875</v>
+        <v>598.780029296875</v>
       </c>
       <c r="F20">
-        <v>36830600</v>
+        <v>16584600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>552.5499877929688</v>
+        <v>603.8800048828125</v>
       </c>
       <c r="B21">
-        <v>566.2100219726562</v>
+        <v>616.5900268554688</v>
       </c>
       <c r="C21">
-        <v>546.97998046875</v>
+        <v>600.5</v>
       </c>
       <c r="D21">
-        <v>563.4600219726562</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="E21">
-        <v>563.4600219726562</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="F21">
-        <v>39578400</v>
+        <v>23919600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>575</v>
+        <v>610.22998046875</v>
       </c>
       <c r="B22">
-        <v>588.8499755859375</v>
+        <v>612.5599975585938</v>
       </c>
       <c r="C22">
-        <v>571.0700073242188</v>
+        <v>601.52001953125</v>
       </c>
       <c r="D22">
-        <v>586.780029296875</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="E22">
-        <v>586.780029296875</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="F22">
-        <v>30821100</v>
+        <v>16205300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>596.1099853515625</v>
+        <v>612.22998046875</v>
       </c>
       <c r="B23">
-        <v>596.6799926757812</v>
+        <v>625.489990234375</v>
       </c>
       <c r="C23">
-        <v>580</v>
+        <v>609.1799926757812</v>
       </c>
       <c r="D23">
-        <v>580.8800048828125</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="E23">
-        <v>580.8800048828125</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="F23">
-        <v>26030600</v>
+        <v>20424000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>581.5999755859375</v>
+        <v>616.6900024414062</v>
       </c>
       <c r="B24">
-        <v>614.47998046875</v>
+        <v>616.7899780273438</v>
       </c>
       <c r="C24">
-        <v>573.6500244140625</v>
+        <v>598.22998046875</v>
       </c>
       <c r="D24">
-        <v>606.4400024414062</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="E24">
-        <v>606.4400024414062</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="F24">
-        <v>34558100</v>
+        <v>17764100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>607.3099975585938</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="B25">
-        <v>613.989990234375</v>
+        <v>608.5</v>
       </c>
       <c r="C25">
-        <v>595.7100219726562</v>
+        <v>593.5</v>
       </c>
       <c r="D25">
-        <v>604.6900024414062</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="E25">
-        <v>604.6900024414062</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="F25">
-        <v>28005900</v>
+        <v>22144100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>607.5599975585938</v>
+        <v>601.8900146484375</v>
       </c>
       <c r="B26">
-        <v>626.1699829101562</v>
+        <v>621.469970703125</v>
       </c>
       <c r="C26">
-        <v>601.5</v>
+        <v>601.3400268554688</v>
       </c>
       <c r="D26">
-        <v>619.1300048828125</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="E26">
-        <v>619.1300048828125</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="F26">
-        <v>28639300</v>
+        <v>22701400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>620.239990234375</v>
+        <v>613.3699951171875</v>
       </c>
       <c r="B27">
-        <v>631.1300048828125</v>
+        <v>628.3499755859375</v>
       </c>
       <c r="C27">
-        <v>616.2100219726562</v>
+        <v>611.7999877929688</v>
       </c>
       <c r="D27">
-        <v>630.8499755859375</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="E27">
-        <v>630.8499755859375</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="F27">
-        <v>26370600</v>
+        <v>24560900</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>628.5</v>
+        <v>624.47998046875</v>
       </c>
       <c r="B28">
-        <v>635.5900268554688</v>
+        <v>631.3900146484375</v>
       </c>
       <c r="C28">
-        <v>622.3800048828125</v>
+        <v>608.8800048828125</v>
       </c>
       <c r="D28">
-        <v>625.219970703125</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="E28">
-        <v>625.219970703125</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="F28">
-        <v>22737000</v>
+        <v>24812700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>627.7999877929688</v>
+        <v>618.25</v>
       </c>
       <c r="B29">
-        <v>633.7999877929688</v>
+        <v>628.5700073242188</v>
       </c>
       <c r="C29">
-        <v>620.5499877929688</v>
+        <v>615.5</v>
       </c>
       <c r="D29">
-        <v>623.9000244140625</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="E29">
-        <v>623.9000244140625</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="F29">
-        <v>18084900</v>
+        <v>19158900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>620.1300048828125</v>
+        <v>632</v>
       </c>
       <c r="B30">
-        <v>623.3599853515625</v>
+        <v>657.2000122070312</v>
       </c>
       <c r="C30">
-        <v>599.1400146484375</v>
+        <v>630.0399780273438</v>
       </c>
       <c r="D30">
-        <v>605.1199951171875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="E30">
-        <v>605.1199951171875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="F30">
-        <v>23302800</v>
+        <v>31099200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>601.7999877929688</v>
+        <v>674.989990234375</v>
       </c>
       <c r="B31">
-        <v>604.5499877929688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="C31">
-        <v>571.219970703125</v>
+        <v>667.6099853515625</v>
       </c>
       <c r="D31">
-        <v>572.8400268554688</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="E31">
-        <v>572.8400268554688</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="F31">
-        <v>30111900</v>
+        <v>45982400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>579.7100219726562</v>
+        <v>689.5800170898438</v>
       </c>
       <c r="B32">
-        <v>600.6099853515625</v>
+        <v>693.8099975585938</v>
       </c>
       <c r="C32">
-        <v>577.2000122070312</v>
+        <v>668.7000122070312</v>
       </c>
       <c r="D32">
-        <v>599.0499877929688</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="E32">
-        <v>599.0499877929688</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="F32">
-        <v>24036900</v>
+        <v>32496700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>591.8300170898438</v>
+        <v>671.6400146484375</v>
       </c>
       <c r="B33">
-        <v>610</v>
+        <v>694.7000122070312</v>
       </c>
       <c r="C33">
-        <v>582.8800048828125</v>
+        <v>670.3200073242188</v>
       </c>
       <c r="D33">
-        <v>605.1300048828125</v>
+        <v>688.719970703125</v>
       </c>
       <c r="E33">
-        <v>605.1300048828125</v>
+        <v>688.719970703125</v>
       </c>
       <c r="F33">
-        <v>22543700</v>
+        <v>21628200</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>623.010009765625</v>
+        <v>684.6500244140625</v>
       </c>
       <c r="B34">
-        <v>623.0900268554688</v>
+        <v>687.510009765625</v>
       </c>
       <c r="C34">
-        <v>595.5</v>
+        <v>675.8900146484375</v>
       </c>
       <c r="D34">
-        <v>603.5900268554688</v>
+        <v>680.760009765625</v>
       </c>
       <c r="E34">
-        <v>603.5900268554688</v>
+        <v>680.760009765625</v>
       </c>
       <c r="F34">
-        <v>26053400</v>
+        <v>17381300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>602.1699829101562</v>
+        <v>679.77001953125</v>
       </c>
       <c r="B35">
-        <v>611.7899780273438</v>
+        <v>692.8099975585938</v>
       </c>
       <c r="C35">
-        <v>597.6300048828125</v>
+        <v>678.1400146484375</v>
       </c>
       <c r="D35">
-        <v>598.780029296875</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="E35">
-        <v>598.780029296875</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="F35">
-        <v>16584600</v>
+        <v>18924900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>603.8800048828125</v>
+        <v>683.9199829101562</v>
       </c>
       <c r="B36">
-        <v>616.5900268554688</v>
+        <v>687.989990234375</v>
       </c>
       <c r="C36">
-        <v>600.5</v>
+        <v>672.7999877929688</v>
       </c>
       <c r="D36">
-        <v>610.1199951171875</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="E36">
-        <v>610.1199951171875</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="F36">
-        <v>23919600</v>
+        <v>18634500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>610.22998046875</v>
+        <v>678.97998046875</v>
       </c>
       <c r="B37">
-        <v>612.5599975585938</v>
+        <v>700</v>
       </c>
       <c r="C37">
-        <v>601.52001953125</v>
+        <v>673.260009765625</v>
       </c>
       <c r="D37">
-        <v>609.8900146484375</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="E37">
-        <v>609.8900146484375</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="F37">
-        <v>16205300</v>
+        <v>27054500</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>612.22998046875</v>
+        <v>681.7100219726562</v>
       </c>
       <c r="B38">
-        <v>625.489990234375</v>
+        <v>684</v>
       </c>
       <c r="C38">
-        <v>609.1799926757812</v>
+        <v>651.4000244140625</v>
       </c>
       <c r="D38">
-        <v>617.6900024414062</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="E38">
-        <v>617.6900024414062</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="F38">
-        <v>20424000</v>
+        <v>23284500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>616.6900024414062</v>
+        <v>664.27001953125</v>
       </c>
       <c r="B39">
-        <v>616.7899780273438</v>
+        <v>665.7000122070312</v>
       </c>
       <c r="C39">
-        <v>598.22998046875</v>
+        <v>638.3200073242188</v>
       </c>
       <c r="D39">
-        <v>599.3599853515625</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="E39">
-        <v>599.3599853515625</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="F39">
-        <v>17764100</v>
+        <v>18792000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>597.5399780273438</v>
+        <v>628.3699951171875</v>
       </c>
       <c r="B40">
-        <v>608.5</v>
+        <v>654.4299926757812</v>
       </c>
       <c r="C40">
-        <v>593.5</v>
+        <v>620.4600219726562</v>
       </c>
       <c r="D40">
-        <v>604.8699951171875</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="E40">
-        <v>604.8699951171875</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="F40">
-        <v>22144100</v>
+        <v>22773300</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>601.8900146484375</v>
+        <v>653.1799926757812</v>
       </c>
       <c r="B41">
-        <v>621.469970703125</v>
+        <v>658.9099731445312</v>
       </c>
       <c r="C41">
-        <v>601.3400268554688</v>
+        <v>644.6900024414062</v>
       </c>
       <c r="D41">
-        <v>616.5999755859375</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="E41">
-        <v>616.5999755859375</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="F41">
-        <v>22701400</v>
+        <v>18140500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>613.3699951171875</v>
+        <v>662.2000122070312</v>
       </c>
       <c r="B42">
-        <v>628.3499755859375</v>
+        <v>687.239990234375</v>
       </c>
       <c r="C42">
-        <v>611.7999877929688</v>
+        <v>662.1599731445312</v>
       </c>
       <c r="D42">
-        <v>623.3099975585938</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="E42">
-        <v>623.3099975585938</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="F42">
-        <v>24560900</v>
+        <v>25927000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>624.47998046875</v>
+        <v>686.3200073242188</v>
       </c>
       <c r="B43">
-        <v>631.3900146484375</v>
+        <v>693.280029296875</v>
       </c>
       <c r="C43">
-        <v>608.8800048828125</v>
+        <v>666.2999877929688</v>
       </c>
       <c r="D43">
-        <v>620.8300170898438</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="E43">
-        <v>620.8300170898438</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="F43">
-        <v>24812700</v>
+        <v>20966100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>618.25</v>
+        <v>670.75</v>
       </c>
       <c r="B44">
-        <v>628.5700073242188</v>
+        <v>678.6099853515625</v>
       </c>
       <c r="C44">
-        <v>615.5</v>
+        <v>652.8400268554688</v>
       </c>
       <c r="D44">
-        <v>623.7100219726562</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="E44">
-        <v>623.7100219726562</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="F44">
-        <v>19158900</v>
+        <v>21641200</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>632</v>
+        <v>658.3900146484375</v>
       </c>
       <c r="B45">
-        <v>657.2000122070312</v>
+        <v>666.1400146484375</v>
       </c>
       <c r="C45">
-        <v>630.0399780273438</v>
+        <v>637.8800048828125</v>
       </c>
       <c r="D45">
-        <v>656.5700073242188</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="E45">
-        <v>656.5700073242188</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="F45">
-        <v>31099200</v>
+        <v>20209600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>674.989990234375</v>
+        <v>654.6799926757812</v>
       </c>
       <c r="B46">
-        <v>697.6199951171875</v>
+        <v>656.7000122070312</v>
       </c>
       <c r="C46">
-        <v>667.6099853515625</v>
+        <v>642.2000122070312</v>
       </c>
       <c r="D46">
-        <v>679.8200073242188</v>
+        <v>644.219970703125</v>
       </c>
       <c r="E46">
-        <v>679.8200073242188</v>
+        <v>644.219970703125</v>
       </c>
       <c r="F46">
-        <v>45982400</v>
+        <v>16371000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>689.5800170898438</v>
+        <v>629.8900146484375</v>
       </c>
       <c r="B47">
-        <v>693.8099975585938</v>
+        <v>647.2000122070312</v>
       </c>
       <c r="C47">
-        <v>668.7000122070312</v>
+        <v>621.2899780273438</v>
       </c>
       <c r="D47">
-        <v>671.8699951171875</v>
+        <v>646.219970703125</v>
       </c>
       <c r="E47">
-        <v>671.8699951171875</v>
+        <v>646.219970703125</v>
       </c>
       <c r="F47">
-        <v>32496700</v>
+        <v>21297100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>671.6400146484375</v>
+        <v>651.989990234375</v>
       </c>
       <c r="B48">
-        <v>694.7000122070312</v>
+        <v>662.3900146484375</v>
       </c>
       <c r="C48">
-        <v>670.3200073242188</v>
+        <v>640.5</v>
       </c>
       <c r="D48">
-        <v>688.719970703125</v>
+        <v>660.5</v>
       </c>
       <c r="E48">
-        <v>688.719970703125</v>
+        <v>660.5</v>
       </c>
       <c r="F48">
-        <v>21628200</v>
+        <v>15487100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>684.6500244140625</v>
+        <v>659.6099853515625</v>
       </c>
       <c r="B49">
-        <v>687.510009765625</v>
+        <v>664.8599853515625</v>
       </c>
       <c r="C49">
-        <v>675.8900146484375</v>
+        <v>650.2899780273438</v>
       </c>
       <c r="D49">
-        <v>680.760009765625</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="E49">
-        <v>680.760009765625</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="F49">
-        <v>17381300</v>
+        <v>13953300</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>679.77001953125</v>
+        <v>656.4400024414062</v>
       </c>
       <c r="B50">
-        <v>692.8099975585938</v>
+        <v>662.1699829101562</v>
       </c>
       <c r="C50">
-        <v>678.1400146484375</v>
+        <v>644.5999755859375</v>
       </c>
       <c r="D50">
-        <v>679.7000122070312</v>
+        <v>649.260009765625</v>
       </c>
       <c r="E50">
-        <v>679.7000122070312</v>
+        <v>649.260009765625</v>
       </c>
       <c r="F50">
-        <v>18924900</v>
+        <v>15105700</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>683.9199829101562</v>
+        <v>646.3599853515625</v>
       </c>
       <c r="B51">
-        <v>687.989990234375</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="C51">
-        <v>672.7999877929688</v>
+        <v>637.2999877929688</v>
       </c>
       <c r="D51">
-        <v>677.9199829101562</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="E51">
-        <v>677.9199829101562</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="F51">
-        <v>18634500</v>
+        <v>14604900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>678.97998046875</v>
+        <v>650.969970703125</v>
       </c>
       <c r="B52">
-        <v>700</v>
+        <v>668.2000122070312</v>
       </c>
       <c r="C52">
-        <v>673.260009765625</v>
+        <v>647.1099853515625</v>
       </c>
       <c r="D52">
-        <v>678.9000244140625</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="E52">
-        <v>678.9000244140625</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="F52">
-        <v>27054500</v>
+        <v>25336600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>681.7100219726562</v>
+        <v>663.4000244140625</v>
       </c>
       <c r="B53">
-        <v>684</v>
+        <v>666.5</v>
       </c>
       <c r="C53">
-        <v>651.4000244140625</v>
+        <v>627.239990234375</v>
       </c>
       <c r="D53">
-        <v>659.5800170898438</v>
+        <v>644.780029296875</v>
       </c>
       <c r="E53">
-        <v>659.5800170898438</v>
+        <v>644.780029296875</v>
       </c>
       <c r="F53">
-        <v>23284500</v>
+        <v>32813300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>664.27001953125</v>
+        <v>647</v>
       </c>
       <c r="B54">
-        <v>665.7000122070312</v>
+        <v>654.969970703125</v>
       </c>
       <c r="C54">
-        <v>638.3200073242188</v>
+        <v>639.4000244140625</v>
       </c>
       <c r="D54">
-        <v>644.6500244140625</v>
+        <v>646.97998046875</v>
       </c>
       <c r="E54">
-        <v>644.6500244140625</v>
+        <v>646.97998046875</v>
       </c>
       <c r="F54">
-        <v>18792000</v>
+        <v>16006600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>628.3699951171875</v>
+        <v>649.7899780273438</v>
       </c>
       <c r="B55">
-        <v>654.4299926757812</v>
+        <v>683.6900024414062</v>
       </c>
       <c r="C55">
-        <v>620.4600219726562</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="D55">
-        <v>652.8099975585938</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="E55">
-        <v>652.8099975585938</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="F55">
-        <v>22773300</v>
+        <v>30394600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>653.1799926757812</v>
+        <v>671.760009765625</v>
       </c>
       <c r="B56">
-        <v>658.9099731445312</v>
+        <v>697.530029296875</v>
       </c>
       <c r="C56">
-        <v>644.6900024414062</v>
+        <v>669</v>
       </c>
       <c r="D56">
-        <v>656.9500122070312</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="E56">
-        <v>656.9500122070312</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="F56">
-        <v>18140500</v>
+        <v>29600500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>662.2000122070312</v>
+        <v>700</v>
       </c>
       <c r="B57">
-        <v>687.239990234375</v>
+        <v>726.9400024414062</v>
       </c>
       <c r="C57">
-        <v>662.1599731445312</v>
+        <v>698.4000244140625</v>
       </c>
       <c r="D57">
-        <v>685.7000122070312</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="E57">
-        <v>685.7000122070312</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="F57">
-        <v>25927000</v>
+        <v>33615800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>686.3200073242188</v>
+        <v>719</v>
       </c>
       <c r="B58">
-        <v>693.280029296875</v>
+        <v>722.6500244140625</v>
       </c>
       <c r="C58">
-        <v>666.2999877929688</v>
+        <v>701.010009765625</v>
       </c>
       <c r="D58">
-        <v>668.5399780273438</v>
+        <v>709.739990234375</v>
       </c>
       <c r="E58">
-        <v>668.5399780273438</v>
+        <v>709.739990234375</v>
       </c>
       <c r="F58">
-        <v>20966100</v>
+        <v>21620300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>670.75</v>
+        <v>711</v>
       </c>
       <c r="B59">
-        <v>678.6099853515625</v>
+        <v>724.9000244140625</v>
       </c>
       <c r="C59">
-        <v>652.8400268554688</v>
+        <v>708.9299926757812</v>
       </c>
       <c r="D59">
-        <v>653.3800048828125</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="E59">
-        <v>653.3800048828125</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="F59">
-        <v>21641200</v>
+        <v>17002600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>658.3900146484375</v>
+        <v>716</v>
       </c>
       <c r="B60">
-        <v>666.1400146484375</v>
+        <v>720.9500122070312</v>
       </c>
       <c r="C60">
-        <v>637.8800048828125</v>
+        <v>711.4099731445312</v>
       </c>
       <c r="D60">
-        <v>650.5999755859375</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="E60">
-        <v>650.5999755859375</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="F60">
-        <v>20209600</v>
+        <v>12919600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>654.6799926757812</v>
+        <v>711.9000244140625</v>
       </c>
       <c r="B61">
-        <v>656.7000122070312</v>
+        <v>716.3300170898438</v>
       </c>
       <c r="C61">
-        <v>642.2000122070312</v>
+        <v>697.6300048828125</v>
       </c>
       <c r="D61">
-        <v>644.219970703125</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="E61">
-        <v>644.219970703125</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="F61">
-        <v>16371000</v>
+        <v>15576200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>629.8900146484375</v>
+        <v>710.1699829101562</v>
       </c>
       <c r="B62">
-        <v>647.2000122070312</v>
+        <v>719.030029296875</v>
       </c>
       <c r="C62">
-        <v>621.2899780273438</v>
+        <v>705.1300048828125</v>
       </c>
       <c r="D62">
-        <v>646.219970703125</v>
+        <v>713.760009765625</v>
       </c>
       <c r="E62">
-        <v>646.219970703125</v>
+        <v>713.760009765625</v>
       </c>
       <c r="F62">
-        <v>21297100</v>
+        <v>14715300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>651.989990234375</v>
+        <v>713.989990234375</v>
       </c>
       <c r="B63">
-        <v>662.3900146484375</v>
+        <v>716.5900268554688</v>
       </c>
       <c r="C63">
-        <v>640.5</v>
+        <v>701.8800048828125</v>
       </c>
       <c r="D63">
-        <v>660.5</v>
+        <v>709.989990234375</v>
       </c>
       <c r="E63">
-        <v>660.5</v>
+        <v>709.989990234375</v>
       </c>
       <c r="F63">
-        <v>15487100</v>
+        <v>13432300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>659.6099853515625</v>
+        <v>712.7100219726562</v>
       </c>
       <c r="B64">
-        <v>664.8599853515625</v>
+        <v>715.1799926757812</v>
       </c>
       <c r="C64">
-        <v>650.2899780273438</v>
+        <v>704.2100219726562</v>
       </c>
       <c r="D64">
-        <v>655.2899780273438</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="E64">
-        <v>655.2899780273438</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="F64">
-        <v>13953300</v>
+        <v>9800600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>656.4400024414062</v>
+        <v>706.3400268554688</v>
       </c>
       <c r="B65">
-        <v>662.1699829101562</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="C65">
-        <v>644.5999755859375</v>
+        <v>699.4000244140625</v>
       </c>
       <c r="D65">
-        <v>649.260009765625</v>
+        <v>722.25</v>
       </c>
       <c r="E65">
-        <v>649.260009765625</v>
+        <v>722.25</v>
       </c>
       <c r="F65">
-        <v>15105700</v>
+        <v>17459100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>646.3599853515625</v>
+        <v>723.7100219726562</v>
       </c>
       <c r="B66">
-        <v>648.7999877929688</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="C66">
-        <v>637.2999877929688</v>
+        <v>714.3400268554688</v>
       </c>
       <c r="D66">
-        <v>643.3800048828125</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="E66">
-        <v>643.3800048828125</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="F66">
-        <v>14604900</v>
+        <v>16698900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>650.969970703125</v>
+        <v>705.0700073242188</v>
       </c>
       <c r="B67">
-        <v>668.2000122070312</v>
+        <v>709.5</v>
       </c>
       <c r="C67">
-        <v>647.1099853515625</v>
+        <v>676.4000244140625</v>
       </c>
       <c r="D67">
-        <v>657.6199951171875</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="E67">
-        <v>657.6199951171875</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="F67">
-        <v>25336600</v>
+        <v>22677400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>663.4000244140625</v>
+        <v>672.6599731445312</v>
       </c>
       <c r="B68">
-        <v>666.5</v>
+        <v>674.5800170898438</v>
       </c>
       <c r="C68">
-        <v>627.239990234375</v>
+        <v>648.8400268554688</v>
       </c>
       <c r="D68">
-        <v>644.780029296875</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="E68">
-        <v>644.780029296875</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="F68">
-        <v>32813300</v>
+        <v>23721300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>647</v>
+        <v>669.75</v>
       </c>
       <c r="B69">
-        <v>654.969970703125</v>
+        <v>695.77001953125</v>
       </c>
       <c r="C69">
-        <v>639.4000244140625</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D69">
-        <v>646.97998046875</v>
+        <v>688.989990234375</v>
       </c>
       <c r="E69">
-        <v>646.97998046875</v>
+        <v>688.989990234375</v>
       </c>
       <c r="F69">
-        <v>16006600</v>
+        <v>20349400</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>649.7899780273438</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B70">
-        <v>683.6900024414062</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C70">
-        <v>648.7999877929688</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D70">
-        <v>677.3499755859375</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E70">
-        <v>677.3499755859375</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F70">
-        <v>30394600</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>671.760009765625</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B71">
-        <v>697.530029296875</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C71">
-        <v>669</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D71">
-        <v>687.2000122070312</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E71">
-        <v>687.2000122070312</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F71">
-        <v>29600500</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>700</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B72">
-        <v>726.9400024414062</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C72">
-        <v>698.4000244140625</v>
+        <v>680.75</v>
       </c>
       <c r="D72">
-        <v>709.6699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E72">
-        <v>709.6699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F72">
-        <v>33615800</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>719</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B73">
-        <v>722.6500244140625</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C73">
-        <v>701.010009765625</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D73">
-        <v>709.739990234375</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E73">
-        <v>709.739990234375</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F73">
-        <v>21620300</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>711</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B74">
-        <v>724.9000244140625</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C74">
-        <v>708.9299926757812</v>
+        <v>704</v>
       </c>
       <c r="D74">
-        <v>710.9199829101562</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E74">
-        <v>710.9199829101562</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F74">
-        <v>17002600</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>716</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B75">
-        <v>720.9500122070312</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C75">
-        <v>711.4099731445312</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D75">
-        <v>714.6300048828125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E75">
-        <v>714.6300048828125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F75">
-        <v>12919600</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>711.9000244140625</v>
+        <v>705</v>
       </c>
       <c r="B76">
-        <v>716.3300170898438</v>
+        <v>715</v>
       </c>
       <c r="C76">
-        <v>697.6300048828125</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D76">
-        <v>699.0999755859375</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E76">
-        <v>699.0999755859375</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F76">
-        <v>15576200</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>710.1699829101562</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B77">
-        <v>719.030029296875</v>
+        <v>731</v>
       </c>
       <c r="C77">
-        <v>705.1300048828125</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D77">
-        <v>713.760009765625</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E77">
-        <v>713.760009765625</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F77">
-        <v>14715300</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>713.989990234375</v>
+        <v>733</v>
       </c>
       <c r="B78">
-        <v>716.5900268554688</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C78">
-        <v>701.8800048828125</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D78">
-        <v>709.989990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E78">
-        <v>709.989990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F78">
-        <v>13432300</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>712.7100219726562</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B79">
-        <v>715.1799926757812</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C79">
-        <v>704.2100219726562</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D79">
-        <v>707.8200073242188</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E79">
-        <v>707.8200073242188</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F79">
-        <v>9800600</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>706.3400268554688</v>
+        <v>734.5</v>
       </c>
       <c r="B80">
-        <v>722.7999877929688</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C80">
-        <v>699.4000244140625</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D80">
-        <v>722.25</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E80">
-        <v>722.25</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F80">
-        <v>17459100</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>723.7100219726562</v>
+        <v>732.25</v>
       </c>
       <c r="B81">
-        <v>729.9000244140625</v>
+        <v>734</v>
       </c>
       <c r="C81">
-        <v>714.3400268554688</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D81">
-        <v>717.1699829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E81">
-        <v>717.1699829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F81">
-        <v>16698900</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>705.0700073242188</v>
+        <v>740</v>
       </c>
       <c r="B82">
-        <v>709.5</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C82">
-        <v>676.4000244140625</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D82">
-        <v>686.1699829101562</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E82">
-        <v>686.1699829101562</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F82">
-        <v>22677400</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>672.6599731445312</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B83">
-        <v>674.5800170898438</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C83">
-        <v>648.8400268554688</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D83">
-        <v>665.7100219726562</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E83">
-        <v>665.7100219726562</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F83">
-        <v>23721300</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>669.75</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B84">
-        <v>695.77001953125</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C84">
-        <v>669.3499755859375</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D84">
-        <v>688.989990234375</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E84">
-        <v>688.989990234375</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F84">
-        <v>20349400</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>678.2100219726562</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B85">
-        <v>686.5499877929688</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C85">
-        <v>667.5900268554688</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D85">
-        <v>673.469970703125</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E85">
-        <v>673.469970703125</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F85">
-        <v>14313500</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>682.8499755859375</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B86">
-        <v>692.1300048828125</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C86">
-        <v>673.7000122070312</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D86">
-        <v>680.260009765625</v>
+        <v>743</v>
       </c>
       <c r="E86">
-        <v>680.260009765625</v>
+        <v>743</v>
       </c>
       <c r="F86">
-        <v>14781800</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>685.4400024414062</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B87">
-        <v>712.1300048828125</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C87">
-        <v>680.75</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D87">
-        <v>706.2999877929688</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E87">
-        <v>706.2999877929688</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F87">
-        <v>20264900</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>710.6799926757812</v>
+        <v>745</v>
       </c>
       <c r="B88">
-        <v>715.219970703125</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C88">
-        <v>702.6400146484375</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D88">
-        <v>708.489990234375</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E88">
-        <v>708.489990234375</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F88">
-        <v>13083100</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>707.030029296875</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B89">
-        <v>716.969970703125</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C89">
-        <v>704</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D89">
-        <v>711.2000122070312</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E89">
-        <v>711.2000122070312</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F89">
-        <v>12645600</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>708.3099975585938</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B90">
-        <v>715.4000244140625</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C90">
-        <v>697.6199951171875</v>
+        <v>750</v>
       </c>
       <c r="D90">
-        <v>701.1599731445312</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E90">
-        <v>701.1599731445312</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F90">
-        <v>13214300</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>705</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B91">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="C91">
-        <v>702.0999755859375</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D91">
-        <v>711.9199829101562</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E91">
-        <v>711.9199829101562</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F91">
-        <v>13762100</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>714.719970703125</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B92">
-        <v>731</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C92">
-        <v>712.72998046875</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D92">
-        <v>730.9099731445312</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E92">
-        <v>730.9099731445312</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F92">
-        <v>18604200</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>733</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B93">
-        <v>740.3900146484375</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C93">
-        <v>726.4400024414062</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D93">
-        <v>735.719970703125</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E93">
-        <v>735.719970703125</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F93">
-        <v>20855400</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>734.0800170898438</v>
+        <v>755</v>
       </c>
       <c r="B94">
-        <v>741.989990234375</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C94">
-        <v>731.27001953125</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D94">
-        <v>734.0900268554688</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E94">
-        <v>734.0900268554688</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F94">
-        <v>13204300</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>734.5</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B95">
-        <v>740.969970703125</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C95">
-        <v>730.5399780273438</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D95">
-        <v>732.3900146484375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E95">
-        <v>732.3900146484375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F95">
-        <v>12777300</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>732.25</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B96">
-        <v>734</v>
+        <v>799</v>
       </c>
       <c r="C96">
-        <v>724.2000122070312</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D96">
-        <v>733.5700073242188</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E96">
-        <v>733.5700073242188</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F96">
-        <v>15246100</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>740</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B97">
-        <v>760.2000122070312</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C97">
-        <v>739.260009765625</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D97">
-        <v>752.9199829101562</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E97">
-        <v>752.9199829101562</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F97">
-        <v>20039800</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>761.5800170898438</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B98">
-        <v>764.4500122070312</v>
+        <v>793.5</v>
       </c>
       <c r="C98">
-        <v>740.77001953125</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D98">
-        <v>753.8699951171875</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E98">
-        <v>753.8699951171875</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F98">
-        <v>18793000</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>753.4099731445312</v>
+        <v>781</v>
       </c>
       <c r="B99">
-        <v>762.0999755859375</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C99">
-        <v>751.6300048828125</v>
+        <v>775</v>
       </c>
       <c r="D99">
-        <v>754.8599853515625</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E99">
-        <v>754.8599853515625</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F99">
-        <v>14077700</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>759.5999755859375</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B100">
-        <v>762.6099853515625</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C100">
-        <v>734.52001953125</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D100">
-        <v>736.27001953125</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E100">
-        <v>736.27001953125</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F100">
-        <v>15114300</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>740.2100219726562</v>
+        <v>796.5</v>
       </c>
       <c r="B101">
-        <v>744.780029296875</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C101">
-        <v>708.8499755859375</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D101">
-        <v>743</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E101">
-        <v>743</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F101">
-        <v>22952500</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>742.5700073242188</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B102">
-        <v>754.469970703125</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C102">
-        <v>736.4000244140625</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D102">
-        <v>744.489990234375</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E102">
-        <v>744.489990234375</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F102">
-        <v>18524900</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>745</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B103">
-        <v>756.8599853515625</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C103">
-        <v>738.3599853515625</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D103">
-        <v>755.8300170898438</v>
+        <v>782.75</v>
       </c>
       <c r="E103">
-        <v>755.8300170898438</v>
+        <v>782.75</v>
       </c>
       <c r="F103">
-        <v>15357700</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>752.8300170898438</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B104">
-        <v>758.9099731445312</v>
+        <v>805</v>
       </c>
       <c r="C104">
-        <v>747.6099853515625</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D104">
-        <v>756.989990234375</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E104">
-        <v>756.989990234375</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F104">
-        <v>13923400</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>757.1500244140625</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B105">
-        <v>761.0399780273438</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C105">
-        <v>750</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D105">
-        <v>759.489990234375</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E105">
-        <v>759.489990234375</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F105">
-        <v>28204200</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>734.5599975585938</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B106">
-        <v>742</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C106">
-        <v>718.6199951171875</v>
+        <v>785.5</v>
       </c>
       <c r="D106">
-        <v>730.1699829101562</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E106">
-        <v>730.1699829101562</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F106">
-        <v>24757700</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>734.7899780273438</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B107">
-        <v>744.739990234375</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C107">
-        <v>730.4400024414062</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D107">
-        <v>739.3800048828125</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E107">
-        <v>739.3800048828125</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F107">
-        <v>16330700</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>743.530029296875</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B108">
-        <v>753.6699829101562</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C108">
-        <v>739.1199951171875</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D108">
-        <v>751.9400024414062</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E108">
-        <v>751.9400024414062</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F108">
-        <v>15126300</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>755</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B109">
-        <v>758.2000122070312</v>
+        <v>820.25</v>
       </c>
       <c r="C109">
-        <v>747.9199829101562</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D109">
-        <v>753.6400146484375</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E109">
-        <v>753.6400146484375</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F109">
-        <v>11947500</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>745.8900146484375</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B110">
-        <v>774.7999877929688</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C110">
-        <v>744.5599975585938</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D110">
-        <v>774.3900146484375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E110">
-        <v>774.3900146484375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F110">
-        <v>21373000</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>773.1199951171875</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B111">
-        <v>799</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C111">
-        <v>769.3099975585938</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D111">
-        <v>791.3599853515625</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E111">
-        <v>791.3599853515625</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F111">
-        <v>28070700</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>787.2000122070312</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B112">
-        <v>795.6400146484375</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C112">
-        <v>766.1799926757812</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D112">
-        <v>777.5599975585938</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E112">
-        <v>777.5599975585938</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F112">
-        <v>25381400</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>779.7999877929688</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B113">
-        <v>793.5</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C113">
-        <v>770.6799926757812</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D113">
-        <v>781.3099975585938</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E113">
-        <v>781.3099975585938</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F113">
-        <v>20942900</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>781</v>
+        <v>856</v>
       </c>
       <c r="B114">
-        <v>789.1300048828125</v>
+        <v>900</v>
       </c>
       <c r="C114">
-        <v>775</v>
+        <v>855.5</v>
       </c>
       <c r="D114">
-        <v>775.47998046875</v>
+        <v>894</v>
       </c>
       <c r="E114">
-        <v>775.47998046875</v>
+        <v>894</v>
       </c>
       <c r="F114">
-        <v>17956000</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>778.4000244140625</v>
+        <v>895.5</v>
       </c>
       <c r="B115">
-        <v>780.780029296875</v>
+        <v>910</v>
       </c>
       <c r="C115">
-        <v>763.5900268554688</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D115">
-        <v>775.219970703125</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E115">
-        <v>775.219970703125</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F115">
-        <v>17031400</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>796.5</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B116">
-        <v>806.969970703125</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C116">
-        <v>776.1199951171875</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D116">
-        <v>781.530029296875</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E116">
-        <v>781.530029296875</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F116">
-        <v>30483300</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>784.7999877929688</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B117">
-        <v>797.3099975585938</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C117">
-        <v>774.2000122070312</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D117">
-        <v>780.5900268554688</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E117">
-        <v>780.5900268554688</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F117">
-        <v>18432600</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>776.2000122070312</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B118">
-        <v>786.6599731445312</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C118">
-        <v>773.219970703125</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D118">
-        <v>782.75</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E118">
-        <v>782.75</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F118">
-        <v>14632800</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>785.4600219726562</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B119">
-        <v>805</v>
+        <v>1081</v>
       </c>
       <c r="C119">
-        <v>783.3800048828125</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D119">
-        <v>793.6099853515625</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E119">
-        <v>793.6099853515625</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F119">
-        <v>19195800</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>796.2100219726562</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B120">
-        <v>796.3800048828125</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C120">
-        <v>780.9099731445312</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D120">
-        <v>785.489990234375</v>
+        <v>1114</v>
       </c>
       <c r="E120">
-        <v>785.489990234375</v>
+        <v>1114</v>
       </c>
       <c r="F120">
-        <v>16711100</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>787.6500244140625</v>
+        <v>1145</v>
       </c>
       <c r="B121">
-        <v>801.239990234375</v>
+        <v>1209.75</v>
       </c>
       <c r="C121">
-        <v>785.5</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D121">
-        <v>791.9400024414062</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E121">
-        <v>791.9400024414062</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F121">
-        <v>14200300</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>800.9299926757812</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B122">
-        <v>812.3200073242188</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C122">
-        <v>796.5700073242188</v>
+        <v>1146</v>
       </c>
       <c r="D122">
-        <v>805.719970703125</v>
+        <v>1172</v>
       </c>
       <c r="E122">
-        <v>805.719970703125</v>
+        <v>1172</v>
       </c>
       <c r="F122">
-        <v>22020000</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>810.469970703125</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B123">
-        <v>815.4099731445312</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C123">
-        <v>805.780029296875</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D123">
-        <v>811.0800170898438</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E123">
-        <v>811.0800170898438</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F123">
-        <v>14120100</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>815.489990234375</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B124">
-        <v>820.25</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C124">
-        <v>813.3499755859375</v>
+        <v>1217</v>
       </c>
       <c r="D124">
-        <v>818.3200073242188</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E124">
-        <v>818.3200073242188</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F124">
-        <v>12247200</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>823.739990234375</v>
+        <v>1228</v>
       </c>
       <c r="B125">
-        <v>843.2100219726562</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C125">
-        <v>822.3499755859375</v>
+        <v>1208</v>
       </c>
       <c r="D125">
-        <v>843.030029296875</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E125">
-        <v>843.030029296875</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F125">
-        <v>18818000</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>851.7899780273438</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B126">
-        <v>875.260009765625</v>
+        <v>1197</v>
       </c>
       <c r="C126">
-        <v>851.469970703125</v>
+        <v>1133</v>
       </c>
       <c r="D126">
-        <v>870.1099853515625</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E126">
-        <v>870.1099853515625</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F126">
-        <v>24207200</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>877.530029296875</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B127">
-        <v>877.9500122070312</v>
+        <v>1174.5</v>
       </c>
       <c r="C127">
-        <v>862.510009765625</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D127">
-        <v>864.27001953125</v>
+        <v>1023.5</v>
       </c>
       <c r="E127">
-        <v>864.27001953125</v>
+        <v>1023.5</v>
       </c>
       <c r="F127">
-        <v>17381100</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>865.3499755859375</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B128">
-        <v>869.489990234375</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C128">
-        <v>857.3800048828125</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D128">
-        <v>865.7999877929688</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E128">
-        <v>865.7999877929688</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F128">
-        <v>14032100</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>856</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B129">
-        <v>900</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C129">
-        <v>855.5</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D129">
-        <v>894</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E129">
-        <v>894</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F129">
-        <v>31396500</v>
+        <v>22396600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>1047.5</v>
+      </c>
+      <c r="B130">
+        <v>1054.5</v>
+      </c>
+      <c r="C130">
+        <v>1019.200012207031</v>
+      </c>
+      <c r="D130">
+        <v>1033.420043945312</v>
+      </c>
+      <c r="E130">
+        <v>1033.420043945312</v>
+      </c>
+      <c r="F130">
+        <v>25182300</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -417,2582 +417,2582 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>601.5399780273438</v>
+        <v>575</v>
       </c>
       <c r="B2">
-        <v>606.4600219726562</v>
+        <v>588.8499755859375</v>
       </c>
       <c r="C2">
-        <v>559.6500244140625</v>
+        <v>571.0700073242188</v>
       </c>
       <c r="D2">
-        <v>571.6900024414062</v>
+        <v>586.780029296875</v>
       </c>
       <c r="E2">
-        <v>571.6900024414062</v>
+        <v>586.780029296875</v>
       </c>
       <c r="F2">
-        <v>44184900</v>
+        <v>30821100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>583.4099731445312</v>
+        <v>596.1099853515625</v>
       </c>
       <c r="B3">
-        <v>592.8699951171875</v>
+        <v>596.6799926757812</v>
       </c>
       <c r="C3">
-        <v>570.4600219726562</v>
+        <v>580</v>
       </c>
       <c r="D3">
-        <v>589.739990234375</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="E3">
-        <v>589.739990234375</v>
+        <v>580.8800048828125</v>
       </c>
       <c r="F3">
-        <v>33370900</v>
+        <v>26030600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>575.5499877929688</v>
+        <v>581.5999755859375</v>
       </c>
       <c r="B4">
-        <v>589.72998046875</v>
+        <v>614.47998046875</v>
       </c>
       <c r="C4">
-        <v>561.2000122070312</v>
+        <v>573.6500244140625</v>
       </c>
       <c r="D4">
-        <v>576.8300170898438</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="E4">
-        <v>576.8300170898438</v>
+        <v>606.4400024414062</v>
       </c>
       <c r="F4">
-        <v>32390400</v>
+        <v>34558100</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>568</v>
+        <v>607.3099975585938</v>
       </c>
       <c r="B5">
-        <v>596.25</v>
+        <v>613.989990234375</v>
       </c>
       <c r="C5">
-        <v>563.3800048828125</v>
+        <v>595.7100219726562</v>
       </c>
       <c r="D5">
-        <v>577.8699951171875</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="E5">
-        <v>577.8699951171875</v>
+        <v>604.6900024414062</v>
       </c>
       <c r="F5">
-        <v>36830600</v>
+        <v>28005900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>552.5499877929688</v>
+        <v>607.5599975585938</v>
       </c>
       <c r="B6">
-        <v>566.2100219726562</v>
+        <v>626.1699829101562</v>
       </c>
       <c r="C6">
-        <v>546.97998046875</v>
+        <v>601.5</v>
       </c>
       <c r="D6">
-        <v>563.4600219726562</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="E6">
-        <v>563.4600219726562</v>
+        <v>619.1300048828125</v>
       </c>
       <c r="F6">
-        <v>39578400</v>
+        <v>28639300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>575</v>
+        <v>620.239990234375</v>
       </c>
       <c r="B7">
-        <v>588.8499755859375</v>
+        <v>631.1300048828125</v>
       </c>
       <c r="C7">
-        <v>571.0700073242188</v>
+        <v>616.2100219726562</v>
       </c>
       <c r="D7">
-        <v>586.780029296875</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="E7">
-        <v>586.780029296875</v>
+        <v>630.8499755859375</v>
       </c>
       <c r="F7">
-        <v>30821100</v>
+        <v>26370600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>596.1099853515625</v>
+        <v>628.5</v>
       </c>
       <c r="B8">
-        <v>596.6799926757812</v>
+        <v>635.5900268554688</v>
       </c>
       <c r="C8">
-        <v>580</v>
+        <v>622.3800048828125</v>
       </c>
       <c r="D8">
-        <v>580.8800048828125</v>
+        <v>625.219970703125</v>
       </c>
       <c r="E8">
-        <v>580.8800048828125</v>
+        <v>625.219970703125</v>
       </c>
       <c r="F8">
-        <v>26030600</v>
+        <v>22737000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>581.5999755859375</v>
+        <v>627.7999877929688</v>
       </c>
       <c r="B9">
-        <v>614.47998046875</v>
+        <v>633.7999877929688</v>
       </c>
       <c r="C9">
-        <v>573.6500244140625</v>
+        <v>620.5499877929688</v>
       </c>
       <c r="D9">
-        <v>606.4400024414062</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="E9">
-        <v>606.4400024414062</v>
+        <v>623.9000244140625</v>
       </c>
       <c r="F9">
-        <v>34558100</v>
+        <v>18084900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>607.3099975585938</v>
+        <v>620.1300048828125</v>
       </c>
       <c r="B10">
-        <v>613.989990234375</v>
+        <v>623.3599853515625</v>
       </c>
       <c r="C10">
-        <v>595.7100219726562</v>
+        <v>599.1400146484375</v>
       </c>
       <c r="D10">
-        <v>604.6900024414062</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="E10">
-        <v>604.6900024414062</v>
+        <v>605.1199951171875</v>
       </c>
       <c r="F10">
-        <v>28005900</v>
+        <v>23302800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>607.5599975585938</v>
+        <v>601.7999877929688</v>
       </c>
       <c r="B11">
-        <v>626.1699829101562</v>
+        <v>604.5499877929688</v>
       </c>
       <c r="C11">
-        <v>601.5</v>
+        <v>571.219970703125</v>
       </c>
       <c r="D11">
-        <v>619.1300048828125</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="E11">
-        <v>619.1300048828125</v>
+        <v>572.8400268554688</v>
       </c>
       <c r="F11">
-        <v>28639300</v>
+        <v>30111900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>620.239990234375</v>
+        <v>579.7100219726562</v>
       </c>
       <c r="B12">
-        <v>631.1300048828125</v>
+        <v>600.6099853515625</v>
       </c>
       <c r="C12">
-        <v>616.2100219726562</v>
+        <v>577.2000122070312</v>
       </c>
       <c r="D12">
-        <v>630.8499755859375</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="E12">
-        <v>630.8499755859375</v>
+        <v>599.0499877929688</v>
       </c>
       <c r="F12">
-        <v>26370600</v>
+        <v>24036900</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>628.5</v>
+        <v>591.8300170898438</v>
       </c>
       <c r="B13">
-        <v>635.5900268554688</v>
+        <v>610</v>
       </c>
       <c r="C13">
-        <v>622.3800048828125</v>
+        <v>582.8800048828125</v>
       </c>
       <c r="D13">
-        <v>625.219970703125</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="E13">
-        <v>625.219970703125</v>
+        <v>605.1300048828125</v>
       </c>
       <c r="F13">
-        <v>22737000</v>
+        <v>22543700</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>627.7999877929688</v>
+        <v>623.010009765625</v>
       </c>
       <c r="B14">
-        <v>633.7999877929688</v>
+        <v>623.0900268554688</v>
       </c>
       <c r="C14">
-        <v>620.5499877929688</v>
+        <v>595.5</v>
       </c>
       <c r="D14">
-        <v>623.9000244140625</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="E14">
-        <v>623.9000244140625</v>
+        <v>603.5900268554688</v>
       </c>
       <c r="F14">
-        <v>18084900</v>
+        <v>26053400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>620.1300048828125</v>
+        <v>602.1699829101562</v>
       </c>
       <c r="B15">
-        <v>623.3599853515625</v>
+        <v>611.7899780273438</v>
       </c>
       <c r="C15">
-        <v>599.1400146484375</v>
+        <v>597.6300048828125</v>
       </c>
       <c r="D15">
-        <v>605.1199951171875</v>
+        <v>598.780029296875</v>
       </c>
       <c r="E15">
-        <v>605.1199951171875</v>
+        <v>598.780029296875</v>
       </c>
       <c r="F15">
-        <v>23302800</v>
+        <v>16584600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>601.7999877929688</v>
+        <v>603.8800048828125</v>
       </c>
       <c r="B16">
-        <v>604.5499877929688</v>
+        <v>616.5900268554688</v>
       </c>
       <c r="C16">
-        <v>571.219970703125</v>
+        <v>600.5</v>
       </c>
       <c r="D16">
-        <v>572.8400268554688</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="E16">
-        <v>572.8400268554688</v>
+        <v>610.1199951171875</v>
       </c>
       <c r="F16">
-        <v>30111900</v>
+        <v>23919600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>579.7100219726562</v>
+        <v>610.22998046875</v>
       </c>
       <c r="B17">
-        <v>600.6099853515625</v>
+        <v>612.5599975585938</v>
       </c>
       <c r="C17">
-        <v>577.2000122070312</v>
+        <v>601.52001953125</v>
       </c>
       <c r="D17">
-        <v>599.0499877929688</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="E17">
-        <v>599.0499877929688</v>
+        <v>609.8900146484375</v>
       </c>
       <c r="F17">
-        <v>24036900</v>
+        <v>16205300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>591.8300170898438</v>
+        <v>612.22998046875</v>
       </c>
       <c r="B18">
-        <v>610</v>
+        <v>625.489990234375</v>
       </c>
       <c r="C18">
-        <v>582.8800048828125</v>
+        <v>609.1799926757812</v>
       </c>
       <c r="D18">
-        <v>605.1300048828125</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="E18">
-        <v>605.1300048828125</v>
+        <v>617.6900024414062</v>
       </c>
       <c r="F18">
-        <v>22543700</v>
+        <v>20424000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>623.010009765625</v>
+        <v>616.6900024414062</v>
       </c>
       <c r="B19">
-        <v>623.0900268554688</v>
+        <v>616.7899780273438</v>
       </c>
       <c r="C19">
-        <v>595.5</v>
+        <v>598.22998046875</v>
       </c>
       <c r="D19">
-        <v>603.5900268554688</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="E19">
-        <v>603.5900268554688</v>
+        <v>599.3599853515625</v>
       </c>
       <c r="F19">
-        <v>26053400</v>
+        <v>17764100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>602.1699829101562</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="B20">
-        <v>611.7899780273438</v>
+        <v>608.5</v>
       </c>
       <c r="C20">
-        <v>597.6300048828125</v>
+        <v>593.5</v>
       </c>
       <c r="D20">
-        <v>598.780029296875</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="E20">
-        <v>598.780029296875</v>
+        <v>604.8699951171875</v>
       </c>
       <c r="F20">
-        <v>16584600</v>
+        <v>22144100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>603.8800048828125</v>
+        <v>601.8900146484375</v>
       </c>
       <c r="B21">
-        <v>616.5900268554688</v>
+        <v>621.469970703125</v>
       </c>
       <c r="C21">
-        <v>600.5</v>
+        <v>601.3400268554688</v>
       </c>
       <c r="D21">
-        <v>610.1199951171875</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="E21">
-        <v>610.1199951171875</v>
+        <v>616.5999755859375</v>
       </c>
       <c r="F21">
-        <v>23919600</v>
+        <v>22701400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>610.22998046875</v>
+        <v>613.3699951171875</v>
       </c>
       <c r="B22">
-        <v>612.5599975585938</v>
+        <v>628.3499755859375</v>
       </c>
       <c r="C22">
-        <v>601.52001953125</v>
+        <v>611.7999877929688</v>
       </c>
       <c r="D22">
-        <v>609.8900146484375</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="E22">
-        <v>609.8900146484375</v>
+        <v>623.3099975585938</v>
       </c>
       <c r="F22">
-        <v>16205300</v>
+        <v>24560900</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>612.22998046875</v>
+        <v>624.47998046875</v>
       </c>
       <c r="B23">
-        <v>625.489990234375</v>
+        <v>631.3900146484375</v>
       </c>
       <c r="C23">
-        <v>609.1799926757812</v>
+        <v>608.8800048828125</v>
       </c>
       <c r="D23">
-        <v>617.6900024414062</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="E23">
-        <v>617.6900024414062</v>
+        <v>620.8300170898438</v>
       </c>
       <c r="F23">
-        <v>20424000</v>
+        <v>24812700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>616.6900024414062</v>
+        <v>618.25</v>
       </c>
       <c r="B24">
-        <v>616.7899780273438</v>
+        <v>628.5700073242188</v>
       </c>
       <c r="C24">
-        <v>598.22998046875</v>
+        <v>615.5</v>
       </c>
       <c r="D24">
-        <v>599.3599853515625</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="E24">
-        <v>599.3599853515625</v>
+        <v>623.7100219726562</v>
       </c>
       <c r="F24">
-        <v>17764100</v>
+        <v>19158900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>597.5399780273438</v>
+        <v>632</v>
       </c>
       <c r="B25">
-        <v>608.5</v>
+        <v>657.2000122070312</v>
       </c>
       <c r="C25">
-        <v>593.5</v>
+        <v>630.0399780273438</v>
       </c>
       <c r="D25">
-        <v>604.8699951171875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="E25">
-        <v>604.8699951171875</v>
+        <v>656.5700073242188</v>
       </c>
       <c r="F25">
-        <v>22144100</v>
+        <v>31099200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>601.8900146484375</v>
+        <v>674.989990234375</v>
       </c>
       <c r="B26">
-        <v>621.469970703125</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="C26">
-        <v>601.3400268554688</v>
+        <v>667.6099853515625</v>
       </c>
       <c r="D26">
-        <v>616.5999755859375</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="E26">
-        <v>616.5999755859375</v>
+        <v>679.8200073242188</v>
       </c>
       <c r="F26">
-        <v>22701400</v>
+        <v>45982400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>613.3699951171875</v>
+        <v>689.5800170898438</v>
       </c>
       <c r="B27">
-        <v>628.3499755859375</v>
+        <v>693.8099975585938</v>
       </c>
       <c r="C27">
-        <v>611.7999877929688</v>
+        <v>668.7000122070312</v>
       </c>
       <c r="D27">
-        <v>623.3099975585938</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="E27">
-        <v>623.3099975585938</v>
+        <v>671.8699951171875</v>
       </c>
       <c r="F27">
-        <v>24560900</v>
+        <v>32496700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>624.47998046875</v>
+        <v>671.6400146484375</v>
       </c>
       <c r="B28">
-        <v>631.3900146484375</v>
+        <v>694.7000122070312</v>
       </c>
       <c r="C28">
-        <v>608.8800048828125</v>
+        <v>670.3200073242188</v>
       </c>
       <c r="D28">
-        <v>620.8300170898438</v>
+        <v>688.719970703125</v>
       </c>
       <c r="E28">
-        <v>620.8300170898438</v>
+        <v>688.719970703125</v>
       </c>
       <c r="F28">
-        <v>24812700</v>
+        <v>21628200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>618.25</v>
+        <v>684.6500244140625</v>
       </c>
       <c r="B29">
-        <v>628.5700073242188</v>
+        <v>687.510009765625</v>
       </c>
       <c r="C29">
-        <v>615.5</v>
+        <v>675.8900146484375</v>
       </c>
       <c r="D29">
-        <v>623.7100219726562</v>
+        <v>680.760009765625</v>
       </c>
       <c r="E29">
-        <v>623.7100219726562</v>
+        <v>680.760009765625</v>
       </c>
       <c r="F29">
-        <v>19158900</v>
+        <v>17381300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>632</v>
+        <v>679.77001953125</v>
       </c>
       <c r="B30">
-        <v>657.2000122070312</v>
+        <v>692.8099975585938</v>
       </c>
       <c r="C30">
-        <v>630.0399780273438</v>
+        <v>678.1400146484375</v>
       </c>
       <c r="D30">
-        <v>656.5700073242188</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="E30">
-        <v>656.5700073242188</v>
+        <v>679.7000122070312</v>
       </c>
       <c r="F30">
-        <v>31099200</v>
+        <v>18924900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>674.989990234375</v>
+        <v>683.9199829101562</v>
       </c>
       <c r="B31">
-        <v>697.6199951171875</v>
+        <v>687.989990234375</v>
       </c>
       <c r="C31">
-        <v>667.6099853515625</v>
+        <v>672.7999877929688</v>
       </c>
       <c r="D31">
-        <v>679.8200073242188</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="E31">
-        <v>679.8200073242188</v>
+        <v>677.9199829101562</v>
       </c>
       <c r="F31">
-        <v>45982400</v>
+        <v>18634500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>689.5800170898438</v>
+        <v>678.97998046875</v>
       </c>
       <c r="B32">
-        <v>693.8099975585938</v>
+        <v>700</v>
       </c>
       <c r="C32">
-        <v>668.7000122070312</v>
+        <v>673.260009765625</v>
       </c>
       <c r="D32">
-        <v>671.8699951171875</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="E32">
-        <v>671.8699951171875</v>
+        <v>678.9000244140625</v>
       </c>
       <c r="F32">
-        <v>32496700</v>
+        <v>27054500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>671.6400146484375</v>
+        <v>681.7100219726562</v>
       </c>
       <c r="B33">
-        <v>694.7000122070312</v>
+        <v>684</v>
       </c>
       <c r="C33">
-        <v>670.3200073242188</v>
+        <v>651.4000244140625</v>
       </c>
       <c r="D33">
-        <v>688.719970703125</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="E33">
-        <v>688.719970703125</v>
+        <v>659.5800170898438</v>
       </c>
       <c r="F33">
-        <v>21628200</v>
+        <v>23284500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>684.6500244140625</v>
+        <v>664.27001953125</v>
       </c>
       <c r="B34">
-        <v>687.510009765625</v>
+        <v>665.7000122070312</v>
       </c>
       <c r="C34">
-        <v>675.8900146484375</v>
+        <v>638.3200073242188</v>
       </c>
       <c r="D34">
-        <v>680.760009765625</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="E34">
-        <v>680.760009765625</v>
+        <v>644.6500244140625</v>
       </c>
       <c r="F34">
-        <v>17381300</v>
+        <v>18792000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>679.77001953125</v>
+        <v>628.3699951171875</v>
       </c>
       <c r="B35">
-        <v>692.8099975585938</v>
+        <v>654.4299926757812</v>
       </c>
       <c r="C35">
-        <v>678.1400146484375</v>
+        <v>620.4600219726562</v>
       </c>
       <c r="D35">
-        <v>679.7000122070312</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="E35">
-        <v>679.7000122070312</v>
+        <v>652.8099975585938</v>
       </c>
       <c r="F35">
-        <v>18924900</v>
+        <v>22773300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>683.9199829101562</v>
+        <v>653.1799926757812</v>
       </c>
       <c r="B36">
-        <v>687.989990234375</v>
+        <v>658.9099731445312</v>
       </c>
       <c r="C36">
-        <v>672.7999877929688</v>
+        <v>644.6900024414062</v>
       </c>
       <c r="D36">
-        <v>677.9199829101562</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="E36">
-        <v>677.9199829101562</v>
+        <v>656.9500122070312</v>
       </c>
       <c r="F36">
-        <v>18634500</v>
+        <v>18140500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>678.97998046875</v>
+        <v>662.2000122070312</v>
       </c>
       <c r="B37">
-        <v>700</v>
+        <v>687.239990234375</v>
       </c>
       <c r="C37">
-        <v>673.260009765625</v>
+        <v>662.1599731445312</v>
       </c>
       <c r="D37">
-        <v>678.9000244140625</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="E37">
-        <v>678.9000244140625</v>
+        <v>685.7000122070312</v>
       </c>
       <c r="F37">
-        <v>27054500</v>
+        <v>25927000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>681.7100219726562</v>
+        <v>686.3200073242188</v>
       </c>
       <c r="B38">
-        <v>684</v>
+        <v>693.280029296875</v>
       </c>
       <c r="C38">
-        <v>651.4000244140625</v>
+        <v>666.2999877929688</v>
       </c>
       <c r="D38">
-        <v>659.5800170898438</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="E38">
-        <v>659.5800170898438</v>
+        <v>668.5399780273438</v>
       </c>
       <c r="F38">
-        <v>23284500</v>
+        <v>20966100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>664.27001953125</v>
+        <v>670.75</v>
       </c>
       <c r="B39">
-        <v>665.7000122070312</v>
+        <v>678.6099853515625</v>
       </c>
       <c r="C39">
-        <v>638.3200073242188</v>
+        <v>652.8400268554688</v>
       </c>
       <c r="D39">
-        <v>644.6500244140625</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="E39">
-        <v>644.6500244140625</v>
+        <v>653.3800048828125</v>
       </c>
       <c r="F39">
-        <v>18792000</v>
+        <v>21641200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>628.3699951171875</v>
+        <v>658.3900146484375</v>
       </c>
       <c r="B40">
-        <v>654.4299926757812</v>
+        <v>666.1400146484375</v>
       </c>
       <c r="C40">
-        <v>620.4600219726562</v>
+        <v>637.8800048828125</v>
       </c>
       <c r="D40">
-        <v>652.8099975585938</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="E40">
-        <v>652.8099975585938</v>
+        <v>650.5999755859375</v>
       </c>
       <c r="F40">
-        <v>22773300</v>
+        <v>20209600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>653.1799926757812</v>
+        <v>654.6799926757812</v>
       </c>
       <c r="B41">
-        <v>658.9099731445312</v>
+        <v>656.7000122070312</v>
       </c>
       <c r="C41">
-        <v>644.6900024414062</v>
+        <v>642.2000122070312</v>
       </c>
       <c r="D41">
-        <v>656.9500122070312</v>
+        <v>644.219970703125</v>
       </c>
       <c r="E41">
-        <v>656.9500122070312</v>
+        <v>644.219970703125</v>
       </c>
       <c r="F41">
-        <v>18140500</v>
+        <v>16371000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>662.2000122070312</v>
+        <v>629.8900146484375</v>
       </c>
       <c r="B42">
-        <v>687.239990234375</v>
+        <v>647.2000122070312</v>
       </c>
       <c r="C42">
-        <v>662.1599731445312</v>
+        <v>621.2899780273438</v>
       </c>
       <c r="D42">
-        <v>685.7000122070312</v>
+        <v>646.219970703125</v>
       </c>
       <c r="E42">
-        <v>685.7000122070312</v>
+        <v>646.219970703125</v>
       </c>
       <c r="F42">
-        <v>25927000</v>
+        <v>21297100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>686.3200073242188</v>
+        <v>651.989990234375</v>
       </c>
       <c r="B43">
-        <v>693.280029296875</v>
+        <v>662.3900146484375</v>
       </c>
       <c r="C43">
-        <v>666.2999877929688</v>
+        <v>640.5</v>
       </c>
       <c r="D43">
-        <v>668.5399780273438</v>
+        <v>660.5</v>
       </c>
       <c r="E43">
-        <v>668.5399780273438</v>
+        <v>660.5</v>
       </c>
       <c r="F43">
-        <v>20966100</v>
+        <v>15487100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>670.75</v>
+        <v>659.6099853515625</v>
       </c>
       <c r="B44">
-        <v>678.6099853515625</v>
+        <v>664.8599853515625</v>
       </c>
       <c r="C44">
-        <v>652.8400268554688</v>
+        <v>650.2899780273438</v>
       </c>
       <c r="D44">
-        <v>653.3800048828125</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="E44">
-        <v>653.3800048828125</v>
+        <v>655.2899780273438</v>
       </c>
       <c r="F44">
-        <v>21641200</v>
+        <v>13953300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>658.3900146484375</v>
+        <v>656.4400024414062</v>
       </c>
       <c r="B45">
-        <v>666.1400146484375</v>
+        <v>662.1699829101562</v>
       </c>
       <c r="C45">
-        <v>637.8800048828125</v>
+        <v>644.5999755859375</v>
       </c>
       <c r="D45">
-        <v>650.5999755859375</v>
+        <v>649.260009765625</v>
       </c>
       <c r="E45">
-        <v>650.5999755859375</v>
+        <v>649.260009765625</v>
       </c>
       <c r="F45">
-        <v>20209600</v>
+        <v>15105700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>654.6799926757812</v>
+        <v>646.3599853515625</v>
       </c>
       <c r="B46">
-        <v>656.7000122070312</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="C46">
-        <v>642.2000122070312</v>
+        <v>637.2999877929688</v>
       </c>
       <c r="D46">
-        <v>644.219970703125</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="E46">
-        <v>644.219970703125</v>
+        <v>643.3800048828125</v>
       </c>
       <c r="F46">
-        <v>16371000</v>
+        <v>14604900</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>629.8900146484375</v>
+        <v>650.969970703125</v>
       </c>
       <c r="B47">
-        <v>647.2000122070312</v>
+        <v>668.2000122070312</v>
       </c>
       <c r="C47">
-        <v>621.2899780273438</v>
+        <v>647.1099853515625</v>
       </c>
       <c r="D47">
-        <v>646.219970703125</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="E47">
-        <v>646.219970703125</v>
+        <v>657.6199951171875</v>
       </c>
       <c r="F47">
-        <v>21297100</v>
+        <v>25336600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>651.989990234375</v>
+        <v>663.4000244140625</v>
       </c>
       <c r="B48">
-        <v>662.3900146484375</v>
+        <v>666.5</v>
       </c>
       <c r="C48">
-        <v>640.5</v>
+        <v>627.239990234375</v>
       </c>
       <c r="D48">
-        <v>660.5</v>
+        <v>644.780029296875</v>
       </c>
       <c r="E48">
-        <v>660.5</v>
+        <v>644.780029296875</v>
       </c>
       <c r="F48">
-        <v>15487100</v>
+        <v>32813300</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>659.6099853515625</v>
+        <v>647</v>
       </c>
       <c r="B49">
-        <v>664.8599853515625</v>
+        <v>654.969970703125</v>
       </c>
       <c r="C49">
-        <v>650.2899780273438</v>
+        <v>639.4000244140625</v>
       </c>
       <c r="D49">
-        <v>655.2899780273438</v>
+        <v>646.97998046875</v>
       </c>
       <c r="E49">
-        <v>655.2899780273438</v>
+        <v>646.97998046875</v>
       </c>
       <c r="F49">
-        <v>13953300</v>
+        <v>16006600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>656.4400024414062</v>
+        <v>649.7899780273438</v>
       </c>
       <c r="B50">
-        <v>662.1699829101562</v>
+        <v>683.6900024414062</v>
       </c>
       <c r="C50">
-        <v>644.5999755859375</v>
+        <v>648.7999877929688</v>
       </c>
       <c r="D50">
-        <v>649.260009765625</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="E50">
-        <v>649.260009765625</v>
+        <v>677.3499755859375</v>
       </c>
       <c r="F50">
-        <v>15105700</v>
+        <v>30394600</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>646.3599853515625</v>
+        <v>671.760009765625</v>
       </c>
       <c r="B51">
-        <v>648.7999877929688</v>
+        <v>697.530029296875</v>
       </c>
       <c r="C51">
-        <v>637.2999877929688</v>
+        <v>669</v>
       </c>
       <c r="D51">
-        <v>643.3800048828125</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="E51">
-        <v>643.3800048828125</v>
+        <v>687.2000122070312</v>
       </c>
       <c r="F51">
-        <v>14604900</v>
+        <v>29600500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>650.969970703125</v>
+        <v>700</v>
       </c>
       <c r="B52">
-        <v>668.2000122070312</v>
+        <v>726.9400024414062</v>
       </c>
       <c r="C52">
-        <v>647.1099853515625</v>
+        <v>698.4000244140625</v>
       </c>
       <c r="D52">
-        <v>657.6199951171875</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="E52">
-        <v>657.6199951171875</v>
+        <v>709.6699829101562</v>
       </c>
       <c r="F52">
-        <v>25336600</v>
+        <v>33615800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>663.4000244140625</v>
+        <v>719</v>
       </c>
       <c r="B53">
-        <v>666.5</v>
+        <v>722.6500244140625</v>
       </c>
       <c r="C53">
-        <v>627.239990234375</v>
+        <v>701.010009765625</v>
       </c>
       <c r="D53">
-        <v>644.780029296875</v>
+        <v>709.739990234375</v>
       </c>
       <c r="E53">
-        <v>644.780029296875</v>
+        <v>709.739990234375</v>
       </c>
       <c r="F53">
-        <v>32813300</v>
+        <v>21620300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="B54">
-        <v>654.969970703125</v>
+        <v>724.9000244140625</v>
       </c>
       <c r="C54">
-        <v>639.4000244140625</v>
+        <v>708.9299926757812</v>
       </c>
       <c r="D54">
-        <v>646.97998046875</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="E54">
-        <v>646.97998046875</v>
+        <v>710.9199829101562</v>
       </c>
       <c r="F54">
-        <v>16006600</v>
+        <v>17002600</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>649.7899780273438</v>
+        <v>716</v>
       </c>
       <c r="B55">
-        <v>683.6900024414062</v>
+        <v>720.9500122070312</v>
       </c>
       <c r="C55">
-        <v>648.7999877929688</v>
+        <v>711.4099731445312</v>
       </c>
       <c r="D55">
-        <v>677.3499755859375</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="E55">
-        <v>677.3499755859375</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="F55">
-        <v>30394600</v>
+        <v>12919600</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>671.760009765625</v>
+        <v>711.9000244140625</v>
       </c>
       <c r="B56">
-        <v>697.530029296875</v>
+        <v>716.3300170898438</v>
       </c>
       <c r="C56">
-        <v>669</v>
+        <v>697.6300048828125</v>
       </c>
       <c r="D56">
-        <v>687.2000122070312</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="E56">
-        <v>687.2000122070312</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="F56">
-        <v>29600500</v>
+        <v>15576200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>700</v>
+        <v>710.1699829101562</v>
       </c>
       <c r="B57">
-        <v>726.9400024414062</v>
+        <v>719.030029296875</v>
       </c>
       <c r="C57">
-        <v>698.4000244140625</v>
+        <v>705.1300048828125</v>
       </c>
       <c r="D57">
-        <v>709.6699829101562</v>
+        <v>713.760009765625</v>
       </c>
       <c r="E57">
-        <v>709.6699829101562</v>
+        <v>713.760009765625</v>
       </c>
       <c r="F57">
-        <v>33615800</v>
+        <v>14715300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>719</v>
+        <v>713.989990234375</v>
       </c>
       <c r="B58">
-        <v>722.6500244140625</v>
+        <v>716.5900268554688</v>
       </c>
       <c r="C58">
-        <v>701.010009765625</v>
+        <v>701.8800048828125</v>
       </c>
       <c r="D58">
-        <v>709.739990234375</v>
+        <v>709.989990234375</v>
       </c>
       <c r="E58">
-        <v>709.739990234375</v>
+        <v>709.989990234375</v>
       </c>
       <c r="F58">
-        <v>21620300</v>
+        <v>13432300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>711</v>
+        <v>712.7100219726562</v>
       </c>
       <c r="B59">
-        <v>724.9000244140625</v>
+        <v>715.1799926757812</v>
       </c>
       <c r="C59">
-        <v>708.9299926757812</v>
+        <v>704.2100219726562</v>
       </c>
       <c r="D59">
-        <v>710.9199829101562</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="E59">
-        <v>710.9199829101562</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="F59">
-        <v>17002600</v>
+        <v>9800600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>716</v>
+        <v>706.3400268554688</v>
       </c>
       <c r="B60">
-        <v>720.9500122070312</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="C60">
-        <v>711.4099731445312</v>
+        <v>699.4000244140625</v>
       </c>
       <c r="D60">
-        <v>714.6300048828125</v>
+        <v>722.25</v>
       </c>
       <c r="E60">
-        <v>714.6300048828125</v>
+        <v>722.25</v>
       </c>
       <c r="F60">
-        <v>12919600</v>
+        <v>17459100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>711.9000244140625</v>
+        <v>723.7100219726562</v>
       </c>
       <c r="B61">
-        <v>716.3300170898438</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="C61">
-        <v>697.6300048828125</v>
+        <v>714.3400268554688</v>
       </c>
       <c r="D61">
-        <v>699.0999755859375</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="E61">
-        <v>699.0999755859375</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="F61">
-        <v>15576200</v>
+        <v>16698900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>710.1699829101562</v>
+        <v>705.0700073242188</v>
       </c>
       <c r="B62">
-        <v>719.030029296875</v>
+        <v>709.5</v>
       </c>
       <c r="C62">
-        <v>705.1300048828125</v>
+        <v>676.4000244140625</v>
       </c>
       <c r="D62">
-        <v>713.760009765625</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="E62">
-        <v>713.760009765625</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="F62">
-        <v>14715300</v>
+        <v>22677400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>713.989990234375</v>
+        <v>672.6599731445312</v>
       </c>
       <c r="B63">
-        <v>716.5900268554688</v>
+        <v>674.5800170898438</v>
       </c>
       <c r="C63">
-        <v>701.8800048828125</v>
+        <v>648.8400268554688</v>
       </c>
       <c r="D63">
-        <v>709.989990234375</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="E63">
-        <v>709.989990234375</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="F63">
-        <v>13432300</v>
+        <v>23721300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>712.7100219726562</v>
+        <v>669.75</v>
       </c>
       <c r="B64">
-        <v>715.1799926757812</v>
+        <v>695.77001953125</v>
       </c>
       <c r="C64">
-        <v>704.2100219726562</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D64">
-        <v>707.8200073242188</v>
+        <v>688.989990234375</v>
       </c>
       <c r="E64">
-        <v>707.8200073242188</v>
+        <v>688.989990234375</v>
       </c>
       <c r="F64">
-        <v>9800600</v>
+        <v>20349400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>706.3400268554688</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B65">
-        <v>722.7999877929688</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C65">
-        <v>699.4000244140625</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D65">
-        <v>722.25</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E65">
-        <v>722.25</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F65">
-        <v>17459100</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>723.7100219726562</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B66">
-        <v>729.9000244140625</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C66">
-        <v>714.3400268554688</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D66">
-        <v>717.1699829101562</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E66">
-        <v>717.1699829101562</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F66">
-        <v>16698900</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>705.0700073242188</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B67">
-        <v>709.5</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C67">
-        <v>676.4000244140625</v>
+        <v>680.75</v>
       </c>
       <c r="D67">
-        <v>686.1699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E67">
-        <v>686.1699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F67">
-        <v>22677400</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>672.6599731445312</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B68">
-        <v>674.5800170898438</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C68">
-        <v>648.8400268554688</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D68">
-        <v>665.7100219726562</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E68">
-        <v>665.7100219726562</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F68">
-        <v>23721300</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>669.75</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B69">
-        <v>695.77001953125</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C69">
-        <v>669.3499755859375</v>
+        <v>704</v>
       </c>
       <c r="D69">
-        <v>688.989990234375</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E69">
-        <v>688.989990234375</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F69">
-        <v>20349400</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>678.2100219726562</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B70">
-        <v>686.5499877929688</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C70">
-        <v>667.5900268554688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D70">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E70">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F70">
-        <v>14313500</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>682.8499755859375</v>
+        <v>705</v>
       </c>
       <c r="B71">
-        <v>692.1300048828125</v>
+        <v>715</v>
       </c>
       <c r="C71">
-        <v>673.7000122070312</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D71">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E71">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F71">
-        <v>14781800</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>685.4400024414062</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B72">
-        <v>712.1300048828125</v>
+        <v>731</v>
       </c>
       <c r="C72">
-        <v>680.75</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D72">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E72">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F72">
-        <v>20264900</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>710.6799926757812</v>
+        <v>733</v>
       </c>
       <c r="B73">
-        <v>715.219970703125</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C73">
-        <v>702.6400146484375</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D73">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E73">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F73">
-        <v>13083100</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>707.030029296875</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B74">
-        <v>716.969970703125</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C74">
-        <v>704</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D74">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E74">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F74">
-        <v>12645600</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>708.3099975585938</v>
+        <v>734.5</v>
       </c>
       <c r="B75">
-        <v>715.4000244140625</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C75">
-        <v>697.6199951171875</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D75">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E75">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F75">
-        <v>13214300</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>705</v>
+        <v>732.25</v>
       </c>
       <c r="B76">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="C76">
-        <v>702.0999755859375</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D76">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E76">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F76">
-        <v>13762100</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>714.719970703125</v>
+        <v>740</v>
       </c>
       <c r="B77">
-        <v>731</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C77">
-        <v>712.72998046875</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D77">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E77">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F77">
-        <v>18604200</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>733</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B78">
-        <v>740.3900146484375</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C78">
-        <v>726.4400024414062</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D78">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E78">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F78">
-        <v>20855400</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>734.0800170898438</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B79">
-        <v>741.989990234375</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C79">
-        <v>731.27001953125</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D79">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E79">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F79">
-        <v>13204300</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>734.5</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B80">
-        <v>740.969970703125</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C80">
-        <v>730.5399780273438</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D80">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E80">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F80">
-        <v>12777300</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>732.25</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B81">
-        <v>734</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C81">
-        <v>724.2000122070312</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D81">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="E81">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="F81">
-        <v>15246100</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>740</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B82">
-        <v>760.2000122070312</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C82">
-        <v>739.260009765625</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D82">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E82">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F82">
-        <v>20039800</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>761.5800170898438</v>
+        <v>745</v>
       </c>
       <c r="B83">
-        <v>764.4500122070312</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C83">
-        <v>740.77001953125</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D83">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E83">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F83">
-        <v>18793000</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>753.4099731445312</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B84">
-        <v>762.0999755859375</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C84">
-        <v>751.6300048828125</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D84">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E84">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F84">
-        <v>14077700</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>759.5999755859375</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B85">
-        <v>762.6099853515625</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C85">
-        <v>734.52001953125</v>
+        <v>750</v>
       </c>
       <c r="D85">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E85">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F85">
-        <v>15114300</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>740.2100219726562</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B86">
-        <v>744.780029296875</v>
+        <v>742</v>
       </c>
       <c r="C86">
-        <v>708.8499755859375</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D86">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E86">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F86">
-        <v>22952500</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>742.5700073242188</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B87">
-        <v>754.469970703125</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C87">
-        <v>736.4000244140625</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D87">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E87">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F87">
-        <v>18524900</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>745</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B88">
-        <v>756.8599853515625</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C88">
-        <v>738.3599853515625</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D88">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E88">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F88">
-        <v>15357700</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>752.8300170898438</v>
+        <v>755</v>
       </c>
       <c r="B89">
-        <v>758.9099731445312</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C89">
-        <v>747.6099853515625</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D89">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E89">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F89">
-        <v>13923400</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>757.1500244140625</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B90">
-        <v>761.0399780273438</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C90">
-        <v>750</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D90">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E90">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F90">
-        <v>28204200</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>734.5599975585938</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B91">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="C91">
-        <v>718.6199951171875</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D91">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E91">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F91">
-        <v>24757700</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>734.7899780273438</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B92">
-        <v>744.739990234375</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C92">
-        <v>730.4400024414062</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D92">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E92">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F92">
-        <v>16330700</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>743.530029296875</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B93">
-        <v>753.6699829101562</v>
+        <v>793.5</v>
       </c>
       <c r="C93">
-        <v>739.1199951171875</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D93">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E93">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F93">
-        <v>15126300</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="B94">
-        <v>758.2000122070312</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C94">
-        <v>747.9199829101562</v>
+        <v>775</v>
       </c>
       <c r="D94">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E94">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F94">
-        <v>11947500</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>745.8900146484375</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B95">
-        <v>774.7999877929688</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C95">
-        <v>744.5599975585938</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D95">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E95">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F95">
-        <v>21373000</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>773.1199951171875</v>
+        <v>796.5</v>
       </c>
       <c r="B96">
-        <v>799</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C96">
-        <v>769.3099975585938</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D96">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E96">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F96">
-        <v>28070700</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>787.2000122070312</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B97">
-        <v>795.6400146484375</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C97">
-        <v>766.1799926757812</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D97">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E97">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F97">
-        <v>25381400</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>779.7999877929688</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B98">
-        <v>793.5</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C98">
-        <v>770.6799926757812</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D98">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="E98">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="F98">
-        <v>20942900</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>781</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B99">
-        <v>789.1300048828125</v>
+        <v>805</v>
       </c>
       <c r="C99">
-        <v>775</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D99">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E99">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F99">
-        <v>17956000</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>778.4000244140625</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B100">
-        <v>780.780029296875</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C100">
-        <v>763.5900268554688</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D100">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E100">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F100">
-        <v>17031400</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>796.5</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B101">
-        <v>806.969970703125</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C101">
-        <v>776.1199951171875</v>
+        <v>785.5</v>
       </c>
       <c r="D101">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E101">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F101">
-        <v>30483300</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>784.7999877929688</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B102">
-        <v>797.3099975585938</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C102">
-        <v>774.2000122070312</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D102">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E102">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F102">
-        <v>18432600</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>776.2000122070312</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B103">
-        <v>786.6599731445312</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C103">
-        <v>773.219970703125</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D103">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E103">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F103">
-        <v>14632800</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>785.4600219726562</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B104">
-        <v>805</v>
+        <v>820.25</v>
       </c>
       <c r="C104">
-        <v>783.3800048828125</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D104">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E104">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F104">
-        <v>19195800</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>796.2100219726562</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B105">
-        <v>796.3800048828125</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C105">
-        <v>780.9099731445312</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D105">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E105">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F105">
-        <v>16711100</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>787.6500244140625</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B106">
-        <v>801.239990234375</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C106">
-        <v>785.5</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D106">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E106">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F106">
-        <v>14200300</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>800.9299926757812</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B107">
-        <v>812.3200073242188</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C107">
-        <v>796.5700073242188</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D107">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E107">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F107">
-        <v>22020000</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>810.469970703125</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B108">
-        <v>815.4099731445312</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C108">
-        <v>805.780029296875</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D108">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E108">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F108">
-        <v>14120100</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>815.489990234375</v>
+        <v>856</v>
       </c>
       <c r="B109">
-        <v>820.25</v>
+        <v>900</v>
       </c>
       <c r="C109">
-        <v>813.3499755859375</v>
+        <v>855.5</v>
       </c>
       <c r="D109">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="E109">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="F109">
-        <v>12247200</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>823.739990234375</v>
+        <v>895.5</v>
       </c>
       <c r="B110">
-        <v>843.2100219726562</v>
+        <v>910</v>
       </c>
       <c r="C110">
-        <v>822.3499755859375</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D110">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E110">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F110">
-        <v>18818000</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>851.7899780273438</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B111">
-        <v>875.260009765625</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C111">
-        <v>851.469970703125</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D111">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E111">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F111">
-        <v>24207200</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>877.530029296875</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B112">
-        <v>877.9500122070312</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C112">
-        <v>862.510009765625</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D112">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E112">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F112">
-        <v>17381100</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>865.3499755859375</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B113">
-        <v>869.489990234375</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C113">
-        <v>857.3800048828125</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D113">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E113">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F113">
-        <v>14032100</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>856</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B114">
-        <v>900</v>
+        <v>1081</v>
       </c>
       <c r="C114">
-        <v>855.5</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D114">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E114">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F114">
-        <v>31481500</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>895.5</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B115">
-        <v>910</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C115">
-        <v>890.9600219726562</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D115">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="E115">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="F115">
-        <v>22880800</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>950.530029296875</v>
+        <v>1145</v>
       </c>
       <c r="B116">
-        <v>1045.02001953125</v>
+        <v>1209.75</v>
       </c>
       <c r="C116">
-        <v>944.2000122070312</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D116">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E116">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F116">
-        <v>62852100</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1024.68994140625</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B117">
-        <v>1094.93994140625</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C117">
-        <v>1001.440002441406</v>
+        <v>1146</v>
       </c>
       <c r="D117">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="E117">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="F117">
-        <v>62415000</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>1039.660034179688</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B118">
-        <v>1070.880004882812</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C118">
-        <v>1030.780029296875</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D118">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E118">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F118">
-        <v>38526500</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1068.31005859375</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B119">
-        <v>1081</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C119">
-        <v>1054.199951171875</v>
+        <v>1217</v>
       </c>
       <c r="D119">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E119">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F119">
-        <v>27213200</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1081.859985351562</v>
+        <v>1228</v>
       </c>
       <c r="B120">
-        <v>1115.2099609375</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C120">
-        <v>1073.2099609375</v>
+        <v>1208</v>
       </c>
       <c r="D120">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E120">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F120">
-        <v>29918400</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1145</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B121">
-        <v>1209.75</v>
+        <v>1197</v>
       </c>
       <c r="C121">
-        <v>1118.660034179688</v>
+        <v>1133</v>
       </c>
       <c r="D121">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E121">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F121">
-        <v>56048700</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1159.359985351562</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B122">
-        <v>1208.589965820312</v>
+        <v>1174.5</v>
       </c>
       <c r="C122">
-        <v>1146</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D122">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="E122">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="F122">
-        <v>42737800</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1177.329956054688</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B123">
-        <v>1215.390014648438</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C123">
-        <v>1152.619995117188</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D123">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E123">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F123">
-        <v>34628500</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1234.410034179688</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B124">
-        <v>1243.489990234375</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C124">
-        <v>1217</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D124">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E124">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F124">
-        <v>25397400</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1228</v>
+        <v>1047.5</v>
       </c>
       <c r="B125">
-        <v>1239.869995117188</v>
+        <v>1054.5</v>
       </c>
       <c r="C125">
-        <v>1208</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D125">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E125">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F125">
-        <v>21579900</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1149.7900390625</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B126">
-        <v>1197</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C126">
-        <v>1133</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D126">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E126">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F126">
-        <v>33445700</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1173.599975585938</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B127">
-        <v>1174.5</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C127">
-        <v>1011.52001953125</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D127">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E127">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F127">
-        <v>59105800</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1010.409973144531</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B128">
-        <v>1078.099975585938</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C128">
-        <v>987.3099975585938</v>
+        <v>1055.5</v>
       </c>
       <c r="D128">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E128">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F128">
-        <v>42802700</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1102.77001953125</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B129">
-        <v>1104.969970703125</v>
+        <v>1112</v>
       </c>
       <c r="C129">
-        <v>1054.680053710938</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D129">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E129">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F129">
-        <v>22396600</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>1047.5</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B130">
-        <v>1054.5</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C130">
-        <v>1019.200012207031</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D130">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E130">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F130">
-        <v>25182300</v>
+        <v>21168000</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2582 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>575</v>
+        <v>716</v>
       </c>
       <c r="B2">
-        <v>588.8499755859375</v>
+        <v>720.9500122070312</v>
       </c>
       <c r="C2">
-        <v>571.0700073242188</v>
+        <v>711.4099731445312</v>
       </c>
       <c r="D2">
-        <v>586.780029296875</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="E2">
-        <v>586.780029296875</v>
+        <v>714.6300048828125</v>
       </c>
       <c r="F2">
-        <v>30821100</v>
+        <v>12919600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>596.1099853515625</v>
+        <v>711.9000244140625</v>
       </c>
       <c r="B3">
-        <v>596.6799926757812</v>
+        <v>716.3300170898438</v>
       </c>
       <c r="C3">
-        <v>580</v>
+        <v>697.6300048828125</v>
       </c>
       <c r="D3">
-        <v>580.8800048828125</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="E3">
-        <v>580.8800048828125</v>
+        <v>699.0999755859375</v>
       </c>
       <c r="F3">
-        <v>26030600</v>
+        <v>15576200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>581.5999755859375</v>
+        <v>710.1699829101562</v>
       </c>
       <c r="B4">
-        <v>614.47998046875</v>
+        <v>719.030029296875</v>
       </c>
       <c r="C4">
-        <v>573.6500244140625</v>
+        <v>705.1300048828125</v>
       </c>
       <c r="D4">
-        <v>606.4400024414062</v>
+        <v>713.760009765625</v>
       </c>
       <c r="E4">
-        <v>606.4400024414062</v>
+        <v>713.760009765625</v>
       </c>
       <c r="F4">
-        <v>34558100</v>
+        <v>14715300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>607.3099975585938</v>
+        <v>713.989990234375</v>
       </c>
       <c r="B5">
-        <v>613.989990234375</v>
+        <v>716.5900268554688</v>
       </c>
       <c r="C5">
-        <v>595.7100219726562</v>
+        <v>701.8800048828125</v>
       </c>
       <c r="D5">
-        <v>604.6900024414062</v>
+        <v>709.989990234375</v>
       </c>
       <c r="E5">
-        <v>604.6900024414062</v>
+        <v>709.989990234375</v>
       </c>
       <c r="F5">
-        <v>28005900</v>
+        <v>13432300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>607.5599975585938</v>
+        <v>712.7100219726562</v>
       </c>
       <c r="B6">
-        <v>626.1699829101562</v>
+        <v>715.1799926757812</v>
       </c>
       <c r="C6">
-        <v>601.5</v>
+        <v>704.2100219726562</v>
       </c>
       <c r="D6">
-        <v>619.1300048828125</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="E6">
-        <v>619.1300048828125</v>
+        <v>707.8200073242188</v>
       </c>
       <c r="F6">
-        <v>28639300</v>
+        <v>9800600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>620.239990234375</v>
+        <v>706.3400268554688</v>
       </c>
       <c r="B7">
-        <v>631.1300048828125</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="C7">
-        <v>616.2100219726562</v>
+        <v>699.4000244140625</v>
       </c>
       <c r="D7">
-        <v>630.8499755859375</v>
+        <v>722.25</v>
       </c>
       <c r="E7">
-        <v>630.8499755859375</v>
+        <v>722.25</v>
       </c>
       <c r="F7">
-        <v>26370600</v>
+        <v>17459100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>628.5</v>
+        <v>723.7100219726562</v>
       </c>
       <c r="B8">
-        <v>635.5900268554688</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="C8">
-        <v>622.3800048828125</v>
+        <v>714.3400268554688</v>
       </c>
       <c r="D8">
-        <v>625.219970703125</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="E8">
-        <v>625.219970703125</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="F8">
-        <v>22737000</v>
+        <v>16698900</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>627.7999877929688</v>
+        <v>705.0700073242188</v>
       </c>
       <c r="B9">
-        <v>633.7999877929688</v>
+        <v>709.5</v>
       </c>
       <c r="C9">
-        <v>620.5499877929688</v>
+        <v>676.4000244140625</v>
       </c>
       <c r="D9">
-        <v>623.9000244140625</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="E9">
-        <v>623.9000244140625</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="F9">
-        <v>18084900</v>
+        <v>22677400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>620.1300048828125</v>
+        <v>672.6599731445312</v>
       </c>
       <c r="B10">
-        <v>623.3599853515625</v>
+        <v>674.5800170898438</v>
       </c>
       <c r="C10">
-        <v>599.1400146484375</v>
+        <v>648.8400268554688</v>
       </c>
       <c r="D10">
-        <v>605.1199951171875</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="E10">
-        <v>605.1199951171875</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="F10">
-        <v>23302800</v>
+        <v>23721300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>601.7999877929688</v>
+        <v>669.75</v>
       </c>
       <c r="B11">
-        <v>604.5499877929688</v>
+        <v>695.77001953125</v>
       </c>
       <c r="C11">
-        <v>571.219970703125</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D11">
-        <v>572.8400268554688</v>
+        <v>688.989990234375</v>
       </c>
       <c r="E11">
-        <v>572.8400268554688</v>
+        <v>688.989990234375</v>
       </c>
       <c r="F11">
-        <v>30111900</v>
+        <v>20349400</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>579.7100219726562</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B12">
-        <v>600.6099853515625</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C12">
-        <v>577.2000122070312</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D12">
-        <v>599.0499877929688</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E12">
-        <v>599.0499877929688</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F12">
-        <v>24036900</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>591.8300170898438</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B13">
-        <v>610</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C13">
-        <v>582.8800048828125</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D13">
-        <v>605.1300048828125</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E13">
-        <v>605.1300048828125</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F13">
-        <v>22543700</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>623.010009765625</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B14">
-        <v>623.0900268554688</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C14">
-        <v>595.5</v>
+        <v>680.75</v>
       </c>
       <c r="D14">
-        <v>603.5900268554688</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E14">
-        <v>603.5900268554688</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F14">
-        <v>26053400</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>602.1699829101562</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B15">
-        <v>611.7899780273438</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C15">
-        <v>597.6300048828125</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D15">
-        <v>598.780029296875</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E15">
-        <v>598.780029296875</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F15">
-        <v>16584600</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>603.8800048828125</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B16">
-        <v>616.5900268554688</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C16">
-        <v>600.5</v>
+        <v>704</v>
       </c>
       <c r="D16">
-        <v>610.1199951171875</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E16">
-        <v>610.1199951171875</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F16">
-        <v>23919600</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>610.22998046875</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B17">
-        <v>612.5599975585938</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C17">
-        <v>601.52001953125</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D17">
-        <v>609.8900146484375</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E17">
-        <v>609.8900146484375</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F17">
-        <v>16205300</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>612.22998046875</v>
+        <v>705</v>
       </c>
       <c r="B18">
-        <v>625.489990234375</v>
+        <v>715</v>
       </c>
       <c r="C18">
-        <v>609.1799926757812</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D18">
-        <v>617.6900024414062</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E18">
-        <v>617.6900024414062</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F18">
-        <v>20424000</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>616.6900024414062</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B19">
-        <v>616.7899780273438</v>
+        <v>731</v>
       </c>
       <c r="C19">
-        <v>598.22998046875</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D19">
-        <v>599.3599853515625</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E19">
-        <v>599.3599853515625</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F19">
-        <v>17764100</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>597.5399780273438</v>
+        <v>733</v>
       </c>
       <c r="B20">
-        <v>608.5</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C20">
-        <v>593.5</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D20">
-        <v>604.8699951171875</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E20">
-        <v>604.8699951171875</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F20">
-        <v>22144100</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>601.8900146484375</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B21">
-        <v>621.469970703125</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C21">
-        <v>601.3400268554688</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D21">
-        <v>616.5999755859375</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E21">
-        <v>616.5999755859375</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F21">
-        <v>22701400</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>613.3699951171875</v>
+        <v>734.5</v>
       </c>
       <c r="B22">
-        <v>628.3499755859375</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C22">
-        <v>611.7999877929688</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D22">
-        <v>623.3099975585938</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E22">
-        <v>623.3099975585938</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F22">
-        <v>24560900</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>624.47998046875</v>
+        <v>732.25</v>
       </c>
       <c r="B23">
-        <v>631.3900146484375</v>
+        <v>734</v>
       </c>
       <c r="C23">
-        <v>608.8800048828125</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D23">
-        <v>620.8300170898438</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E23">
-        <v>620.8300170898438</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F23">
-        <v>24812700</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>618.25</v>
+        <v>740</v>
       </c>
       <c r="B24">
-        <v>628.5700073242188</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C24">
-        <v>615.5</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D24">
-        <v>623.7100219726562</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E24">
-        <v>623.7100219726562</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F24">
-        <v>19158900</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>632</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B25">
-        <v>657.2000122070312</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C25">
-        <v>630.0399780273438</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D25">
-        <v>656.5700073242188</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E25">
-        <v>656.5700073242188</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F25">
-        <v>31099200</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>674.989990234375</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B26">
-        <v>697.6199951171875</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C26">
-        <v>667.6099853515625</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D26">
-        <v>679.8200073242188</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E26">
-        <v>679.8200073242188</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F26">
-        <v>45982400</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>689.5800170898438</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B27">
-        <v>693.8099975585938</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C27">
-        <v>668.7000122070312</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D27">
-        <v>671.8699951171875</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E27">
-        <v>671.8699951171875</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F27">
-        <v>32496700</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>671.6400146484375</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B28">
-        <v>694.7000122070312</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C28">
-        <v>670.3200073242188</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D28">
-        <v>688.719970703125</v>
+        <v>743</v>
       </c>
       <c r="E28">
-        <v>688.719970703125</v>
+        <v>743</v>
       </c>
       <c r="F28">
-        <v>21628200</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>684.6500244140625</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B29">
-        <v>687.510009765625</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C29">
-        <v>675.8900146484375</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D29">
-        <v>680.760009765625</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E29">
-        <v>680.760009765625</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F29">
-        <v>17381300</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>679.77001953125</v>
+        <v>745</v>
       </c>
       <c r="B30">
-        <v>692.8099975585938</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C30">
-        <v>678.1400146484375</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D30">
-        <v>679.7000122070312</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E30">
-        <v>679.7000122070312</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F30">
-        <v>18924900</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>683.9199829101562</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B31">
-        <v>687.989990234375</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C31">
-        <v>672.7999877929688</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D31">
-        <v>677.9199829101562</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E31">
-        <v>677.9199829101562</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F31">
-        <v>18634500</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>678.97998046875</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B32">
-        <v>700</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C32">
-        <v>673.260009765625</v>
+        <v>750</v>
       </c>
       <c r="D32">
-        <v>678.9000244140625</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E32">
-        <v>678.9000244140625</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F32">
-        <v>27054500</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>681.7100219726562</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B33">
-        <v>684</v>
+        <v>742</v>
       </c>
       <c r="C33">
-        <v>651.4000244140625</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D33">
-        <v>659.5800170898438</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E33">
-        <v>659.5800170898438</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F33">
-        <v>23284500</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>664.27001953125</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B34">
-        <v>665.7000122070312</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C34">
-        <v>638.3200073242188</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D34">
-        <v>644.6500244140625</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E34">
-        <v>644.6500244140625</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F34">
-        <v>18792000</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>628.3699951171875</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B35">
-        <v>654.4299926757812</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C35">
-        <v>620.4600219726562</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D35">
-        <v>652.8099975585938</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E35">
-        <v>652.8099975585938</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F35">
-        <v>22773300</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>653.1799926757812</v>
+        <v>755</v>
       </c>
       <c r="B36">
-        <v>658.9099731445312</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C36">
-        <v>644.6900024414062</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D36">
-        <v>656.9500122070312</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E36">
-        <v>656.9500122070312</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F36">
-        <v>18140500</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>662.2000122070312</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B37">
-        <v>687.239990234375</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C37">
-        <v>662.1599731445312</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D37">
-        <v>685.7000122070312</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E37">
-        <v>685.7000122070312</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F37">
-        <v>25927000</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>686.3200073242188</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B38">
-        <v>693.280029296875</v>
+        <v>799</v>
       </c>
       <c r="C38">
-        <v>666.2999877929688</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D38">
-        <v>668.5399780273438</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E38">
-        <v>668.5399780273438</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F38">
-        <v>20966100</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>670.75</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B39">
-        <v>678.6099853515625</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C39">
-        <v>652.8400268554688</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D39">
-        <v>653.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E39">
-        <v>653.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F39">
-        <v>21641200</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>658.3900146484375</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B40">
-        <v>666.1400146484375</v>
+        <v>793.5</v>
       </c>
       <c r="C40">
-        <v>637.8800048828125</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D40">
-        <v>650.5999755859375</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E40">
-        <v>650.5999755859375</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F40">
-        <v>20209600</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>654.6799926757812</v>
+        <v>781</v>
       </c>
       <c r="B41">
-        <v>656.7000122070312</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C41">
-        <v>642.2000122070312</v>
+        <v>775</v>
       </c>
       <c r="D41">
-        <v>644.219970703125</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E41">
-        <v>644.219970703125</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F41">
-        <v>16371000</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>629.8900146484375</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B42">
-        <v>647.2000122070312</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C42">
-        <v>621.2899780273438</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D42">
-        <v>646.219970703125</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E42">
-        <v>646.219970703125</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F42">
-        <v>21297100</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>651.989990234375</v>
+        <v>796.5</v>
       </c>
       <c r="B43">
-        <v>662.3900146484375</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C43">
-        <v>640.5</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D43">
-        <v>660.5</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E43">
-        <v>660.5</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F43">
-        <v>15487100</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>659.6099853515625</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B44">
-        <v>664.8599853515625</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C44">
-        <v>650.2899780273438</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D44">
-        <v>655.2899780273438</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E44">
-        <v>655.2899780273438</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F44">
-        <v>13953300</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>656.4400024414062</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B45">
-        <v>662.1699829101562</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C45">
-        <v>644.5999755859375</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D45">
-        <v>649.260009765625</v>
+        <v>782.75</v>
       </c>
       <c r="E45">
-        <v>649.260009765625</v>
+        <v>782.75</v>
       </c>
       <c r="F45">
-        <v>15105700</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>646.3599853515625</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B46">
-        <v>648.7999877929688</v>
+        <v>805</v>
       </c>
       <c r="C46">
-        <v>637.2999877929688</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D46">
-        <v>643.3800048828125</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E46">
-        <v>643.3800048828125</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F46">
-        <v>14604900</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>650.969970703125</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B47">
-        <v>668.2000122070312</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C47">
-        <v>647.1099853515625</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D47">
-        <v>657.6199951171875</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E47">
-        <v>657.6199951171875</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F47">
-        <v>25336600</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>663.4000244140625</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B48">
-        <v>666.5</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C48">
-        <v>627.239990234375</v>
+        <v>785.5</v>
       </c>
       <c r="D48">
-        <v>644.780029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E48">
-        <v>644.780029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F48">
-        <v>32813300</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>647</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B49">
-        <v>654.969970703125</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C49">
-        <v>639.4000244140625</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D49">
-        <v>646.97998046875</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E49">
-        <v>646.97998046875</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F49">
-        <v>16006600</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>649.7899780273438</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B50">
-        <v>683.6900024414062</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C50">
-        <v>648.7999877929688</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D50">
-        <v>677.3499755859375</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E50">
-        <v>677.3499755859375</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F50">
-        <v>30394600</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>671.760009765625</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B51">
-        <v>697.530029296875</v>
+        <v>820.25</v>
       </c>
       <c r="C51">
-        <v>669</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D51">
-        <v>687.2000122070312</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E51">
-        <v>687.2000122070312</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F51">
-        <v>29600500</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>700</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B52">
-        <v>726.9400024414062</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C52">
-        <v>698.4000244140625</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D52">
-        <v>709.6699829101562</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E52">
-        <v>709.6699829101562</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F52">
-        <v>33615800</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>719</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B53">
-        <v>722.6500244140625</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C53">
-        <v>701.010009765625</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D53">
-        <v>709.739990234375</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E53">
-        <v>709.739990234375</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F53">
-        <v>21620300</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>711</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B54">
-        <v>724.9000244140625</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C54">
-        <v>708.9299926757812</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D54">
-        <v>710.9199829101562</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E54">
-        <v>710.9199829101562</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F54">
-        <v>17002600</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>716</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B55">
-        <v>720.9500122070312</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C55">
-        <v>711.4099731445312</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D55">
-        <v>714.6300048828125</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E55">
-        <v>714.6300048828125</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F55">
-        <v>12919600</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>711.9000244140625</v>
+        <v>856</v>
       </c>
       <c r="B56">
-        <v>716.3300170898438</v>
+        <v>900</v>
       </c>
       <c r="C56">
-        <v>697.6300048828125</v>
+        <v>855.5</v>
       </c>
       <c r="D56">
-        <v>699.0999755859375</v>
+        <v>894</v>
       </c>
       <c r="E56">
-        <v>699.0999755859375</v>
+        <v>894</v>
       </c>
       <c r="F56">
-        <v>15576200</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>710.1699829101562</v>
+        <v>895.5</v>
       </c>
       <c r="B57">
-        <v>719.030029296875</v>
+        <v>910</v>
       </c>
       <c r="C57">
-        <v>705.1300048828125</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D57">
-        <v>713.760009765625</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E57">
-        <v>713.760009765625</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F57">
-        <v>14715300</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>713.989990234375</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B58">
-        <v>716.5900268554688</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C58">
-        <v>701.8800048828125</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D58">
-        <v>709.989990234375</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E58">
-        <v>709.989990234375</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F58">
-        <v>13432300</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>712.7100219726562</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B59">
-        <v>715.1799926757812</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C59">
-        <v>704.2100219726562</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D59">
-        <v>707.8200073242188</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E59">
-        <v>707.8200073242188</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F59">
-        <v>9800600</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>706.3400268554688</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B60">
-        <v>722.7999877929688</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C60">
-        <v>699.4000244140625</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D60">
-        <v>722.25</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E60">
-        <v>722.25</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F60">
-        <v>17459100</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>723.7100219726562</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B61">
-        <v>729.9000244140625</v>
+        <v>1081</v>
       </c>
       <c r="C61">
-        <v>714.3400268554688</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D61">
-        <v>717.1699829101562</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E61">
-        <v>717.1699829101562</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F61">
-        <v>16698900</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>705.0700073242188</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B62">
-        <v>709.5</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C62">
-        <v>676.4000244140625</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D62">
-        <v>686.1699829101562</v>
+        <v>1114</v>
       </c>
       <c r="E62">
-        <v>686.1699829101562</v>
+        <v>1114</v>
       </c>
       <c r="F62">
-        <v>22677400</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>672.6599731445312</v>
+        <v>1145</v>
       </c>
       <c r="B63">
-        <v>674.5800170898438</v>
+        <v>1209.75</v>
       </c>
       <c r="C63">
-        <v>648.8400268554688</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D63">
-        <v>665.7100219726562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E63">
-        <v>665.7100219726562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F63">
-        <v>23721300</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>669.75</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B64">
-        <v>695.77001953125</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C64">
-        <v>669.3499755859375</v>
+        <v>1146</v>
       </c>
       <c r="D64">
-        <v>688.989990234375</v>
+        <v>1172</v>
       </c>
       <c r="E64">
-        <v>688.989990234375</v>
+        <v>1172</v>
       </c>
       <c r="F64">
-        <v>20349400</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>678.2100219726562</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B65">
-        <v>686.5499877929688</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C65">
-        <v>667.5900268554688</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D65">
-        <v>673.469970703125</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E65">
-        <v>673.469970703125</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F65">
-        <v>14313500</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>682.8499755859375</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B66">
-        <v>692.1300048828125</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C66">
-        <v>673.7000122070312</v>
+        <v>1217</v>
       </c>
       <c r="D66">
-        <v>680.260009765625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E66">
-        <v>680.260009765625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F66">
-        <v>14781800</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>685.4400024414062</v>
+        <v>1228</v>
       </c>
       <c r="B67">
-        <v>712.1300048828125</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C67">
-        <v>680.75</v>
+        <v>1208</v>
       </c>
       <c r="D67">
-        <v>706.2999877929688</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E67">
-        <v>706.2999877929688</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F67">
-        <v>20264900</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>710.6799926757812</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B68">
-        <v>715.219970703125</v>
+        <v>1197</v>
       </c>
       <c r="C68">
-        <v>702.6400146484375</v>
+        <v>1133</v>
       </c>
       <c r="D68">
-        <v>708.489990234375</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E68">
-        <v>708.489990234375</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F68">
-        <v>13083100</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>707.030029296875</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B69">
-        <v>716.969970703125</v>
+        <v>1174.5</v>
       </c>
       <c r="C69">
-        <v>704</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D69">
-        <v>711.2000122070312</v>
+        <v>1023.5</v>
       </c>
       <c r="E69">
-        <v>711.2000122070312</v>
+        <v>1023.5</v>
       </c>
       <c r="F69">
-        <v>12645600</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>708.3099975585938</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B70">
-        <v>715.4000244140625</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C70">
-        <v>697.6199951171875</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D70">
-        <v>701.1599731445312</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E70">
-        <v>701.1599731445312</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F70">
-        <v>13214300</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>705</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B71">
-        <v>715</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C71">
-        <v>702.0999755859375</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D71">
-        <v>711.9199829101562</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E71">
-        <v>711.9199829101562</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F71">
-        <v>13762100</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>714.719970703125</v>
+        <v>1047.5</v>
       </c>
       <c r="B72">
-        <v>731</v>
+        <v>1054.5</v>
       </c>
       <c r="C72">
-        <v>712.72998046875</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D72">
-        <v>730.9099731445312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E72">
-        <v>730.9099731445312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F72">
-        <v>18604200</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>733</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B73">
-        <v>740.3900146484375</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C73">
-        <v>726.4400024414062</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D73">
-        <v>735.719970703125</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E73">
-        <v>735.719970703125</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F73">
-        <v>20855400</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>734.0800170898438</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B74">
-        <v>741.989990234375</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C74">
-        <v>731.27001953125</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D74">
-        <v>734.0900268554688</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E74">
-        <v>734.0900268554688</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F74">
-        <v>13204300</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>734.5</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B75">
-        <v>740.969970703125</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C75">
-        <v>730.5399780273438</v>
+        <v>1055.5</v>
       </c>
       <c r="D75">
-        <v>732.3900146484375</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E75">
-        <v>732.3900146484375</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F75">
-        <v>12777300</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>732.25</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B76">
-        <v>734</v>
+        <v>1112</v>
       </c>
       <c r="C76">
-        <v>724.2000122070312</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D76">
-        <v>733.5700073242188</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E76">
-        <v>733.5700073242188</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F76">
-        <v>15246100</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>740</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B77">
-        <v>760.2000122070312</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C77">
-        <v>739.260009765625</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D77">
-        <v>752.9199829101562</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E77">
-        <v>752.9199829101562</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F77">
-        <v>20039800</v>
+        <v>21642300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>761.5800170898438</v>
+        <v>1162.329956054688</v>
       </c>
       <c r="B78">
-        <v>764.4500122070312</v>
+        <v>1201.949951171875</v>
       </c>
       <c r="C78">
-        <v>740.77001953125</v>
+        <v>1132.430053710938</v>
       </c>
       <c r="D78">
-        <v>753.8699951171875</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="E78">
-        <v>753.8699951171875</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="F78">
-        <v>18793000</v>
+        <v>33072500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>753.4099731445312</v>
+        <v>1167.510009765625</v>
       </c>
       <c r="B79">
-        <v>762.0999755859375</v>
+        <v>1180.5</v>
       </c>
       <c r="C79">
-        <v>751.6300048828125</v>
+        <v>1062.699951171875</v>
       </c>
       <c r="D79">
-        <v>754.8599853515625</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="E79">
-        <v>754.8599853515625</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="F79">
-        <v>14077700</v>
+        <v>36171700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>759.5999755859375</v>
+        <v>1080.390014648438</v>
       </c>
       <c r="B80">
-        <v>762.6099853515625</v>
+        <v>1132.77001953125</v>
       </c>
       <c r="C80">
-        <v>734.52001953125</v>
+        <v>1062</v>
       </c>
       <c r="D80">
-        <v>736.27001953125</v>
+        <v>1116</v>
       </c>
       <c r="E80">
-        <v>736.27001953125</v>
+        <v>1116</v>
       </c>
       <c r="F80">
-        <v>15114300</v>
+        <v>22560200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>740.2100219726562</v>
+        <v>1099.469970703125</v>
       </c>
       <c r="B81">
-        <v>744.780029296875</v>
+        <v>1108.780029296875</v>
       </c>
       <c r="C81">
-        <v>708.8499755859375</v>
+        <v>1081</v>
       </c>
       <c r="D81">
-        <v>743</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="E81">
-        <v>743</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="F81">
-        <v>22952500</v>
+        <v>11680900</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>742.5700073242188</v>
+        <v>1100.989990234375</v>
       </c>
       <c r="B82">
-        <v>754.469970703125</v>
+        <v>1142.670043945312</v>
       </c>
       <c r="C82">
-        <v>736.4000244140625</v>
+        <v>1100.18994140625</v>
       </c>
       <c r="D82">
-        <v>744.489990234375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="E82">
-        <v>744.489990234375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="F82">
-        <v>18524900</v>
+        <v>19464500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>745</v>
+        <v>1144.369995117188</v>
       </c>
       <c r="B83">
-        <v>756.8599853515625</v>
+        <v>1168</v>
       </c>
       <c r="C83">
-        <v>738.3599853515625</v>
+        <v>1118</v>
       </c>
       <c r="D83">
-        <v>755.8300170898438</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="E83">
-        <v>755.8300170898438</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="F83">
-        <v>15357700</v>
+        <v>27092000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>752.8300170898438</v>
+        <v>1160.699951171875</v>
       </c>
       <c r="B84">
-        <v>758.9099731445312</v>
+        <v>1172.839965820312</v>
       </c>
       <c r="C84">
-        <v>747.6099853515625</v>
+        <v>1090.760009765625</v>
       </c>
       <c r="D84">
-        <v>756.989990234375</v>
+        <v>1095</v>
       </c>
       <c r="E84">
-        <v>756.989990234375</v>
+        <v>1095</v>
       </c>
       <c r="F84">
-        <v>13923400</v>
+        <v>22816800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>757.1500244140625</v>
+        <v>1099.06005859375</v>
       </c>
       <c r="B85">
-        <v>761.0399780273438</v>
+        <v>1113</v>
       </c>
       <c r="C85">
-        <v>750</v>
+        <v>1056.650024414062</v>
       </c>
       <c r="D85">
-        <v>759.489990234375</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="E85">
-        <v>759.489990234375</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="F85">
-        <v>28204200</v>
+        <v>24371600</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>734.5599975585938</v>
+        <v>1084.7900390625</v>
       </c>
       <c r="B86">
-        <v>742</v>
+        <v>1090.579956054688</v>
       </c>
       <c r="C86">
-        <v>718.6199951171875</v>
+        <v>1000.210021972656</v>
       </c>
       <c r="D86">
-        <v>730.1699829101562</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="E86">
-        <v>730.1699829101562</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="F86">
-        <v>24757700</v>
+        <v>30696300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>734.7899780273438</v>
+        <v>1001.510009765625</v>
       </c>
       <c r="B87">
-        <v>744.739990234375</v>
+        <v>1021.640014648438</v>
       </c>
       <c r="C87">
-        <v>730.4400024414062</v>
+        <v>950.5</v>
       </c>
       <c r="D87">
-        <v>739.3800048828125</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="E87">
-        <v>739.3800048828125</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="F87">
-        <v>16330700</v>
+        <v>27221000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>743.530029296875</v>
+        <v>1044.199951171875</v>
       </c>
       <c r="B88">
-        <v>753.6699829101562</v>
+        <v>1057.670043945312</v>
       </c>
       <c r="C88">
-        <v>739.1199951171875</v>
+        <v>1026.81005859375</v>
       </c>
       <c r="D88">
-        <v>751.9400024414062</v>
+        <v>1051.75</v>
       </c>
       <c r="E88">
-        <v>751.9400024414062</v>
+        <v>1051.75</v>
       </c>
       <c r="F88">
-        <v>15126300</v>
+        <v>18694900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>755</v>
+        <v>1052.7099609375</v>
       </c>
       <c r="B89">
-        <v>758.2000122070312</v>
+        <v>1072.380004882812</v>
       </c>
       <c r="C89">
-        <v>747.9199829101562</v>
+        <v>1033</v>
       </c>
       <c r="D89">
-        <v>753.6400146484375</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="E89">
-        <v>753.6400146484375</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="F89">
-        <v>11947500</v>
+        <v>13968800</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>745.8900146484375</v>
+        <v>1060.640014648438</v>
       </c>
       <c r="B90">
-        <v>774.7999877929688</v>
+        <v>1062.489990234375</v>
       </c>
       <c r="C90">
-        <v>744.5599975585938</v>
+        <v>1002.359985351562</v>
       </c>
       <c r="D90">
-        <v>774.3900146484375</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="E90">
-        <v>774.3900146484375</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="F90">
-        <v>21373000</v>
+        <v>19812800</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>773.1199951171875</v>
+        <v>1008.75</v>
       </c>
       <c r="B91">
-        <v>799</v>
+        <v>1020.97998046875</v>
       </c>
       <c r="C91">
-        <v>769.3099975585938</v>
+        <v>982.530029296875</v>
       </c>
       <c r="D91">
-        <v>791.3599853515625</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="E91">
-        <v>791.3599853515625</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="F91">
-        <v>28070700</v>
+        <v>19855000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>787.2000122070312</v>
+        <v>1001.090026855469</v>
       </c>
       <c r="B92">
-        <v>795.6400146484375</v>
+        <v>1005</v>
       </c>
       <c r="C92">
-        <v>766.1799926757812</v>
+        <v>951.4199829101562</v>
       </c>
       <c r="D92">
-        <v>777.5599975585938</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="E92">
-        <v>777.5599975585938</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="F92">
-        <v>25381400</v>
+        <v>26198500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>779.7999877929688</v>
+        <v>945</v>
       </c>
       <c r="B93">
-        <v>793.5</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="C93">
-        <v>770.6799926757812</v>
+        <v>930</v>
       </c>
       <c r="D93">
-        <v>781.3099975585938</v>
+        <v>958.510009765625</v>
       </c>
       <c r="E93">
-        <v>781.3099975585938</v>
+        <v>958.510009765625</v>
       </c>
       <c r="F93">
-        <v>20942900</v>
+        <v>23602100</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>781</v>
+        <v>953.2100219726562</v>
       </c>
       <c r="B94">
-        <v>789.1300048828125</v>
+        <v>978.75</v>
       </c>
       <c r="C94">
-        <v>775</v>
+        <v>928.25</v>
       </c>
       <c r="D94">
-        <v>775.47998046875</v>
+        <v>975.989990234375</v>
       </c>
       <c r="E94">
-        <v>775.47998046875</v>
+        <v>975.989990234375</v>
       </c>
       <c r="F94">
-        <v>17956000</v>
+        <v>25056400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>778.4000244140625</v>
+        <v>994.5</v>
       </c>
       <c r="B95">
-        <v>780.780029296875</v>
+        <v>994.97998046875</v>
       </c>
       <c r="C95">
-        <v>763.5900268554688</v>
+        <v>921.8499755859375</v>
       </c>
       <c r="D95">
-        <v>775.219970703125</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="E95">
-        <v>775.219970703125</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="F95">
-        <v>17031400</v>
+        <v>27590500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>796.5</v>
+        <v>914.77001953125</v>
       </c>
       <c r="B96">
-        <v>806.969970703125</v>
+        <v>960.6599731445312</v>
       </c>
       <c r="C96">
-        <v>776.1199951171875</v>
+        <v>909.0399780273438</v>
       </c>
       <c r="D96">
-        <v>781.530029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="E96">
-        <v>781.530029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="F96">
-        <v>30483300</v>
+        <v>33479100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>784.7999877929688</v>
+        <v>910.7000122070312</v>
       </c>
       <c r="B97">
-        <v>797.3099975585938</v>
+        <v>921.6900024414062</v>
       </c>
       <c r="C97">
-        <v>774.2000122070312</v>
+        <v>893.3900146484375</v>
       </c>
       <c r="D97">
-        <v>780.5900268554688</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="E97">
-        <v>780.5900268554688</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="F97">
-        <v>18432600</v>
+        <v>18826700</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>776.2000122070312</v>
+        <v>916.8699951171875</v>
       </c>
       <c r="B98">
-        <v>786.6599731445312</v>
+        <v>939.5</v>
       </c>
       <c r="C98">
-        <v>773.219970703125</v>
+        <v>886.1199951171875</v>
       </c>
       <c r="D98">
-        <v>782.75</v>
+        <v>938.530029296875</v>
       </c>
       <c r="E98">
-        <v>782.75</v>
+        <v>938.530029296875</v>
       </c>
       <c r="F98">
-        <v>14632800</v>
+        <v>23839300</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>785.4600219726562</v>
+        <v>965.6599731445312</v>
       </c>
       <c r="B99">
-        <v>805</v>
+        <v>1015.659973144531</v>
       </c>
       <c r="C99">
-        <v>783.3800048828125</v>
+        <v>957.0499877929688</v>
       </c>
       <c r="D99">
-        <v>793.6099853515625</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="E99">
-        <v>793.6099853515625</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="F99">
-        <v>19195800</v>
+        <v>31211400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>796.2100219726562</v>
+        <v>1006.799987792969</v>
       </c>
       <c r="B100">
-        <v>796.3800048828125</v>
+        <v>1072.97998046875</v>
       </c>
       <c r="C100">
-        <v>780.9099731445312</v>
+        <v>997.5599975585938</v>
       </c>
       <c r="D100">
-        <v>785.489990234375</v>
+        <v>1067</v>
       </c>
       <c r="E100">
-        <v>785.489990234375</v>
+        <v>1067</v>
       </c>
       <c r="F100">
-        <v>16711100</v>
+        <v>30904400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>787.6500244140625</v>
+        <v>1073.670043945312</v>
       </c>
       <c r="B101">
-        <v>801.239990234375</v>
+        <v>1117</v>
       </c>
       <c r="C101">
-        <v>785.5</v>
+        <v>1070.719970703125</v>
       </c>
       <c r="D101">
-        <v>791.9400024414062</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="E101">
-        <v>791.9400024414062</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="F101">
-        <v>14200300</v>
+        <v>23715300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>800.9299926757812</v>
+        <v>1109.489990234375</v>
       </c>
       <c r="B102">
-        <v>812.3200073242188</v>
+        <v>1119</v>
       </c>
       <c r="C102">
-        <v>796.5700073242188</v>
+        <v>1078.420043945312</v>
       </c>
       <c r="D102">
-        <v>805.719970703125</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="E102">
-        <v>805.719970703125</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="F102">
-        <v>22020000</v>
+        <v>20108000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>810.469970703125</v>
+        <v>1098.640014648438</v>
       </c>
       <c r="B103">
-        <v>815.4099731445312</v>
+        <v>1104</v>
       </c>
       <c r="C103">
-        <v>805.780029296875</v>
+        <v>1064.140014648438</v>
       </c>
       <c r="D103">
-        <v>811.0800170898438</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="E103">
-        <v>811.0800170898438</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="F103">
-        <v>14120100</v>
+        <v>18718000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>815.489990234375</v>
+        <v>1061.329956054688</v>
       </c>
       <c r="B104">
-        <v>820.25</v>
+        <v>1095.550048828125</v>
       </c>
       <c r="C104">
-        <v>813.3499755859375</v>
+        <v>1053.150024414062</v>
       </c>
       <c r="D104">
-        <v>818.3200073242188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="E104">
-        <v>818.3200073242188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="F104">
-        <v>12247200</v>
+        <v>15680300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>823.739990234375</v>
+        <v>1073.43994140625</v>
       </c>
       <c r="B105">
-        <v>843.2100219726562</v>
+        <v>1082</v>
       </c>
       <c r="C105">
-        <v>822.3499755859375</v>
+        <v>1054.589965820312</v>
       </c>
       <c r="D105">
-        <v>843.030029296875</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="E105">
-        <v>843.030029296875</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="F105">
-        <v>18818000</v>
+        <v>13577900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>851.7899780273438</v>
+        <v>1147.75</v>
       </c>
       <c r="B106">
-        <v>875.260009765625</v>
+        <v>1201.069946289062</v>
       </c>
       <c r="C106">
-        <v>851.469970703125</v>
+        <v>1136.0400390625</v>
       </c>
       <c r="D106">
-        <v>870.1099853515625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="E106">
-        <v>870.1099853515625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="F106">
-        <v>24207200</v>
+        <v>34643800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>877.530029296875</v>
+        <v>1189.550048828125</v>
       </c>
       <c r="B107">
-        <v>877.9500122070312</v>
+        <v>1208</v>
       </c>
       <c r="C107">
-        <v>862.510009765625</v>
+        <v>1123.050048828125</v>
       </c>
       <c r="D107">
-        <v>864.27001953125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="E107">
-        <v>864.27001953125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="F107">
-        <v>17381100</v>
+        <v>33416100</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>865.3499755859375</v>
+        <v>1146.650024414062</v>
       </c>
       <c r="B108">
-        <v>869.489990234375</v>
+        <v>1170.339965820312</v>
       </c>
       <c r="C108">
-        <v>857.3800048828125</v>
+        <v>1081.010009765625</v>
       </c>
       <c r="D108">
-        <v>865.7999877929688</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="E108">
-        <v>865.7999877929688</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="F108">
-        <v>14032100</v>
+        <v>26706600</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>856</v>
+        <v>1077</v>
       </c>
       <c r="B109">
-        <v>900</v>
+        <v>1088</v>
       </c>
       <c r="C109">
-        <v>855.5</v>
+        <v>1020.5</v>
       </c>
       <c r="D109">
-        <v>894</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="E109">
-        <v>894</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="F109">
-        <v>31481500</v>
+        <v>30112200</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>895.5</v>
+        <v>1080.369995117188</v>
       </c>
       <c r="B110">
-        <v>910</v>
+        <v>1080.930053710938</v>
       </c>
       <c r="C110">
-        <v>890.9600219726562</v>
+        <v>1010</v>
       </c>
       <c r="D110">
-        <v>909.6799926757812</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="E110">
-        <v>909.6799926757812</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="F110">
-        <v>22880800</v>
+        <v>27919000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>950.530029296875</v>
+        <v>1000</v>
       </c>
       <c r="B111">
-        <v>1045.02001953125</v>
+        <v>1059.099975585938</v>
       </c>
       <c r="C111">
-        <v>944.2000122070312</v>
+        <v>980</v>
       </c>
       <c r="D111">
-        <v>1024.859985351562</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="E111">
-        <v>1024.859985351562</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="F111">
-        <v>62852100</v>
+        <v>30605000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>1024.68994140625</v>
+        <v>1053.670043945312</v>
       </c>
       <c r="B112">
-        <v>1094.93994140625</v>
+        <v>1075.849975585938</v>
       </c>
       <c r="C112">
-        <v>1001.440002441406</v>
+        <v>1038.819946289062</v>
       </c>
       <c r="D112">
-        <v>1018.429992675781</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="E112">
-        <v>1018.429992675781</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="F112">
-        <v>62415000</v>
+        <v>22021100</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>1039.660034179688</v>
+        <v>1078.849975585938</v>
       </c>
       <c r="B113">
-        <v>1070.880004882812</v>
+        <v>1114.839965820312</v>
       </c>
       <c r="C113">
-        <v>1030.780029296875</v>
+        <v>1072.589965820312</v>
       </c>
       <c r="D113">
-        <v>1037.859985351562</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="E113">
-        <v>1037.859985351562</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="F113">
-        <v>38526500</v>
+        <v>27913000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>1068.31005859375</v>
+        <v>1109.069946289062</v>
       </c>
       <c r="B114">
-        <v>1081</v>
+        <v>1115.599975585938</v>
       </c>
       <c r="C114">
-        <v>1054.199951171875</v>
+        <v>1026.5400390625</v>
       </c>
       <c r="D114">
-        <v>1077.0400390625</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="E114">
-        <v>1077.0400390625</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="F114">
-        <v>27213200</v>
+        <v>32403300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>1081.859985351562</v>
+        <v>1019.880004882812</v>
       </c>
       <c r="B115">
-        <v>1115.2099609375</v>
+        <v>1052</v>
       </c>
       <c r="C115">
-        <v>1073.2099609375</v>
+        <v>1013.380004882812</v>
       </c>
       <c r="D115">
-        <v>1114</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="E115">
-        <v>1114</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="F115">
-        <v>29918400</v>
+        <v>24246600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1145</v>
+        <v>1026.609985351562</v>
       </c>
       <c r="B116">
-        <v>1209.75</v>
+        <v>1070.7900390625</v>
       </c>
       <c r="C116">
-        <v>1118.660034179688</v>
+        <v>1016.059997558594</v>
       </c>
       <c r="D116">
-        <v>1208.589965820312</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="E116">
-        <v>1208.589965820312</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="F116">
-        <v>56048700</v>
+        <v>22247800</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1159.359985351562</v>
+        <v>1041.7099609375</v>
       </c>
       <c r="B117">
-        <v>1208.589965820312</v>
+        <v>1054.670043945312</v>
       </c>
       <c r="C117">
-        <v>1146</v>
+        <v>995</v>
       </c>
       <c r="D117">
-        <v>1172</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="E117">
-        <v>1172</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="F117">
-        <v>42737800</v>
+        <v>25147500</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>1177.329956054688</v>
+        <v>1009.72998046875</v>
       </c>
       <c r="B118">
-        <v>1215.390014648438</v>
+        <v>1041.660034179688</v>
       </c>
       <c r="C118">
-        <v>1152.619995117188</v>
+        <v>994</v>
       </c>
       <c r="D118">
-        <v>1213.859985351562</v>
+        <v>996.27001953125</v>
       </c>
       <c r="E118">
-        <v>1213.859985351562</v>
+        <v>996.27001953125</v>
       </c>
       <c r="F118">
-        <v>34628500</v>
+        <v>23496200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1234.410034179688</v>
+        <v>996.3400268554688</v>
       </c>
       <c r="B119">
-        <v>1243.489990234375</v>
+        <v>1004.549987792969</v>
       </c>
       <c r="C119">
-        <v>1217</v>
+        <v>940.5</v>
       </c>
       <c r="D119">
-        <v>1229.910034179688</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="E119">
-        <v>1229.910034179688</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="F119">
-        <v>25397400</v>
+        <v>34472000</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1228</v>
+        <v>904.760009765625</v>
       </c>
       <c r="B120">
-        <v>1239.869995117188</v>
+        <v>933.510009765625</v>
       </c>
       <c r="C120">
-        <v>1208</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D120">
-        <v>1222.089965820312</v>
+        <v>930</v>
       </c>
       <c r="E120">
-        <v>1222.089965820312</v>
+        <v>930</v>
       </c>
       <c r="F120">
-        <v>21579900</v>
+        <v>50521900</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1149.7900390625</v>
+        <v>914.2000122070312</v>
       </c>
       <c r="B121">
-        <v>1197</v>
+        <v>951.260009765625</v>
       </c>
       <c r="C121">
-        <v>1133</v>
+        <v>903.2100219726562</v>
       </c>
       <c r="D121">
-        <v>1162.93994140625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="E121">
-        <v>1162.93994140625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="F121">
-        <v>33445700</v>
+        <v>28865300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1173.599975585938</v>
+        <v>952.4299926757812</v>
       </c>
       <c r="B122">
-        <v>1174.5</v>
+        <v>987.6900024414062</v>
       </c>
       <c r="C122">
-        <v>1011.52001953125</v>
+        <v>906</v>
       </c>
       <c r="D122">
-        <v>1023.5</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="E122">
-        <v>1023.5</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="F122">
-        <v>59105800</v>
+        <v>34955800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>1010.409973144531</v>
+        <v>933.3599853515625</v>
       </c>
       <c r="B123">
-        <v>1078.099975585938</v>
+        <v>935.3900146484375</v>
       </c>
       <c r="C123">
-        <v>987.3099975585938</v>
+        <v>829</v>
       </c>
       <c r="D123">
-        <v>1067.949951171875</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="E123">
-        <v>1067.949951171875</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="F123">
-        <v>42802700</v>
+        <v>49036500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>1102.77001953125</v>
+        <v>831.5599975585938</v>
       </c>
       <c r="B124">
-        <v>1104.969970703125</v>
+        <v>857.5</v>
       </c>
       <c r="C124">
-        <v>1054.680053710938</v>
+        <v>792.010009765625</v>
       </c>
       <c r="D124">
-        <v>1063.510009765625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E124">
-        <v>1063.510009765625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="F124">
-        <v>22396600</v>
+        <v>44929700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>1047.5</v>
+        <v>872.7100219726562</v>
       </c>
       <c r="B125">
-        <v>1054.5</v>
+        <v>937.989990234375</v>
       </c>
       <c r="C125">
-        <v>1019.200012207031</v>
+        <v>862.0499877929688</v>
       </c>
       <c r="D125">
-        <v>1033.420043945312</v>
+        <v>936.719970703125</v>
       </c>
       <c r="E125">
-        <v>1033.420043945312</v>
+        <v>936.719970703125</v>
       </c>
       <c r="F125">
-        <v>25182300</v>
+        <v>34812000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>1017.630004882812</v>
+        <v>935.2100219726562</v>
       </c>
       <c r="B126">
-        <v>1031.97998046875</v>
+        <v>943.7000122070312</v>
       </c>
       <c r="C126">
-        <v>978.5999755859375</v>
+        <v>905</v>
       </c>
       <c r="D126">
-        <v>1013.390014648438</v>
+        <v>931.25</v>
       </c>
       <c r="E126">
-        <v>1013.390014648438</v>
+        <v>931.25</v>
       </c>
       <c r="F126">
-        <v>34775600</v>
+        <v>24250900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>1003.309997558594</v>
+        <v>928.1799926757812</v>
       </c>
       <c r="B127">
-        <v>1057.199951171875</v>
+        <v>931.5</v>
       </c>
       <c r="C127">
-        <v>1002.179992675781</v>
+        <v>889.4099731445312</v>
       </c>
       <c r="D127">
-        <v>1054.72998046875</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="E127">
-        <v>1054.72998046875</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="F127">
-        <v>26542400</v>
+        <v>22264300</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>1063.510009765625</v>
+        <v>882</v>
       </c>
       <c r="B128">
-        <v>1119.640014648438</v>
+        <v>937</v>
       </c>
       <c r="C128">
-        <v>1055.5</v>
+        <v>880.52001953125</v>
       </c>
       <c r="D128">
-        <v>1089.010009765625</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="E128">
-        <v>1089.010009765625</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="F128">
-        <v>31445400</v>
+        <v>26285200</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>1106.550048828125</v>
+        <v>897.219970703125</v>
       </c>
       <c r="B129">
-        <v>1112</v>
+        <v>936.5</v>
       </c>
       <c r="C129">
-        <v>1075.02001953125</v>
+        <v>881.3200073242188</v>
       </c>
       <c r="D129">
-        <v>1096.380004882812</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="E129">
-        <v>1096.380004882812</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="F129">
-        <v>20898900</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>1098.869995117188</v>
-      </c>
-      <c r="B130">
-        <v>1138.719970703125</v>
-      </c>
-      <c r="C130">
-        <v>1092.699951171875</v>
-      </c>
-      <c r="D130">
-        <v>1137.06005859375</v>
-      </c>
-      <c r="E130">
-        <v>1137.06005859375</v>
-      </c>
-      <c r="F130">
-        <v>21168000</v>
+        <v>24541822</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -2912,7 +2912,7 @@
         <v>931.25</v>
       </c>
       <c r="F126">
-        <v>24250900</v>
+        <v>24379400</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2963,7 +2963,7 @@
         <v>936.5</v>
       </c>
       <c r="C129">
-        <v>881.3200073242188</v>
+        <v>881.1699829101562</v>
       </c>
       <c r="D129">
         <v>923.3200073242188</v>
@@ -2972,7 +2972,7 @@
         <v>923.3200073242188</v>
       </c>
       <c r="F129">
-        <v>24541822</v>
+        <v>24472600</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>716</v>
+        <v>706.3400268554688</v>
       </c>
       <c r="B2">
-        <v>720.9500122070312</v>
+        <v>722.7999877929688</v>
       </c>
       <c r="C2">
-        <v>711.4099731445312</v>
+        <v>699.4000244140625</v>
       </c>
       <c r="D2">
-        <v>714.6300048828125</v>
+        <v>722.25</v>
       </c>
       <c r="E2">
-        <v>714.6300048828125</v>
+        <v>722.25</v>
       </c>
       <c r="F2">
-        <v>12919600</v>
+        <v>17459100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>711.9000244140625</v>
+        <v>723.7100219726562</v>
       </c>
       <c r="B3">
-        <v>716.3300170898438</v>
+        <v>729.9000244140625</v>
       </c>
       <c r="C3">
-        <v>697.6300048828125</v>
+        <v>714.3400268554688</v>
       </c>
       <c r="D3">
-        <v>699.0999755859375</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="E3">
-        <v>699.0999755859375</v>
+        <v>717.1699829101562</v>
       </c>
       <c r="F3">
-        <v>15576200</v>
+        <v>16698900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>710.1699829101562</v>
+        <v>705.0700073242188</v>
       </c>
       <c r="B4">
-        <v>719.030029296875</v>
+        <v>709.5</v>
       </c>
       <c r="C4">
-        <v>705.1300048828125</v>
+        <v>676.4000244140625</v>
       </c>
       <c r="D4">
-        <v>713.760009765625</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="E4">
-        <v>713.760009765625</v>
+        <v>686.1699829101562</v>
       </c>
       <c r="F4">
-        <v>14715300</v>
+        <v>22677400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>713.989990234375</v>
+        <v>672.6599731445312</v>
       </c>
       <c r="B5">
-        <v>716.5900268554688</v>
+        <v>674.5800170898438</v>
       </c>
       <c r="C5">
-        <v>701.8800048828125</v>
+        <v>648.8400268554688</v>
       </c>
       <c r="D5">
-        <v>709.989990234375</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="E5">
-        <v>709.989990234375</v>
+        <v>665.7100219726562</v>
       </c>
       <c r="F5">
-        <v>13432300</v>
+        <v>23721300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>712.7100219726562</v>
+        <v>669.75</v>
       </c>
       <c r="B6">
-        <v>715.1799926757812</v>
+        <v>695.77001953125</v>
       </c>
       <c r="C6">
-        <v>704.2100219726562</v>
+        <v>669.3499755859375</v>
       </c>
       <c r="D6">
-        <v>707.8200073242188</v>
+        <v>688.989990234375</v>
       </c>
       <c r="E6">
-        <v>707.8200073242188</v>
+        <v>688.989990234375</v>
       </c>
       <c r="F6">
-        <v>9800600</v>
+        <v>20349400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>706.3400268554688</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B7">
-        <v>722.7999877929688</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C7">
-        <v>699.4000244140625</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D7">
-        <v>722.25</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E7">
-        <v>722.25</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F7">
-        <v>17459100</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>723.7100219726562</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B8">
-        <v>729.9000244140625</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C8">
-        <v>714.3400268554688</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D8">
-        <v>717.1699829101562</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E8">
-        <v>717.1699829101562</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F8">
-        <v>16698900</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>705.0700073242188</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B9">
-        <v>709.5</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C9">
-        <v>676.4000244140625</v>
+        <v>680.75</v>
       </c>
       <c r="D9">
-        <v>686.1699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E9">
-        <v>686.1699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F9">
-        <v>22677400</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>672.6599731445312</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B10">
-        <v>674.5800170898438</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C10">
-        <v>648.8400268554688</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D10">
-        <v>665.7100219726562</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E10">
-        <v>665.7100219726562</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F10">
-        <v>23721300</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>669.75</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B11">
-        <v>695.77001953125</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C11">
-        <v>669.3499755859375</v>
+        <v>704</v>
       </c>
       <c r="D11">
-        <v>688.989990234375</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E11">
-        <v>688.989990234375</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F11">
-        <v>20349400</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>678.2100219726562</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B12">
-        <v>686.5499877929688</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C12">
-        <v>667.5900268554688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D12">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E12">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F12">
-        <v>14313500</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>682.8499755859375</v>
+        <v>705</v>
       </c>
       <c r="B13">
-        <v>692.1300048828125</v>
+        <v>715</v>
       </c>
       <c r="C13">
-        <v>673.7000122070312</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D13">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E13">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F13">
-        <v>14781800</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>685.4400024414062</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B14">
-        <v>712.1300048828125</v>
+        <v>731</v>
       </c>
       <c r="C14">
-        <v>680.75</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D14">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E14">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F14">
-        <v>20264900</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>710.6799926757812</v>
+        <v>733</v>
       </c>
       <c r="B15">
-        <v>715.219970703125</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C15">
-        <v>702.6400146484375</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D15">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E15">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F15">
-        <v>13083100</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>707.030029296875</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B16">
-        <v>716.969970703125</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C16">
-        <v>704</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D16">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E16">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F16">
-        <v>12645600</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>708.3099975585938</v>
+        <v>734.5</v>
       </c>
       <c r="B17">
-        <v>715.4000244140625</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C17">
-        <v>697.6199951171875</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D17">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E17">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F17">
-        <v>13214300</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>705</v>
+        <v>732.25</v>
       </c>
       <c r="B18">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="C18">
-        <v>702.0999755859375</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D18">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E18">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F18">
-        <v>13762100</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>714.719970703125</v>
+        <v>740</v>
       </c>
       <c r="B19">
-        <v>731</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C19">
-        <v>712.72998046875</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D19">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E19">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F19">
-        <v>18604200</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>733</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B20">
-        <v>740.3900146484375</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C20">
-        <v>726.4400024414062</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D20">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E20">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F20">
-        <v>20855400</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>734.0800170898438</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B21">
-        <v>741.989990234375</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C21">
-        <v>731.27001953125</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D21">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E21">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F21">
-        <v>13204300</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>734.5</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B22">
-        <v>740.969970703125</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C22">
-        <v>730.5399780273438</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D22">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E22">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F22">
-        <v>12777300</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>732.25</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B23">
-        <v>734</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C23">
-        <v>724.2000122070312</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D23">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="E23">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="F23">
-        <v>15246100</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>740</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B24">
-        <v>760.2000122070312</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C24">
-        <v>739.260009765625</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D24">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E24">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F24">
-        <v>20039800</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>761.5800170898438</v>
+        <v>745</v>
       </c>
       <c r="B25">
-        <v>764.4500122070312</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C25">
-        <v>740.77001953125</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D25">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E25">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F25">
-        <v>18793000</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>753.4099731445312</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B26">
-        <v>762.0999755859375</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C26">
-        <v>751.6300048828125</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D26">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E26">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F26">
-        <v>14077700</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>759.5999755859375</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B27">
-        <v>762.6099853515625</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C27">
-        <v>734.52001953125</v>
+        <v>750</v>
       </c>
       <c r="D27">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E27">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F27">
-        <v>15114300</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>740.2100219726562</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B28">
-        <v>744.780029296875</v>
+        <v>742</v>
       </c>
       <c r="C28">
-        <v>708.8499755859375</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D28">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E28">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F28">
-        <v>22952500</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>742.5700073242188</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B29">
-        <v>754.469970703125</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C29">
-        <v>736.4000244140625</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D29">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E29">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F29">
-        <v>18524900</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>745</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B30">
-        <v>756.8599853515625</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C30">
-        <v>738.3599853515625</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D30">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E30">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F30">
-        <v>15357700</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>752.8300170898438</v>
+        <v>755</v>
       </c>
       <c r="B31">
-        <v>758.9099731445312</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C31">
-        <v>747.6099853515625</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D31">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E31">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F31">
-        <v>13923400</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>757.1500244140625</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B32">
-        <v>761.0399780273438</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C32">
-        <v>750</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D32">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E32">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F32">
-        <v>28204200</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>734.5599975585938</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B33">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="C33">
-        <v>718.6199951171875</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D33">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E33">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F33">
-        <v>24757700</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>734.7899780273438</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B34">
-        <v>744.739990234375</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C34">
-        <v>730.4400024414062</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D34">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E34">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F34">
-        <v>16330700</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>743.530029296875</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B35">
-        <v>753.6699829101562</v>
+        <v>793.5</v>
       </c>
       <c r="C35">
-        <v>739.1199951171875</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D35">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E35">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F35">
-        <v>15126300</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="B36">
-        <v>758.2000122070312</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C36">
-        <v>747.9199829101562</v>
+        <v>775</v>
       </c>
       <c r="D36">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E36">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F36">
-        <v>11947500</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>745.8900146484375</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B37">
-        <v>774.7999877929688</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C37">
-        <v>744.5599975585938</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D37">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E37">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F37">
-        <v>21373000</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>773.1199951171875</v>
+        <v>796.5</v>
       </c>
       <c r="B38">
-        <v>799</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C38">
-        <v>769.3099975585938</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D38">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E38">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F38">
-        <v>28070700</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>787.2000122070312</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B39">
-        <v>795.6400146484375</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C39">
-        <v>766.1799926757812</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D39">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E39">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F39">
-        <v>25381400</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>779.7999877929688</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B40">
-        <v>793.5</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C40">
-        <v>770.6799926757812</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D40">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="E40">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="F40">
-        <v>20942900</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>781</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B41">
-        <v>789.1300048828125</v>
+        <v>805</v>
       </c>
       <c r="C41">
-        <v>775</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D41">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E41">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F41">
-        <v>17956000</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>778.4000244140625</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B42">
-        <v>780.780029296875</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C42">
-        <v>763.5900268554688</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D42">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E42">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F42">
-        <v>17031400</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>796.5</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B43">
-        <v>806.969970703125</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C43">
-        <v>776.1199951171875</v>
+        <v>785.5</v>
       </c>
       <c r="D43">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E43">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F43">
-        <v>30483300</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>784.7999877929688</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B44">
-        <v>797.3099975585938</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C44">
-        <v>774.2000122070312</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D44">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E44">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F44">
-        <v>18432600</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>776.2000122070312</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B45">
-        <v>786.6599731445312</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C45">
-        <v>773.219970703125</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D45">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E45">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F45">
-        <v>14632800</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>785.4600219726562</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B46">
-        <v>805</v>
+        <v>820.25</v>
       </c>
       <c r="C46">
-        <v>783.3800048828125</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D46">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E46">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F46">
-        <v>19195800</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>796.2100219726562</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B47">
-        <v>796.3800048828125</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C47">
-        <v>780.9099731445312</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D47">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E47">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F47">
-        <v>16711100</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>787.6500244140625</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B48">
-        <v>801.239990234375</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C48">
-        <v>785.5</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D48">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E48">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F48">
-        <v>14200300</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>800.9299926757812</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B49">
-        <v>812.3200073242188</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C49">
-        <v>796.5700073242188</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D49">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E49">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F49">
-        <v>22020000</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>810.469970703125</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B50">
-        <v>815.4099731445312</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C50">
-        <v>805.780029296875</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D50">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E50">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F50">
-        <v>14120100</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>815.489990234375</v>
+        <v>856</v>
       </c>
       <c r="B51">
-        <v>820.25</v>
+        <v>900</v>
       </c>
       <c r="C51">
-        <v>813.3499755859375</v>
+        <v>855.5</v>
       </c>
       <c r="D51">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="E51">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="F51">
-        <v>12247200</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>823.739990234375</v>
+        <v>895.5</v>
       </c>
       <c r="B52">
-        <v>843.2100219726562</v>
+        <v>910</v>
       </c>
       <c r="C52">
-        <v>822.3499755859375</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D52">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E52">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F52">
-        <v>18818000</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>851.7899780273438</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B53">
-        <v>875.260009765625</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C53">
-        <v>851.469970703125</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D53">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E53">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F53">
-        <v>24207200</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>877.530029296875</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B54">
-        <v>877.9500122070312</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C54">
-        <v>862.510009765625</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D54">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E54">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F54">
-        <v>17381100</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>865.3499755859375</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B55">
-        <v>869.489990234375</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C55">
-        <v>857.3800048828125</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D55">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E55">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F55">
-        <v>14032100</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>856</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B56">
-        <v>900</v>
+        <v>1081</v>
       </c>
       <c r="C56">
-        <v>855.5</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D56">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E56">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F56">
-        <v>31481500</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>895.5</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B57">
-        <v>910</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C57">
-        <v>890.9600219726562</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D57">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="E57">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="F57">
-        <v>22880800</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>950.530029296875</v>
+        <v>1145</v>
       </c>
       <c r="B58">
-        <v>1045.02001953125</v>
+        <v>1209.75</v>
       </c>
       <c r="C58">
-        <v>944.2000122070312</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D58">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E58">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F58">
-        <v>62852100</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1024.68994140625</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B59">
-        <v>1094.93994140625</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C59">
-        <v>1001.440002441406</v>
+        <v>1146</v>
       </c>
       <c r="D59">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="E59">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="F59">
-        <v>62415000</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1039.660034179688</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B60">
-        <v>1070.880004882812</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C60">
-        <v>1030.780029296875</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D60">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E60">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F60">
-        <v>38526500</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1068.31005859375</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B61">
-        <v>1081</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C61">
-        <v>1054.199951171875</v>
+        <v>1217</v>
       </c>
       <c r="D61">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E61">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F61">
-        <v>27213200</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1081.859985351562</v>
+        <v>1228</v>
       </c>
       <c r="B62">
-        <v>1115.2099609375</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C62">
-        <v>1073.2099609375</v>
+        <v>1208</v>
       </c>
       <c r="D62">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E62">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F62">
-        <v>29918400</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1145</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B63">
-        <v>1209.75</v>
+        <v>1197</v>
       </c>
       <c r="C63">
-        <v>1118.660034179688</v>
+        <v>1133</v>
       </c>
       <c r="D63">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E63">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F63">
-        <v>56048700</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1159.359985351562</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B64">
-        <v>1208.589965820312</v>
+        <v>1174.5</v>
       </c>
       <c r="C64">
-        <v>1146</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D64">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="E64">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="F64">
-        <v>42737800</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1177.329956054688</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B65">
-        <v>1215.390014648438</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C65">
-        <v>1152.619995117188</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D65">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E65">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F65">
-        <v>34628500</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1234.410034179688</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B66">
-        <v>1243.489990234375</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C66">
-        <v>1217</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D66">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E66">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F66">
-        <v>25397400</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1228</v>
+        <v>1047.5</v>
       </c>
       <c r="B67">
-        <v>1239.869995117188</v>
+        <v>1054.5</v>
       </c>
       <c r="C67">
-        <v>1208</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D67">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E67">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F67">
-        <v>21579900</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1149.7900390625</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B68">
-        <v>1197</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C68">
-        <v>1133</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D68">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E68">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F68">
-        <v>33445700</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1173.599975585938</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B69">
-        <v>1174.5</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C69">
-        <v>1011.52001953125</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D69">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E69">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F69">
-        <v>59105800</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1010.409973144531</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B70">
-        <v>1078.099975585938</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C70">
-        <v>987.3099975585938</v>
+        <v>1055.5</v>
       </c>
       <c r="D70">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E70">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F70">
-        <v>42802700</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1102.77001953125</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B71">
-        <v>1104.969970703125</v>
+        <v>1112</v>
       </c>
       <c r="C71">
-        <v>1054.680053710938</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D71">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E71">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F71">
-        <v>22396600</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1047.5</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B72">
-        <v>1054.5</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C72">
-        <v>1019.200012207031</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D72">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E72">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F72">
-        <v>25182300</v>
+        <v>21642300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1017.630004882812</v>
+        <v>1162.329956054688</v>
       </c>
       <c r="B73">
-        <v>1031.97998046875</v>
+        <v>1201.949951171875</v>
       </c>
       <c r="C73">
-        <v>978.5999755859375</v>
+        <v>1132.430053710938</v>
       </c>
       <c r="D73">
-        <v>1013.390014648438</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="E73">
-        <v>1013.390014648438</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="F73">
-        <v>34775600</v>
+        <v>33072500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1003.309997558594</v>
+        <v>1167.510009765625</v>
       </c>
       <c r="B74">
-        <v>1057.199951171875</v>
+        <v>1180.5</v>
       </c>
       <c r="C74">
-        <v>1002.179992675781</v>
+        <v>1062.699951171875</v>
       </c>
       <c r="D74">
-        <v>1054.72998046875</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="E74">
-        <v>1054.72998046875</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="F74">
-        <v>26542400</v>
+        <v>36171700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1063.510009765625</v>
+        <v>1080.390014648438</v>
       </c>
       <c r="B75">
-        <v>1119.640014648438</v>
+        <v>1132.77001953125</v>
       </c>
       <c r="C75">
-        <v>1055.5</v>
+        <v>1062</v>
       </c>
       <c r="D75">
-        <v>1089.010009765625</v>
+        <v>1116</v>
       </c>
       <c r="E75">
-        <v>1089.010009765625</v>
+        <v>1116</v>
       </c>
       <c r="F75">
-        <v>31445400</v>
+        <v>22560200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1106.550048828125</v>
+        <v>1099.469970703125</v>
       </c>
       <c r="B76">
-        <v>1112</v>
+        <v>1108.780029296875</v>
       </c>
       <c r="C76">
-        <v>1075.02001953125</v>
+        <v>1081</v>
       </c>
       <c r="D76">
-        <v>1096.380004882812</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="E76">
-        <v>1096.380004882812</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="F76">
-        <v>20898900</v>
+        <v>11680900</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1098.869995117188</v>
+        <v>1100.989990234375</v>
       </c>
       <c r="B77">
-        <v>1138.719970703125</v>
+        <v>1142.670043945312</v>
       </c>
       <c r="C77">
-        <v>1092.699951171875</v>
+        <v>1100.18994140625</v>
       </c>
       <c r="D77">
-        <v>1137.06005859375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="E77">
-        <v>1137.06005859375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="F77">
-        <v>21642300</v>
+        <v>19464500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1162.329956054688</v>
+        <v>1144.369995117188</v>
       </c>
       <c r="B78">
-        <v>1201.949951171875</v>
+        <v>1168</v>
       </c>
       <c r="C78">
-        <v>1132.430053710938</v>
+        <v>1118</v>
       </c>
       <c r="D78">
-        <v>1156.869995117188</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="E78">
-        <v>1156.869995117188</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="F78">
-        <v>33072500</v>
+        <v>27092000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1167.510009765625</v>
+        <v>1160.699951171875</v>
       </c>
       <c r="B79">
-        <v>1180.5</v>
+        <v>1172.839965820312</v>
       </c>
       <c r="C79">
-        <v>1062.699951171875</v>
+        <v>1090.760009765625</v>
       </c>
       <c r="D79">
-        <v>1109.030029296875</v>
+        <v>1095</v>
       </c>
       <c r="E79">
-        <v>1109.030029296875</v>
+        <v>1095</v>
       </c>
       <c r="F79">
-        <v>36171700</v>
+        <v>22816800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1080.390014648438</v>
+        <v>1099.06005859375</v>
       </c>
       <c r="B80">
-        <v>1132.77001953125</v>
+        <v>1113</v>
       </c>
       <c r="C80">
-        <v>1062</v>
+        <v>1056.650024414062</v>
       </c>
       <c r="D80">
-        <v>1116</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="E80">
-        <v>1116</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="F80">
-        <v>22560200</v>
+        <v>24371600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1099.469970703125</v>
+        <v>1084.7900390625</v>
       </c>
       <c r="B81">
-        <v>1108.780029296875</v>
+        <v>1090.579956054688</v>
       </c>
       <c r="C81">
-        <v>1081</v>
+        <v>1000.210021972656</v>
       </c>
       <c r="D81">
-        <v>1081.920043945312</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="E81">
-        <v>1081.920043945312</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="F81">
-        <v>11680900</v>
+        <v>30696300</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>1100.989990234375</v>
+        <v>1001.510009765625</v>
       </c>
       <c r="B82">
-        <v>1142.670043945312</v>
+        <v>1021.640014648438</v>
       </c>
       <c r="C82">
-        <v>1100.18994140625</v>
+        <v>950.5</v>
       </c>
       <c r="D82">
-        <v>1136.989990234375</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="E82">
-        <v>1136.989990234375</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="F82">
-        <v>19464500</v>
+        <v>27221000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>1144.369995117188</v>
+        <v>1044.199951171875</v>
       </c>
       <c r="B83">
-        <v>1168</v>
+        <v>1057.670043945312</v>
       </c>
       <c r="C83">
-        <v>1118</v>
+        <v>1026.81005859375</v>
       </c>
       <c r="D83">
-        <v>1144.760009765625</v>
+        <v>1051.75</v>
       </c>
       <c r="E83">
-        <v>1144.760009765625</v>
+        <v>1051.75</v>
       </c>
       <c r="F83">
-        <v>27092000</v>
+        <v>18694900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>1160.699951171875</v>
+        <v>1052.7099609375</v>
       </c>
       <c r="B84">
-        <v>1172.839965820312</v>
+        <v>1072.380004882812</v>
       </c>
       <c r="C84">
-        <v>1090.760009765625</v>
+        <v>1033</v>
       </c>
       <c r="D84">
-        <v>1095</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="E84">
-        <v>1095</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="F84">
-        <v>22816800</v>
+        <v>13968800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1099.06005859375</v>
+        <v>1060.640014648438</v>
       </c>
       <c r="B85">
-        <v>1113</v>
+        <v>1062.489990234375</v>
       </c>
       <c r="C85">
-        <v>1056.650024414062</v>
+        <v>1002.359985351562</v>
       </c>
       <c r="D85">
-        <v>1084.599975585938</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="E85">
-        <v>1084.599975585938</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="F85">
-        <v>24371600</v>
+        <v>19812800</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1084.7900390625</v>
+        <v>1008.75</v>
       </c>
       <c r="B86">
-        <v>1090.579956054688</v>
+        <v>1020.97998046875</v>
       </c>
       <c r="C86">
-        <v>1000.210021972656</v>
+        <v>982.530029296875</v>
       </c>
       <c r="D86">
-        <v>1014.969970703125</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="E86">
-        <v>1014.969970703125</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="F86">
-        <v>30696300</v>
+        <v>19855000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1001.510009765625</v>
+        <v>1001.090026855469</v>
       </c>
       <c r="B87">
-        <v>1021.640014648438</v>
+        <v>1005</v>
       </c>
       <c r="C87">
-        <v>950.5</v>
+        <v>951.4199829101562</v>
       </c>
       <c r="D87">
-        <v>1009.010009765625</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="E87">
-        <v>1009.010009765625</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="F87">
-        <v>27221000</v>
+        <v>26198500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1044.199951171875</v>
+        <v>945</v>
       </c>
       <c r="B88">
-        <v>1057.670043945312</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="C88">
-        <v>1026.81005859375</v>
+        <v>930</v>
       </c>
       <c r="D88">
-        <v>1051.75</v>
+        <v>958.510009765625</v>
       </c>
       <c r="E88">
-        <v>1051.75</v>
+        <v>958.510009765625</v>
       </c>
       <c r="F88">
-        <v>18694900</v>
+        <v>23602100</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>1052.7099609375</v>
+        <v>953.2100219726562</v>
       </c>
       <c r="B89">
-        <v>1072.380004882812</v>
+        <v>978.75</v>
       </c>
       <c r="C89">
-        <v>1033</v>
+        <v>928.25</v>
       </c>
       <c r="D89">
-        <v>1068.9599609375</v>
+        <v>975.989990234375</v>
       </c>
       <c r="E89">
-        <v>1068.9599609375</v>
+        <v>975.989990234375</v>
       </c>
       <c r="F89">
-        <v>13968800</v>
+        <v>25056400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1060.640014648438</v>
+        <v>994.5</v>
       </c>
       <c r="B90">
-        <v>1062.489990234375</v>
+        <v>994.97998046875</v>
       </c>
       <c r="C90">
-        <v>1002.359985351562</v>
+        <v>921.8499755859375</v>
       </c>
       <c r="D90">
-        <v>1003.799987792969</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="E90">
-        <v>1003.799987792969</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="F90">
-        <v>19812800</v>
+        <v>27590500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1008.75</v>
+        <v>914.77001953125</v>
       </c>
       <c r="B91">
-        <v>1020.97998046875</v>
+        <v>960.6599731445312</v>
       </c>
       <c r="C91">
-        <v>982.530029296875</v>
+        <v>909.0399780273438</v>
       </c>
       <c r="D91">
-        <v>1017.030029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="E91">
-        <v>1017.030029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="F91">
-        <v>19855000</v>
+        <v>33479100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1001.090026855469</v>
+        <v>910.7000122070312</v>
       </c>
       <c r="B92">
-        <v>1005</v>
+        <v>921.6900024414062</v>
       </c>
       <c r="C92">
-        <v>951.4199829101562</v>
+        <v>893.3900146484375</v>
       </c>
       <c r="D92">
-        <v>966.4099731445312</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="E92">
-        <v>966.4099731445312</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="F92">
-        <v>26198500</v>
+        <v>18826700</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>945</v>
+        <v>916.8699951171875</v>
       </c>
       <c r="B93">
-        <v>966.4099731445312</v>
+        <v>939.5</v>
       </c>
       <c r="C93">
-        <v>930</v>
+        <v>886.1199951171875</v>
       </c>
       <c r="D93">
-        <v>958.510009765625</v>
+        <v>938.530029296875</v>
       </c>
       <c r="E93">
-        <v>958.510009765625</v>
+        <v>938.530029296875</v>
       </c>
       <c r="F93">
-        <v>23602100</v>
+        <v>23839300</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>953.2100219726562</v>
+        <v>965.6599731445312</v>
       </c>
       <c r="B94">
-        <v>978.75</v>
+        <v>1015.659973144531</v>
       </c>
       <c r="C94">
-        <v>928.25</v>
+        <v>957.0499877929688</v>
       </c>
       <c r="D94">
-        <v>975.989990234375</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="E94">
-        <v>975.989990234375</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="F94">
-        <v>25056400</v>
+        <v>31211400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>994.5</v>
+        <v>1006.799987792969</v>
       </c>
       <c r="B95">
-        <v>994.97998046875</v>
+        <v>1072.97998046875</v>
       </c>
       <c r="C95">
-        <v>921.8499755859375</v>
+        <v>997.5599975585938</v>
       </c>
       <c r="D95">
-        <v>926.9199829101562</v>
+        <v>1067</v>
       </c>
       <c r="E95">
-        <v>926.9199829101562</v>
+        <v>1067</v>
       </c>
       <c r="F95">
-        <v>27590500</v>
+        <v>30904400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>914.77001953125</v>
+        <v>1073.670043945312</v>
       </c>
       <c r="B96">
-        <v>960.6599731445312</v>
+        <v>1117</v>
       </c>
       <c r="C96">
-        <v>909.0399780273438</v>
+        <v>1070.719970703125</v>
       </c>
       <c r="D96">
-        <v>932.5700073242188</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="E96">
-        <v>932.5700073242188</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="F96">
-        <v>33479100</v>
+        <v>23715300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>910.7000122070312</v>
+        <v>1109.489990234375</v>
       </c>
       <c r="B97">
-        <v>921.6900024414062</v>
+        <v>1119</v>
       </c>
       <c r="C97">
-        <v>893.3900146484375</v>
+        <v>1078.420043945312</v>
       </c>
       <c r="D97">
-        <v>899.9400024414062</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="E97">
-        <v>899.9400024414062</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="F97">
-        <v>18826700</v>
+        <v>20108000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>916.8699951171875</v>
+        <v>1098.640014648438</v>
       </c>
       <c r="B98">
-        <v>939.5</v>
+        <v>1104</v>
       </c>
       <c r="C98">
-        <v>886.1199951171875</v>
+        <v>1064.140014648438</v>
       </c>
       <c r="D98">
-        <v>938.530029296875</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="E98">
-        <v>938.530029296875</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="F98">
-        <v>23839300</v>
+        <v>18718000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>965.6599731445312</v>
+        <v>1061.329956054688</v>
       </c>
       <c r="B99">
-        <v>1015.659973144531</v>
+        <v>1095.550048828125</v>
       </c>
       <c r="C99">
-        <v>957.0499877929688</v>
+        <v>1053.150024414062</v>
       </c>
       <c r="D99">
-        <v>1008.869995117188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="E99">
-        <v>1008.869995117188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="F99">
-        <v>31211400</v>
+        <v>15680300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1006.799987792969</v>
+        <v>1073.43994140625</v>
       </c>
       <c r="B100">
-        <v>1072.97998046875</v>
+        <v>1082</v>
       </c>
       <c r="C100">
-        <v>997.5599975585938</v>
+        <v>1054.589965820312</v>
       </c>
       <c r="D100">
-        <v>1067</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="E100">
-        <v>1067</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="F100">
-        <v>30904400</v>
+        <v>13577900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>1073.670043945312</v>
+        <v>1147.75</v>
       </c>
       <c r="B101">
-        <v>1117</v>
+        <v>1201.069946289062</v>
       </c>
       <c r="C101">
-        <v>1070.719970703125</v>
+        <v>1136.0400390625</v>
       </c>
       <c r="D101">
-        <v>1093.93994140625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="E101">
-        <v>1093.93994140625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="F101">
-        <v>23715300</v>
+        <v>34643800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>1109.489990234375</v>
+        <v>1189.550048828125</v>
       </c>
       <c r="B102">
-        <v>1119</v>
+        <v>1208</v>
       </c>
       <c r="C102">
-        <v>1078.420043945312</v>
+        <v>1123.050048828125</v>
       </c>
       <c r="D102">
-        <v>1088.469970703125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="E102">
-        <v>1088.469970703125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="F102">
-        <v>20108000</v>
+        <v>33416100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1098.640014648438</v>
+        <v>1146.650024414062</v>
       </c>
       <c r="B103">
-        <v>1104</v>
+        <v>1170.339965820312</v>
       </c>
       <c r="C103">
-        <v>1064.140014648438</v>
+        <v>1081.010009765625</v>
       </c>
       <c r="D103">
-        <v>1086.18994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="E103">
-        <v>1086.18994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="F103">
-        <v>18718000</v>
+        <v>26706600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>1061.329956054688</v>
+        <v>1077</v>
       </c>
       <c r="B104">
-        <v>1095.550048828125</v>
+        <v>1088</v>
       </c>
       <c r="C104">
-        <v>1053.150024414062</v>
+        <v>1020.5</v>
       </c>
       <c r="D104">
-        <v>1070.339965820312</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="E104">
-        <v>1070.339965820312</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="F104">
-        <v>15680300</v>
+        <v>30112200</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>1073.43994140625</v>
+        <v>1080.369995117188</v>
       </c>
       <c r="B105">
-        <v>1082</v>
+        <v>1080.930053710938</v>
       </c>
       <c r="C105">
-        <v>1054.589965820312</v>
+        <v>1010</v>
       </c>
       <c r="D105">
-        <v>1056.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="E105">
-        <v>1056.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="F105">
-        <v>13577900</v>
+        <v>27919000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>1147.75</v>
+        <v>1000</v>
       </c>
       <c r="B106">
-        <v>1201.069946289062</v>
+        <v>1059.099975585938</v>
       </c>
       <c r="C106">
-        <v>1136.0400390625</v>
+        <v>980</v>
       </c>
       <c r="D106">
-        <v>1199.780029296875</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="E106">
-        <v>1199.780029296875</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="F106">
-        <v>34643800</v>
+        <v>30605000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>1189.550048828125</v>
+        <v>1053.670043945312</v>
       </c>
       <c r="B107">
-        <v>1208</v>
+        <v>1075.849975585938</v>
       </c>
       <c r="C107">
-        <v>1123.050048828125</v>
+        <v>1038.819946289062</v>
       </c>
       <c r="D107">
-        <v>1149.589965820312</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="E107">
-        <v>1149.589965820312</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="F107">
-        <v>33416100</v>
+        <v>22021100</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>1146.650024414062</v>
+        <v>1078.849975585938</v>
       </c>
       <c r="B108">
-        <v>1170.339965820312</v>
+        <v>1114.839965820312</v>
       </c>
       <c r="C108">
-        <v>1081.010009765625</v>
+        <v>1072.589965820312</v>
       </c>
       <c r="D108">
-        <v>1088.119995117188</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="E108">
-        <v>1088.119995117188</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="F108">
-        <v>26706600</v>
+        <v>27913000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>1077</v>
+        <v>1109.069946289062</v>
       </c>
       <c r="B109">
-        <v>1088</v>
+        <v>1115.599975585938</v>
       </c>
       <c r="C109">
-        <v>1020.5</v>
+        <v>1026.5400390625</v>
       </c>
       <c r="D109">
-        <v>1064.699951171875</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="E109">
-        <v>1064.699951171875</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="F109">
-        <v>30112200</v>
+        <v>32403300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>1080.369995117188</v>
+        <v>1019.880004882812</v>
       </c>
       <c r="B110">
-        <v>1080.930053710938</v>
+        <v>1052</v>
       </c>
       <c r="C110">
-        <v>1010</v>
+        <v>1013.380004882812</v>
       </c>
       <c r="D110">
-        <v>1026.9599609375</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="E110">
-        <v>1026.9599609375</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="F110">
-        <v>27919000</v>
+        <v>24246600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>1000</v>
+        <v>1026.609985351562</v>
       </c>
       <c r="B111">
-        <v>1059.099975585938</v>
+        <v>1070.7900390625</v>
       </c>
       <c r="C111">
-        <v>980</v>
+        <v>1016.059997558594</v>
       </c>
       <c r="D111">
-        <v>1058.119995117188</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="E111">
-        <v>1058.119995117188</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="F111">
-        <v>30605000</v>
+        <v>22247800</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>1053.670043945312</v>
+        <v>1041.7099609375</v>
       </c>
       <c r="B112">
-        <v>1075.849975585938</v>
+        <v>1054.670043945312</v>
       </c>
       <c r="C112">
-        <v>1038.819946289062</v>
+        <v>995</v>
       </c>
       <c r="D112">
-        <v>1064.400024414062</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="E112">
-        <v>1064.400024414062</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="F112">
-        <v>22021100</v>
+        <v>25147500</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>1078.849975585938</v>
+        <v>1009.72998046875</v>
       </c>
       <c r="B113">
-        <v>1114.839965820312</v>
+        <v>1041.660034179688</v>
       </c>
       <c r="C113">
-        <v>1072.589965820312</v>
+        <v>994</v>
       </c>
       <c r="D113">
-        <v>1106.219970703125</v>
+        <v>996.27001953125</v>
       </c>
       <c r="E113">
-        <v>1106.219970703125</v>
+        <v>996.27001953125</v>
       </c>
       <c r="F113">
-        <v>27913000</v>
+        <v>23496200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>1109.069946289062</v>
+        <v>996.3400268554688</v>
       </c>
       <c r="B114">
-        <v>1115.599975585938</v>
+        <v>1004.549987792969</v>
       </c>
       <c r="C114">
-        <v>1026.5400390625</v>
+        <v>940.5</v>
       </c>
       <c r="D114">
-        <v>1031.56005859375</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="E114">
-        <v>1031.56005859375</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="F114">
-        <v>32403300</v>
+        <v>34472000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>1019.880004882812</v>
+        <v>904.760009765625</v>
       </c>
       <c r="B115">
-        <v>1052</v>
+        <v>933.510009765625</v>
       </c>
       <c r="C115">
-        <v>1013.380004882812</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D115">
-        <v>1049.609985351562</v>
+        <v>930</v>
       </c>
       <c r="E115">
-        <v>1049.609985351562</v>
+        <v>930</v>
       </c>
       <c r="F115">
-        <v>24246600</v>
+        <v>50521900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>1026.609985351562</v>
+        <v>914.2000122070312</v>
       </c>
       <c r="B116">
-        <v>1070.7900390625</v>
+        <v>951.260009765625</v>
       </c>
       <c r="C116">
-        <v>1016.059997558594</v>
+        <v>903.2100219726562</v>
       </c>
       <c r="D116">
-        <v>1030.510009765625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="E116">
-        <v>1030.510009765625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="F116">
-        <v>22247800</v>
+        <v>28865300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1041.7099609375</v>
+        <v>952.4299926757812</v>
       </c>
       <c r="B117">
-        <v>1054.670043945312</v>
+        <v>987.6900024414062</v>
       </c>
       <c r="C117">
-        <v>995</v>
+        <v>906</v>
       </c>
       <c r="D117">
-        <v>995.6500244140625</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="E117">
-        <v>995.6500244140625</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="F117">
-        <v>25147500</v>
+        <v>34955800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>1009.72998046875</v>
+        <v>933.3599853515625</v>
       </c>
       <c r="B118">
-        <v>1041.660034179688</v>
+        <v>935.3900146484375</v>
       </c>
       <c r="C118">
-        <v>994</v>
+        <v>829</v>
       </c>
       <c r="D118">
-        <v>996.27001953125</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="E118">
-        <v>996.27001953125</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="F118">
-        <v>23496200</v>
+        <v>49036500</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>996.3400268554688</v>
+        <v>831.5599975585938</v>
       </c>
       <c r="B119">
-        <v>1004.549987792969</v>
+        <v>857.5</v>
       </c>
       <c r="C119">
-        <v>940.5</v>
+        <v>792.010009765625</v>
       </c>
       <c r="D119">
-        <v>943.9000244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E119">
-        <v>943.9000244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="F119">
-        <v>34472000</v>
+        <v>44929700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>904.760009765625</v>
+        <v>872.7100219726562</v>
       </c>
       <c r="B120">
-        <v>933.510009765625</v>
+        <v>937.989990234375</v>
       </c>
       <c r="C120">
-        <v>851.469970703125</v>
+        <v>862.0499877929688</v>
       </c>
       <c r="D120">
-        <v>930</v>
+        <v>936.719970703125</v>
       </c>
       <c r="E120">
-        <v>930</v>
+        <v>936.719970703125</v>
       </c>
       <c r="F120">
-        <v>50521900</v>
+        <v>34812000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>914.2000122070312</v>
+        <v>935.2100219726562</v>
       </c>
       <c r="B121">
-        <v>951.260009765625</v>
+        <v>943.7000122070312</v>
       </c>
       <c r="C121">
-        <v>903.2100219726562</v>
+        <v>905</v>
       </c>
       <c r="D121">
-        <v>918.4000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="E121">
-        <v>918.4000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="F121">
-        <v>28865300</v>
+        <v>24379400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>952.4299926757812</v>
+        <v>928.1799926757812</v>
       </c>
       <c r="B122">
-        <v>987.6900024414062</v>
+        <v>931.5</v>
       </c>
       <c r="C122">
-        <v>906</v>
+        <v>889.4099731445312</v>
       </c>
       <c r="D122">
-        <v>937.4099731445312</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="E122">
-        <v>937.4099731445312</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="F122">
-        <v>34955800</v>
+        <v>22264300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>933.3599853515625</v>
+        <v>882</v>
       </c>
       <c r="B123">
-        <v>935.3900146484375</v>
+        <v>937</v>
       </c>
       <c r="C123">
-        <v>829</v>
+        <v>880.52001953125</v>
       </c>
       <c r="D123">
-        <v>829.0999755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="E123">
-        <v>829.0999755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="F123">
-        <v>49036500</v>
+        <v>26285200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>831.5599975585938</v>
+        <v>897.219970703125</v>
       </c>
       <c r="B124">
-        <v>857.5</v>
+        <v>936.5</v>
       </c>
       <c r="C124">
-        <v>792.010009765625</v>
+        <v>881.1699829101562</v>
       </c>
       <c r="D124">
-        <v>846.3499755859375</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="E124">
-        <v>846.3499755859375</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="F124">
-        <v>44929700</v>
+        <v>24472600</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>872.7100219726562</v>
+        <v>923.7899780273438</v>
       </c>
       <c r="B125">
-        <v>937.989990234375</v>
+        <v>947.77001953125</v>
       </c>
       <c r="C125">
-        <v>862.0499877929688</v>
+        <v>902.7100219726562</v>
       </c>
       <c r="D125">
-        <v>936.719970703125</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="E125">
-        <v>936.719970703125</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="F125">
-        <v>34812000</v>
+        <v>20331500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>935.2100219726562</v>
+        <v>905.530029296875</v>
       </c>
       <c r="B126">
-        <v>943.7000122070312</v>
+        <v>926.2899780273438</v>
       </c>
       <c r="C126">
-        <v>905</v>
+        <v>894.7999877929688</v>
       </c>
       <c r="D126">
-        <v>931.25</v>
+        <v>922</v>
       </c>
       <c r="E126">
-        <v>931.25</v>
+        <v>922</v>
       </c>
       <c r="F126">
-        <v>24379400</v>
+        <v>16909700</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>928.1799926757812</v>
+        <v>935</v>
       </c>
       <c r="B127">
-        <v>931.5</v>
+        <v>946.27001953125</v>
       </c>
       <c r="C127">
-        <v>889.4099731445312</v>
+        <v>920</v>
       </c>
       <c r="D127">
-        <v>905.6599731445312</v>
+        <v>932</v>
       </c>
       <c r="E127">
-        <v>905.6599731445312</v>
+        <v>932</v>
       </c>
       <c r="F127">
-        <v>22264300</v>
+        <v>17419800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>882</v>
+        <v>908.3699951171875</v>
       </c>
       <c r="B128">
-        <v>937</v>
+        <v>943.8099975585938</v>
       </c>
       <c r="C128">
-        <v>880.52001953125</v>
+        <v>896.7000122070312</v>
       </c>
       <c r="D128">
-        <v>891.1400146484375</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="E128">
-        <v>891.1400146484375</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="F128">
-        <v>26285200</v>
+        <v>22042300</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>897.219970703125</v>
+        <v>909.6300048828125</v>
       </c>
       <c r="B129">
-        <v>936.5</v>
+        <v>915.9600219726562</v>
       </c>
       <c r="C129">
-        <v>881.1699829101562</v>
+        <v>850.7000122070312</v>
       </c>
       <c r="D129">
-        <v>923.3200073242188</v>
+        <v>860</v>
       </c>
       <c r="E129">
-        <v>923.3200073242188</v>
+        <v>860</v>
       </c>
       <c r="F129">
-        <v>24472600</v>
+        <v>26492700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>706.3400268554688</v>
+        <v>678.2100219726562</v>
       </c>
       <c r="B2">
-        <v>722.7999877929688</v>
+        <v>686.5499877929688</v>
       </c>
       <c r="C2">
-        <v>699.4000244140625</v>
+        <v>667.5900268554688</v>
       </c>
       <c r="D2">
-        <v>722.25</v>
+        <v>673.469970703125</v>
       </c>
       <c r="E2">
-        <v>722.25</v>
+        <v>673.469970703125</v>
       </c>
       <c r="F2">
-        <v>17459100</v>
+        <v>14313500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>723.7100219726562</v>
+        <v>682.8499755859375</v>
       </c>
       <c r="B3">
-        <v>729.9000244140625</v>
+        <v>692.1300048828125</v>
       </c>
       <c r="C3">
-        <v>714.3400268554688</v>
+        <v>673.7000122070312</v>
       </c>
       <c r="D3">
-        <v>717.1699829101562</v>
+        <v>680.260009765625</v>
       </c>
       <c r="E3">
-        <v>717.1699829101562</v>
+        <v>680.260009765625</v>
       </c>
       <c r="F3">
-        <v>16698900</v>
+        <v>14781800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>705.0700073242188</v>
+        <v>685.4400024414062</v>
       </c>
       <c r="B4">
-        <v>709.5</v>
+        <v>712.1300048828125</v>
       </c>
       <c r="C4">
-        <v>676.4000244140625</v>
+        <v>680.75</v>
       </c>
       <c r="D4">
-        <v>686.1699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="E4">
-        <v>686.1699829101562</v>
+        <v>706.2999877929688</v>
       </c>
       <c r="F4">
-        <v>22677400</v>
+        <v>20264900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>672.6599731445312</v>
+        <v>710.6799926757812</v>
       </c>
       <c r="B5">
-        <v>674.5800170898438</v>
+        <v>715.219970703125</v>
       </c>
       <c r="C5">
-        <v>648.8400268554688</v>
+        <v>702.6400146484375</v>
       </c>
       <c r="D5">
-        <v>665.7100219726562</v>
+        <v>708.489990234375</v>
       </c>
       <c r="E5">
-        <v>665.7100219726562</v>
+        <v>708.489990234375</v>
       </c>
       <c r="F5">
-        <v>23721300</v>
+        <v>13083100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>669.75</v>
+        <v>707.030029296875</v>
       </c>
       <c r="B6">
-        <v>695.77001953125</v>
+        <v>716.969970703125</v>
       </c>
       <c r="C6">
-        <v>669.3499755859375</v>
+        <v>704</v>
       </c>
       <c r="D6">
-        <v>688.989990234375</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="E6">
-        <v>688.989990234375</v>
+        <v>711.2000122070312</v>
       </c>
       <c r="F6">
-        <v>20349400</v>
+        <v>12645600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>678.2100219726562</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B7">
-        <v>686.5499877929688</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C7">
-        <v>667.5900268554688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D7">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E7">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F7">
-        <v>14313500</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>682.8499755859375</v>
+        <v>705</v>
       </c>
       <c r="B8">
-        <v>692.1300048828125</v>
+        <v>715</v>
       </c>
       <c r="C8">
-        <v>673.7000122070312</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D8">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E8">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F8">
-        <v>14781800</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>685.4400024414062</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B9">
-        <v>712.1300048828125</v>
+        <v>731</v>
       </c>
       <c r="C9">
-        <v>680.75</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D9">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E9">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F9">
-        <v>20264900</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>710.6799926757812</v>
+        <v>733</v>
       </c>
       <c r="B10">
-        <v>715.219970703125</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C10">
-        <v>702.6400146484375</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D10">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E10">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F10">
-        <v>13083100</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>707.030029296875</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B11">
-        <v>716.969970703125</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C11">
-        <v>704</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D11">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E11">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F11">
-        <v>12645600</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>708.3099975585938</v>
+        <v>734.5</v>
       </c>
       <c r="B12">
-        <v>715.4000244140625</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C12">
-        <v>697.6199951171875</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D12">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E12">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F12">
-        <v>13214300</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>705</v>
+        <v>732.25</v>
       </c>
       <c r="B13">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="C13">
-        <v>702.0999755859375</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D13">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E13">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F13">
-        <v>13762100</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>714.719970703125</v>
+        <v>740</v>
       </c>
       <c r="B14">
-        <v>731</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C14">
-        <v>712.72998046875</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D14">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E14">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F14">
-        <v>18604200</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>733</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B15">
-        <v>740.3900146484375</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C15">
-        <v>726.4400024414062</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D15">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E15">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F15">
-        <v>20855400</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>734.0800170898438</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B16">
-        <v>741.989990234375</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C16">
-        <v>731.27001953125</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D16">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E16">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F16">
-        <v>13204300</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>734.5</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B17">
-        <v>740.969970703125</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C17">
-        <v>730.5399780273438</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D17">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E17">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F17">
-        <v>12777300</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>732.25</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B18">
-        <v>734</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C18">
-        <v>724.2000122070312</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D18">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="E18">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="F18">
-        <v>15246100</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>740</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B19">
-        <v>760.2000122070312</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C19">
-        <v>739.260009765625</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D19">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E19">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F19">
-        <v>20039800</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>761.5800170898438</v>
+        <v>745</v>
       </c>
       <c r="B20">
-        <v>764.4500122070312</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C20">
-        <v>740.77001953125</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D20">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E20">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F20">
-        <v>18793000</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>753.4099731445312</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B21">
-        <v>762.0999755859375</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C21">
-        <v>751.6300048828125</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D21">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E21">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F21">
-        <v>14077700</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>759.5999755859375</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B22">
-        <v>762.6099853515625</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C22">
-        <v>734.52001953125</v>
+        <v>750</v>
       </c>
       <c r="D22">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E22">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F22">
-        <v>15114300</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>740.2100219726562</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B23">
-        <v>744.780029296875</v>
+        <v>742</v>
       </c>
       <c r="C23">
-        <v>708.8499755859375</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D23">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E23">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F23">
-        <v>22952500</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>742.5700073242188</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B24">
-        <v>754.469970703125</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C24">
-        <v>736.4000244140625</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D24">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E24">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F24">
-        <v>18524900</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>745</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B25">
-        <v>756.8599853515625</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C25">
-        <v>738.3599853515625</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D25">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E25">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F25">
-        <v>15357700</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>752.8300170898438</v>
+        <v>755</v>
       </c>
       <c r="B26">
-        <v>758.9099731445312</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C26">
-        <v>747.6099853515625</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D26">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E26">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F26">
-        <v>13923400</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>757.1500244140625</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B27">
-        <v>761.0399780273438</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C27">
-        <v>750</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D27">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E27">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F27">
-        <v>28204200</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>734.5599975585938</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B28">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="C28">
-        <v>718.6199951171875</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D28">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E28">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F28">
-        <v>24757700</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>734.7899780273438</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B29">
-        <v>744.739990234375</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C29">
-        <v>730.4400024414062</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D29">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E29">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F29">
-        <v>16330700</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>743.530029296875</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B30">
-        <v>753.6699829101562</v>
+        <v>793.5</v>
       </c>
       <c r="C30">
-        <v>739.1199951171875</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D30">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E30">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F30">
-        <v>15126300</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="B31">
-        <v>758.2000122070312</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C31">
-        <v>747.9199829101562</v>
+        <v>775</v>
       </c>
       <c r="D31">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E31">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F31">
-        <v>11947500</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>745.8900146484375</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B32">
-        <v>774.7999877929688</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C32">
-        <v>744.5599975585938</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D32">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E32">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F32">
-        <v>21373000</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>773.1199951171875</v>
+        <v>796.5</v>
       </c>
       <c r="B33">
-        <v>799</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C33">
-        <v>769.3099975585938</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D33">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E33">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F33">
-        <v>28070700</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>787.2000122070312</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B34">
-        <v>795.6400146484375</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C34">
-        <v>766.1799926757812</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D34">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E34">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F34">
-        <v>25381400</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>779.7999877929688</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B35">
-        <v>793.5</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C35">
-        <v>770.6799926757812</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D35">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="E35">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="F35">
-        <v>20942900</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>781</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B36">
-        <v>789.1300048828125</v>
+        <v>805</v>
       </c>
       <c r="C36">
-        <v>775</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D36">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E36">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F36">
-        <v>17956000</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>778.4000244140625</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B37">
-        <v>780.780029296875</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C37">
-        <v>763.5900268554688</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D37">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E37">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F37">
-        <v>17031400</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>796.5</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B38">
-        <v>806.969970703125</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C38">
-        <v>776.1199951171875</v>
+        <v>785.5</v>
       </c>
       <c r="D38">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E38">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F38">
-        <v>30483300</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>784.7999877929688</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B39">
-        <v>797.3099975585938</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C39">
-        <v>774.2000122070312</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D39">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E39">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F39">
-        <v>18432600</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>776.2000122070312</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B40">
-        <v>786.6599731445312</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C40">
-        <v>773.219970703125</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D40">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E40">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F40">
-        <v>14632800</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>785.4600219726562</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B41">
-        <v>805</v>
+        <v>820.25</v>
       </c>
       <c r="C41">
-        <v>783.3800048828125</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D41">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E41">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F41">
-        <v>19195800</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>796.2100219726562</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B42">
-        <v>796.3800048828125</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C42">
-        <v>780.9099731445312</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D42">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E42">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F42">
-        <v>16711100</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>787.6500244140625</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B43">
-        <v>801.239990234375</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C43">
-        <v>785.5</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D43">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E43">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F43">
-        <v>14200300</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>800.9299926757812</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B44">
-        <v>812.3200073242188</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C44">
-        <v>796.5700073242188</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D44">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E44">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F44">
-        <v>22020000</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>810.469970703125</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B45">
-        <v>815.4099731445312</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C45">
-        <v>805.780029296875</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D45">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E45">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F45">
-        <v>14120100</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>815.489990234375</v>
+        <v>856</v>
       </c>
       <c r="B46">
-        <v>820.25</v>
+        <v>900</v>
       </c>
       <c r="C46">
-        <v>813.3499755859375</v>
+        <v>855.5</v>
       </c>
       <c r="D46">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="E46">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="F46">
-        <v>12247200</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>823.739990234375</v>
+        <v>895.5</v>
       </c>
       <c r="B47">
-        <v>843.2100219726562</v>
+        <v>910</v>
       </c>
       <c r="C47">
-        <v>822.3499755859375</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D47">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E47">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F47">
-        <v>18818000</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>851.7899780273438</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B48">
-        <v>875.260009765625</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C48">
-        <v>851.469970703125</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D48">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E48">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F48">
-        <v>24207200</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>877.530029296875</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B49">
-        <v>877.9500122070312</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C49">
-        <v>862.510009765625</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D49">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E49">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F49">
-        <v>17381100</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>865.3499755859375</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B50">
-        <v>869.489990234375</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C50">
-        <v>857.3800048828125</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D50">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E50">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F50">
-        <v>14032100</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>856</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B51">
-        <v>900</v>
+        <v>1081</v>
       </c>
       <c r="C51">
-        <v>855.5</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D51">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E51">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F51">
-        <v>31481500</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>895.5</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B52">
-        <v>910</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C52">
-        <v>890.9600219726562</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D52">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="E52">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="F52">
-        <v>22880800</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>950.530029296875</v>
+        <v>1145</v>
       </c>
       <c r="B53">
-        <v>1045.02001953125</v>
+        <v>1209.75</v>
       </c>
       <c r="C53">
-        <v>944.2000122070312</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D53">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E53">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F53">
-        <v>62852100</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1024.68994140625</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B54">
-        <v>1094.93994140625</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C54">
-        <v>1001.440002441406</v>
+        <v>1146</v>
       </c>
       <c r="D54">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="E54">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="F54">
-        <v>62415000</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1039.660034179688</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B55">
-        <v>1070.880004882812</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C55">
-        <v>1030.780029296875</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D55">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E55">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F55">
-        <v>38526500</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1068.31005859375</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B56">
-        <v>1081</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C56">
-        <v>1054.199951171875</v>
+        <v>1217</v>
       </c>
       <c r="D56">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E56">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F56">
-        <v>27213200</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1081.859985351562</v>
+        <v>1228</v>
       </c>
       <c r="B57">
-        <v>1115.2099609375</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C57">
-        <v>1073.2099609375</v>
+        <v>1208</v>
       </c>
       <c r="D57">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E57">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F57">
-        <v>29918400</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1145</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B58">
-        <v>1209.75</v>
+        <v>1197</v>
       </c>
       <c r="C58">
-        <v>1118.660034179688</v>
+        <v>1133</v>
       </c>
       <c r="D58">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E58">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F58">
-        <v>56048700</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1159.359985351562</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B59">
-        <v>1208.589965820312</v>
+        <v>1174.5</v>
       </c>
       <c r="C59">
-        <v>1146</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D59">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="E59">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="F59">
-        <v>42737800</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1177.329956054688</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B60">
-        <v>1215.390014648438</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C60">
-        <v>1152.619995117188</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D60">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E60">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F60">
-        <v>34628500</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1234.410034179688</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B61">
-        <v>1243.489990234375</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C61">
-        <v>1217</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D61">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E61">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F61">
-        <v>25397400</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1228</v>
+        <v>1047.5</v>
       </c>
       <c r="B62">
-        <v>1239.869995117188</v>
+        <v>1054.5</v>
       </c>
       <c r="C62">
-        <v>1208</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D62">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E62">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F62">
-        <v>21579900</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1149.7900390625</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B63">
-        <v>1197</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C63">
-        <v>1133</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D63">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E63">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F63">
-        <v>33445700</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1173.599975585938</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B64">
-        <v>1174.5</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C64">
-        <v>1011.52001953125</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D64">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E64">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F64">
-        <v>59105800</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1010.409973144531</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B65">
-        <v>1078.099975585938</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C65">
-        <v>987.3099975585938</v>
+        <v>1055.5</v>
       </c>
       <c r="D65">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E65">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F65">
-        <v>42802700</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1102.77001953125</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B66">
-        <v>1104.969970703125</v>
+        <v>1112</v>
       </c>
       <c r="C66">
-        <v>1054.680053710938</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D66">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E66">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F66">
-        <v>22396600</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1047.5</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B67">
-        <v>1054.5</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C67">
-        <v>1019.200012207031</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D67">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E67">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F67">
-        <v>25182300</v>
+        <v>21642300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1017.630004882812</v>
+        <v>1162.329956054688</v>
       </c>
       <c r="B68">
-        <v>1031.97998046875</v>
+        <v>1201.949951171875</v>
       </c>
       <c r="C68">
-        <v>978.5999755859375</v>
+        <v>1132.430053710938</v>
       </c>
       <c r="D68">
-        <v>1013.390014648438</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="E68">
-        <v>1013.390014648438</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="F68">
-        <v>34775600</v>
+        <v>33072500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1003.309997558594</v>
+        <v>1167.510009765625</v>
       </c>
       <c r="B69">
-        <v>1057.199951171875</v>
+        <v>1180.5</v>
       </c>
       <c r="C69">
-        <v>1002.179992675781</v>
+        <v>1062.699951171875</v>
       </c>
       <c r="D69">
-        <v>1054.72998046875</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="E69">
-        <v>1054.72998046875</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="F69">
-        <v>26542400</v>
+        <v>36171700</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1063.510009765625</v>
+        <v>1080.390014648438</v>
       </c>
       <c r="B70">
-        <v>1119.640014648438</v>
+        <v>1132.77001953125</v>
       </c>
       <c r="C70">
-        <v>1055.5</v>
+        <v>1062</v>
       </c>
       <c r="D70">
-        <v>1089.010009765625</v>
+        <v>1116</v>
       </c>
       <c r="E70">
-        <v>1089.010009765625</v>
+        <v>1116</v>
       </c>
       <c r="F70">
-        <v>31445400</v>
+        <v>22560200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1106.550048828125</v>
+        <v>1099.469970703125</v>
       </c>
       <c r="B71">
-        <v>1112</v>
+        <v>1108.780029296875</v>
       </c>
       <c r="C71">
-        <v>1075.02001953125</v>
+        <v>1081</v>
       </c>
       <c r="D71">
-        <v>1096.380004882812</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="E71">
-        <v>1096.380004882812</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="F71">
-        <v>20898900</v>
+        <v>11680900</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1098.869995117188</v>
+        <v>1100.989990234375</v>
       </c>
       <c r="B72">
-        <v>1138.719970703125</v>
+        <v>1142.670043945312</v>
       </c>
       <c r="C72">
-        <v>1092.699951171875</v>
+        <v>1100.18994140625</v>
       </c>
       <c r="D72">
-        <v>1137.06005859375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="E72">
-        <v>1137.06005859375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="F72">
-        <v>21642300</v>
+        <v>19464500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1162.329956054688</v>
+        <v>1144.369995117188</v>
       </c>
       <c r="B73">
-        <v>1201.949951171875</v>
+        <v>1168</v>
       </c>
       <c r="C73">
-        <v>1132.430053710938</v>
+        <v>1118</v>
       </c>
       <c r="D73">
-        <v>1156.869995117188</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="E73">
-        <v>1156.869995117188</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="F73">
-        <v>33072500</v>
+        <v>27092000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1167.510009765625</v>
+        <v>1160.699951171875</v>
       </c>
       <c r="B74">
-        <v>1180.5</v>
+        <v>1172.839965820312</v>
       </c>
       <c r="C74">
-        <v>1062.699951171875</v>
+        <v>1090.760009765625</v>
       </c>
       <c r="D74">
-        <v>1109.030029296875</v>
+        <v>1095</v>
       </c>
       <c r="E74">
-        <v>1109.030029296875</v>
+        <v>1095</v>
       </c>
       <c r="F74">
-        <v>36171700</v>
+        <v>22816800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1080.390014648438</v>
+        <v>1099.06005859375</v>
       </c>
       <c r="B75">
-        <v>1132.77001953125</v>
+        <v>1113</v>
       </c>
       <c r="C75">
-        <v>1062</v>
+        <v>1056.650024414062</v>
       </c>
       <c r="D75">
-        <v>1116</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="E75">
-        <v>1116</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="F75">
-        <v>22560200</v>
+        <v>24371600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1099.469970703125</v>
+        <v>1084.7900390625</v>
       </c>
       <c r="B76">
-        <v>1108.780029296875</v>
+        <v>1090.579956054688</v>
       </c>
       <c r="C76">
-        <v>1081</v>
+        <v>1000.210021972656</v>
       </c>
       <c r="D76">
-        <v>1081.920043945312</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="E76">
-        <v>1081.920043945312</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="F76">
-        <v>11680900</v>
+        <v>30696300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1100.989990234375</v>
+        <v>1001.510009765625</v>
       </c>
       <c r="B77">
-        <v>1142.670043945312</v>
+        <v>1021.640014648438</v>
       </c>
       <c r="C77">
-        <v>1100.18994140625</v>
+        <v>950.5</v>
       </c>
       <c r="D77">
-        <v>1136.989990234375</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="E77">
-        <v>1136.989990234375</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="F77">
-        <v>19464500</v>
+        <v>27221000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1144.369995117188</v>
+        <v>1044.199951171875</v>
       </c>
       <c r="B78">
-        <v>1168</v>
+        <v>1057.670043945312</v>
       </c>
       <c r="C78">
-        <v>1118</v>
+        <v>1026.81005859375</v>
       </c>
       <c r="D78">
-        <v>1144.760009765625</v>
+        <v>1051.75</v>
       </c>
       <c r="E78">
-        <v>1144.760009765625</v>
+        <v>1051.75</v>
       </c>
       <c r="F78">
-        <v>27092000</v>
+        <v>18694900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1160.699951171875</v>
+        <v>1052.7099609375</v>
       </c>
       <c r="B79">
-        <v>1172.839965820312</v>
+        <v>1072.380004882812</v>
       </c>
       <c r="C79">
-        <v>1090.760009765625</v>
+        <v>1033</v>
       </c>
       <c r="D79">
-        <v>1095</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="E79">
-        <v>1095</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="F79">
-        <v>22816800</v>
+        <v>13968800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1099.06005859375</v>
+        <v>1060.640014648438</v>
       </c>
       <c r="B80">
-        <v>1113</v>
+        <v>1062.489990234375</v>
       </c>
       <c r="C80">
-        <v>1056.650024414062</v>
+        <v>1002.359985351562</v>
       </c>
       <c r="D80">
-        <v>1084.599975585938</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="E80">
-        <v>1084.599975585938</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="F80">
-        <v>24371600</v>
+        <v>19812800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1084.7900390625</v>
+        <v>1008.75</v>
       </c>
       <c r="B81">
-        <v>1090.579956054688</v>
+        <v>1020.97998046875</v>
       </c>
       <c r="C81">
-        <v>1000.210021972656</v>
+        <v>982.530029296875</v>
       </c>
       <c r="D81">
-        <v>1014.969970703125</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="E81">
-        <v>1014.969970703125</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="F81">
-        <v>30696300</v>
+        <v>19855000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>1001.510009765625</v>
+        <v>1001.090026855469</v>
       </c>
       <c r="B82">
-        <v>1021.640014648438</v>
+        <v>1005</v>
       </c>
       <c r="C82">
-        <v>950.5</v>
+        <v>951.4199829101562</v>
       </c>
       <c r="D82">
-        <v>1009.010009765625</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="E82">
-        <v>1009.010009765625</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="F82">
-        <v>27221000</v>
+        <v>26198500</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>1044.199951171875</v>
+        <v>945</v>
       </c>
       <c r="B83">
-        <v>1057.670043945312</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="C83">
-        <v>1026.81005859375</v>
+        <v>930</v>
       </c>
       <c r="D83">
-        <v>1051.75</v>
+        <v>958.510009765625</v>
       </c>
       <c r="E83">
-        <v>1051.75</v>
+        <v>958.510009765625</v>
       </c>
       <c r="F83">
-        <v>18694900</v>
+        <v>23602100</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>1052.7099609375</v>
+        <v>953.2100219726562</v>
       </c>
       <c r="B84">
-        <v>1072.380004882812</v>
+        <v>978.75</v>
       </c>
       <c r="C84">
-        <v>1033</v>
+        <v>928.25</v>
       </c>
       <c r="D84">
-        <v>1068.9599609375</v>
+        <v>975.989990234375</v>
       </c>
       <c r="E84">
-        <v>1068.9599609375</v>
+        <v>975.989990234375</v>
       </c>
       <c r="F84">
-        <v>13968800</v>
+        <v>25056400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1060.640014648438</v>
+        <v>994.5</v>
       </c>
       <c r="B85">
-        <v>1062.489990234375</v>
+        <v>994.97998046875</v>
       </c>
       <c r="C85">
-        <v>1002.359985351562</v>
+        <v>921.8499755859375</v>
       </c>
       <c r="D85">
-        <v>1003.799987792969</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="E85">
-        <v>1003.799987792969</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="F85">
-        <v>19812800</v>
+        <v>27590500</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1008.75</v>
+        <v>914.77001953125</v>
       </c>
       <c r="B86">
-        <v>1020.97998046875</v>
+        <v>960.6599731445312</v>
       </c>
       <c r="C86">
-        <v>982.530029296875</v>
+        <v>909.0399780273438</v>
       </c>
       <c r="D86">
-        <v>1017.030029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="E86">
-        <v>1017.030029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="F86">
-        <v>19855000</v>
+        <v>33479100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1001.090026855469</v>
+        <v>910.7000122070312</v>
       </c>
       <c r="B87">
-        <v>1005</v>
+        <v>921.6900024414062</v>
       </c>
       <c r="C87">
-        <v>951.4199829101562</v>
+        <v>893.3900146484375</v>
       </c>
       <c r="D87">
-        <v>966.4099731445312</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="E87">
-        <v>966.4099731445312</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="F87">
-        <v>26198500</v>
+        <v>18826700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>945</v>
+        <v>916.8699951171875</v>
       </c>
       <c r="B88">
-        <v>966.4099731445312</v>
+        <v>939.5</v>
       </c>
       <c r="C88">
-        <v>930</v>
+        <v>886.1199951171875</v>
       </c>
       <c r="D88">
-        <v>958.510009765625</v>
+        <v>938.530029296875</v>
       </c>
       <c r="E88">
-        <v>958.510009765625</v>
+        <v>938.530029296875</v>
       </c>
       <c r="F88">
-        <v>23602100</v>
+        <v>23839300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>953.2100219726562</v>
+        <v>965.6599731445312</v>
       </c>
       <c r="B89">
-        <v>978.75</v>
+        <v>1015.659973144531</v>
       </c>
       <c r="C89">
-        <v>928.25</v>
+        <v>957.0499877929688</v>
       </c>
       <c r="D89">
-        <v>975.989990234375</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="E89">
-        <v>975.989990234375</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="F89">
-        <v>25056400</v>
+        <v>31211400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>994.5</v>
+        <v>1006.799987792969</v>
       </c>
       <c r="B90">
-        <v>994.97998046875</v>
+        <v>1072.97998046875</v>
       </c>
       <c r="C90">
-        <v>921.8499755859375</v>
+        <v>997.5599975585938</v>
       </c>
       <c r="D90">
-        <v>926.9199829101562</v>
+        <v>1067</v>
       </c>
       <c r="E90">
-        <v>926.9199829101562</v>
+        <v>1067</v>
       </c>
       <c r="F90">
-        <v>27590500</v>
+        <v>30904400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>914.77001953125</v>
+        <v>1073.670043945312</v>
       </c>
       <c r="B91">
-        <v>960.6599731445312</v>
+        <v>1117</v>
       </c>
       <c r="C91">
-        <v>909.0399780273438</v>
+        <v>1070.719970703125</v>
       </c>
       <c r="D91">
-        <v>932.5700073242188</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="E91">
-        <v>932.5700073242188</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="F91">
-        <v>33479100</v>
+        <v>23715300</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>910.7000122070312</v>
+        <v>1109.489990234375</v>
       </c>
       <c r="B92">
-        <v>921.6900024414062</v>
+        <v>1119</v>
       </c>
       <c r="C92">
-        <v>893.3900146484375</v>
+        <v>1078.420043945312</v>
       </c>
       <c r="D92">
-        <v>899.9400024414062</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="E92">
-        <v>899.9400024414062</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="F92">
-        <v>18826700</v>
+        <v>20108000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>916.8699951171875</v>
+        <v>1098.640014648438</v>
       </c>
       <c r="B93">
-        <v>939.5</v>
+        <v>1104</v>
       </c>
       <c r="C93">
-        <v>886.1199951171875</v>
+        <v>1064.140014648438</v>
       </c>
       <c r="D93">
-        <v>938.530029296875</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="E93">
-        <v>938.530029296875</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="F93">
-        <v>23839300</v>
+        <v>18718000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>965.6599731445312</v>
+        <v>1061.329956054688</v>
       </c>
       <c r="B94">
-        <v>1015.659973144531</v>
+        <v>1095.550048828125</v>
       </c>
       <c r="C94">
-        <v>957.0499877929688</v>
+        <v>1053.150024414062</v>
       </c>
       <c r="D94">
-        <v>1008.869995117188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="E94">
-        <v>1008.869995117188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="F94">
-        <v>31211400</v>
+        <v>15680300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1006.799987792969</v>
+        <v>1073.43994140625</v>
       </c>
       <c r="B95">
-        <v>1072.97998046875</v>
+        <v>1082</v>
       </c>
       <c r="C95">
-        <v>997.5599975585938</v>
+        <v>1054.589965820312</v>
       </c>
       <c r="D95">
-        <v>1067</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="E95">
-        <v>1067</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="F95">
-        <v>30904400</v>
+        <v>13577900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1073.670043945312</v>
+        <v>1147.75</v>
       </c>
       <c r="B96">
-        <v>1117</v>
+        <v>1201.069946289062</v>
       </c>
       <c r="C96">
-        <v>1070.719970703125</v>
+        <v>1136.0400390625</v>
       </c>
       <c r="D96">
-        <v>1093.93994140625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="E96">
-        <v>1093.93994140625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="F96">
-        <v>23715300</v>
+        <v>34643800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>1109.489990234375</v>
+        <v>1189.550048828125</v>
       </c>
       <c r="B97">
-        <v>1119</v>
+        <v>1208</v>
       </c>
       <c r="C97">
-        <v>1078.420043945312</v>
+        <v>1123.050048828125</v>
       </c>
       <c r="D97">
-        <v>1088.469970703125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="E97">
-        <v>1088.469970703125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="F97">
-        <v>20108000</v>
+        <v>33416100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1098.640014648438</v>
+        <v>1146.650024414062</v>
       </c>
       <c r="B98">
-        <v>1104</v>
+        <v>1170.339965820312</v>
       </c>
       <c r="C98">
-        <v>1064.140014648438</v>
+        <v>1081.010009765625</v>
       </c>
       <c r="D98">
-        <v>1086.18994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="E98">
-        <v>1086.18994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="F98">
-        <v>18718000</v>
+        <v>26706600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1061.329956054688</v>
+        <v>1077</v>
       </c>
       <c r="B99">
-        <v>1095.550048828125</v>
+        <v>1088</v>
       </c>
       <c r="C99">
-        <v>1053.150024414062</v>
+        <v>1020.5</v>
       </c>
       <c r="D99">
-        <v>1070.339965820312</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="E99">
-        <v>1070.339965820312</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="F99">
-        <v>15680300</v>
+        <v>30112200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1073.43994140625</v>
+        <v>1080.369995117188</v>
       </c>
       <c r="B100">
-        <v>1082</v>
+        <v>1080.930053710938</v>
       </c>
       <c r="C100">
-        <v>1054.589965820312</v>
+        <v>1010</v>
       </c>
       <c r="D100">
-        <v>1056.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="E100">
-        <v>1056.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="F100">
-        <v>13577900</v>
+        <v>27919000</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>1147.75</v>
+        <v>1000</v>
       </c>
       <c r="B101">
-        <v>1201.069946289062</v>
+        <v>1059.099975585938</v>
       </c>
       <c r="C101">
-        <v>1136.0400390625</v>
+        <v>980</v>
       </c>
       <c r="D101">
-        <v>1199.780029296875</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="E101">
-        <v>1199.780029296875</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="F101">
-        <v>34643800</v>
+        <v>30605000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>1189.550048828125</v>
+        <v>1053.670043945312</v>
       </c>
       <c r="B102">
-        <v>1208</v>
+        <v>1075.849975585938</v>
       </c>
       <c r="C102">
-        <v>1123.050048828125</v>
+        <v>1038.819946289062</v>
       </c>
       <c r="D102">
-        <v>1149.589965820312</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="E102">
-        <v>1149.589965820312</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="F102">
-        <v>33416100</v>
+        <v>22021100</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1146.650024414062</v>
+        <v>1078.849975585938</v>
       </c>
       <c r="B103">
-        <v>1170.339965820312</v>
+        <v>1114.839965820312</v>
       </c>
       <c r="C103">
-        <v>1081.010009765625</v>
+        <v>1072.589965820312</v>
       </c>
       <c r="D103">
-        <v>1088.119995117188</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="E103">
-        <v>1088.119995117188</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="F103">
-        <v>26706600</v>
+        <v>27913000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>1077</v>
+        <v>1109.069946289062</v>
       </c>
       <c r="B104">
-        <v>1088</v>
+        <v>1115.599975585938</v>
       </c>
       <c r="C104">
-        <v>1020.5</v>
+        <v>1026.5400390625</v>
       </c>
       <c r="D104">
-        <v>1064.699951171875</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="E104">
-        <v>1064.699951171875</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="F104">
-        <v>30112200</v>
+        <v>32403300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>1080.369995117188</v>
+        <v>1019.880004882812</v>
       </c>
       <c r="B105">
-        <v>1080.930053710938</v>
+        <v>1052</v>
       </c>
       <c r="C105">
-        <v>1010</v>
+        <v>1013.380004882812</v>
       </c>
       <c r="D105">
-        <v>1026.9599609375</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="E105">
-        <v>1026.9599609375</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="F105">
-        <v>27919000</v>
+        <v>24246600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>1000</v>
+        <v>1026.609985351562</v>
       </c>
       <c r="B106">
-        <v>1059.099975585938</v>
+        <v>1070.7900390625</v>
       </c>
       <c r="C106">
-        <v>980</v>
+        <v>1016.059997558594</v>
       </c>
       <c r="D106">
-        <v>1058.119995117188</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="E106">
-        <v>1058.119995117188</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="F106">
-        <v>30605000</v>
+        <v>22247800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>1053.670043945312</v>
+        <v>1041.7099609375</v>
       </c>
       <c r="B107">
-        <v>1075.849975585938</v>
+        <v>1054.670043945312</v>
       </c>
       <c r="C107">
-        <v>1038.819946289062</v>
+        <v>995</v>
       </c>
       <c r="D107">
-        <v>1064.400024414062</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="E107">
-        <v>1064.400024414062</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="F107">
-        <v>22021100</v>
+        <v>25147500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>1078.849975585938</v>
+        <v>1009.72998046875</v>
       </c>
       <c r="B108">
-        <v>1114.839965820312</v>
+        <v>1041.660034179688</v>
       </c>
       <c r="C108">
-        <v>1072.589965820312</v>
+        <v>994</v>
       </c>
       <c r="D108">
-        <v>1106.219970703125</v>
+        <v>996.27001953125</v>
       </c>
       <c r="E108">
-        <v>1106.219970703125</v>
+        <v>996.27001953125</v>
       </c>
       <c r="F108">
-        <v>27913000</v>
+        <v>23496200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>1109.069946289062</v>
+        <v>996.3400268554688</v>
       </c>
       <c r="B109">
-        <v>1115.599975585938</v>
+        <v>1004.549987792969</v>
       </c>
       <c r="C109">
-        <v>1026.5400390625</v>
+        <v>940.5</v>
       </c>
       <c r="D109">
-        <v>1031.56005859375</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="E109">
-        <v>1031.56005859375</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="F109">
-        <v>32403300</v>
+        <v>34472000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>1019.880004882812</v>
+        <v>904.760009765625</v>
       </c>
       <c r="B110">
-        <v>1052</v>
+        <v>933.510009765625</v>
       </c>
       <c r="C110">
-        <v>1013.380004882812</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D110">
-        <v>1049.609985351562</v>
+        <v>930</v>
       </c>
       <c r="E110">
-        <v>1049.609985351562</v>
+        <v>930</v>
       </c>
       <c r="F110">
-        <v>24246600</v>
+        <v>50521900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>1026.609985351562</v>
+        <v>914.2000122070312</v>
       </c>
       <c r="B111">
-        <v>1070.7900390625</v>
+        <v>951.260009765625</v>
       </c>
       <c r="C111">
-        <v>1016.059997558594</v>
+        <v>903.2100219726562</v>
       </c>
       <c r="D111">
-        <v>1030.510009765625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="E111">
-        <v>1030.510009765625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="F111">
-        <v>22247800</v>
+        <v>28865300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>1041.7099609375</v>
+        <v>952.4299926757812</v>
       </c>
       <c r="B112">
-        <v>1054.670043945312</v>
+        <v>987.6900024414062</v>
       </c>
       <c r="C112">
-        <v>995</v>
+        <v>906</v>
       </c>
       <c r="D112">
-        <v>995.6500244140625</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="E112">
-        <v>995.6500244140625</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="F112">
-        <v>25147500</v>
+        <v>34955800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>1009.72998046875</v>
+        <v>933.3599853515625</v>
       </c>
       <c r="B113">
-        <v>1041.660034179688</v>
+        <v>935.3900146484375</v>
       </c>
       <c r="C113">
-        <v>994</v>
+        <v>829</v>
       </c>
       <c r="D113">
-        <v>996.27001953125</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="E113">
-        <v>996.27001953125</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="F113">
-        <v>23496200</v>
+        <v>49036500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>996.3400268554688</v>
+        <v>831.5599975585938</v>
       </c>
       <c r="B114">
-        <v>1004.549987792969</v>
+        <v>857.5</v>
       </c>
       <c r="C114">
-        <v>940.5</v>
+        <v>792.010009765625</v>
       </c>
       <c r="D114">
-        <v>943.9000244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E114">
-        <v>943.9000244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="F114">
-        <v>34472000</v>
+        <v>44929700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>904.760009765625</v>
+        <v>872.7100219726562</v>
       </c>
       <c r="B115">
-        <v>933.510009765625</v>
+        <v>937.989990234375</v>
       </c>
       <c r="C115">
-        <v>851.469970703125</v>
+        <v>862.0499877929688</v>
       </c>
       <c r="D115">
-        <v>930</v>
+        <v>936.719970703125</v>
       </c>
       <c r="E115">
-        <v>930</v>
+        <v>936.719970703125</v>
       </c>
       <c r="F115">
-        <v>50521900</v>
+        <v>34812000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>914.2000122070312</v>
+        <v>935.2100219726562</v>
       </c>
       <c r="B116">
-        <v>951.260009765625</v>
+        <v>943.7000122070312</v>
       </c>
       <c r="C116">
-        <v>903.2100219726562</v>
+        <v>905</v>
       </c>
       <c r="D116">
-        <v>918.4000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="E116">
-        <v>918.4000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="F116">
-        <v>28865300</v>
+        <v>24379400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>952.4299926757812</v>
+        <v>928.1799926757812</v>
       </c>
       <c r="B117">
-        <v>987.6900024414062</v>
+        <v>931.5</v>
       </c>
       <c r="C117">
-        <v>906</v>
+        <v>889.4099731445312</v>
       </c>
       <c r="D117">
-        <v>937.4099731445312</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="E117">
-        <v>937.4099731445312</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="F117">
-        <v>34955800</v>
+        <v>22264300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>933.3599853515625</v>
+        <v>882</v>
       </c>
       <c r="B118">
-        <v>935.3900146484375</v>
+        <v>937</v>
       </c>
       <c r="C118">
-        <v>829</v>
+        <v>880.52001953125</v>
       </c>
       <c r="D118">
-        <v>829.0999755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="E118">
-        <v>829.0999755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="F118">
-        <v>49036500</v>
+        <v>26285200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>831.5599975585938</v>
+        <v>897.219970703125</v>
       </c>
       <c r="B119">
-        <v>857.5</v>
+        <v>936.5</v>
       </c>
       <c r="C119">
-        <v>792.010009765625</v>
+        <v>881.1699829101562</v>
       </c>
       <c r="D119">
-        <v>846.3499755859375</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="E119">
-        <v>846.3499755859375</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="F119">
-        <v>44929700</v>
+        <v>24472600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>872.7100219726562</v>
+        <v>923.7899780273438</v>
       </c>
       <c r="B120">
-        <v>937.989990234375</v>
+        <v>947.77001953125</v>
       </c>
       <c r="C120">
-        <v>862.0499877929688</v>
+        <v>902.7100219726562</v>
       </c>
       <c r="D120">
-        <v>936.719970703125</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="E120">
-        <v>936.719970703125</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="F120">
-        <v>34812000</v>
+        <v>20331500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>935.2100219726562</v>
+        <v>905.530029296875</v>
       </c>
       <c r="B121">
-        <v>943.7000122070312</v>
+        <v>926.2899780273438</v>
       </c>
       <c r="C121">
-        <v>905</v>
+        <v>894.7999877929688</v>
       </c>
       <c r="D121">
-        <v>931.25</v>
+        <v>922</v>
       </c>
       <c r="E121">
-        <v>931.25</v>
+        <v>922</v>
       </c>
       <c r="F121">
-        <v>24379400</v>
+        <v>16909700</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>928.1799926757812</v>
+        <v>935</v>
       </c>
       <c r="B122">
-        <v>931.5</v>
+        <v>946.27001953125</v>
       </c>
       <c r="C122">
-        <v>889.4099731445312</v>
+        <v>920</v>
       </c>
       <c r="D122">
-        <v>905.6599731445312</v>
+        <v>932</v>
       </c>
       <c r="E122">
-        <v>905.6599731445312</v>
+        <v>932</v>
       </c>
       <c r="F122">
-        <v>22264300</v>
+        <v>17419800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>882</v>
+        <v>908.3699951171875</v>
       </c>
       <c r="B123">
-        <v>937</v>
+        <v>943.8099975585938</v>
       </c>
       <c r="C123">
-        <v>880.52001953125</v>
+        <v>896.7000122070312</v>
       </c>
       <c r="D123">
-        <v>891.1400146484375</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="E123">
-        <v>891.1400146484375</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="F123">
-        <v>26285200</v>
+        <v>22042300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>897.219970703125</v>
+        <v>909.6300048828125</v>
       </c>
       <c r="B124">
-        <v>936.5</v>
+        <v>915.9600219726562</v>
       </c>
       <c r="C124">
-        <v>881.1699829101562</v>
+        <v>850.7000122070312</v>
       </c>
       <c r="D124">
-        <v>923.3200073242188</v>
+        <v>860</v>
       </c>
       <c r="E124">
-        <v>923.3200073242188</v>
+        <v>860</v>
       </c>
       <c r="F124">
-        <v>24472600</v>
+        <v>26492700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>923.7899780273438</v>
+        <v>861.5700073242188</v>
       </c>
       <c r="B125">
-        <v>947.77001953125</v>
+        <v>898.8800048828125</v>
       </c>
       <c r="C125">
-        <v>902.7100219726562</v>
+        <v>853.1500244140625</v>
       </c>
       <c r="D125">
-        <v>907.3400268554688</v>
+        <v>875.760009765625</v>
       </c>
       <c r="E125">
-        <v>907.3400268554688</v>
+        <v>875.760009765625</v>
       </c>
       <c r="F125">
-        <v>20331500</v>
+        <v>22585500</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>905.530029296875</v>
+        <v>900</v>
       </c>
       <c r="B126">
-        <v>926.2899780273438</v>
+        <v>923</v>
       </c>
       <c r="C126">
-        <v>894.7999877929688</v>
+        <v>893.3800048828125</v>
       </c>
       <c r="D126">
-        <v>922</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="E126">
-        <v>922</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="F126">
-        <v>16909700</v>
+        <v>19216500</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>935</v>
+        <v>914.0499877929688</v>
       </c>
       <c r="B127">
-        <v>946.27001953125</v>
+        <v>926.4299926757812</v>
       </c>
       <c r="C127">
-        <v>920</v>
+        <v>901.2100219726562</v>
       </c>
       <c r="D127">
-        <v>932</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="E127">
-        <v>932</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="F127">
-        <v>17419800</v>
+        <v>17098100</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>908.3699951171875</v>
+        <v>913.260009765625</v>
       </c>
       <c r="B128">
-        <v>943.8099975585938</v>
+        <v>918.5</v>
       </c>
       <c r="C128">
-        <v>896.7000122070312</v>
+        <v>874.0999755859375</v>
       </c>
       <c r="D128">
-        <v>904.5499877929688</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="E128">
-        <v>904.5499877929688</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="F128">
-        <v>22042300</v>
+        <v>18392800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>909.6300048828125</v>
+        <v>886</v>
       </c>
       <c r="B129">
-        <v>915.9600219726562</v>
+        <v>886.8699951171875</v>
       </c>
       <c r="C129">
-        <v>850.7000122070312</v>
+        <v>837.6099853515625</v>
       </c>
       <c r="D129">
-        <v>860</v>
+        <v>856.97998046875</v>
       </c>
       <c r="E129">
-        <v>860</v>
+        <v>856.97998046875</v>
       </c>
       <c r="F129">
-        <v>26492700</v>
+        <v>22710500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2562 +417,2542 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>678.2100219726562</v>
+        <v>708.3099975585938</v>
       </c>
       <c r="B2">
-        <v>686.5499877929688</v>
+        <v>715.4000244140625</v>
       </c>
       <c r="C2">
-        <v>667.5900268554688</v>
+        <v>697.6199951171875</v>
       </c>
       <c r="D2">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="E2">
-        <v>673.469970703125</v>
+        <v>701.1599731445312</v>
       </c>
       <c r="F2">
-        <v>14313500</v>
+        <v>13214300</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>682.8499755859375</v>
+        <v>705</v>
       </c>
       <c r="B3">
-        <v>692.1300048828125</v>
+        <v>715</v>
       </c>
       <c r="C3">
-        <v>673.7000122070312</v>
+        <v>702.0999755859375</v>
       </c>
       <c r="D3">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="E3">
-        <v>680.260009765625</v>
+        <v>711.9199829101562</v>
       </c>
       <c r="F3">
-        <v>14781800</v>
+        <v>13762100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>685.4400024414062</v>
+        <v>714.719970703125</v>
       </c>
       <c r="B4">
-        <v>712.1300048828125</v>
+        <v>731</v>
       </c>
       <c r="C4">
-        <v>680.75</v>
+        <v>712.72998046875</v>
       </c>
       <c r="D4">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="E4">
-        <v>706.2999877929688</v>
+        <v>730.9099731445312</v>
       </c>
       <c r="F4">
-        <v>20264900</v>
+        <v>18604200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>710.6799926757812</v>
+        <v>733</v>
       </c>
       <c r="B5">
-        <v>715.219970703125</v>
+        <v>740.3900146484375</v>
       </c>
       <c r="C5">
-        <v>702.6400146484375</v>
+        <v>726.4400024414062</v>
       </c>
       <c r="D5">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="E5">
-        <v>708.489990234375</v>
+        <v>735.719970703125</v>
       </c>
       <c r="F5">
-        <v>13083100</v>
+        <v>20855400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>707.030029296875</v>
+        <v>734.0800170898438</v>
       </c>
       <c r="B6">
-        <v>716.969970703125</v>
+        <v>741.989990234375</v>
       </c>
       <c r="C6">
-        <v>704</v>
+        <v>731.27001953125</v>
       </c>
       <c r="D6">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="E6">
-        <v>711.2000122070312</v>
+        <v>734.0900268554688</v>
       </c>
       <c r="F6">
-        <v>12645600</v>
+        <v>13204300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>708.3099975585938</v>
+        <v>734.5</v>
       </c>
       <c r="B7">
-        <v>715.4000244140625</v>
+        <v>740.969970703125</v>
       </c>
       <c r="C7">
-        <v>697.6199951171875</v>
+        <v>730.5399780273438</v>
       </c>
       <c r="D7">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="E7">
-        <v>701.1599731445312</v>
+        <v>732.3900146484375</v>
       </c>
       <c r="F7">
-        <v>13214300</v>
+        <v>12777300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>705</v>
+        <v>732.25</v>
       </c>
       <c r="B8">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="C8">
-        <v>702.0999755859375</v>
+        <v>724.2000122070312</v>
       </c>
       <c r="D8">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="E8">
-        <v>711.9199829101562</v>
+        <v>733.5700073242188</v>
       </c>
       <c r="F8">
-        <v>13762100</v>
+        <v>15246100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>714.719970703125</v>
+        <v>740</v>
       </c>
       <c r="B9">
-        <v>731</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C9">
-        <v>712.72998046875</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D9">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E9">
-        <v>730.9099731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F9">
-        <v>18604200</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>733</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B10">
-        <v>740.3900146484375</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C10">
-        <v>726.4400024414062</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D10">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E10">
-        <v>735.719970703125</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F10">
-        <v>20855400</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>734.0800170898438</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B11">
-        <v>741.989990234375</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C11">
-        <v>731.27001953125</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D11">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E11">
-        <v>734.0900268554688</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F11">
-        <v>13204300</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>734.5</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B12">
-        <v>740.969970703125</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C12">
-        <v>730.5399780273438</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D12">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E12">
-        <v>732.3900146484375</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F12">
-        <v>12777300</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>732.25</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B13">
-        <v>734</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C13">
-        <v>724.2000122070312</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D13">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="E13">
-        <v>733.5700073242188</v>
+        <v>743</v>
       </c>
       <c r="F13">
-        <v>15246100</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>740</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B14">
-        <v>760.2000122070312</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C14">
-        <v>739.260009765625</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D14">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E14">
-        <v>752.9199829101562</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F14">
-        <v>20039800</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>761.5800170898438</v>
+        <v>745</v>
       </c>
       <c r="B15">
-        <v>764.4500122070312</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C15">
-        <v>740.77001953125</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D15">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E15">
-        <v>753.8699951171875</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F15">
-        <v>18793000</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>753.4099731445312</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B16">
-        <v>762.0999755859375</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C16">
-        <v>751.6300048828125</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D16">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E16">
-        <v>754.8599853515625</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F16">
-        <v>14077700</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>759.5999755859375</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B17">
-        <v>762.6099853515625</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C17">
-        <v>734.52001953125</v>
+        <v>750</v>
       </c>
       <c r="D17">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E17">
-        <v>736.27001953125</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F17">
-        <v>15114300</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>740.2100219726562</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B18">
-        <v>744.780029296875</v>
+        <v>742</v>
       </c>
       <c r="C18">
-        <v>708.8499755859375</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D18">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E18">
-        <v>743</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F18">
-        <v>22952500</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>742.5700073242188</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B19">
-        <v>754.469970703125</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C19">
-        <v>736.4000244140625</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D19">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E19">
-        <v>744.489990234375</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F19">
-        <v>18524900</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>745</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B20">
-        <v>756.8599853515625</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C20">
-        <v>738.3599853515625</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D20">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E20">
-        <v>755.8300170898438</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F20">
-        <v>15357700</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>752.8300170898438</v>
+        <v>755</v>
       </c>
       <c r="B21">
-        <v>758.9099731445312</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C21">
-        <v>747.6099853515625</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D21">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E21">
-        <v>756.989990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F21">
-        <v>13923400</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>757.1500244140625</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B22">
-        <v>761.0399780273438</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C22">
-        <v>750</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D22">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E22">
-        <v>759.489990234375</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F22">
-        <v>28204200</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>734.5599975585938</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B23">
-        <v>742</v>
+        <v>799</v>
       </c>
       <c r="C23">
-        <v>718.6199951171875</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D23">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E23">
-        <v>730.1699829101562</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F23">
-        <v>24757700</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>734.7899780273438</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B24">
-        <v>744.739990234375</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C24">
-        <v>730.4400024414062</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D24">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E24">
-        <v>739.3800048828125</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F24">
-        <v>16330700</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>743.530029296875</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B25">
-        <v>753.6699829101562</v>
+        <v>793.5</v>
       </c>
       <c r="C25">
-        <v>739.1199951171875</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D25">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E25">
-        <v>751.9400024414062</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F25">
-        <v>15126300</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="B26">
-        <v>758.2000122070312</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C26">
-        <v>747.9199829101562</v>
+        <v>775</v>
       </c>
       <c r="D26">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E26">
-        <v>753.6400146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F26">
-        <v>11947500</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>745.8900146484375</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B27">
-        <v>774.7999877929688</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C27">
-        <v>744.5599975585938</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D27">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E27">
-        <v>774.3900146484375</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F27">
-        <v>21373000</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>773.1199951171875</v>
+        <v>796.5</v>
       </c>
       <c r="B28">
-        <v>799</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C28">
-        <v>769.3099975585938</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D28">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E28">
-        <v>791.3599853515625</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F28">
-        <v>28070700</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>787.2000122070312</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B29">
-        <v>795.6400146484375</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C29">
-        <v>766.1799926757812</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D29">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E29">
-        <v>777.5599975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F29">
-        <v>25381400</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>779.7999877929688</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B30">
-        <v>793.5</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C30">
-        <v>770.6799926757812</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D30">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="E30">
-        <v>781.3099975585938</v>
+        <v>782.75</v>
       </c>
       <c r="F30">
-        <v>20942900</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>781</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B31">
-        <v>789.1300048828125</v>
+        <v>805</v>
       </c>
       <c r="C31">
-        <v>775</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D31">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E31">
-        <v>775.47998046875</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F31">
-        <v>17956000</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>778.4000244140625</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B32">
-        <v>780.780029296875</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C32">
-        <v>763.5900268554688</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D32">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E32">
-        <v>775.219970703125</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F32">
-        <v>17031400</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>796.5</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B33">
-        <v>806.969970703125</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C33">
-        <v>776.1199951171875</v>
+        <v>785.5</v>
       </c>
       <c r="D33">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E33">
-        <v>781.530029296875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F33">
-        <v>30483300</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>784.7999877929688</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B34">
-        <v>797.3099975585938</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C34">
-        <v>774.2000122070312</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D34">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E34">
-        <v>780.5900268554688</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F34">
-        <v>18432600</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>776.2000122070312</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B35">
-        <v>786.6599731445312</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C35">
-        <v>773.219970703125</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D35">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E35">
-        <v>782.75</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F35">
-        <v>14632800</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>785.4600219726562</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B36">
-        <v>805</v>
+        <v>820.25</v>
       </c>
       <c r="C36">
-        <v>783.3800048828125</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D36">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E36">
-        <v>793.6099853515625</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F36">
-        <v>19195800</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>796.2100219726562</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B37">
-        <v>796.3800048828125</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C37">
-        <v>780.9099731445312</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D37">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E37">
-        <v>785.489990234375</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F37">
-        <v>16711100</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>787.6500244140625</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B38">
-        <v>801.239990234375</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C38">
-        <v>785.5</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D38">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E38">
-        <v>791.9400024414062</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F38">
-        <v>14200300</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>800.9299926757812</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B39">
-        <v>812.3200073242188</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C39">
-        <v>796.5700073242188</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D39">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E39">
-        <v>805.719970703125</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F39">
-        <v>22020000</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>810.469970703125</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B40">
-        <v>815.4099731445312</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C40">
-        <v>805.780029296875</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D40">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E40">
-        <v>811.0800170898438</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F40">
-        <v>14120100</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>815.489990234375</v>
+        <v>856</v>
       </c>
       <c r="B41">
-        <v>820.25</v>
+        <v>900</v>
       </c>
       <c r="C41">
-        <v>813.3499755859375</v>
+        <v>855.5</v>
       </c>
       <c r="D41">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="E41">
-        <v>818.3200073242188</v>
+        <v>894</v>
       </c>
       <c r="F41">
-        <v>12247200</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>823.739990234375</v>
+        <v>895.5</v>
       </c>
       <c r="B42">
-        <v>843.2100219726562</v>
+        <v>910</v>
       </c>
       <c r="C42">
-        <v>822.3499755859375</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D42">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E42">
-        <v>843.030029296875</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F42">
-        <v>18818000</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>851.7899780273438</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B43">
-        <v>875.260009765625</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C43">
-        <v>851.469970703125</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D43">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E43">
-        <v>870.1099853515625</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F43">
-        <v>24207200</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>877.530029296875</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B44">
-        <v>877.9500122070312</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C44">
-        <v>862.510009765625</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D44">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E44">
-        <v>864.27001953125</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F44">
-        <v>17381100</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>865.3499755859375</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B45">
-        <v>869.489990234375</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C45">
-        <v>857.3800048828125</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D45">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E45">
-        <v>865.7999877929688</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F45">
-        <v>14032100</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>856</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B46">
-        <v>900</v>
+        <v>1081</v>
       </c>
       <c r="C46">
-        <v>855.5</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D46">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E46">
-        <v>894</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F46">
-        <v>31481500</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>895.5</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B47">
-        <v>910</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C47">
-        <v>890.9600219726562</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D47">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="E47">
-        <v>909.6799926757812</v>
+        <v>1114</v>
       </c>
       <c r="F47">
-        <v>22880800</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>950.530029296875</v>
+        <v>1145</v>
       </c>
       <c r="B48">
-        <v>1045.02001953125</v>
+        <v>1209.75</v>
       </c>
       <c r="C48">
-        <v>944.2000122070312</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D48">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E48">
-        <v>1024.859985351562</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F48">
-        <v>62852100</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1024.68994140625</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B49">
-        <v>1094.93994140625</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C49">
-        <v>1001.440002441406</v>
+        <v>1146</v>
       </c>
       <c r="D49">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="E49">
-        <v>1018.429992675781</v>
+        <v>1172</v>
       </c>
       <c r="F49">
-        <v>62415000</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1039.660034179688</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B50">
-        <v>1070.880004882812</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C50">
-        <v>1030.780029296875</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D50">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E50">
-        <v>1037.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F50">
-        <v>38526500</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1068.31005859375</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B51">
-        <v>1081</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C51">
-        <v>1054.199951171875</v>
+        <v>1217</v>
       </c>
       <c r="D51">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E51">
-        <v>1077.0400390625</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F51">
-        <v>27213200</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1081.859985351562</v>
+        <v>1228</v>
       </c>
       <c r="B52">
-        <v>1115.2099609375</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C52">
-        <v>1073.2099609375</v>
+        <v>1208</v>
       </c>
       <c r="D52">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E52">
-        <v>1114</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F52">
-        <v>29918400</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1145</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B53">
-        <v>1209.75</v>
+        <v>1197</v>
       </c>
       <c r="C53">
-        <v>1118.660034179688</v>
+        <v>1133</v>
       </c>
       <c r="D53">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E53">
-        <v>1208.589965820312</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F53">
-        <v>56048700</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1159.359985351562</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B54">
-        <v>1208.589965820312</v>
+        <v>1174.5</v>
       </c>
       <c r="C54">
-        <v>1146</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D54">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="E54">
-        <v>1172</v>
+        <v>1023.5</v>
       </c>
       <c r="F54">
-        <v>42737800</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1177.329956054688</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B55">
-        <v>1215.390014648438</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C55">
-        <v>1152.619995117188</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D55">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E55">
-        <v>1213.859985351562</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F55">
-        <v>34628500</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1234.410034179688</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B56">
-        <v>1243.489990234375</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C56">
-        <v>1217</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D56">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E56">
-        <v>1229.910034179688</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F56">
-        <v>25397400</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1228</v>
+        <v>1047.5</v>
       </c>
       <c r="B57">
-        <v>1239.869995117188</v>
+        <v>1054.5</v>
       </c>
       <c r="C57">
-        <v>1208</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D57">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E57">
-        <v>1222.089965820312</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F57">
-        <v>21579900</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1149.7900390625</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B58">
-        <v>1197</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C58">
-        <v>1133</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D58">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E58">
-        <v>1162.93994140625</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F58">
-        <v>33445700</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1173.599975585938</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B59">
-        <v>1174.5</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C59">
-        <v>1011.52001953125</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D59">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E59">
-        <v>1023.5</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F59">
-        <v>59105800</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1010.409973144531</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B60">
-        <v>1078.099975585938</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C60">
-        <v>987.3099975585938</v>
+        <v>1055.5</v>
       </c>
       <c r="D60">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E60">
-        <v>1067.949951171875</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F60">
-        <v>42802700</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1102.77001953125</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B61">
-        <v>1104.969970703125</v>
+        <v>1112</v>
       </c>
       <c r="C61">
-        <v>1054.680053710938</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D61">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E61">
-        <v>1063.510009765625</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F61">
-        <v>22396600</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1047.5</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B62">
-        <v>1054.5</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C62">
-        <v>1019.200012207031</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D62">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E62">
-        <v>1033.420043945312</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F62">
-        <v>25182300</v>
+        <v>21642300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1017.630004882812</v>
+        <v>1162.329956054688</v>
       </c>
       <c r="B63">
-        <v>1031.97998046875</v>
+        <v>1201.949951171875</v>
       </c>
       <c r="C63">
-        <v>978.5999755859375</v>
+        <v>1132.430053710938</v>
       </c>
       <c r="D63">
-        <v>1013.390014648438</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="E63">
-        <v>1013.390014648438</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="F63">
-        <v>34775600</v>
+        <v>33072500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1003.309997558594</v>
+        <v>1167.510009765625</v>
       </c>
       <c r="B64">
-        <v>1057.199951171875</v>
+        <v>1180.5</v>
       </c>
       <c r="C64">
-        <v>1002.179992675781</v>
+        <v>1062.699951171875</v>
       </c>
       <c r="D64">
-        <v>1054.72998046875</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="E64">
-        <v>1054.72998046875</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="F64">
-        <v>26542400</v>
+        <v>36171700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1063.510009765625</v>
+        <v>1080.390014648438</v>
       </c>
       <c r="B65">
-        <v>1119.640014648438</v>
+        <v>1132.77001953125</v>
       </c>
       <c r="C65">
-        <v>1055.5</v>
+        <v>1062</v>
       </c>
       <c r="D65">
-        <v>1089.010009765625</v>
+        <v>1116</v>
       </c>
       <c r="E65">
-        <v>1089.010009765625</v>
+        <v>1116</v>
       </c>
       <c r="F65">
-        <v>31445400</v>
+        <v>22560200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1106.550048828125</v>
+        <v>1099.469970703125</v>
       </c>
       <c r="B66">
-        <v>1112</v>
+        <v>1108.780029296875</v>
       </c>
       <c r="C66">
-        <v>1075.02001953125</v>
+        <v>1081</v>
       </c>
       <c r="D66">
-        <v>1096.380004882812</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="E66">
-        <v>1096.380004882812</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="F66">
-        <v>20898900</v>
+        <v>11680900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1098.869995117188</v>
+        <v>1100.989990234375</v>
       </c>
       <c r="B67">
-        <v>1138.719970703125</v>
+        <v>1142.670043945312</v>
       </c>
       <c r="C67">
-        <v>1092.699951171875</v>
+        <v>1100.18994140625</v>
       </c>
       <c r="D67">
-        <v>1137.06005859375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="E67">
-        <v>1137.06005859375</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="F67">
-        <v>21642300</v>
+        <v>19464500</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1162.329956054688</v>
+        <v>1144.369995117188</v>
       </c>
       <c r="B68">
-        <v>1201.949951171875</v>
+        <v>1168</v>
       </c>
       <c r="C68">
-        <v>1132.430053710938</v>
+        <v>1118</v>
       </c>
       <c r="D68">
-        <v>1156.869995117188</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="E68">
-        <v>1156.869995117188</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="F68">
-        <v>33072500</v>
+        <v>27092000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1167.510009765625</v>
+        <v>1160.699951171875</v>
       </c>
       <c r="B69">
-        <v>1180.5</v>
+        <v>1172.839965820312</v>
       </c>
       <c r="C69">
-        <v>1062.699951171875</v>
+        <v>1090.760009765625</v>
       </c>
       <c r="D69">
-        <v>1109.030029296875</v>
+        <v>1095</v>
       </c>
       <c r="E69">
-        <v>1109.030029296875</v>
+        <v>1095</v>
       </c>
       <c r="F69">
-        <v>36171700</v>
+        <v>22816800</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1080.390014648438</v>
+        <v>1099.06005859375</v>
       </c>
       <c r="B70">
-        <v>1132.77001953125</v>
+        <v>1113</v>
       </c>
       <c r="C70">
-        <v>1062</v>
+        <v>1056.650024414062</v>
       </c>
       <c r="D70">
-        <v>1116</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="E70">
-        <v>1116</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="F70">
-        <v>22560200</v>
+        <v>24371600</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1099.469970703125</v>
+        <v>1084.7900390625</v>
       </c>
       <c r="B71">
-        <v>1108.780029296875</v>
+        <v>1090.579956054688</v>
       </c>
       <c r="C71">
-        <v>1081</v>
+        <v>1000.210021972656</v>
       </c>
       <c r="D71">
-        <v>1081.920043945312</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="E71">
-        <v>1081.920043945312</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="F71">
-        <v>11680900</v>
+        <v>30696300</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1100.989990234375</v>
+        <v>1001.510009765625</v>
       </c>
       <c r="B72">
-        <v>1142.670043945312</v>
+        <v>1021.640014648438</v>
       </c>
       <c r="C72">
-        <v>1100.18994140625</v>
+        <v>950.5</v>
       </c>
       <c r="D72">
-        <v>1136.989990234375</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="E72">
-        <v>1136.989990234375</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="F72">
-        <v>19464500</v>
+        <v>27221000</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1144.369995117188</v>
+        <v>1044.199951171875</v>
       </c>
       <c r="B73">
-        <v>1168</v>
+        <v>1057.670043945312</v>
       </c>
       <c r="C73">
-        <v>1118</v>
+        <v>1026.81005859375</v>
       </c>
       <c r="D73">
-        <v>1144.760009765625</v>
+        <v>1051.75</v>
       </c>
       <c r="E73">
-        <v>1144.760009765625</v>
+        <v>1051.75</v>
       </c>
       <c r="F73">
-        <v>27092000</v>
+        <v>18694900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1160.699951171875</v>
+        <v>1052.7099609375</v>
       </c>
       <c r="B74">
-        <v>1172.839965820312</v>
+        <v>1072.380004882812</v>
       </c>
       <c r="C74">
-        <v>1090.760009765625</v>
+        <v>1033</v>
       </c>
       <c r="D74">
-        <v>1095</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="E74">
-        <v>1095</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="F74">
-        <v>22816800</v>
+        <v>13968800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1099.06005859375</v>
+        <v>1060.640014648438</v>
       </c>
       <c r="B75">
-        <v>1113</v>
+        <v>1062.489990234375</v>
       </c>
       <c r="C75">
-        <v>1056.650024414062</v>
+        <v>1002.359985351562</v>
       </c>
       <c r="D75">
-        <v>1084.599975585938</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="E75">
-        <v>1084.599975585938</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="F75">
-        <v>24371600</v>
+        <v>19812800</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1084.7900390625</v>
+        <v>1008.75</v>
       </c>
       <c r="B76">
-        <v>1090.579956054688</v>
+        <v>1020.97998046875</v>
       </c>
       <c r="C76">
-        <v>1000.210021972656</v>
+        <v>982.530029296875</v>
       </c>
       <c r="D76">
-        <v>1014.969970703125</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="E76">
-        <v>1014.969970703125</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="F76">
-        <v>30696300</v>
+        <v>19855000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1001.510009765625</v>
+        <v>1001.090026855469</v>
       </c>
       <c r="B77">
-        <v>1021.640014648438</v>
+        <v>1005</v>
       </c>
       <c r="C77">
-        <v>950.5</v>
+        <v>951.4199829101562</v>
       </c>
       <c r="D77">
-        <v>1009.010009765625</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="E77">
-        <v>1009.010009765625</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="F77">
-        <v>27221000</v>
+        <v>26198500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1044.199951171875</v>
+        <v>945</v>
       </c>
       <c r="B78">
-        <v>1057.670043945312</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="C78">
-        <v>1026.81005859375</v>
+        <v>930</v>
       </c>
       <c r="D78">
-        <v>1051.75</v>
+        <v>958.510009765625</v>
       </c>
       <c r="E78">
-        <v>1051.75</v>
+        <v>958.510009765625</v>
       </c>
       <c r="F78">
-        <v>18694900</v>
+        <v>23602100</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1052.7099609375</v>
+        <v>953.2100219726562</v>
       </c>
       <c r="B79">
-        <v>1072.380004882812</v>
+        <v>978.75</v>
       </c>
       <c r="C79">
-        <v>1033</v>
+        <v>928.25</v>
       </c>
       <c r="D79">
-        <v>1068.9599609375</v>
+        <v>975.989990234375</v>
       </c>
       <c r="E79">
-        <v>1068.9599609375</v>
+        <v>975.989990234375</v>
       </c>
       <c r="F79">
-        <v>13968800</v>
+        <v>25056400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1060.640014648438</v>
+        <v>994.5</v>
       </c>
       <c r="B80">
-        <v>1062.489990234375</v>
+        <v>994.97998046875</v>
       </c>
       <c r="C80">
-        <v>1002.359985351562</v>
+        <v>921.8499755859375</v>
       </c>
       <c r="D80">
-        <v>1003.799987792969</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="E80">
-        <v>1003.799987792969</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="F80">
-        <v>19812800</v>
+        <v>27590500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1008.75</v>
+        <v>914.77001953125</v>
       </c>
       <c r="B81">
-        <v>1020.97998046875</v>
+        <v>960.6599731445312</v>
       </c>
       <c r="C81">
-        <v>982.530029296875</v>
+        <v>909.0399780273438</v>
       </c>
       <c r="D81">
-        <v>1017.030029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="E81">
-        <v>1017.030029296875</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="F81">
-        <v>19855000</v>
+        <v>33479100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>1001.090026855469</v>
+        <v>910.7000122070312</v>
       </c>
       <c r="B82">
-        <v>1005</v>
+        <v>921.6900024414062</v>
       </c>
       <c r="C82">
-        <v>951.4199829101562</v>
+        <v>893.3900146484375</v>
       </c>
       <c r="D82">
-        <v>966.4099731445312</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="E82">
-        <v>966.4099731445312</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="F82">
-        <v>26198500</v>
+        <v>18826700</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>945</v>
+        <v>916.8699951171875</v>
       </c>
       <c r="B83">
-        <v>966.4099731445312</v>
+        <v>939.5</v>
       </c>
       <c r="C83">
-        <v>930</v>
+        <v>886.1199951171875</v>
       </c>
       <c r="D83">
-        <v>958.510009765625</v>
+        <v>938.530029296875</v>
       </c>
       <c r="E83">
-        <v>958.510009765625</v>
+        <v>938.530029296875</v>
       </c>
       <c r="F83">
-        <v>23602100</v>
+        <v>23839300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>953.2100219726562</v>
+        <v>965.6599731445312</v>
       </c>
       <c r="B84">
-        <v>978.75</v>
+        <v>1015.659973144531</v>
       </c>
       <c r="C84">
-        <v>928.25</v>
+        <v>957.0499877929688</v>
       </c>
       <c r="D84">
-        <v>975.989990234375</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="E84">
-        <v>975.989990234375</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="F84">
-        <v>25056400</v>
+        <v>31211400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>994.5</v>
+        <v>1006.799987792969</v>
       </c>
       <c r="B85">
-        <v>994.97998046875</v>
+        <v>1072.97998046875</v>
       </c>
       <c r="C85">
-        <v>921.8499755859375</v>
+        <v>997.5599975585938</v>
       </c>
       <c r="D85">
-        <v>926.9199829101562</v>
+        <v>1067</v>
       </c>
       <c r="E85">
-        <v>926.9199829101562</v>
+        <v>1067</v>
       </c>
       <c r="F85">
-        <v>27590500</v>
+        <v>30904400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>914.77001953125</v>
+        <v>1073.670043945312</v>
       </c>
       <c r="B86">
-        <v>960.6599731445312</v>
+        <v>1117</v>
       </c>
       <c r="C86">
-        <v>909.0399780273438</v>
+        <v>1070.719970703125</v>
       </c>
       <c r="D86">
-        <v>932.5700073242188</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="E86">
-        <v>932.5700073242188</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="F86">
-        <v>33479100</v>
+        <v>23715300</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>910.7000122070312</v>
+        <v>1109.489990234375</v>
       </c>
       <c r="B87">
-        <v>921.6900024414062</v>
+        <v>1119</v>
       </c>
       <c r="C87">
-        <v>893.3900146484375</v>
+        <v>1078.420043945312</v>
       </c>
       <c r="D87">
-        <v>899.9400024414062</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="E87">
-        <v>899.9400024414062</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="F87">
-        <v>18826700</v>
+        <v>20108000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>916.8699951171875</v>
+        <v>1098.640014648438</v>
       </c>
       <c r="B88">
-        <v>939.5</v>
+        <v>1104</v>
       </c>
       <c r="C88">
-        <v>886.1199951171875</v>
+        <v>1064.140014648438</v>
       </c>
       <c r="D88">
-        <v>938.530029296875</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="E88">
-        <v>938.530029296875</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="F88">
-        <v>23839300</v>
+        <v>18718000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>965.6599731445312</v>
+        <v>1061.329956054688</v>
       </c>
       <c r="B89">
-        <v>1015.659973144531</v>
+        <v>1095.550048828125</v>
       </c>
       <c r="C89">
-        <v>957.0499877929688</v>
+        <v>1053.150024414062</v>
       </c>
       <c r="D89">
-        <v>1008.869995117188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="E89">
-        <v>1008.869995117188</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="F89">
-        <v>31211400</v>
+        <v>15680300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1006.799987792969</v>
+        <v>1073.43994140625</v>
       </c>
       <c r="B90">
-        <v>1072.97998046875</v>
+        <v>1082</v>
       </c>
       <c r="C90">
-        <v>997.5599975585938</v>
+        <v>1054.589965820312</v>
       </c>
       <c r="D90">
-        <v>1067</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="E90">
-        <v>1067</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="F90">
-        <v>30904400</v>
+        <v>13577900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1073.670043945312</v>
+        <v>1147.75</v>
       </c>
       <c r="B91">
-        <v>1117</v>
+        <v>1201.069946289062</v>
       </c>
       <c r="C91">
-        <v>1070.719970703125</v>
+        <v>1136.0400390625</v>
       </c>
       <c r="D91">
-        <v>1093.93994140625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="E91">
-        <v>1093.93994140625</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="F91">
-        <v>23715300</v>
+        <v>34643800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1109.489990234375</v>
+        <v>1189.550048828125</v>
       </c>
       <c r="B92">
-        <v>1119</v>
+        <v>1208</v>
       </c>
       <c r="C92">
-        <v>1078.420043945312</v>
+        <v>1123.050048828125</v>
       </c>
       <c r="D92">
-        <v>1088.469970703125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="E92">
-        <v>1088.469970703125</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="F92">
-        <v>20108000</v>
+        <v>33416100</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1098.640014648438</v>
+        <v>1146.650024414062</v>
       </c>
       <c r="B93">
-        <v>1104</v>
+        <v>1170.339965820312</v>
       </c>
       <c r="C93">
-        <v>1064.140014648438</v>
+        <v>1081.010009765625</v>
       </c>
       <c r="D93">
-        <v>1086.18994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="E93">
-        <v>1086.18994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="F93">
-        <v>18718000</v>
+        <v>26706600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1061.329956054688</v>
+        <v>1077</v>
       </c>
       <c r="B94">
-        <v>1095.550048828125</v>
+        <v>1088</v>
       </c>
       <c r="C94">
-        <v>1053.150024414062</v>
+        <v>1020.5</v>
       </c>
       <c r="D94">
-        <v>1070.339965820312</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="E94">
-        <v>1070.339965820312</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="F94">
-        <v>15680300</v>
+        <v>30112200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1073.43994140625</v>
+        <v>1080.369995117188</v>
       </c>
       <c r="B95">
-        <v>1082</v>
+        <v>1080.930053710938</v>
       </c>
       <c r="C95">
-        <v>1054.589965820312</v>
+        <v>1010</v>
       </c>
       <c r="D95">
-        <v>1056.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="E95">
-        <v>1056.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="F95">
-        <v>13577900</v>
+        <v>27919000</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1147.75</v>
+        <v>1000</v>
       </c>
       <c r="B96">
-        <v>1201.069946289062</v>
+        <v>1059.099975585938</v>
       </c>
       <c r="C96">
-        <v>1136.0400390625</v>
+        <v>980</v>
       </c>
       <c r="D96">
-        <v>1199.780029296875</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="E96">
-        <v>1199.780029296875</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="F96">
-        <v>34643800</v>
+        <v>30605000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>1189.550048828125</v>
+        <v>1053.670043945312</v>
       </c>
       <c r="B97">
-        <v>1208</v>
+        <v>1075.849975585938</v>
       </c>
       <c r="C97">
-        <v>1123.050048828125</v>
+        <v>1038.819946289062</v>
       </c>
       <c r="D97">
-        <v>1149.589965820312</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="E97">
-        <v>1149.589965820312</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="F97">
-        <v>33416100</v>
+        <v>22021100</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1146.650024414062</v>
+        <v>1078.849975585938</v>
       </c>
       <c r="B98">
-        <v>1170.339965820312</v>
+        <v>1114.839965820312</v>
       </c>
       <c r="C98">
-        <v>1081.010009765625</v>
+        <v>1072.589965820312</v>
       </c>
       <c r="D98">
-        <v>1088.119995117188</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="E98">
-        <v>1088.119995117188</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="F98">
-        <v>26706600</v>
+        <v>27913000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1077</v>
+        <v>1109.069946289062</v>
       </c>
       <c r="B99">
-        <v>1088</v>
+        <v>1115.599975585938</v>
       </c>
       <c r="C99">
-        <v>1020.5</v>
+        <v>1026.5400390625</v>
       </c>
       <c r="D99">
-        <v>1064.699951171875</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="E99">
-        <v>1064.699951171875</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="F99">
-        <v>30112200</v>
+        <v>32403300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1080.369995117188</v>
+        <v>1019.880004882812</v>
       </c>
       <c r="B100">
-        <v>1080.930053710938</v>
+        <v>1052</v>
       </c>
       <c r="C100">
-        <v>1010</v>
+        <v>1013.380004882812</v>
       </c>
       <c r="D100">
-        <v>1026.9599609375</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="E100">
-        <v>1026.9599609375</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="F100">
-        <v>27919000</v>
+        <v>24246600</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>1000</v>
+        <v>1026.609985351562</v>
       </c>
       <c r="B101">
-        <v>1059.099975585938</v>
+        <v>1070.7900390625</v>
       </c>
       <c r="C101">
-        <v>980</v>
+        <v>1016.059997558594</v>
       </c>
       <c r="D101">
-        <v>1058.119995117188</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="E101">
-        <v>1058.119995117188</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="F101">
-        <v>30605000</v>
+        <v>22247800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>1053.670043945312</v>
+        <v>1041.7099609375</v>
       </c>
       <c r="B102">
-        <v>1075.849975585938</v>
+        <v>1054.670043945312</v>
       </c>
       <c r="C102">
-        <v>1038.819946289062</v>
+        <v>995</v>
       </c>
       <c r="D102">
-        <v>1064.400024414062</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="E102">
-        <v>1064.400024414062</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="F102">
-        <v>22021100</v>
+        <v>25147500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1078.849975585938</v>
+        <v>1009.72998046875</v>
       </c>
       <c r="B103">
-        <v>1114.839965820312</v>
+        <v>1041.660034179688</v>
       </c>
       <c r="C103">
-        <v>1072.589965820312</v>
+        <v>994</v>
       </c>
       <c r="D103">
-        <v>1106.219970703125</v>
+        <v>996.27001953125</v>
       </c>
       <c r="E103">
-        <v>1106.219970703125</v>
+        <v>996.27001953125</v>
       </c>
       <c r="F103">
-        <v>27913000</v>
+        <v>23496200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>1109.069946289062</v>
+        <v>996.3400268554688</v>
       </c>
       <c r="B104">
-        <v>1115.599975585938</v>
+        <v>1004.549987792969</v>
       </c>
       <c r="C104">
-        <v>1026.5400390625</v>
+        <v>940.5</v>
       </c>
       <c r="D104">
-        <v>1031.56005859375</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="E104">
-        <v>1031.56005859375</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="F104">
-        <v>32403300</v>
+        <v>34472000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>1019.880004882812</v>
+        <v>904.760009765625</v>
       </c>
       <c r="B105">
-        <v>1052</v>
+        <v>933.510009765625</v>
       </c>
       <c r="C105">
-        <v>1013.380004882812</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D105">
-        <v>1049.609985351562</v>
+        <v>930</v>
       </c>
       <c r="E105">
-        <v>1049.609985351562</v>
+        <v>930</v>
       </c>
       <c r="F105">
-        <v>24246600</v>
+        <v>50521900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>1026.609985351562</v>
+        <v>914.2000122070312</v>
       </c>
       <c r="B106">
-        <v>1070.7900390625</v>
+        <v>951.260009765625</v>
       </c>
       <c r="C106">
-        <v>1016.059997558594</v>
+        <v>903.2100219726562</v>
       </c>
       <c r="D106">
-        <v>1030.510009765625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="E106">
-        <v>1030.510009765625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="F106">
-        <v>22247800</v>
+        <v>28865300</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>1041.7099609375</v>
+        <v>952.4299926757812</v>
       </c>
       <c r="B107">
-        <v>1054.670043945312</v>
+        <v>987.6900024414062</v>
       </c>
       <c r="C107">
-        <v>995</v>
+        <v>906</v>
       </c>
       <c r="D107">
-        <v>995.6500244140625</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="E107">
-        <v>995.6500244140625</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="F107">
-        <v>25147500</v>
+        <v>34955800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>1009.72998046875</v>
+        <v>933.3599853515625</v>
       </c>
       <c r="B108">
-        <v>1041.660034179688</v>
+        <v>935.3900146484375</v>
       </c>
       <c r="C108">
-        <v>994</v>
+        <v>829</v>
       </c>
       <c r="D108">
-        <v>996.27001953125</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="E108">
-        <v>996.27001953125</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="F108">
-        <v>23496200</v>
+        <v>49036500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>996.3400268554688</v>
+        <v>831.5599975585938</v>
       </c>
       <c r="B109">
-        <v>1004.549987792969</v>
+        <v>857.5</v>
       </c>
       <c r="C109">
-        <v>940.5</v>
+        <v>792.010009765625</v>
       </c>
       <c r="D109">
-        <v>943.9000244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E109">
-        <v>943.9000244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="F109">
-        <v>34472000</v>
+        <v>44929700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>904.760009765625</v>
+        <v>872.7100219726562</v>
       </c>
       <c r="B110">
-        <v>933.510009765625</v>
+        <v>937.989990234375</v>
       </c>
       <c r="C110">
-        <v>851.469970703125</v>
+        <v>862.0499877929688</v>
       </c>
       <c r="D110">
-        <v>930</v>
+        <v>936.719970703125</v>
       </c>
       <c r="E110">
-        <v>930</v>
+        <v>936.719970703125</v>
       </c>
       <c r="F110">
-        <v>50521900</v>
+        <v>34812000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>914.2000122070312</v>
+        <v>935.2100219726562</v>
       </c>
       <c r="B111">
-        <v>951.260009765625</v>
+        <v>943.7000122070312</v>
       </c>
       <c r="C111">
-        <v>903.2100219726562</v>
+        <v>905</v>
       </c>
       <c r="D111">
-        <v>918.4000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="E111">
-        <v>918.4000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="F111">
-        <v>28865300</v>
+        <v>24379400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>952.4299926757812</v>
+        <v>928.1799926757812</v>
       </c>
       <c r="B112">
-        <v>987.6900024414062</v>
+        <v>931.5</v>
       </c>
       <c r="C112">
-        <v>906</v>
+        <v>889.4099731445312</v>
       </c>
       <c r="D112">
-        <v>937.4099731445312</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="E112">
-        <v>937.4099731445312</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="F112">
-        <v>34955800</v>
+        <v>22264300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>933.3599853515625</v>
+        <v>882</v>
       </c>
       <c r="B113">
-        <v>935.3900146484375</v>
+        <v>937</v>
       </c>
       <c r="C113">
-        <v>829</v>
+        <v>880.52001953125</v>
       </c>
       <c r="D113">
-        <v>829.0999755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="E113">
-        <v>829.0999755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="F113">
-        <v>49036500</v>
+        <v>26285200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>831.5599975585938</v>
+        <v>897.219970703125</v>
       </c>
       <c r="B114">
-        <v>857.5</v>
+        <v>936.5</v>
       </c>
       <c r="C114">
-        <v>792.010009765625</v>
+        <v>881.1699829101562</v>
       </c>
       <c r="D114">
-        <v>846.3499755859375</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="E114">
-        <v>846.3499755859375</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="F114">
-        <v>44929700</v>
+        <v>24472600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>872.7100219726562</v>
+        <v>923.7899780273438</v>
       </c>
       <c r="B115">
-        <v>937.989990234375</v>
+        <v>947.77001953125</v>
       </c>
       <c r="C115">
-        <v>862.0499877929688</v>
+        <v>902.7100219726562</v>
       </c>
       <c r="D115">
-        <v>936.719970703125</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="E115">
-        <v>936.719970703125</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="F115">
-        <v>34812000</v>
+        <v>20331500</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>935.2100219726562</v>
+        <v>905.530029296875</v>
       </c>
       <c r="B116">
-        <v>943.7000122070312</v>
+        <v>926.2899780273438</v>
       </c>
       <c r="C116">
-        <v>905</v>
+        <v>894.7999877929688</v>
       </c>
       <c r="D116">
-        <v>931.25</v>
+        <v>922</v>
       </c>
       <c r="E116">
-        <v>931.25</v>
+        <v>922</v>
       </c>
       <c r="F116">
-        <v>24379400</v>
+        <v>16909700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>928.1799926757812</v>
+        <v>935</v>
       </c>
       <c r="B117">
-        <v>931.5</v>
+        <v>946.27001953125</v>
       </c>
       <c r="C117">
-        <v>889.4099731445312</v>
+        <v>920</v>
       </c>
       <c r="D117">
-        <v>905.6599731445312</v>
+        <v>932</v>
       </c>
       <c r="E117">
-        <v>905.6599731445312</v>
+        <v>932</v>
       </c>
       <c r="F117">
-        <v>22264300</v>
+        <v>17419800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>882</v>
+        <v>908.3699951171875</v>
       </c>
       <c r="B118">
-        <v>937</v>
+        <v>943.8099975585938</v>
       </c>
       <c r="C118">
-        <v>880.52001953125</v>
+        <v>896.7000122070312</v>
       </c>
       <c r="D118">
-        <v>891.1400146484375</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="E118">
-        <v>891.1400146484375</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="F118">
-        <v>26285200</v>
+        <v>22042300</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>897.219970703125</v>
+        <v>909.6300048828125</v>
       </c>
       <c r="B119">
-        <v>936.5</v>
+        <v>915.9600219726562</v>
       </c>
       <c r="C119">
-        <v>881.1699829101562</v>
+        <v>850.7000122070312</v>
       </c>
       <c r="D119">
-        <v>923.3200073242188</v>
+        <v>860</v>
       </c>
       <c r="E119">
-        <v>923.3200073242188</v>
+        <v>860</v>
       </c>
       <c r="F119">
-        <v>24472600</v>
+        <v>26492700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>923.7899780273438</v>
+        <v>861.5700073242188</v>
       </c>
       <c r="B120">
-        <v>947.77001953125</v>
+        <v>898.8800048828125</v>
       </c>
       <c r="C120">
-        <v>902.7100219726562</v>
+        <v>853.1500244140625</v>
       </c>
       <c r="D120">
-        <v>907.3400268554688</v>
+        <v>875.760009765625</v>
       </c>
       <c r="E120">
-        <v>907.3400268554688</v>
+        <v>875.760009765625</v>
       </c>
       <c r="F120">
-        <v>20331500</v>
+        <v>22585500</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>905.530029296875</v>
+        <v>900</v>
       </c>
       <c r="B121">
-        <v>926.2899780273438</v>
+        <v>923</v>
       </c>
       <c r="C121">
-        <v>894.7999877929688</v>
+        <v>893.3800048828125</v>
       </c>
       <c r="D121">
-        <v>922</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="E121">
-        <v>922</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="F121">
-        <v>16909700</v>
+        <v>19216500</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>935</v>
+        <v>914.0499877929688</v>
       </c>
       <c r="B122">
-        <v>946.27001953125</v>
+        <v>926.4299926757812</v>
       </c>
       <c r="C122">
-        <v>920</v>
+        <v>901.2100219726562</v>
       </c>
       <c r="D122">
-        <v>932</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="E122">
-        <v>932</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="F122">
-        <v>17419800</v>
+        <v>17098100</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>908.3699951171875</v>
+        <v>913.260009765625</v>
       </c>
       <c r="B123">
-        <v>943.8099975585938</v>
+        <v>918.5</v>
       </c>
       <c r="C123">
-        <v>896.7000122070312</v>
+        <v>874.0999755859375</v>
       </c>
       <c r="D123">
-        <v>904.5499877929688</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="E123">
-        <v>904.5499877929688</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="F123">
-        <v>22042300</v>
+        <v>18392800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>909.6300048828125</v>
+        <v>886</v>
       </c>
       <c r="B124">
-        <v>915.9600219726562</v>
+        <v>886.8699951171875</v>
       </c>
       <c r="C124">
-        <v>850.7000122070312</v>
+        <v>837.6099853515625</v>
       </c>
       <c r="D124">
-        <v>860</v>
+        <v>856.97998046875</v>
       </c>
       <c r="E124">
-        <v>860</v>
+        <v>856.97998046875</v>
       </c>
       <c r="F124">
-        <v>26492700</v>
+        <v>22710500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>861.5700073242188</v>
+        <v>834.1300048828125</v>
       </c>
       <c r="B125">
-        <v>898.8800048828125</v>
+        <v>856.72998046875</v>
       </c>
       <c r="C125">
-        <v>853.1500244140625</v>
+        <v>801.0999755859375</v>
       </c>
       <c r="D125">
-        <v>875.760009765625</v>
+        <v>821.530029296875</v>
       </c>
       <c r="E125">
-        <v>875.760009765625</v>
+        <v>821.530029296875</v>
       </c>
       <c r="F125">
-        <v>22585500</v>
+        <v>27762700</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>900</v>
+        <v>830.4299926757812</v>
       </c>
       <c r="B126">
-        <v>923</v>
+        <v>835.2999877929688</v>
       </c>
       <c r="C126">
-        <v>893.3800048828125</v>
+        <v>760.5599975585938</v>
       </c>
       <c r="D126">
-        <v>922.4299926757812</v>
+        <v>764.0399780273438</v>
       </c>
       <c r="E126">
-        <v>922.4299926757812</v>
+        <v>764.0399780273438</v>
       </c>
       <c r="F126">
-        <v>19216500</v>
+        <v>31752300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>914.0499877929688</v>
+        <v>700.3900146484375</v>
       </c>
       <c r="B127">
-        <v>926.4299926757812</v>
+        <v>802.47998046875</v>
       </c>
       <c r="C127">
-        <v>901.2100219726562</v>
+        <v>700</v>
       </c>
       <c r="D127">
-        <v>923.3900146484375</v>
+        <v>800.77001953125</v>
       </c>
       <c r="E127">
-        <v>923.3900146484375</v>
+        <v>800.77001953125</v>
       </c>
       <c r="F127">
-        <v>17098100</v>
+        <v>45107400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>913.260009765625</v>
+        <v>809.22998046875</v>
       </c>
       <c r="B128">
-        <v>918.5</v>
+        <v>819.5</v>
       </c>
       <c r="C128">
-        <v>874.0999755859375</v>
+        <v>782.4000244140625</v>
       </c>
       <c r="D128">
-        <v>876.3499755859375</v>
+        <v>809.8699951171875</v>
       </c>
       <c r="E128">
-        <v>876.3499755859375</v>
+        <v>809.8699951171875</v>
       </c>
       <c r="F128">
-        <v>18392800</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>886</v>
-      </c>
-      <c r="B129">
-        <v>886.8699951171875</v>
-      </c>
-      <c r="C129">
-        <v>837.6099853515625</v>
-      </c>
-      <c r="D129">
-        <v>856.97998046875</v>
-      </c>
-      <c r="E129">
-        <v>856.97998046875</v>
-      </c>
-      <c r="F129">
-        <v>22710500</v>
+        <v>25309500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2542 +417,2502 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>708.3099975585938</v>
+        <v>740</v>
       </c>
       <c r="B2">
-        <v>715.4000244140625</v>
+        <v>760.2000122070312</v>
       </c>
       <c r="C2">
-        <v>697.6199951171875</v>
+        <v>739.260009765625</v>
       </c>
       <c r="D2">
-        <v>701.1599731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="E2">
-        <v>701.1599731445312</v>
+        <v>752.9199829101562</v>
       </c>
       <c r="F2">
-        <v>13214300</v>
+        <v>20039800</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>705</v>
+        <v>761.5800170898438</v>
       </c>
       <c r="B3">
-        <v>715</v>
+        <v>764.4500122070312</v>
       </c>
       <c r="C3">
-        <v>702.0999755859375</v>
+        <v>740.77001953125</v>
       </c>
       <c r="D3">
-        <v>711.9199829101562</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="E3">
-        <v>711.9199829101562</v>
+        <v>753.8699951171875</v>
       </c>
       <c r="F3">
-        <v>13762100</v>
+        <v>18793000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>714.719970703125</v>
+        <v>753.4099731445312</v>
       </c>
       <c r="B4">
-        <v>731</v>
+        <v>762.0999755859375</v>
       </c>
       <c r="C4">
-        <v>712.72998046875</v>
+        <v>751.6300048828125</v>
       </c>
       <c r="D4">
-        <v>730.9099731445312</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="E4">
-        <v>730.9099731445312</v>
+        <v>754.8599853515625</v>
       </c>
       <c r="F4">
-        <v>18604200</v>
+        <v>14077700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>733</v>
+        <v>759.5999755859375</v>
       </c>
       <c r="B5">
-        <v>740.3900146484375</v>
+        <v>762.6099853515625</v>
       </c>
       <c r="C5">
-        <v>726.4400024414062</v>
+        <v>734.52001953125</v>
       </c>
       <c r="D5">
-        <v>735.719970703125</v>
+        <v>736.27001953125</v>
       </c>
       <c r="E5">
-        <v>735.719970703125</v>
+        <v>736.27001953125</v>
       </c>
       <c r="F5">
-        <v>20855400</v>
+        <v>15114300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>734.0800170898438</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B6">
-        <v>741.989990234375</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C6">
-        <v>731.27001953125</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D6">
-        <v>734.0900268554688</v>
+        <v>743</v>
       </c>
       <c r="E6">
-        <v>734.0900268554688</v>
+        <v>743</v>
       </c>
       <c r="F6">
-        <v>13204300</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>734.5</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B7">
-        <v>740.969970703125</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C7">
-        <v>730.5399780273438</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D7">
-        <v>732.3900146484375</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E7">
-        <v>732.3900146484375</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F7">
-        <v>12777300</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>732.25</v>
+        <v>745</v>
       </c>
       <c r="B8">
-        <v>734</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C8">
-        <v>724.2000122070312</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D8">
-        <v>733.5700073242188</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E8">
-        <v>733.5700073242188</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F8">
-        <v>15246100</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>740</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B9">
-        <v>760.2000122070312</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C9">
-        <v>739.260009765625</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D9">
-        <v>752.9199829101562</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E9">
-        <v>752.9199829101562</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F9">
-        <v>20039800</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>761.5800170898438</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B10">
-        <v>764.4500122070312</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C10">
-        <v>740.77001953125</v>
+        <v>750</v>
       </c>
       <c r="D10">
-        <v>753.8699951171875</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E10">
-        <v>753.8699951171875</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F10">
-        <v>18793000</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>753.4099731445312</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B11">
-        <v>762.0999755859375</v>
+        <v>742</v>
       </c>
       <c r="C11">
-        <v>751.6300048828125</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D11">
-        <v>754.8599853515625</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E11">
-        <v>754.8599853515625</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F11">
-        <v>14077700</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>759.5999755859375</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B12">
-        <v>762.6099853515625</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C12">
-        <v>734.52001953125</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D12">
-        <v>736.27001953125</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E12">
-        <v>736.27001953125</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F12">
-        <v>15114300</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>740.2100219726562</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B13">
-        <v>744.780029296875</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C13">
-        <v>708.8499755859375</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D13">
-        <v>743</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E13">
-        <v>743</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F13">
-        <v>22952500</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>742.5700073242188</v>
+        <v>755</v>
       </c>
       <c r="B14">
-        <v>754.469970703125</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C14">
-        <v>736.4000244140625</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D14">
-        <v>744.489990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E14">
-        <v>744.489990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F14">
-        <v>18524900</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>745</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B15">
-        <v>756.8599853515625</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C15">
-        <v>738.3599853515625</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D15">
-        <v>755.8300170898438</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E15">
-        <v>755.8300170898438</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F15">
-        <v>15357700</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>752.8300170898438</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B16">
-        <v>758.9099731445312</v>
+        <v>799</v>
       </c>
       <c r="C16">
-        <v>747.6099853515625</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D16">
-        <v>756.989990234375</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E16">
-        <v>756.989990234375</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F16">
-        <v>13923400</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>757.1500244140625</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B17">
-        <v>761.0399780273438</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C17">
-        <v>750</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D17">
-        <v>759.489990234375</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E17">
-        <v>759.489990234375</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F17">
-        <v>28204200</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>734.5599975585938</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B18">
-        <v>742</v>
+        <v>793.5</v>
       </c>
       <c r="C18">
-        <v>718.6199951171875</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D18">
-        <v>730.1699829101562</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E18">
-        <v>730.1699829101562</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F18">
-        <v>24757700</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>734.7899780273438</v>
+        <v>781</v>
       </c>
       <c r="B19">
-        <v>744.739990234375</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C19">
-        <v>730.4400024414062</v>
+        <v>775</v>
       </c>
       <c r="D19">
-        <v>739.3800048828125</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E19">
-        <v>739.3800048828125</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F19">
-        <v>16330700</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>743.530029296875</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B20">
-        <v>753.6699829101562</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C20">
-        <v>739.1199951171875</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D20">
-        <v>751.9400024414062</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E20">
-        <v>751.9400024414062</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F20">
-        <v>15126300</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>755</v>
+        <v>796.5</v>
       </c>
       <c r="B21">
-        <v>758.2000122070312</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C21">
-        <v>747.9199829101562</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D21">
-        <v>753.6400146484375</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E21">
-        <v>753.6400146484375</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F21">
-        <v>11947500</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>745.8900146484375</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B22">
-        <v>774.7999877929688</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C22">
-        <v>744.5599975585938</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D22">
-        <v>774.3900146484375</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E22">
-        <v>774.3900146484375</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F22">
-        <v>21373000</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>773.1199951171875</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B23">
-        <v>799</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C23">
-        <v>769.3099975585938</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D23">
-        <v>791.3599853515625</v>
+        <v>782.75</v>
       </c>
       <c r="E23">
-        <v>791.3599853515625</v>
+        <v>782.75</v>
       </c>
       <c r="F23">
-        <v>28070700</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>787.2000122070312</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B24">
-        <v>795.6400146484375</v>
+        <v>805</v>
       </c>
       <c r="C24">
-        <v>766.1799926757812</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D24">
-        <v>777.5599975585938</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E24">
-        <v>777.5599975585938</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F24">
-        <v>25381400</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>779.7999877929688</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B25">
-        <v>793.5</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C25">
-        <v>770.6799926757812</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D25">
-        <v>781.3099975585938</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E25">
-        <v>781.3099975585938</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F25">
-        <v>20942900</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>781</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B26">
-        <v>789.1300048828125</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C26">
-        <v>775</v>
+        <v>785.5</v>
       </c>
       <c r="D26">
-        <v>775.47998046875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E26">
-        <v>775.47998046875</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F26">
-        <v>17956000</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>778.4000244140625</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B27">
-        <v>780.780029296875</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C27">
-        <v>763.5900268554688</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D27">
-        <v>775.219970703125</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E27">
-        <v>775.219970703125</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F27">
-        <v>17031400</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>796.5</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B28">
-        <v>806.969970703125</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C28">
-        <v>776.1199951171875</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D28">
-        <v>781.530029296875</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E28">
-        <v>781.530029296875</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F28">
-        <v>30483300</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>784.7999877929688</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B29">
-        <v>797.3099975585938</v>
+        <v>820.25</v>
       </c>
       <c r="C29">
-        <v>774.2000122070312</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D29">
-        <v>780.5900268554688</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E29">
-        <v>780.5900268554688</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F29">
-        <v>18432600</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>776.2000122070312</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B30">
-        <v>786.6599731445312</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C30">
-        <v>773.219970703125</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D30">
-        <v>782.75</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E30">
-        <v>782.75</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F30">
-        <v>14632800</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>785.4600219726562</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B31">
-        <v>805</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C31">
-        <v>783.3800048828125</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D31">
-        <v>793.6099853515625</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E31">
-        <v>793.6099853515625</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F31">
-        <v>19195800</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>796.2100219726562</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B32">
-        <v>796.3800048828125</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C32">
-        <v>780.9099731445312</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D32">
-        <v>785.489990234375</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E32">
-        <v>785.489990234375</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F32">
-        <v>16711100</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>787.6500244140625</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B33">
-        <v>801.239990234375</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C33">
-        <v>785.5</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D33">
-        <v>791.9400024414062</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E33">
-        <v>791.9400024414062</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F33">
-        <v>14200300</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>800.9299926757812</v>
+        <v>856</v>
       </c>
       <c r="B34">
-        <v>812.3200073242188</v>
+        <v>900</v>
       </c>
       <c r="C34">
-        <v>796.5700073242188</v>
+        <v>855.5</v>
       </c>
       <c r="D34">
-        <v>805.719970703125</v>
+        <v>894</v>
       </c>
       <c r="E34">
-        <v>805.719970703125</v>
+        <v>894</v>
       </c>
       <c r="F34">
-        <v>22020000</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>810.469970703125</v>
+        <v>895.5</v>
       </c>
       <c r="B35">
-        <v>815.4099731445312</v>
+        <v>910</v>
       </c>
       <c r="C35">
-        <v>805.780029296875</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D35">
-        <v>811.0800170898438</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E35">
-        <v>811.0800170898438</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F35">
-        <v>14120100</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>815.489990234375</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B36">
-        <v>820.25</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C36">
-        <v>813.3499755859375</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D36">
-        <v>818.3200073242188</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E36">
-        <v>818.3200073242188</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F36">
-        <v>12247200</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>823.739990234375</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B37">
-        <v>843.2100219726562</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C37">
-        <v>822.3499755859375</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D37">
-        <v>843.030029296875</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E37">
-        <v>843.030029296875</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F37">
-        <v>18818000</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>851.7899780273438</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B38">
-        <v>875.260009765625</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C38">
-        <v>851.469970703125</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D38">
-        <v>870.1099853515625</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E38">
-        <v>870.1099853515625</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F38">
-        <v>24207200</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>877.530029296875</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B39">
-        <v>877.9500122070312</v>
+        <v>1081</v>
       </c>
       <c r="C39">
-        <v>862.510009765625</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D39">
-        <v>864.27001953125</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E39">
-        <v>864.27001953125</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F39">
-        <v>17381100</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>865.3499755859375</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B40">
-        <v>869.489990234375</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C40">
-        <v>857.3800048828125</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D40">
-        <v>865.7999877929688</v>
+        <v>1114</v>
       </c>
       <c r="E40">
-        <v>865.7999877929688</v>
+        <v>1114</v>
       </c>
       <c r="F40">
-        <v>14032100</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>856</v>
+        <v>1145</v>
       </c>
       <c r="B41">
-        <v>900</v>
+        <v>1209.75</v>
       </c>
       <c r="C41">
-        <v>855.5</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D41">
-        <v>894</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E41">
-        <v>894</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F41">
-        <v>31481500</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>895.5</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B42">
-        <v>910</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C42">
-        <v>890.9600219726562</v>
+        <v>1146</v>
       </c>
       <c r="D42">
-        <v>909.6799926757812</v>
+        <v>1172</v>
       </c>
       <c r="E42">
-        <v>909.6799926757812</v>
+        <v>1172</v>
       </c>
       <c r="F42">
-        <v>22880800</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>950.530029296875</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B43">
-        <v>1045.02001953125</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C43">
-        <v>944.2000122070312</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D43">
-        <v>1024.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E43">
-        <v>1024.859985351562</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F43">
-        <v>62852100</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1024.68994140625</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B44">
-        <v>1094.93994140625</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C44">
-        <v>1001.440002441406</v>
+        <v>1217</v>
       </c>
       <c r="D44">
-        <v>1018.429992675781</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E44">
-        <v>1018.429992675781</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F44">
-        <v>62415000</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1039.660034179688</v>
+        <v>1228</v>
       </c>
       <c r="B45">
-        <v>1070.880004882812</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C45">
-        <v>1030.780029296875</v>
+        <v>1208</v>
       </c>
       <c r="D45">
-        <v>1037.859985351562</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E45">
-        <v>1037.859985351562</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F45">
-        <v>38526500</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1068.31005859375</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B46">
-        <v>1081</v>
+        <v>1197</v>
       </c>
       <c r="C46">
-        <v>1054.199951171875</v>
+        <v>1133</v>
       </c>
       <c r="D46">
-        <v>1077.0400390625</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E46">
-        <v>1077.0400390625</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F46">
-        <v>27213200</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1081.859985351562</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B47">
-        <v>1115.2099609375</v>
+        <v>1174.5</v>
       </c>
       <c r="C47">
-        <v>1073.2099609375</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D47">
-        <v>1114</v>
+        <v>1023.5</v>
       </c>
       <c r="E47">
-        <v>1114</v>
+        <v>1023.5</v>
       </c>
       <c r="F47">
-        <v>29918400</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1145</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B48">
-        <v>1209.75</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C48">
-        <v>1118.660034179688</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D48">
-        <v>1208.589965820312</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E48">
-        <v>1208.589965820312</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F48">
-        <v>56048700</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1159.359985351562</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B49">
-        <v>1208.589965820312</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C49">
-        <v>1146</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D49">
-        <v>1172</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E49">
-        <v>1172</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F49">
-        <v>42737800</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1177.329956054688</v>
+        <v>1047.5</v>
       </c>
       <c r="B50">
-        <v>1215.390014648438</v>
+        <v>1054.5</v>
       </c>
       <c r="C50">
-        <v>1152.619995117188</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D50">
-        <v>1213.859985351562</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E50">
-        <v>1213.859985351562</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F50">
-        <v>34628500</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1234.410034179688</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B51">
-        <v>1243.489990234375</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C51">
-        <v>1217</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D51">
-        <v>1229.910034179688</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E51">
-        <v>1229.910034179688</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F51">
-        <v>25397400</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1228</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B52">
-        <v>1239.869995117188</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C52">
-        <v>1208</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D52">
-        <v>1222.089965820312</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E52">
-        <v>1222.089965820312</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F52">
-        <v>21579900</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1149.7900390625</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B53">
-        <v>1197</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C53">
-        <v>1133</v>
+        <v>1055.5</v>
       </c>
       <c r="D53">
-        <v>1162.93994140625</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E53">
-        <v>1162.93994140625</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F53">
-        <v>33445700</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1173.599975585938</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B54">
-        <v>1174.5</v>
+        <v>1112</v>
       </c>
       <c r="C54">
-        <v>1011.52001953125</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D54">
-        <v>1023.5</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E54">
-        <v>1023.5</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F54">
-        <v>59105800</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1010.409973144531</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B55">
-        <v>1078.099975585938</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C55">
-        <v>987.3099975585938</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D55">
-        <v>1067.949951171875</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E55">
-        <v>1067.949951171875</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F55">
-        <v>42802700</v>
+        <v>21642300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1102.77001953125</v>
+        <v>1162.329956054688</v>
       </c>
       <c r="B56">
-        <v>1104.969970703125</v>
+        <v>1201.949951171875</v>
       </c>
       <c r="C56">
-        <v>1054.680053710938</v>
+        <v>1132.430053710938</v>
       </c>
       <c r="D56">
-        <v>1063.510009765625</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="E56">
-        <v>1063.510009765625</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="F56">
-        <v>22396600</v>
+        <v>33072500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1047.5</v>
+        <v>1167.510009765625</v>
       </c>
       <c r="B57">
-        <v>1054.5</v>
+        <v>1180.5</v>
       </c>
       <c r="C57">
-        <v>1019.200012207031</v>
+        <v>1062.699951171875</v>
       </c>
       <c r="D57">
-        <v>1033.420043945312</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="E57">
-        <v>1033.420043945312</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="F57">
-        <v>25182300</v>
+        <v>36171700</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1017.630004882812</v>
+        <v>1080.390014648438</v>
       </c>
       <c r="B58">
-        <v>1031.97998046875</v>
+        <v>1132.77001953125</v>
       </c>
       <c r="C58">
-        <v>978.5999755859375</v>
+        <v>1062</v>
       </c>
       <c r="D58">
-        <v>1013.390014648438</v>
+        <v>1116</v>
       </c>
       <c r="E58">
-        <v>1013.390014648438</v>
+        <v>1116</v>
       </c>
       <c r="F58">
-        <v>34775600</v>
+        <v>22560200</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1003.309997558594</v>
+        <v>1099.469970703125</v>
       </c>
       <c r="B59">
-        <v>1057.199951171875</v>
+        <v>1108.780029296875</v>
       </c>
       <c r="C59">
-        <v>1002.179992675781</v>
+        <v>1081</v>
       </c>
       <c r="D59">
-        <v>1054.72998046875</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="E59">
-        <v>1054.72998046875</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="F59">
-        <v>26542400</v>
+        <v>11680900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1063.510009765625</v>
+        <v>1100.989990234375</v>
       </c>
       <c r="B60">
-        <v>1119.640014648438</v>
+        <v>1142.670043945312</v>
       </c>
       <c r="C60">
-        <v>1055.5</v>
+        <v>1100.18994140625</v>
       </c>
       <c r="D60">
-        <v>1089.010009765625</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="E60">
-        <v>1089.010009765625</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="F60">
-        <v>31445400</v>
+        <v>19464500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1106.550048828125</v>
+        <v>1144.369995117188</v>
       </c>
       <c r="B61">
-        <v>1112</v>
+        <v>1168</v>
       </c>
       <c r="C61">
-        <v>1075.02001953125</v>
+        <v>1118</v>
       </c>
       <c r="D61">
-        <v>1096.380004882812</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="E61">
-        <v>1096.380004882812</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="F61">
-        <v>20898900</v>
+        <v>27092000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1098.869995117188</v>
+        <v>1160.699951171875</v>
       </c>
       <c r="B62">
-        <v>1138.719970703125</v>
+        <v>1172.839965820312</v>
       </c>
       <c r="C62">
-        <v>1092.699951171875</v>
+        <v>1090.760009765625</v>
       </c>
       <c r="D62">
-        <v>1137.06005859375</v>
+        <v>1095</v>
       </c>
       <c r="E62">
-        <v>1137.06005859375</v>
+        <v>1095</v>
       </c>
       <c r="F62">
-        <v>21642300</v>
+        <v>22816800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1162.329956054688</v>
+        <v>1099.06005859375</v>
       </c>
       <c r="B63">
-        <v>1201.949951171875</v>
+        <v>1113</v>
       </c>
       <c r="C63">
-        <v>1132.430053710938</v>
+        <v>1056.650024414062</v>
       </c>
       <c r="D63">
-        <v>1156.869995117188</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="E63">
-        <v>1156.869995117188</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="F63">
-        <v>33072500</v>
+        <v>24371600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1167.510009765625</v>
+        <v>1084.7900390625</v>
       </c>
       <c r="B64">
-        <v>1180.5</v>
+        <v>1090.579956054688</v>
       </c>
       <c r="C64">
-        <v>1062.699951171875</v>
+        <v>1000.210021972656</v>
       </c>
       <c r="D64">
-        <v>1109.030029296875</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="E64">
-        <v>1109.030029296875</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="F64">
-        <v>36171700</v>
+        <v>30696300</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1080.390014648438</v>
+        <v>1001.510009765625</v>
       </c>
       <c r="B65">
-        <v>1132.77001953125</v>
+        <v>1021.640014648438</v>
       </c>
       <c r="C65">
-        <v>1062</v>
+        <v>950.5</v>
       </c>
       <c r="D65">
-        <v>1116</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="E65">
-        <v>1116</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="F65">
-        <v>22560200</v>
+        <v>27221000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1099.469970703125</v>
+        <v>1044.199951171875</v>
       </c>
       <c r="B66">
-        <v>1108.780029296875</v>
+        <v>1057.670043945312</v>
       </c>
       <c r="C66">
-        <v>1081</v>
+        <v>1026.81005859375</v>
       </c>
       <c r="D66">
-        <v>1081.920043945312</v>
+        <v>1051.75</v>
       </c>
       <c r="E66">
-        <v>1081.920043945312</v>
+        <v>1051.75</v>
       </c>
       <c r="F66">
-        <v>11680900</v>
+        <v>18694900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1100.989990234375</v>
+        <v>1052.7099609375</v>
       </c>
       <c r="B67">
-        <v>1142.670043945312</v>
+        <v>1072.380004882812</v>
       </c>
       <c r="C67">
-        <v>1100.18994140625</v>
+        <v>1033</v>
       </c>
       <c r="D67">
-        <v>1136.989990234375</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="E67">
-        <v>1136.989990234375</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="F67">
-        <v>19464500</v>
+        <v>13968800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1144.369995117188</v>
+        <v>1060.640014648438</v>
       </c>
       <c r="B68">
-        <v>1168</v>
+        <v>1062.489990234375</v>
       </c>
       <c r="C68">
-        <v>1118</v>
+        <v>1002.359985351562</v>
       </c>
       <c r="D68">
-        <v>1144.760009765625</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="E68">
-        <v>1144.760009765625</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="F68">
-        <v>27092000</v>
+        <v>19812800</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1160.699951171875</v>
+        <v>1008.75</v>
       </c>
       <c r="B69">
-        <v>1172.839965820312</v>
+        <v>1020.97998046875</v>
       </c>
       <c r="C69">
-        <v>1090.760009765625</v>
+        <v>982.530029296875</v>
       </c>
       <c r="D69">
-        <v>1095</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="E69">
-        <v>1095</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="F69">
-        <v>22816800</v>
+        <v>19855000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1099.06005859375</v>
+        <v>1001.090026855469</v>
       </c>
       <c r="B70">
-        <v>1113</v>
+        <v>1005</v>
       </c>
       <c r="C70">
-        <v>1056.650024414062</v>
+        <v>951.4199829101562</v>
       </c>
       <c r="D70">
-        <v>1084.599975585938</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="E70">
-        <v>1084.599975585938</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="F70">
-        <v>24371600</v>
+        <v>26198500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>1084.7900390625</v>
+        <v>945</v>
       </c>
       <c r="B71">
-        <v>1090.579956054688</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="C71">
-        <v>1000.210021972656</v>
+        <v>930</v>
       </c>
       <c r="D71">
-        <v>1014.969970703125</v>
+        <v>958.510009765625</v>
       </c>
       <c r="E71">
-        <v>1014.969970703125</v>
+        <v>958.510009765625</v>
       </c>
       <c r="F71">
-        <v>30696300</v>
+        <v>23602100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>1001.510009765625</v>
+        <v>953.2100219726562</v>
       </c>
       <c r="B72">
-        <v>1021.640014648438</v>
+        <v>978.75</v>
       </c>
       <c r="C72">
-        <v>950.5</v>
+        <v>928.25</v>
       </c>
       <c r="D72">
-        <v>1009.010009765625</v>
+        <v>975.989990234375</v>
       </c>
       <c r="E72">
-        <v>1009.010009765625</v>
+        <v>975.989990234375</v>
       </c>
       <c r="F72">
-        <v>27221000</v>
+        <v>25056400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1044.199951171875</v>
+        <v>994.5</v>
       </c>
       <c r="B73">
-        <v>1057.670043945312</v>
+        <v>994.97998046875</v>
       </c>
       <c r="C73">
-        <v>1026.81005859375</v>
+        <v>921.8499755859375</v>
       </c>
       <c r="D73">
-        <v>1051.75</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="E73">
-        <v>1051.75</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="F73">
-        <v>18694900</v>
+        <v>27590500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1052.7099609375</v>
+        <v>914.77001953125</v>
       </c>
       <c r="B74">
-        <v>1072.380004882812</v>
+        <v>960.6599731445312</v>
       </c>
       <c r="C74">
-        <v>1033</v>
+        <v>909.0399780273438</v>
       </c>
       <c r="D74">
-        <v>1068.9599609375</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="E74">
-        <v>1068.9599609375</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="F74">
-        <v>13968800</v>
+        <v>33479100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1060.640014648438</v>
+        <v>910.7000122070312</v>
       </c>
       <c r="B75">
-        <v>1062.489990234375</v>
+        <v>921.6900024414062</v>
       </c>
       <c r="C75">
-        <v>1002.359985351562</v>
+        <v>893.3900146484375</v>
       </c>
       <c r="D75">
-        <v>1003.799987792969</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="E75">
-        <v>1003.799987792969</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="F75">
-        <v>19812800</v>
+        <v>18826700</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1008.75</v>
+        <v>916.8699951171875</v>
       </c>
       <c r="B76">
-        <v>1020.97998046875</v>
+        <v>939.5</v>
       </c>
       <c r="C76">
-        <v>982.530029296875</v>
+        <v>886.1199951171875</v>
       </c>
       <c r="D76">
-        <v>1017.030029296875</v>
+        <v>938.530029296875</v>
       </c>
       <c r="E76">
-        <v>1017.030029296875</v>
+        <v>938.530029296875</v>
       </c>
       <c r="F76">
-        <v>19855000</v>
+        <v>23839300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>1001.090026855469</v>
+        <v>965.6599731445312</v>
       </c>
       <c r="B77">
-        <v>1005</v>
+        <v>1015.659973144531</v>
       </c>
       <c r="C77">
-        <v>951.4199829101562</v>
+        <v>957.0499877929688</v>
       </c>
       <c r="D77">
-        <v>966.4099731445312</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="E77">
-        <v>966.4099731445312</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="F77">
-        <v>26198500</v>
+        <v>31211400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>945</v>
+        <v>1006.799987792969</v>
       </c>
       <c r="B78">
-        <v>966.4099731445312</v>
+        <v>1072.97998046875</v>
       </c>
       <c r="C78">
-        <v>930</v>
+        <v>997.5599975585938</v>
       </c>
       <c r="D78">
-        <v>958.510009765625</v>
+        <v>1067</v>
       </c>
       <c r="E78">
-        <v>958.510009765625</v>
+        <v>1067</v>
       </c>
       <c r="F78">
-        <v>23602100</v>
+        <v>30904400</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>953.2100219726562</v>
+        <v>1073.670043945312</v>
       </c>
       <c r="B79">
-        <v>978.75</v>
+        <v>1117</v>
       </c>
       <c r="C79">
-        <v>928.25</v>
+        <v>1070.719970703125</v>
       </c>
       <c r="D79">
-        <v>975.989990234375</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="E79">
-        <v>975.989990234375</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="F79">
-        <v>25056400</v>
+        <v>23715300</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>994.5</v>
+        <v>1109.489990234375</v>
       </c>
       <c r="B80">
-        <v>994.97998046875</v>
+        <v>1119</v>
       </c>
       <c r="C80">
-        <v>921.8499755859375</v>
+        <v>1078.420043945312</v>
       </c>
       <c r="D80">
-        <v>926.9199829101562</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="E80">
-        <v>926.9199829101562</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="F80">
-        <v>27590500</v>
+        <v>20108000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>914.77001953125</v>
+        <v>1098.640014648438</v>
       </c>
       <c r="B81">
-        <v>960.6599731445312</v>
+        <v>1104</v>
       </c>
       <c r="C81">
-        <v>909.0399780273438</v>
+        <v>1064.140014648438</v>
       </c>
       <c r="D81">
-        <v>932.5700073242188</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="E81">
-        <v>932.5700073242188</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="F81">
-        <v>33479100</v>
+        <v>18718000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>910.7000122070312</v>
+        <v>1061.329956054688</v>
       </c>
       <c r="B82">
-        <v>921.6900024414062</v>
+        <v>1095.550048828125</v>
       </c>
       <c r="C82">
-        <v>893.3900146484375</v>
+        <v>1053.150024414062</v>
       </c>
       <c r="D82">
-        <v>899.9400024414062</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="E82">
-        <v>899.9400024414062</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="F82">
-        <v>18826700</v>
+        <v>15680300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>916.8699951171875</v>
+        <v>1073.43994140625</v>
       </c>
       <c r="B83">
-        <v>939.5</v>
+        <v>1082</v>
       </c>
       <c r="C83">
-        <v>886.1199951171875</v>
+        <v>1054.589965820312</v>
       </c>
       <c r="D83">
-        <v>938.530029296875</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="E83">
-        <v>938.530029296875</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="F83">
-        <v>23839300</v>
+        <v>13577900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>965.6599731445312</v>
+        <v>1147.75</v>
       </c>
       <c r="B84">
-        <v>1015.659973144531</v>
+        <v>1201.069946289062</v>
       </c>
       <c r="C84">
-        <v>957.0499877929688</v>
+        <v>1136.0400390625</v>
       </c>
       <c r="D84">
-        <v>1008.869995117188</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="E84">
-        <v>1008.869995117188</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="F84">
-        <v>31211400</v>
+        <v>34643800</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1006.799987792969</v>
+        <v>1189.550048828125</v>
       </c>
       <c r="B85">
-        <v>1072.97998046875</v>
+        <v>1208</v>
       </c>
       <c r="C85">
-        <v>997.5599975585938</v>
+        <v>1123.050048828125</v>
       </c>
       <c r="D85">
-        <v>1067</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="E85">
-        <v>1067</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="F85">
-        <v>30904400</v>
+        <v>33416100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1073.670043945312</v>
+        <v>1146.650024414062</v>
       </c>
       <c r="B86">
-        <v>1117</v>
+        <v>1170.339965820312</v>
       </c>
       <c r="C86">
-        <v>1070.719970703125</v>
+        <v>1081.010009765625</v>
       </c>
       <c r="D86">
-        <v>1093.93994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="E86">
-        <v>1093.93994140625</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="F86">
-        <v>23715300</v>
+        <v>26706600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1109.489990234375</v>
+        <v>1077</v>
       </c>
       <c r="B87">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="C87">
-        <v>1078.420043945312</v>
+        <v>1020.5</v>
       </c>
       <c r="D87">
-        <v>1088.469970703125</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="E87">
-        <v>1088.469970703125</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="F87">
-        <v>20108000</v>
+        <v>30112200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1098.640014648438</v>
+        <v>1080.369995117188</v>
       </c>
       <c r="B88">
-        <v>1104</v>
+        <v>1080.930053710938</v>
       </c>
       <c r="C88">
-        <v>1064.140014648438</v>
+        <v>1010</v>
       </c>
       <c r="D88">
-        <v>1086.18994140625</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="E88">
-        <v>1086.18994140625</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="F88">
-        <v>18718000</v>
+        <v>27919000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>1061.329956054688</v>
+        <v>1000</v>
       </c>
       <c r="B89">
-        <v>1095.550048828125</v>
+        <v>1059.099975585938</v>
       </c>
       <c r="C89">
-        <v>1053.150024414062</v>
+        <v>980</v>
       </c>
       <c r="D89">
-        <v>1070.339965820312</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="E89">
-        <v>1070.339965820312</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="F89">
-        <v>15680300</v>
+        <v>30605000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1073.43994140625</v>
+        <v>1053.670043945312</v>
       </c>
       <c r="B90">
-        <v>1082</v>
+        <v>1075.849975585938</v>
       </c>
       <c r="C90">
-        <v>1054.589965820312</v>
+        <v>1038.819946289062</v>
       </c>
       <c r="D90">
-        <v>1056.780029296875</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="E90">
-        <v>1056.780029296875</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="F90">
-        <v>13577900</v>
+        <v>22021100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1147.75</v>
+        <v>1078.849975585938</v>
       </c>
       <c r="B91">
-        <v>1201.069946289062</v>
+        <v>1114.839965820312</v>
       </c>
       <c r="C91">
-        <v>1136.0400390625</v>
+        <v>1072.589965820312</v>
       </c>
       <c r="D91">
-        <v>1199.780029296875</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="E91">
-        <v>1199.780029296875</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="F91">
-        <v>34643800</v>
+        <v>27913000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1189.550048828125</v>
+        <v>1109.069946289062</v>
       </c>
       <c r="B92">
-        <v>1208</v>
+        <v>1115.599975585938</v>
       </c>
       <c r="C92">
-        <v>1123.050048828125</v>
+        <v>1026.5400390625</v>
       </c>
       <c r="D92">
-        <v>1149.589965820312</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="E92">
-        <v>1149.589965820312</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="F92">
-        <v>33416100</v>
+        <v>32403300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1146.650024414062</v>
+        <v>1019.880004882812</v>
       </c>
       <c r="B93">
-        <v>1170.339965820312</v>
+        <v>1052</v>
       </c>
       <c r="C93">
-        <v>1081.010009765625</v>
+        <v>1013.380004882812</v>
       </c>
       <c r="D93">
-        <v>1088.119995117188</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="E93">
-        <v>1088.119995117188</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="F93">
-        <v>26706600</v>
+        <v>24246600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1077</v>
+        <v>1026.609985351562</v>
       </c>
       <c r="B94">
-        <v>1088</v>
+        <v>1070.7900390625</v>
       </c>
       <c r="C94">
-        <v>1020.5</v>
+        <v>1016.059997558594</v>
       </c>
       <c r="D94">
-        <v>1064.699951171875</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="E94">
-        <v>1064.699951171875</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="F94">
-        <v>30112200</v>
+        <v>22247800</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1080.369995117188</v>
+        <v>1041.7099609375</v>
       </c>
       <c r="B95">
-        <v>1080.930053710938</v>
+        <v>1054.670043945312</v>
       </c>
       <c r="C95">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="D95">
-        <v>1026.9599609375</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="E95">
-        <v>1026.9599609375</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="F95">
-        <v>27919000</v>
+        <v>25147500</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1000</v>
+        <v>1009.72998046875</v>
       </c>
       <c r="B96">
-        <v>1059.099975585938</v>
+        <v>1041.660034179688</v>
       </c>
       <c r="C96">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="D96">
-        <v>1058.119995117188</v>
+        <v>996.27001953125</v>
       </c>
       <c r="E96">
-        <v>1058.119995117188</v>
+        <v>996.27001953125</v>
       </c>
       <c r="F96">
-        <v>30605000</v>
+        <v>23496200</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>1053.670043945312</v>
+        <v>996.3400268554688</v>
       </c>
       <c r="B97">
-        <v>1075.849975585938</v>
+        <v>1004.549987792969</v>
       </c>
       <c r="C97">
-        <v>1038.819946289062</v>
+        <v>940.5</v>
       </c>
       <c r="D97">
-        <v>1064.400024414062</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="E97">
-        <v>1064.400024414062</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="F97">
-        <v>22021100</v>
+        <v>34472000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1078.849975585938</v>
+        <v>904.760009765625</v>
       </c>
       <c r="B98">
-        <v>1114.839965820312</v>
+        <v>933.510009765625</v>
       </c>
       <c r="C98">
-        <v>1072.589965820312</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D98">
-        <v>1106.219970703125</v>
+        <v>930</v>
       </c>
       <c r="E98">
-        <v>1106.219970703125</v>
+        <v>930</v>
       </c>
       <c r="F98">
-        <v>27913000</v>
+        <v>50521900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1109.069946289062</v>
+        <v>914.2000122070312</v>
       </c>
       <c r="B99">
-        <v>1115.599975585938</v>
+        <v>951.260009765625</v>
       </c>
       <c r="C99">
-        <v>1026.5400390625</v>
+        <v>903.2100219726562</v>
       </c>
       <c r="D99">
-        <v>1031.56005859375</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="E99">
-        <v>1031.56005859375</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="F99">
-        <v>32403300</v>
+        <v>28865300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1019.880004882812</v>
+        <v>952.4299926757812</v>
       </c>
       <c r="B100">
-        <v>1052</v>
+        <v>987.6900024414062</v>
       </c>
       <c r="C100">
-        <v>1013.380004882812</v>
+        <v>906</v>
       </c>
       <c r="D100">
-        <v>1049.609985351562</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="E100">
-        <v>1049.609985351562</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="F100">
-        <v>24246600</v>
+        <v>34955800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>1026.609985351562</v>
+        <v>933.3599853515625</v>
       </c>
       <c r="B101">
-        <v>1070.7900390625</v>
+        <v>935.3900146484375</v>
       </c>
       <c r="C101">
-        <v>1016.059997558594</v>
+        <v>829</v>
       </c>
       <c r="D101">
-        <v>1030.510009765625</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="E101">
-        <v>1030.510009765625</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="F101">
-        <v>22247800</v>
+        <v>49036500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>1041.7099609375</v>
+        <v>831.5599975585938</v>
       </c>
       <c r="B102">
-        <v>1054.670043945312</v>
+        <v>857.5</v>
       </c>
       <c r="C102">
-        <v>995</v>
+        <v>792.010009765625</v>
       </c>
       <c r="D102">
-        <v>995.6500244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E102">
-        <v>995.6500244140625</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="F102">
-        <v>25147500</v>
+        <v>44929700</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1009.72998046875</v>
+        <v>872.7100219726562</v>
       </c>
       <c r="B103">
-        <v>1041.660034179688</v>
+        <v>937.989990234375</v>
       </c>
       <c r="C103">
-        <v>994</v>
+        <v>862.0499877929688</v>
       </c>
       <c r="D103">
-        <v>996.27001953125</v>
+        <v>936.719970703125</v>
       </c>
       <c r="E103">
-        <v>996.27001953125</v>
+        <v>936.719970703125</v>
       </c>
       <c r="F103">
-        <v>23496200</v>
+        <v>34812000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>996.3400268554688</v>
+        <v>935.2100219726562</v>
       </c>
       <c r="B104">
-        <v>1004.549987792969</v>
+        <v>943.7000122070312</v>
       </c>
       <c r="C104">
-        <v>940.5</v>
+        <v>905</v>
       </c>
       <c r="D104">
-        <v>943.9000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="E104">
-        <v>943.9000244140625</v>
+        <v>931.25</v>
       </c>
       <c r="F104">
-        <v>34472000</v>
+        <v>24379400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>904.760009765625</v>
+        <v>928.1799926757812</v>
       </c>
       <c r="B105">
-        <v>933.510009765625</v>
+        <v>931.5</v>
       </c>
       <c r="C105">
-        <v>851.469970703125</v>
+        <v>889.4099731445312</v>
       </c>
       <c r="D105">
-        <v>930</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="E105">
-        <v>930</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="F105">
-        <v>50521900</v>
+        <v>22264300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>914.2000122070312</v>
+        <v>882</v>
       </c>
       <c r="B106">
-        <v>951.260009765625</v>
+        <v>937</v>
       </c>
       <c r="C106">
-        <v>903.2100219726562</v>
+        <v>880.52001953125</v>
       </c>
       <c r="D106">
-        <v>918.4000244140625</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="E106">
-        <v>918.4000244140625</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="F106">
-        <v>28865300</v>
+        <v>26285200</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>952.4299926757812</v>
+        <v>897.219970703125</v>
       </c>
       <c r="B107">
-        <v>987.6900024414062</v>
+        <v>936.5</v>
       </c>
       <c r="C107">
-        <v>906</v>
+        <v>881.1699829101562</v>
       </c>
       <c r="D107">
-        <v>937.4099731445312</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="E107">
-        <v>937.4099731445312</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="F107">
-        <v>34955800</v>
+        <v>24472600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>933.3599853515625</v>
+        <v>923.7899780273438</v>
       </c>
       <c r="B108">
-        <v>935.3900146484375</v>
+        <v>947.77001953125</v>
       </c>
       <c r="C108">
-        <v>829</v>
+        <v>902.7100219726562</v>
       </c>
       <c r="D108">
-        <v>829.0999755859375</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="E108">
-        <v>829.0999755859375</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="F108">
-        <v>49036500</v>
+        <v>20331500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>831.5599975585938</v>
+        <v>905.530029296875</v>
       </c>
       <c r="B109">
-        <v>857.5</v>
+        <v>926.2899780273438</v>
       </c>
       <c r="C109">
-        <v>792.010009765625</v>
+        <v>894.7999877929688</v>
       </c>
       <c r="D109">
-        <v>846.3499755859375</v>
+        <v>922</v>
       </c>
       <c r="E109">
-        <v>846.3499755859375</v>
+        <v>922</v>
       </c>
       <c r="F109">
-        <v>44929700</v>
+        <v>16909700</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>872.7100219726562</v>
+        <v>935</v>
       </c>
       <c r="B110">
-        <v>937.989990234375</v>
+        <v>946.27001953125</v>
       </c>
       <c r="C110">
-        <v>862.0499877929688</v>
+        <v>920</v>
       </c>
       <c r="D110">
-        <v>936.719970703125</v>
+        <v>932</v>
       </c>
       <c r="E110">
-        <v>936.719970703125</v>
+        <v>932</v>
       </c>
       <c r="F110">
-        <v>34812000</v>
+        <v>17419800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>935.2100219726562</v>
+        <v>908.3699951171875</v>
       </c>
       <c r="B111">
-        <v>943.7000122070312</v>
+        <v>943.8099975585938</v>
       </c>
       <c r="C111">
-        <v>905</v>
+        <v>896.7000122070312</v>
       </c>
       <c r="D111">
-        <v>931.25</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="E111">
-        <v>931.25</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="F111">
-        <v>24379400</v>
+        <v>22042300</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>928.1799926757812</v>
+        <v>909.6300048828125</v>
       </c>
       <c r="B112">
-        <v>931.5</v>
+        <v>915.9600219726562</v>
       </c>
       <c r="C112">
-        <v>889.4099731445312</v>
+        <v>850.7000122070312</v>
       </c>
       <c r="D112">
-        <v>905.6599731445312</v>
+        <v>860</v>
       </c>
       <c r="E112">
-        <v>905.6599731445312</v>
+        <v>860</v>
       </c>
       <c r="F112">
-        <v>22264300</v>
+        <v>26492700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>882</v>
+        <v>861.5700073242188</v>
       </c>
       <c r="B113">
-        <v>937</v>
+        <v>898.8800048828125</v>
       </c>
       <c r="C113">
-        <v>880.52001953125</v>
+        <v>853.1500244140625</v>
       </c>
       <c r="D113">
-        <v>891.1400146484375</v>
+        <v>875.760009765625</v>
       </c>
       <c r="E113">
-        <v>891.1400146484375</v>
+        <v>875.760009765625</v>
       </c>
       <c r="F113">
-        <v>26285200</v>
+        <v>22585500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>897.219970703125</v>
+        <v>900</v>
       </c>
       <c r="B114">
-        <v>936.5</v>
+        <v>923</v>
       </c>
       <c r="C114">
-        <v>881.1699829101562</v>
+        <v>893.3800048828125</v>
       </c>
       <c r="D114">
-        <v>923.3200073242188</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="E114">
-        <v>923.3200073242188</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="F114">
-        <v>24472600</v>
+        <v>19095400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>923.7899780273438</v>
+        <v>914.0499877929688</v>
       </c>
       <c r="B115">
-        <v>947.77001953125</v>
+        <v>926.4299926757812</v>
       </c>
       <c r="C115">
-        <v>902.7100219726562</v>
+        <v>901.2100219726562</v>
       </c>
       <c r="D115">
-        <v>907.3400268554688</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="E115">
-        <v>907.3400268554688</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="F115">
-        <v>20331500</v>
+        <v>17098100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>905.530029296875</v>
+        <v>913.260009765625</v>
       </c>
       <c r="B116">
-        <v>926.2899780273438</v>
+        <v>918.5</v>
       </c>
       <c r="C116">
-        <v>894.7999877929688</v>
+        <v>874.0999755859375</v>
       </c>
       <c r="D116">
-        <v>922</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="E116">
-        <v>922</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="F116">
-        <v>16909700</v>
+        <v>18392800</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>935</v>
+        <v>886</v>
       </c>
       <c r="B117">
-        <v>946.27001953125</v>
+        <v>886.8699951171875</v>
       </c>
       <c r="C117">
-        <v>920</v>
+        <v>837.6099853515625</v>
       </c>
       <c r="D117">
-        <v>932</v>
+        <v>856.97998046875</v>
       </c>
       <c r="E117">
-        <v>932</v>
+        <v>856.97998046875</v>
       </c>
       <c r="F117">
-        <v>17419800</v>
+        <v>22833900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>908.3699951171875</v>
+        <v>834.1300048828125</v>
       </c>
       <c r="B118">
-        <v>943.8099975585938</v>
+        <v>856.72998046875</v>
       </c>
       <c r="C118">
-        <v>896.7000122070312</v>
+        <v>801.0999755859375</v>
       </c>
       <c r="D118">
-        <v>904.5499877929688</v>
+        <v>821.530029296875</v>
       </c>
       <c r="E118">
-        <v>904.5499877929688</v>
+        <v>821.530029296875</v>
       </c>
       <c r="F118">
-        <v>22042300</v>
+        <v>27762700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>909.6300048828125</v>
+        <v>830.4299926757812</v>
       </c>
       <c r="B119">
-        <v>915.9600219726562</v>
+        <v>835.2999877929688</v>
       </c>
       <c r="C119">
-        <v>850.7000122070312</v>
+        <v>760.5599975585938</v>
       </c>
       <c r="D119">
-        <v>860</v>
+        <v>764.0399780273438</v>
       </c>
       <c r="E119">
-        <v>860</v>
+        <v>764.0399780273438</v>
       </c>
       <c r="F119">
-        <v>26492700</v>
+        <v>31752300</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>861.5700073242188</v>
+        <v>700.3900146484375</v>
       </c>
       <c r="B120">
-        <v>898.8800048828125</v>
+        <v>802.47998046875</v>
       </c>
       <c r="C120">
-        <v>853.1500244140625</v>
+        <v>700</v>
       </c>
       <c r="D120">
-        <v>875.760009765625</v>
+        <v>800.77001953125</v>
       </c>
       <c r="E120">
-        <v>875.760009765625</v>
+        <v>800.77001953125</v>
       </c>
       <c r="F120">
-        <v>22585500</v>
+        <v>45107400</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>900</v>
+        <v>809.22998046875</v>
       </c>
       <c r="B121">
-        <v>923</v>
+        <v>819.5</v>
       </c>
       <c r="C121">
-        <v>893.3800048828125</v>
+        <v>782.4000244140625</v>
       </c>
       <c r="D121">
-        <v>922.4299926757812</v>
+        <v>809.8699951171875</v>
       </c>
       <c r="E121">
-        <v>922.4299926757812</v>
+        <v>809.8699951171875</v>
       </c>
       <c r="F121">
-        <v>19216500</v>
+        <v>25355900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>914.0499877929688</v>
+        <v>815.010009765625</v>
       </c>
       <c r="B122">
-        <v>926.4299926757812</v>
+        <v>876.8599853515625</v>
       </c>
       <c r="C122">
-        <v>901.2100219726562</v>
+        <v>814.7100219726562</v>
       </c>
       <c r="D122">
-        <v>923.3900146484375</v>
+        <v>870.4299926757812</v>
       </c>
       <c r="E122">
-        <v>923.3900146484375</v>
+        <v>870.4299926757812</v>
       </c>
       <c r="F122">
-        <v>17098100</v>
+        <v>33002300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>913.260009765625</v>
+        <v>869.6799926757812</v>
       </c>
       <c r="B123">
-        <v>918.5</v>
+        <v>889.8800048828125</v>
       </c>
       <c r="C123">
-        <v>874.0999755859375</v>
+        <v>853.780029296875</v>
       </c>
       <c r="D123">
-        <v>876.3499755859375</v>
+        <v>864.3699951171875</v>
       </c>
       <c r="E123">
-        <v>876.3499755859375</v>
+        <v>864.3699951171875</v>
       </c>
       <c r="F123">
-        <v>18392800</v>
+        <v>24922300</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>886</v>
+        <v>872.1300048828125</v>
       </c>
       <c r="B124">
-        <v>886.8699951171875</v>
+        <v>886.47998046875</v>
       </c>
       <c r="C124">
-        <v>837.6099853515625</v>
+        <v>844.27001953125</v>
       </c>
       <c r="D124">
-        <v>856.97998046875</v>
+        <v>879.8900146484375</v>
       </c>
       <c r="E124">
-        <v>856.97998046875</v>
+        <v>879.8900146484375</v>
       </c>
       <c r="F124">
-        <v>22710500</v>
+        <v>24881100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>834.1300048828125</v>
+        <v>878.77001953125</v>
       </c>
       <c r="B125">
-        <v>856.72998046875</v>
+        <v>886.4400024414062</v>
       </c>
       <c r="C125">
-        <v>801.0999755859375</v>
+        <v>832.5999755859375</v>
       </c>
       <c r="D125">
-        <v>821.530029296875</v>
+        <v>839.2899780273438</v>
       </c>
       <c r="E125">
-        <v>821.530029296875</v>
+        <v>839.2899780273438</v>
       </c>
       <c r="F125">
-        <v>27762700</v>
+        <v>20373300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>830.4299926757812</v>
+        <v>849.0999755859375</v>
       </c>
       <c r="B126">
-        <v>835.2999877929688</v>
+        <v>855.6500244140625</v>
       </c>
       <c r="C126">
-        <v>760.5599975585938</v>
+        <v>825.160888671875</v>
       </c>
       <c r="D126">
-        <v>764.0399780273438</v>
+        <v>838.2899780273438</v>
       </c>
       <c r="E126">
-        <v>764.0399780273438</v>
+        <v>838.2899780273438</v>
       </c>
       <c r="F126">
-        <v>31752300</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>700.3900146484375</v>
-      </c>
-      <c r="B127">
-        <v>802.47998046875</v>
-      </c>
-      <c r="C127">
-        <v>700</v>
-      </c>
-      <c r="D127">
-        <v>800.77001953125</v>
-      </c>
-      <c r="E127">
-        <v>800.77001953125</v>
-      </c>
-      <c r="F127">
-        <v>45107400</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>809.22998046875</v>
-      </c>
-      <c r="B128">
-        <v>819.5</v>
-      </c>
-      <c r="C128">
-        <v>782.4000244140625</v>
-      </c>
-      <c r="D128">
-        <v>809.8699951171875</v>
-      </c>
-      <c r="E128">
-        <v>809.8699951171875</v>
-      </c>
-      <c r="F128">
-        <v>25309500</v>
+        <v>22294195</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2502 +417,2522 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>740</v>
+        <v>740.2100219726562</v>
       </c>
       <c r="B2">
-        <v>760.2000122070312</v>
+        <v>744.780029296875</v>
       </c>
       <c r="C2">
-        <v>739.260009765625</v>
+        <v>708.8499755859375</v>
       </c>
       <c r="D2">
-        <v>752.9199829101562</v>
+        <v>743</v>
       </c>
       <c r="E2">
-        <v>752.9199829101562</v>
+        <v>743</v>
       </c>
       <c r="F2">
-        <v>20039800</v>
+        <v>22952500</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>761.5800170898438</v>
+        <v>742.5700073242188</v>
       </c>
       <c r="B3">
-        <v>764.4500122070312</v>
+        <v>754.469970703125</v>
       </c>
       <c r="C3">
-        <v>740.77001953125</v>
+        <v>736.4000244140625</v>
       </c>
       <c r="D3">
-        <v>753.8699951171875</v>
+        <v>744.489990234375</v>
       </c>
       <c r="E3">
-        <v>753.8699951171875</v>
+        <v>744.489990234375</v>
       </c>
       <c r="F3">
-        <v>18793000</v>
+        <v>18524900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>753.4099731445312</v>
+        <v>745</v>
       </c>
       <c r="B4">
-        <v>762.0999755859375</v>
+        <v>756.8599853515625</v>
       </c>
       <c r="C4">
-        <v>751.6300048828125</v>
+        <v>738.3599853515625</v>
       </c>
       <c r="D4">
-        <v>754.8599853515625</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="E4">
-        <v>754.8599853515625</v>
+        <v>755.8300170898438</v>
       </c>
       <c r="F4">
-        <v>14077700</v>
+        <v>15357700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>759.5999755859375</v>
+        <v>752.8300170898438</v>
       </c>
       <c r="B5">
-        <v>762.6099853515625</v>
+        <v>758.9099731445312</v>
       </c>
       <c r="C5">
-        <v>734.52001953125</v>
+        <v>747.6099853515625</v>
       </c>
       <c r="D5">
-        <v>736.27001953125</v>
+        <v>756.989990234375</v>
       </c>
       <c r="E5">
-        <v>736.27001953125</v>
+        <v>756.989990234375</v>
       </c>
       <c r="F5">
-        <v>15114300</v>
+        <v>13923400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>740.2100219726562</v>
+        <v>757.1500244140625</v>
       </c>
       <c r="B6">
-        <v>744.780029296875</v>
+        <v>761.0399780273438</v>
       </c>
       <c r="C6">
-        <v>708.8499755859375</v>
+        <v>750</v>
       </c>
       <c r="D6">
-        <v>743</v>
+        <v>759.489990234375</v>
       </c>
       <c r="E6">
-        <v>743</v>
+        <v>759.489990234375</v>
       </c>
       <c r="F6">
-        <v>22952500</v>
+        <v>28204200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>742.5700073242188</v>
+        <v>734.5599975585938</v>
       </c>
       <c r="B7">
-        <v>754.469970703125</v>
+        <v>742</v>
       </c>
       <c r="C7">
-        <v>736.4000244140625</v>
+        <v>718.6199951171875</v>
       </c>
       <c r="D7">
-        <v>744.489990234375</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="E7">
-        <v>744.489990234375</v>
+        <v>730.1699829101562</v>
       </c>
       <c r="F7">
-        <v>18524900</v>
+        <v>24757700</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>745</v>
+        <v>734.7899780273438</v>
       </c>
       <c r="B8">
-        <v>756.8599853515625</v>
+        <v>744.739990234375</v>
       </c>
       <c r="C8">
-        <v>738.3599853515625</v>
+        <v>730.4400024414062</v>
       </c>
       <c r="D8">
-        <v>755.8300170898438</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="E8">
-        <v>755.8300170898438</v>
+        <v>739.3800048828125</v>
       </c>
       <c r="F8">
-        <v>15357700</v>
+        <v>16330700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>752.8300170898438</v>
+        <v>743.530029296875</v>
       </c>
       <c r="B9">
-        <v>758.9099731445312</v>
+        <v>753.6699829101562</v>
       </c>
       <c r="C9">
-        <v>747.6099853515625</v>
+        <v>739.1199951171875</v>
       </c>
       <c r="D9">
-        <v>756.989990234375</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="E9">
-        <v>756.989990234375</v>
+        <v>751.9400024414062</v>
       </c>
       <c r="F9">
-        <v>13923400</v>
+        <v>15126300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>757.1500244140625</v>
+        <v>755</v>
       </c>
       <c r="B10">
-        <v>761.0399780273438</v>
+        <v>758.2000122070312</v>
       </c>
       <c r="C10">
-        <v>750</v>
+        <v>747.9199829101562</v>
       </c>
       <c r="D10">
-        <v>759.489990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="E10">
-        <v>759.489990234375</v>
+        <v>753.6400146484375</v>
       </c>
       <c r="F10">
-        <v>28204200</v>
+        <v>11947500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>734.5599975585938</v>
+        <v>745.8900146484375</v>
       </c>
       <c r="B11">
-        <v>742</v>
+        <v>774.7999877929688</v>
       </c>
       <c r="C11">
-        <v>718.6199951171875</v>
+        <v>744.5599975585938</v>
       </c>
       <c r="D11">
-        <v>730.1699829101562</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="E11">
-        <v>730.1699829101562</v>
+        <v>774.3900146484375</v>
       </c>
       <c r="F11">
-        <v>24757700</v>
+        <v>21373000</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>734.7899780273438</v>
+        <v>773.1199951171875</v>
       </c>
       <c r="B12">
-        <v>744.739990234375</v>
+        <v>799</v>
       </c>
       <c r="C12">
-        <v>730.4400024414062</v>
+        <v>769.3099975585938</v>
       </c>
       <c r="D12">
-        <v>739.3800048828125</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="E12">
-        <v>739.3800048828125</v>
+        <v>791.3599853515625</v>
       </c>
       <c r="F12">
-        <v>16330700</v>
+        <v>28070700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>743.530029296875</v>
+        <v>787.2000122070312</v>
       </c>
       <c r="B13">
-        <v>753.6699829101562</v>
+        <v>795.6400146484375</v>
       </c>
       <c r="C13">
-        <v>739.1199951171875</v>
+        <v>766.1799926757812</v>
       </c>
       <c r="D13">
-        <v>751.9400024414062</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="E13">
-        <v>751.9400024414062</v>
+        <v>777.5599975585938</v>
       </c>
       <c r="F13">
-        <v>15126300</v>
+        <v>25381400</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>755</v>
+        <v>779.7999877929688</v>
       </c>
       <c r="B14">
-        <v>758.2000122070312</v>
+        <v>793.5</v>
       </c>
       <c r="C14">
-        <v>747.9199829101562</v>
+        <v>770.6799926757812</v>
       </c>
       <c r="D14">
-        <v>753.6400146484375</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="E14">
-        <v>753.6400146484375</v>
+        <v>781.3099975585938</v>
       </c>
       <c r="F14">
-        <v>11947500</v>
+        <v>20942900</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>745.8900146484375</v>
+        <v>781</v>
       </c>
       <c r="B15">
-        <v>774.7999877929688</v>
+        <v>789.1300048828125</v>
       </c>
       <c r="C15">
-        <v>744.5599975585938</v>
+        <v>775</v>
       </c>
       <c r="D15">
-        <v>774.3900146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="E15">
-        <v>774.3900146484375</v>
+        <v>775.47998046875</v>
       </c>
       <c r="F15">
-        <v>21373000</v>
+        <v>17956000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>773.1199951171875</v>
+        <v>778.4000244140625</v>
       </c>
       <c r="B16">
-        <v>799</v>
+        <v>780.780029296875</v>
       </c>
       <c r="C16">
-        <v>769.3099975585938</v>
+        <v>763.5900268554688</v>
       </c>
       <c r="D16">
-        <v>791.3599853515625</v>
+        <v>775.219970703125</v>
       </c>
       <c r="E16">
-        <v>791.3599853515625</v>
+        <v>775.219970703125</v>
       </c>
       <c r="F16">
-        <v>28070700</v>
+        <v>17031400</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>787.2000122070312</v>
+        <v>796.5</v>
       </c>
       <c r="B17">
-        <v>795.6400146484375</v>
+        <v>806.969970703125</v>
       </c>
       <c r="C17">
-        <v>766.1799926757812</v>
+        <v>776.1199951171875</v>
       </c>
       <c r="D17">
-        <v>777.5599975585938</v>
+        <v>781.530029296875</v>
       </c>
       <c r="E17">
-        <v>777.5599975585938</v>
+        <v>781.530029296875</v>
       </c>
       <c r="F17">
-        <v>25381400</v>
+        <v>30483300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>779.7999877929688</v>
+        <v>784.7999877929688</v>
       </c>
       <c r="B18">
-        <v>793.5</v>
+        <v>797.3099975585938</v>
       </c>
       <c r="C18">
-        <v>770.6799926757812</v>
+        <v>774.2000122070312</v>
       </c>
       <c r="D18">
-        <v>781.3099975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="E18">
-        <v>781.3099975585938</v>
+        <v>780.5900268554688</v>
       </c>
       <c r="F18">
-        <v>20942900</v>
+        <v>18432600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>781</v>
+        <v>776.2000122070312</v>
       </c>
       <c r="B19">
-        <v>789.1300048828125</v>
+        <v>786.6599731445312</v>
       </c>
       <c r="C19">
-        <v>775</v>
+        <v>773.219970703125</v>
       </c>
       <c r="D19">
-        <v>775.47998046875</v>
+        <v>782.75</v>
       </c>
       <c r="E19">
-        <v>775.47998046875</v>
+        <v>782.75</v>
       </c>
       <c r="F19">
-        <v>17956000</v>
+        <v>14632800</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>778.4000244140625</v>
+        <v>785.4600219726562</v>
       </c>
       <c r="B20">
-        <v>780.780029296875</v>
+        <v>805</v>
       </c>
       <c r="C20">
-        <v>763.5900268554688</v>
+        <v>783.3800048828125</v>
       </c>
       <c r="D20">
-        <v>775.219970703125</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="E20">
-        <v>775.219970703125</v>
+        <v>793.6099853515625</v>
       </c>
       <c r="F20">
-        <v>17031400</v>
+        <v>19195800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>796.5</v>
+        <v>796.2100219726562</v>
       </c>
       <c r="B21">
-        <v>806.969970703125</v>
+        <v>796.3800048828125</v>
       </c>
       <c r="C21">
-        <v>776.1199951171875</v>
+        <v>780.9099731445312</v>
       </c>
       <c r="D21">
-        <v>781.530029296875</v>
+        <v>785.489990234375</v>
       </c>
       <c r="E21">
-        <v>781.530029296875</v>
+        <v>785.489990234375</v>
       </c>
       <c r="F21">
-        <v>30483300</v>
+        <v>16711100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>784.7999877929688</v>
+        <v>787.6500244140625</v>
       </c>
       <c r="B22">
-        <v>797.3099975585938</v>
+        <v>801.239990234375</v>
       </c>
       <c r="C22">
-        <v>774.2000122070312</v>
+        <v>785.5</v>
       </c>
       <c r="D22">
-        <v>780.5900268554688</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="E22">
-        <v>780.5900268554688</v>
+        <v>791.9400024414062</v>
       </c>
       <c r="F22">
-        <v>18432600</v>
+        <v>14200300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>776.2000122070312</v>
+        <v>800.9299926757812</v>
       </c>
       <c r="B23">
-        <v>786.6599731445312</v>
+        <v>812.3200073242188</v>
       </c>
       <c r="C23">
-        <v>773.219970703125</v>
+        <v>796.5700073242188</v>
       </c>
       <c r="D23">
-        <v>782.75</v>
+        <v>805.719970703125</v>
       </c>
       <c r="E23">
-        <v>782.75</v>
+        <v>805.719970703125</v>
       </c>
       <c r="F23">
-        <v>14632800</v>
+        <v>22020000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>785.4600219726562</v>
+        <v>810.469970703125</v>
       </c>
       <c r="B24">
-        <v>805</v>
+        <v>815.4099731445312</v>
       </c>
       <c r="C24">
-        <v>783.3800048828125</v>
+        <v>805.780029296875</v>
       </c>
       <c r="D24">
-        <v>793.6099853515625</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="E24">
-        <v>793.6099853515625</v>
+        <v>811.0800170898438</v>
       </c>
       <c r="F24">
-        <v>19195800</v>
+        <v>14120100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>796.2100219726562</v>
+        <v>815.489990234375</v>
       </c>
       <c r="B25">
-        <v>796.3800048828125</v>
+        <v>820.25</v>
       </c>
       <c r="C25">
-        <v>780.9099731445312</v>
+        <v>813.3499755859375</v>
       </c>
       <c r="D25">
-        <v>785.489990234375</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="E25">
-        <v>785.489990234375</v>
+        <v>818.3200073242188</v>
       </c>
       <c r="F25">
-        <v>16711100</v>
+        <v>12247200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>787.6500244140625</v>
+        <v>823.739990234375</v>
       </c>
       <c r="B26">
-        <v>801.239990234375</v>
+        <v>843.2100219726562</v>
       </c>
       <c r="C26">
-        <v>785.5</v>
+        <v>822.3499755859375</v>
       </c>
       <c r="D26">
-        <v>791.9400024414062</v>
+        <v>843.030029296875</v>
       </c>
       <c r="E26">
-        <v>791.9400024414062</v>
+        <v>843.030029296875</v>
       </c>
       <c r="F26">
-        <v>14200300</v>
+        <v>18818000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>800.9299926757812</v>
+        <v>851.7899780273438</v>
       </c>
       <c r="B27">
-        <v>812.3200073242188</v>
+        <v>875.260009765625</v>
       </c>
       <c r="C27">
-        <v>796.5700073242188</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D27">
-        <v>805.719970703125</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="E27">
-        <v>805.719970703125</v>
+        <v>870.1099853515625</v>
       </c>
       <c r="F27">
-        <v>22020000</v>
+        <v>24207200</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>810.469970703125</v>
+        <v>877.530029296875</v>
       </c>
       <c r="B28">
-        <v>815.4099731445312</v>
+        <v>877.9500122070312</v>
       </c>
       <c r="C28">
-        <v>805.780029296875</v>
+        <v>862.510009765625</v>
       </c>
       <c r="D28">
-        <v>811.0800170898438</v>
+        <v>864.27001953125</v>
       </c>
       <c r="E28">
-        <v>811.0800170898438</v>
+        <v>864.27001953125</v>
       </c>
       <c r="F28">
-        <v>14120100</v>
+        <v>17381100</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>815.489990234375</v>
+        <v>865.3499755859375</v>
       </c>
       <c r="B29">
-        <v>820.25</v>
+        <v>869.489990234375</v>
       </c>
       <c r="C29">
-        <v>813.3499755859375</v>
+        <v>857.3800048828125</v>
       </c>
       <c r="D29">
-        <v>818.3200073242188</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="E29">
-        <v>818.3200073242188</v>
+        <v>865.7999877929688</v>
       </c>
       <c r="F29">
-        <v>12247200</v>
+        <v>14032100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>823.739990234375</v>
+        <v>856</v>
       </c>
       <c r="B30">
-        <v>843.2100219726562</v>
+        <v>900</v>
       </c>
       <c r="C30">
-        <v>822.3499755859375</v>
+        <v>855.5</v>
       </c>
       <c r="D30">
-        <v>843.030029296875</v>
+        <v>894</v>
       </c>
       <c r="E30">
-        <v>843.030029296875</v>
+        <v>894</v>
       </c>
       <c r="F30">
-        <v>18818000</v>
+        <v>31481500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>851.7899780273438</v>
+        <v>895.5</v>
       </c>
       <c r="B31">
-        <v>875.260009765625</v>
+        <v>910</v>
       </c>
       <c r="C31">
-        <v>851.469970703125</v>
+        <v>890.9600219726562</v>
       </c>
       <c r="D31">
-        <v>870.1099853515625</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="E31">
-        <v>870.1099853515625</v>
+        <v>909.6799926757812</v>
       </c>
       <c r="F31">
-        <v>24207200</v>
+        <v>22880800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>877.530029296875</v>
+        <v>950.530029296875</v>
       </c>
       <c r="B32">
-        <v>877.9500122070312</v>
+        <v>1045.02001953125</v>
       </c>
       <c r="C32">
-        <v>862.510009765625</v>
+        <v>944.2000122070312</v>
       </c>
       <c r="D32">
-        <v>864.27001953125</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="E32">
-        <v>864.27001953125</v>
+        <v>1024.859985351562</v>
       </c>
       <c r="F32">
-        <v>17381100</v>
+        <v>62852100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>865.3499755859375</v>
+        <v>1024.68994140625</v>
       </c>
       <c r="B33">
-        <v>869.489990234375</v>
+        <v>1094.93994140625</v>
       </c>
       <c r="C33">
-        <v>857.3800048828125</v>
+        <v>1001.440002441406</v>
       </c>
       <c r="D33">
-        <v>865.7999877929688</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="E33">
-        <v>865.7999877929688</v>
+        <v>1018.429992675781</v>
       </c>
       <c r="F33">
-        <v>14032100</v>
+        <v>62415000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>856</v>
+        <v>1039.660034179688</v>
       </c>
       <c r="B34">
-        <v>900</v>
+        <v>1070.880004882812</v>
       </c>
       <c r="C34">
-        <v>855.5</v>
+        <v>1030.780029296875</v>
       </c>
       <c r="D34">
-        <v>894</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="E34">
-        <v>894</v>
+        <v>1037.859985351562</v>
       </c>
       <c r="F34">
-        <v>31481500</v>
+        <v>38526500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>895.5</v>
+        <v>1068.31005859375</v>
       </c>
       <c r="B35">
-        <v>910</v>
+        <v>1081</v>
       </c>
       <c r="C35">
-        <v>890.9600219726562</v>
+        <v>1054.199951171875</v>
       </c>
       <c r="D35">
-        <v>909.6799926757812</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="E35">
-        <v>909.6799926757812</v>
+        <v>1077.0400390625</v>
       </c>
       <c r="F35">
-        <v>22880800</v>
+        <v>27213200</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>950.530029296875</v>
+        <v>1081.859985351562</v>
       </c>
       <c r="B36">
-        <v>1045.02001953125</v>
+        <v>1115.2099609375</v>
       </c>
       <c r="C36">
-        <v>944.2000122070312</v>
+        <v>1073.2099609375</v>
       </c>
       <c r="D36">
-        <v>1024.859985351562</v>
+        <v>1114</v>
       </c>
       <c r="E36">
-        <v>1024.859985351562</v>
+        <v>1114</v>
       </c>
       <c r="F36">
-        <v>62852100</v>
+        <v>29918400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>1024.68994140625</v>
+        <v>1145</v>
       </c>
       <c r="B37">
-        <v>1094.93994140625</v>
+        <v>1209.75</v>
       </c>
       <c r="C37">
-        <v>1001.440002441406</v>
+        <v>1118.660034179688</v>
       </c>
       <c r="D37">
-        <v>1018.429992675781</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="E37">
-        <v>1018.429992675781</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="F37">
-        <v>62415000</v>
+        <v>56048700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>1039.660034179688</v>
+        <v>1159.359985351562</v>
       </c>
       <c r="B38">
-        <v>1070.880004882812</v>
+        <v>1208.589965820312</v>
       </c>
       <c r="C38">
-        <v>1030.780029296875</v>
+        <v>1146</v>
       </c>
       <c r="D38">
-        <v>1037.859985351562</v>
+        <v>1172</v>
       </c>
       <c r="E38">
-        <v>1037.859985351562</v>
+        <v>1172</v>
       </c>
       <c r="F38">
-        <v>38526500</v>
+        <v>42737800</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>1068.31005859375</v>
+        <v>1177.329956054688</v>
       </c>
       <c r="B39">
-        <v>1081</v>
+        <v>1215.390014648438</v>
       </c>
       <c r="C39">
-        <v>1054.199951171875</v>
+        <v>1152.619995117188</v>
       </c>
       <c r="D39">
-        <v>1077.0400390625</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="E39">
-        <v>1077.0400390625</v>
+        <v>1213.859985351562</v>
       </c>
       <c r="F39">
-        <v>27213200</v>
+        <v>34628500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>1081.859985351562</v>
+        <v>1234.410034179688</v>
       </c>
       <c r="B40">
-        <v>1115.2099609375</v>
+        <v>1243.489990234375</v>
       </c>
       <c r="C40">
-        <v>1073.2099609375</v>
+        <v>1217</v>
       </c>
       <c r="D40">
-        <v>1114</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="E40">
-        <v>1114</v>
+        <v>1229.910034179688</v>
       </c>
       <c r="F40">
-        <v>29918400</v>
+        <v>25397400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>1145</v>
+        <v>1228</v>
       </c>
       <c r="B41">
-        <v>1209.75</v>
+        <v>1239.869995117188</v>
       </c>
       <c r="C41">
-        <v>1118.660034179688</v>
+        <v>1208</v>
       </c>
       <c r="D41">
-        <v>1208.589965820312</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="E41">
-        <v>1208.589965820312</v>
+        <v>1222.089965820312</v>
       </c>
       <c r="F41">
-        <v>56048700</v>
+        <v>21579900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>1159.359985351562</v>
+        <v>1149.7900390625</v>
       </c>
       <c r="B42">
-        <v>1208.589965820312</v>
+        <v>1197</v>
       </c>
       <c r="C42">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="D42">
-        <v>1172</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="E42">
-        <v>1172</v>
+        <v>1162.93994140625</v>
       </c>
       <c r="F42">
-        <v>42737800</v>
+        <v>33445700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>1177.329956054688</v>
+        <v>1173.599975585938</v>
       </c>
       <c r="B43">
-        <v>1215.390014648438</v>
+        <v>1174.5</v>
       </c>
       <c r="C43">
-        <v>1152.619995117188</v>
+        <v>1011.52001953125</v>
       </c>
       <c r="D43">
-        <v>1213.859985351562</v>
+        <v>1023.5</v>
       </c>
       <c r="E43">
-        <v>1213.859985351562</v>
+        <v>1023.5</v>
       </c>
       <c r="F43">
-        <v>34628500</v>
+        <v>59105800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1234.410034179688</v>
+        <v>1010.409973144531</v>
       </c>
       <c r="B44">
-        <v>1243.489990234375</v>
+        <v>1078.099975585938</v>
       </c>
       <c r="C44">
-        <v>1217</v>
+        <v>987.3099975585938</v>
       </c>
       <c r="D44">
-        <v>1229.910034179688</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="E44">
-        <v>1229.910034179688</v>
+        <v>1067.949951171875</v>
       </c>
       <c r="F44">
-        <v>25397400</v>
+        <v>42802700</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1228</v>
+        <v>1102.77001953125</v>
       </c>
       <c r="B45">
-        <v>1239.869995117188</v>
+        <v>1104.969970703125</v>
       </c>
       <c r="C45">
-        <v>1208</v>
+        <v>1054.680053710938</v>
       </c>
       <c r="D45">
-        <v>1222.089965820312</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="E45">
-        <v>1222.089965820312</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="F45">
-        <v>21579900</v>
+        <v>22396600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1149.7900390625</v>
+        <v>1047.5</v>
       </c>
       <c r="B46">
-        <v>1197</v>
+        <v>1054.5</v>
       </c>
       <c r="C46">
-        <v>1133</v>
+        <v>1019.200012207031</v>
       </c>
       <c r="D46">
-        <v>1162.93994140625</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="E46">
-        <v>1162.93994140625</v>
+        <v>1033.420043945312</v>
       </c>
       <c r="F46">
-        <v>33445700</v>
+        <v>25182300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>1173.599975585938</v>
+        <v>1017.630004882812</v>
       </c>
       <c r="B47">
-        <v>1174.5</v>
+        <v>1031.97998046875</v>
       </c>
       <c r="C47">
-        <v>1011.52001953125</v>
+        <v>978.5999755859375</v>
       </c>
       <c r="D47">
-        <v>1023.5</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="E47">
-        <v>1023.5</v>
+        <v>1013.390014648438</v>
       </c>
       <c r="F47">
-        <v>59105800</v>
+        <v>34775600</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>1010.409973144531</v>
+        <v>1003.309997558594</v>
       </c>
       <c r="B48">
-        <v>1078.099975585938</v>
+        <v>1057.199951171875</v>
       </c>
       <c r="C48">
-        <v>987.3099975585938</v>
+        <v>1002.179992675781</v>
       </c>
       <c r="D48">
-        <v>1067.949951171875</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="E48">
-        <v>1067.949951171875</v>
+        <v>1054.72998046875</v>
       </c>
       <c r="F48">
-        <v>42802700</v>
+        <v>26542400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>1102.77001953125</v>
+        <v>1063.510009765625</v>
       </c>
       <c r="B49">
-        <v>1104.969970703125</v>
+        <v>1119.640014648438</v>
       </c>
       <c r="C49">
-        <v>1054.680053710938</v>
+        <v>1055.5</v>
       </c>
       <c r="D49">
-        <v>1063.510009765625</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="E49">
-        <v>1063.510009765625</v>
+        <v>1089.010009765625</v>
       </c>
       <c r="F49">
-        <v>22396600</v>
+        <v>31445400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>1047.5</v>
+        <v>1106.550048828125</v>
       </c>
       <c r="B50">
-        <v>1054.5</v>
+        <v>1112</v>
       </c>
       <c r="C50">
-        <v>1019.200012207031</v>
+        <v>1075.02001953125</v>
       </c>
       <c r="D50">
-        <v>1033.420043945312</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="E50">
-        <v>1033.420043945312</v>
+        <v>1096.380004882812</v>
       </c>
       <c r="F50">
-        <v>25182300</v>
+        <v>20898900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1017.630004882812</v>
+        <v>1098.869995117188</v>
       </c>
       <c r="B51">
-        <v>1031.97998046875</v>
+        <v>1138.719970703125</v>
       </c>
       <c r="C51">
-        <v>978.5999755859375</v>
+        <v>1092.699951171875</v>
       </c>
       <c r="D51">
-        <v>1013.390014648438</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="E51">
-        <v>1013.390014648438</v>
+        <v>1137.06005859375</v>
       </c>
       <c r="F51">
-        <v>34775600</v>
+        <v>21642300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>1003.309997558594</v>
+        <v>1162.329956054688</v>
       </c>
       <c r="B52">
-        <v>1057.199951171875</v>
+        <v>1201.949951171875</v>
       </c>
       <c r="C52">
-        <v>1002.179992675781</v>
+        <v>1132.430053710938</v>
       </c>
       <c r="D52">
-        <v>1054.72998046875</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="E52">
-        <v>1054.72998046875</v>
+        <v>1156.869995117188</v>
       </c>
       <c r="F52">
-        <v>26542400</v>
+        <v>33072500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1063.510009765625</v>
+        <v>1167.510009765625</v>
       </c>
       <c r="B53">
-        <v>1119.640014648438</v>
+        <v>1180.5</v>
       </c>
       <c r="C53">
-        <v>1055.5</v>
+        <v>1062.699951171875</v>
       </c>
       <c r="D53">
-        <v>1089.010009765625</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="E53">
-        <v>1089.010009765625</v>
+        <v>1109.030029296875</v>
       </c>
       <c r="F53">
-        <v>31445400</v>
+        <v>36171700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1106.550048828125</v>
+        <v>1080.390014648438</v>
       </c>
       <c r="B54">
-        <v>1112</v>
+        <v>1132.77001953125</v>
       </c>
       <c r="C54">
-        <v>1075.02001953125</v>
+        <v>1062</v>
       </c>
       <c r="D54">
-        <v>1096.380004882812</v>
+        <v>1116</v>
       </c>
       <c r="E54">
-        <v>1096.380004882812</v>
+        <v>1116</v>
       </c>
       <c r="F54">
-        <v>20898900</v>
+        <v>22560200</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>1098.869995117188</v>
+        <v>1099.469970703125</v>
       </c>
       <c r="B55">
-        <v>1138.719970703125</v>
+        <v>1108.780029296875</v>
       </c>
       <c r="C55">
-        <v>1092.699951171875</v>
+        <v>1081</v>
       </c>
       <c r="D55">
-        <v>1137.06005859375</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="E55">
-        <v>1137.06005859375</v>
+        <v>1081.920043945312</v>
       </c>
       <c r="F55">
-        <v>21642300</v>
+        <v>11680900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>1162.329956054688</v>
+        <v>1100.989990234375</v>
       </c>
       <c r="B56">
-        <v>1201.949951171875</v>
+        <v>1142.670043945312</v>
       </c>
       <c r="C56">
-        <v>1132.430053710938</v>
+        <v>1100.18994140625</v>
       </c>
       <c r="D56">
-        <v>1156.869995117188</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="E56">
-        <v>1156.869995117188</v>
+        <v>1136.989990234375</v>
       </c>
       <c r="F56">
-        <v>33072500</v>
+        <v>19464500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1167.510009765625</v>
+        <v>1144.369995117188</v>
       </c>
       <c r="B57">
-        <v>1180.5</v>
+        <v>1168</v>
       </c>
       <c r="C57">
-        <v>1062.699951171875</v>
+        <v>1118</v>
       </c>
       <c r="D57">
-        <v>1109.030029296875</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="E57">
-        <v>1109.030029296875</v>
+        <v>1144.760009765625</v>
       </c>
       <c r="F57">
-        <v>36171700</v>
+        <v>27092000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1080.390014648438</v>
+        <v>1160.699951171875</v>
       </c>
       <c r="B58">
-        <v>1132.77001953125</v>
+        <v>1172.839965820312</v>
       </c>
       <c r="C58">
-        <v>1062</v>
+        <v>1090.760009765625</v>
       </c>
       <c r="D58">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="E58">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="F58">
-        <v>22560200</v>
+        <v>22816800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>1099.469970703125</v>
+        <v>1099.06005859375</v>
       </c>
       <c r="B59">
-        <v>1108.780029296875</v>
+        <v>1113</v>
       </c>
       <c r="C59">
-        <v>1081</v>
+        <v>1056.650024414062</v>
       </c>
       <c r="D59">
-        <v>1081.920043945312</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="E59">
-        <v>1081.920043945312</v>
+        <v>1084.599975585938</v>
       </c>
       <c r="F59">
-        <v>11680900</v>
+        <v>24371600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1100.989990234375</v>
+        <v>1084.7900390625</v>
       </c>
       <c r="B60">
-        <v>1142.670043945312</v>
+        <v>1090.579956054688</v>
       </c>
       <c r="C60">
-        <v>1100.18994140625</v>
+        <v>1000.210021972656</v>
       </c>
       <c r="D60">
-        <v>1136.989990234375</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="E60">
-        <v>1136.989990234375</v>
+        <v>1014.969970703125</v>
       </c>
       <c r="F60">
-        <v>19464500</v>
+        <v>30696300</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>1144.369995117188</v>
+        <v>1001.510009765625</v>
       </c>
       <c r="B61">
-        <v>1168</v>
+        <v>1021.640014648438</v>
       </c>
       <c r="C61">
-        <v>1118</v>
+        <v>950.5</v>
       </c>
       <c r="D61">
-        <v>1144.760009765625</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="E61">
-        <v>1144.760009765625</v>
+        <v>1009.010009765625</v>
       </c>
       <c r="F61">
-        <v>27092000</v>
+        <v>27221000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1160.699951171875</v>
+        <v>1044.199951171875</v>
       </c>
       <c r="B62">
-        <v>1172.839965820312</v>
+        <v>1057.670043945312</v>
       </c>
       <c r="C62">
-        <v>1090.760009765625</v>
+        <v>1026.81005859375</v>
       </c>
       <c r="D62">
-        <v>1095</v>
+        <v>1051.75</v>
       </c>
       <c r="E62">
-        <v>1095</v>
+        <v>1051.75</v>
       </c>
       <c r="F62">
-        <v>22816800</v>
+        <v>18694900</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1099.06005859375</v>
+        <v>1052.7099609375</v>
       </c>
       <c r="B63">
-        <v>1113</v>
+        <v>1072.380004882812</v>
       </c>
       <c r="C63">
-        <v>1056.650024414062</v>
+        <v>1033</v>
       </c>
       <c r="D63">
-        <v>1084.599975585938</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="E63">
-        <v>1084.599975585938</v>
+        <v>1068.9599609375</v>
       </c>
       <c r="F63">
-        <v>24371600</v>
+        <v>13968800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>1084.7900390625</v>
+        <v>1060.640014648438</v>
       </c>
       <c r="B64">
-        <v>1090.579956054688</v>
+        <v>1062.489990234375</v>
       </c>
       <c r="C64">
-        <v>1000.210021972656</v>
+        <v>1002.359985351562</v>
       </c>
       <c r="D64">
-        <v>1014.969970703125</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="E64">
-        <v>1014.969970703125</v>
+        <v>1003.799987792969</v>
       </c>
       <c r="F64">
-        <v>30696300</v>
+        <v>19812800</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>1001.510009765625</v>
+        <v>1008.75</v>
       </c>
       <c r="B65">
-        <v>1021.640014648438</v>
+        <v>1020.97998046875</v>
       </c>
       <c r="C65">
-        <v>950.5</v>
+        <v>982.530029296875</v>
       </c>
       <c r="D65">
-        <v>1009.010009765625</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="E65">
-        <v>1009.010009765625</v>
+        <v>1017.030029296875</v>
       </c>
       <c r="F65">
-        <v>27221000</v>
+        <v>19855000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>1044.199951171875</v>
+        <v>1001.090026855469</v>
       </c>
       <c r="B66">
-        <v>1057.670043945312</v>
+        <v>1005</v>
       </c>
       <c r="C66">
-        <v>1026.81005859375</v>
+        <v>951.4199829101562</v>
       </c>
       <c r="D66">
-        <v>1051.75</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="E66">
-        <v>1051.75</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="F66">
-        <v>18694900</v>
+        <v>26198500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1052.7099609375</v>
+        <v>945</v>
       </c>
       <c r="B67">
-        <v>1072.380004882812</v>
+        <v>966.4099731445312</v>
       </c>
       <c r="C67">
-        <v>1033</v>
+        <v>930</v>
       </c>
       <c r="D67">
-        <v>1068.9599609375</v>
+        <v>958.510009765625</v>
       </c>
       <c r="E67">
-        <v>1068.9599609375</v>
+        <v>958.510009765625</v>
       </c>
       <c r="F67">
-        <v>13968800</v>
+        <v>23602100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1060.640014648438</v>
+        <v>953.2100219726562</v>
       </c>
       <c r="B68">
-        <v>1062.489990234375</v>
+        <v>978.75</v>
       </c>
       <c r="C68">
-        <v>1002.359985351562</v>
+        <v>928.25</v>
       </c>
       <c r="D68">
-        <v>1003.799987792969</v>
+        <v>975.989990234375</v>
       </c>
       <c r="E68">
-        <v>1003.799987792969</v>
+        <v>975.989990234375</v>
       </c>
       <c r="F68">
-        <v>19812800</v>
+        <v>25056400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>1008.75</v>
+        <v>994.5</v>
       </c>
       <c r="B69">
-        <v>1020.97998046875</v>
+        <v>994.97998046875</v>
       </c>
       <c r="C69">
-        <v>982.530029296875</v>
+        <v>921.8499755859375</v>
       </c>
       <c r="D69">
-        <v>1017.030029296875</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="E69">
-        <v>1017.030029296875</v>
+        <v>926.9199829101562</v>
       </c>
       <c r="F69">
-        <v>19855000</v>
+        <v>27590500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1001.090026855469</v>
+        <v>914.77001953125</v>
       </c>
       <c r="B70">
-        <v>1005</v>
+        <v>960.6599731445312</v>
       </c>
       <c r="C70">
-        <v>951.4199829101562</v>
+        <v>909.0399780273438</v>
       </c>
       <c r="D70">
-        <v>966.4099731445312</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="E70">
-        <v>966.4099731445312</v>
+        <v>932.5700073242188</v>
       </c>
       <c r="F70">
-        <v>26198500</v>
+        <v>33479100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>945</v>
+        <v>910.7000122070312</v>
       </c>
       <c r="B71">
-        <v>966.4099731445312</v>
+        <v>921.6900024414062</v>
       </c>
       <c r="C71">
-        <v>930</v>
+        <v>893.3900146484375</v>
       </c>
       <c r="D71">
-        <v>958.510009765625</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="E71">
-        <v>958.510009765625</v>
+        <v>899.9400024414062</v>
       </c>
       <c r="F71">
-        <v>23602100</v>
+        <v>18826700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>953.2100219726562</v>
+        <v>916.8699951171875</v>
       </c>
       <c r="B72">
-        <v>978.75</v>
+        <v>939.5</v>
       </c>
       <c r="C72">
-        <v>928.25</v>
+        <v>886.1199951171875</v>
       </c>
       <c r="D72">
-        <v>975.989990234375</v>
+        <v>938.530029296875</v>
       </c>
       <c r="E72">
-        <v>975.989990234375</v>
+        <v>938.530029296875</v>
       </c>
       <c r="F72">
-        <v>25056400</v>
+        <v>23839300</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>994.5</v>
+        <v>965.6599731445312</v>
       </c>
       <c r="B73">
-        <v>994.97998046875</v>
+        <v>1015.659973144531</v>
       </c>
       <c r="C73">
-        <v>921.8499755859375</v>
+        <v>957.0499877929688</v>
       </c>
       <c r="D73">
-        <v>926.9199829101562</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="E73">
-        <v>926.9199829101562</v>
+        <v>1008.869995117188</v>
       </c>
       <c r="F73">
-        <v>27590500</v>
+        <v>31211400</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>914.77001953125</v>
+        <v>1006.799987792969</v>
       </c>
       <c r="B74">
-        <v>960.6599731445312</v>
+        <v>1072.97998046875</v>
       </c>
       <c r="C74">
-        <v>909.0399780273438</v>
+        <v>997.5599975585938</v>
       </c>
       <c r="D74">
-        <v>932.5700073242188</v>
+        <v>1067</v>
       </c>
       <c r="E74">
-        <v>932.5700073242188</v>
+        <v>1067</v>
       </c>
       <c r="F74">
-        <v>33479100</v>
+        <v>30904400</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>910.7000122070312</v>
+        <v>1073.670043945312</v>
       </c>
       <c r="B75">
-        <v>921.6900024414062</v>
+        <v>1117</v>
       </c>
       <c r="C75">
-        <v>893.3900146484375</v>
+        <v>1070.719970703125</v>
       </c>
       <c r="D75">
-        <v>899.9400024414062</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="E75">
-        <v>899.9400024414062</v>
+        <v>1093.93994140625</v>
       </c>
       <c r="F75">
-        <v>18826700</v>
+        <v>23715300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>916.8699951171875</v>
+        <v>1109.489990234375</v>
       </c>
       <c r="B76">
-        <v>939.5</v>
+        <v>1119</v>
       </c>
       <c r="C76">
-        <v>886.1199951171875</v>
+        <v>1078.420043945312</v>
       </c>
       <c r="D76">
-        <v>938.530029296875</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="E76">
-        <v>938.530029296875</v>
+        <v>1088.469970703125</v>
       </c>
       <c r="F76">
-        <v>23839300</v>
+        <v>20108000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>965.6599731445312</v>
+        <v>1098.640014648438</v>
       </c>
       <c r="B77">
-        <v>1015.659973144531</v>
+        <v>1104</v>
       </c>
       <c r="C77">
-        <v>957.0499877929688</v>
+        <v>1064.140014648438</v>
       </c>
       <c r="D77">
-        <v>1008.869995117188</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="E77">
-        <v>1008.869995117188</v>
+        <v>1086.18994140625</v>
       </c>
       <c r="F77">
-        <v>31211400</v>
+        <v>18718000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1006.799987792969</v>
+        <v>1061.329956054688</v>
       </c>
       <c r="B78">
-        <v>1072.97998046875</v>
+        <v>1095.550048828125</v>
       </c>
       <c r="C78">
-        <v>997.5599975585938</v>
+        <v>1053.150024414062</v>
       </c>
       <c r="D78">
-        <v>1067</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="E78">
-        <v>1067</v>
+        <v>1070.339965820312</v>
       </c>
       <c r="F78">
-        <v>30904400</v>
+        <v>15680300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>1073.670043945312</v>
+        <v>1073.43994140625</v>
       </c>
       <c r="B79">
-        <v>1117</v>
+        <v>1082</v>
       </c>
       <c r="C79">
-        <v>1070.719970703125</v>
+        <v>1054.589965820312</v>
       </c>
       <c r="D79">
-        <v>1093.93994140625</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="E79">
-        <v>1093.93994140625</v>
+        <v>1056.780029296875</v>
       </c>
       <c r="F79">
-        <v>23715300</v>
+        <v>13577900</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1109.489990234375</v>
+        <v>1147.75</v>
       </c>
       <c r="B80">
-        <v>1119</v>
+        <v>1201.069946289062</v>
       </c>
       <c r="C80">
-        <v>1078.420043945312</v>
+        <v>1136.0400390625</v>
       </c>
       <c r="D80">
-        <v>1088.469970703125</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="E80">
-        <v>1088.469970703125</v>
+        <v>1199.780029296875</v>
       </c>
       <c r="F80">
-        <v>20108000</v>
+        <v>34643800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>1098.640014648438</v>
+        <v>1189.550048828125</v>
       </c>
       <c r="B81">
-        <v>1104</v>
+        <v>1208</v>
       </c>
       <c r="C81">
-        <v>1064.140014648438</v>
+        <v>1123.050048828125</v>
       </c>
       <c r="D81">
-        <v>1086.18994140625</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="E81">
-        <v>1086.18994140625</v>
+        <v>1149.589965820312</v>
       </c>
       <c r="F81">
-        <v>18718000</v>
+        <v>33416100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>1061.329956054688</v>
+        <v>1146.650024414062</v>
       </c>
       <c r="B82">
-        <v>1095.550048828125</v>
+        <v>1170.339965820312</v>
       </c>
       <c r="C82">
-        <v>1053.150024414062</v>
+        <v>1081.010009765625</v>
       </c>
       <c r="D82">
-        <v>1070.339965820312</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="E82">
-        <v>1070.339965820312</v>
+        <v>1088.119995117188</v>
       </c>
       <c r="F82">
-        <v>15680300</v>
+        <v>26706600</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>1073.43994140625</v>
+        <v>1077</v>
       </c>
       <c r="B83">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="C83">
-        <v>1054.589965820312</v>
+        <v>1020.5</v>
       </c>
       <c r="D83">
-        <v>1056.780029296875</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="E83">
-        <v>1056.780029296875</v>
+        <v>1064.699951171875</v>
       </c>
       <c r="F83">
-        <v>13577900</v>
+        <v>30112200</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>1147.75</v>
+        <v>1080.369995117188</v>
       </c>
       <c r="B84">
-        <v>1201.069946289062</v>
+        <v>1080.930053710938</v>
       </c>
       <c r="C84">
-        <v>1136.0400390625</v>
+        <v>1010</v>
       </c>
       <c r="D84">
-        <v>1199.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="E84">
-        <v>1199.780029296875</v>
+        <v>1026.9599609375</v>
       </c>
       <c r="F84">
-        <v>34643800</v>
+        <v>27919000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1189.550048828125</v>
+        <v>1000</v>
       </c>
       <c r="B85">
-        <v>1208</v>
+        <v>1059.099975585938</v>
       </c>
       <c r="C85">
-        <v>1123.050048828125</v>
+        <v>980</v>
       </c>
       <c r="D85">
-        <v>1149.589965820312</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="E85">
-        <v>1149.589965820312</v>
+        <v>1058.119995117188</v>
       </c>
       <c r="F85">
-        <v>33416100</v>
+        <v>30605000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1146.650024414062</v>
+        <v>1053.670043945312</v>
       </c>
       <c r="B86">
-        <v>1170.339965820312</v>
+        <v>1075.849975585938</v>
       </c>
       <c r="C86">
-        <v>1081.010009765625</v>
+        <v>1038.819946289062</v>
       </c>
       <c r="D86">
-        <v>1088.119995117188</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="E86">
-        <v>1088.119995117188</v>
+        <v>1064.400024414062</v>
       </c>
       <c r="F86">
-        <v>26706600</v>
+        <v>22021100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>1077</v>
+        <v>1078.849975585938</v>
       </c>
       <c r="B87">
-        <v>1088</v>
+        <v>1114.839965820312</v>
       </c>
       <c r="C87">
-        <v>1020.5</v>
+        <v>1072.589965820312</v>
       </c>
       <c r="D87">
-        <v>1064.699951171875</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="E87">
-        <v>1064.699951171875</v>
+        <v>1106.219970703125</v>
       </c>
       <c r="F87">
-        <v>30112200</v>
+        <v>27913000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1080.369995117188</v>
+        <v>1109.069946289062</v>
       </c>
       <c r="B88">
-        <v>1080.930053710938</v>
+        <v>1115.599975585938</v>
       </c>
       <c r="C88">
-        <v>1010</v>
+        <v>1026.5400390625</v>
       </c>
       <c r="D88">
-        <v>1026.9599609375</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="E88">
-        <v>1026.9599609375</v>
+        <v>1031.56005859375</v>
       </c>
       <c r="F88">
-        <v>27919000</v>
+        <v>32403300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>1000</v>
+        <v>1019.880004882812</v>
       </c>
       <c r="B89">
-        <v>1059.099975585938</v>
+        <v>1052</v>
       </c>
       <c r="C89">
-        <v>980</v>
+        <v>1013.380004882812</v>
       </c>
       <c r="D89">
-        <v>1058.119995117188</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="E89">
-        <v>1058.119995117188</v>
+        <v>1049.609985351562</v>
       </c>
       <c r="F89">
-        <v>30605000</v>
+        <v>24246600</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>1053.670043945312</v>
+        <v>1026.609985351562</v>
       </c>
       <c r="B90">
-        <v>1075.849975585938</v>
+        <v>1070.7900390625</v>
       </c>
       <c r="C90">
-        <v>1038.819946289062</v>
+        <v>1016.059997558594</v>
       </c>
       <c r="D90">
-        <v>1064.400024414062</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="E90">
-        <v>1064.400024414062</v>
+        <v>1030.510009765625</v>
       </c>
       <c r="F90">
-        <v>22021100</v>
+        <v>22247800</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1078.849975585938</v>
+        <v>1041.7099609375</v>
       </c>
       <c r="B91">
-        <v>1114.839965820312</v>
+        <v>1054.670043945312</v>
       </c>
       <c r="C91">
-        <v>1072.589965820312</v>
+        <v>995</v>
       </c>
       <c r="D91">
-        <v>1106.219970703125</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="E91">
-        <v>1106.219970703125</v>
+        <v>995.6500244140625</v>
       </c>
       <c r="F91">
-        <v>27913000</v>
+        <v>25147500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>1109.069946289062</v>
+        <v>1009.72998046875</v>
       </c>
       <c r="B92">
-        <v>1115.599975585938</v>
+        <v>1041.660034179688</v>
       </c>
       <c r="C92">
-        <v>1026.5400390625</v>
+        <v>994</v>
       </c>
       <c r="D92">
-        <v>1031.56005859375</v>
+        <v>996.27001953125</v>
       </c>
       <c r="E92">
-        <v>1031.56005859375</v>
+        <v>996.27001953125</v>
       </c>
       <c r="F92">
-        <v>32403300</v>
+        <v>23496200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>1019.880004882812</v>
+        <v>996.3400268554688</v>
       </c>
       <c r="B93">
-        <v>1052</v>
+        <v>1004.549987792969</v>
       </c>
       <c r="C93">
-        <v>1013.380004882812</v>
+        <v>940.5</v>
       </c>
       <c r="D93">
-        <v>1049.609985351562</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="E93">
-        <v>1049.609985351562</v>
+        <v>943.9000244140625</v>
       </c>
       <c r="F93">
-        <v>24246600</v>
+        <v>34472000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>1026.609985351562</v>
+        <v>904.760009765625</v>
       </c>
       <c r="B94">
-        <v>1070.7900390625</v>
+        <v>933.510009765625</v>
       </c>
       <c r="C94">
-        <v>1016.059997558594</v>
+        <v>851.469970703125</v>
       </c>
       <c r="D94">
-        <v>1030.510009765625</v>
+        <v>930</v>
       </c>
       <c r="E94">
-        <v>1030.510009765625</v>
+        <v>930</v>
       </c>
       <c r="F94">
-        <v>22247800</v>
+        <v>50521900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>1041.7099609375</v>
+        <v>914.2000122070312</v>
       </c>
       <c r="B95">
-        <v>1054.670043945312</v>
+        <v>951.260009765625</v>
       </c>
       <c r="C95">
-        <v>995</v>
+        <v>903.2100219726562</v>
       </c>
       <c r="D95">
-        <v>995.6500244140625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="E95">
-        <v>995.6500244140625</v>
+        <v>918.4000244140625</v>
       </c>
       <c r="F95">
-        <v>25147500</v>
+        <v>28865300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1009.72998046875</v>
+        <v>952.4299926757812</v>
       </c>
       <c r="B96">
-        <v>1041.660034179688</v>
+        <v>987.6900024414062</v>
       </c>
       <c r="C96">
-        <v>994</v>
+        <v>906</v>
       </c>
       <c r="D96">
-        <v>996.27001953125</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="E96">
-        <v>996.27001953125</v>
+        <v>937.4099731445312</v>
       </c>
       <c r="F96">
-        <v>23496200</v>
+        <v>34955800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>996.3400268554688</v>
+        <v>933.3599853515625</v>
       </c>
       <c r="B97">
-        <v>1004.549987792969</v>
+        <v>935.3900146484375</v>
       </c>
       <c r="C97">
-        <v>940.5</v>
+        <v>829</v>
       </c>
       <c r="D97">
-        <v>943.9000244140625</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="E97">
-        <v>943.9000244140625</v>
+        <v>829.0999755859375</v>
       </c>
       <c r="F97">
-        <v>34472000</v>
+        <v>49036500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>904.760009765625</v>
+        <v>831.5599975585938</v>
       </c>
       <c r="B98">
-        <v>933.510009765625</v>
+        <v>857.5</v>
       </c>
       <c r="C98">
-        <v>851.469970703125</v>
+        <v>792.010009765625</v>
       </c>
       <c r="D98">
-        <v>930</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="E98">
-        <v>930</v>
+        <v>846.3499755859375</v>
       </c>
       <c r="F98">
-        <v>50521900</v>
+        <v>44929700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>914.2000122070312</v>
+        <v>872.7100219726562</v>
       </c>
       <c r="B99">
-        <v>951.260009765625</v>
+        <v>937.989990234375</v>
       </c>
       <c r="C99">
-        <v>903.2100219726562</v>
+        <v>862.0499877929688</v>
       </c>
       <c r="D99">
-        <v>918.4000244140625</v>
+        <v>936.719970703125</v>
       </c>
       <c r="E99">
-        <v>918.4000244140625</v>
+        <v>936.719970703125</v>
       </c>
       <c r="F99">
-        <v>28865300</v>
+        <v>34812000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>952.4299926757812</v>
+        <v>935.2100219726562</v>
       </c>
       <c r="B100">
-        <v>987.6900024414062</v>
+        <v>943.7000122070312</v>
       </c>
       <c r="C100">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D100">
-        <v>937.4099731445312</v>
+        <v>931.25</v>
       </c>
       <c r="E100">
-        <v>937.4099731445312</v>
+        <v>931.25</v>
       </c>
       <c r="F100">
-        <v>34955800</v>
+        <v>24379400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>933.3599853515625</v>
+        <v>928.1799926757812</v>
       </c>
       <c r="B101">
-        <v>935.3900146484375</v>
+        <v>931.5</v>
       </c>
       <c r="C101">
-        <v>829</v>
+        <v>889.4099731445312</v>
       </c>
       <c r="D101">
-        <v>829.0999755859375</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="E101">
-        <v>829.0999755859375</v>
+        <v>905.6599731445312</v>
       </c>
       <c r="F101">
-        <v>49036500</v>
+        <v>22264300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>831.5599975585938</v>
+        <v>882</v>
       </c>
       <c r="B102">
-        <v>857.5</v>
+        <v>937</v>
       </c>
       <c r="C102">
-        <v>792.010009765625</v>
+        <v>880.52001953125</v>
       </c>
       <c r="D102">
-        <v>846.3499755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="E102">
-        <v>846.3499755859375</v>
+        <v>891.1400146484375</v>
       </c>
       <c r="F102">
-        <v>44929700</v>
+        <v>26285200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>872.7100219726562</v>
+        <v>897.219970703125</v>
       </c>
       <c r="B103">
-        <v>937.989990234375</v>
+        <v>936.5</v>
       </c>
       <c r="C103">
-        <v>862.0499877929688</v>
+        <v>881.1699829101562</v>
       </c>
       <c r="D103">
-        <v>936.719970703125</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="E103">
-        <v>936.719970703125</v>
+        <v>923.3200073242188</v>
       </c>
       <c r="F103">
-        <v>34812000</v>
+        <v>24472600</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>935.2100219726562</v>
+        <v>923.7899780273438</v>
       </c>
       <c r="B104">
-        <v>943.7000122070312</v>
+        <v>947.77001953125</v>
       </c>
       <c r="C104">
-        <v>905</v>
+        <v>902.7100219726562</v>
       </c>
       <c r="D104">
-        <v>931.25</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="E104">
-        <v>931.25</v>
+        <v>907.3400268554688</v>
       </c>
       <c r="F104">
-        <v>24379400</v>
+        <v>20331500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>928.1799926757812</v>
+        <v>905.530029296875</v>
       </c>
       <c r="B105">
-        <v>931.5</v>
+        <v>926.2899780273438</v>
       </c>
       <c r="C105">
-        <v>889.4099731445312</v>
+        <v>894.7999877929688</v>
       </c>
       <c r="D105">
-        <v>905.6599731445312</v>
+        <v>922</v>
       </c>
       <c r="E105">
-        <v>905.6599731445312</v>
+        <v>922</v>
       </c>
       <c r="F105">
-        <v>22264300</v>
+        <v>16909700</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>882</v>
+        <v>935</v>
       </c>
       <c r="B106">
-        <v>937</v>
+        <v>946.27001953125</v>
       </c>
       <c r="C106">
-        <v>880.52001953125</v>
+        <v>920</v>
       </c>
       <c r="D106">
-        <v>891.1400146484375</v>
+        <v>932</v>
       </c>
       <c r="E106">
-        <v>891.1400146484375</v>
+        <v>932</v>
       </c>
       <c r="F106">
-        <v>26285200</v>
+        <v>17419800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>897.219970703125</v>
+        <v>908.3699951171875</v>
       </c>
       <c r="B107">
-        <v>936.5</v>
+        <v>943.8099975585938</v>
       </c>
       <c r="C107">
-        <v>881.1699829101562</v>
+        <v>896.7000122070312</v>
       </c>
       <c r="D107">
-        <v>923.3200073242188</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="E107">
-        <v>923.3200073242188</v>
+        <v>904.5499877929688</v>
       </c>
       <c r="F107">
-        <v>24472600</v>
+        <v>22042300</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>923.7899780273438</v>
+        <v>909.6300048828125</v>
       </c>
       <c r="B108">
-        <v>947.77001953125</v>
+        <v>915.9600219726562</v>
       </c>
       <c r="C108">
-        <v>902.7100219726562</v>
+        <v>850.7000122070312</v>
       </c>
       <c r="D108">
-        <v>907.3400268554688</v>
+        <v>860</v>
       </c>
       <c r="E108">
-        <v>907.3400268554688</v>
+        <v>860</v>
       </c>
       <c r="F108">
-        <v>20331500</v>
+        <v>26492700</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>905.530029296875</v>
+        <v>861.5700073242188</v>
       </c>
       <c r="B109">
-        <v>926.2899780273438</v>
+        <v>898.8800048828125</v>
       </c>
       <c r="C109">
-        <v>894.7999877929688</v>
+        <v>853.1500244140625</v>
       </c>
       <c r="D109">
-        <v>922</v>
+        <v>875.760009765625</v>
       </c>
       <c r="E109">
-        <v>922</v>
+        <v>875.760009765625</v>
       </c>
       <c r="F109">
-        <v>16909700</v>
+        <v>22585500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>935</v>
+        <v>900</v>
       </c>
       <c r="B110">
-        <v>946.27001953125</v>
+        <v>923</v>
       </c>
       <c r="C110">
-        <v>920</v>
+        <v>893.3800048828125</v>
       </c>
       <c r="D110">
-        <v>932</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="E110">
-        <v>932</v>
+        <v>922.4299926757812</v>
       </c>
       <c r="F110">
-        <v>17419800</v>
+        <v>19095400</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>908.3699951171875</v>
+        <v>914.0499877929688</v>
       </c>
       <c r="B111">
-        <v>943.8099975585938</v>
+        <v>926.4299926757812</v>
       </c>
       <c r="C111">
-        <v>896.7000122070312</v>
+        <v>901.2100219726562</v>
       </c>
       <c r="D111">
-        <v>904.5499877929688</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="E111">
-        <v>904.5499877929688</v>
+        <v>923.3900146484375</v>
       </c>
       <c r="F111">
-        <v>22042300</v>
+        <v>17098100</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>909.6300048828125</v>
+        <v>913.260009765625</v>
       </c>
       <c r="B112">
-        <v>915.9600219726562</v>
+        <v>918.5</v>
       </c>
       <c r="C112">
-        <v>850.7000122070312</v>
+        <v>874.0999755859375</v>
       </c>
       <c r="D112">
-        <v>860</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="E112">
-        <v>860</v>
+        <v>876.3499755859375</v>
       </c>
       <c r="F112">
-        <v>26492700</v>
+        <v>18392800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>861.5700073242188</v>
+        <v>886</v>
       </c>
       <c r="B113">
-        <v>898.8800048828125</v>
+        <v>886.8699951171875</v>
       </c>
       <c r="C113">
-        <v>853.1500244140625</v>
+        <v>837.6099853515625</v>
       </c>
       <c r="D113">
-        <v>875.760009765625</v>
+        <v>856.97998046875</v>
       </c>
       <c r="E113">
-        <v>875.760009765625</v>
+        <v>856.97998046875</v>
       </c>
       <c r="F113">
-        <v>22585500</v>
+        <v>22833900</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>900</v>
+        <v>834.1300048828125</v>
       </c>
       <c r="B114">
-        <v>923</v>
+        <v>856.72998046875</v>
       </c>
       <c r="C114">
-        <v>893.3800048828125</v>
+        <v>801.0999755859375</v>
       </c>
       <c r="D114">
-        <v>922.4299926757812</v>
+        <v>821.530029296875</v>
       </c>
       <c r="E114">
-        <v>922.4299926757812</v>
+        <v>821.530029296875</v>
       </c>
       <c r="F114">
-        <v>19095400</v>
+        <v>27762700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>914.0499877929688</v>
+        <v>830.4299926757812</v>
       </c>
       <c r="B115">
-        <v>926.4299926757812</v>
+        <v>835.2999877929688</v>
       </c>
       <c r="C115">
-        <v>901.2100219726562</v>
+        <v>760.5599975585938</v>
       </c>
       <c r="D115">
-        <v>923.3900146484375</v>
+        <v>764.0399780273438</v>
       </c>
       <c r="E115">
-        <v>923.3900146484375</v>
+        <v>764.0399780273438</v>
       </c>
       <c r="F115">
-        <v>17098100</v>
+        <v>31752300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>913.260009765625</v>
+        <v>700.3900146484375</v>
       </c>
       <c r="B116">
-        <v>918.5</v>
+        <v>802.47998046875</v>
       </c>
       <c r="C116">
-        <v>874.0999755859375</v>
+        <v>700</v>
       </c>
       <c r="D116">
-        <v>876.3499755859375</v>
+        <v>800.77001953125</v>
       </c>
       <c r="E116">
-        <v>876.3499755859375</v>
+        <v>800.77001953125</v>
       </c>
       <c r="F116">
-        <v>18392800</v>
+        <v>45107400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>886</v>
+        <v>809.22998046875</v>
       </c>
       <c r="B117">
-        <v>886.8699951171875</v>
+        <v>819.5</v>
       </c>
       <c r="C117">
-        <v>837.6099853515625</v>
+        <v>782.4000244140625</v>
       </c>
       <c r="D117">
-        <v>856.97998046875</v>
+        <v>809.8699951171875</v>
       </c>
       <c r="E117">
-        <v>856.97998046875</v>
+        <v>809.8699951171875</v>
       </c>
       <c r="F117">
-        <v>22833900</v>
+        <v>25355900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>834.1300048828125</v>
+        <v>815.010009765625</v>
       </c>
       <c r="B118">
-        <v>856.72998046875</v>
+        <v>876.8599853515625</v>
       </c>
       <c r="C118">
-        <v>801.0999755859375</v>
+        <v>814.7100219726562</v>
       </c>
       <c r="D118">
-        <v>821.530029296875</v>
+        <v>870.4299926757812</v>
       </c>
       <c r="E118">
-        <v>821.530029296875</v>
+        <v>870.4299926757812</v>
       </c>
       <c r="F118">
-        <v>27762700</v>
+        <v>33002300</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>830.4299926757812</v>
+        <v>869.6799926757812</v>
       </c>
       <c r="B119">
-        <v>835.2999877929688</v>
+        <v>889.8800048828125</v>
       </c>
       <c r="C119">
-        <v>760.5599975585938</v>
+        <v>853.780029296875</v>
       </c>
       <c r="D119">
-        <v>764.0399780273438</v>
+        <v>864.3699951171875</v>
       </c>
       <c r="E119">
-        <v>764.0399780273438</v>
+        <v>864.3699951171875</v>
       </c>
       <c r="F119">
-        <v>31752300</v>
+        <v>24922300</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>700.3900146484375</v>
+        <v>872.1300048828125</v>
       </c>
       <c r="B120">
-        <v>802.47998046875</v>
+        <v>886.47998046875</v>
       </c>
       <c r="C120">
-        <v>700</v>
+        <v>844.27001953125</v>
       </c>
       <c r="D120">
-        <v>800.77001953125</v>
+        <v>879.8900146484375</v>
       </c>
       <c r="E120">
-        <v>800.77001953125</v>
+        <v>879.8900146484375</v>
       </c>
       <c r="F120">
-        <v>45107400</v>
+        <v>24881100</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>809.22998046875</v>
+        <v>878.77001953125</v>
       </c>
       <c r="B121">
-        <v>819.5</v>
+        <v>886.4400024414062</v>
       </c>
       <c r="C121">
-        <v>782.4000244140625</v>
+        <v>832.5999755859375</v>
       </c>
       <c r="D121">
-        <v>809.8699951171875</v>
+        <v>839.2899780273438</v>
       </c>
       <c r="E121">
-        <v>809.8699951171875</v>
+        <v>839.2899780273438</v>
       </c>
       <c r="F121">
-        <v>25355900</v>
+        <v>20541200</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>815.010009765625</v>
+        <v>849.0999755859375</v>
       </c>
       <c r="B122">
-        <v>876.8599853515625</v>
+        <v>855.6500244140625</v>
       </c>
       <c r="C122">
-        <v>814.7100219726562</v>
+        <v>825.1599731445312</v>
       </c>
       <c r="D122">
-        <v>870.4299926757812</v>
+        <v>838.2899780273438</v>
       </c>
       <c r="E122">
-        <v>870.4299926757812</v>
+        <v>838.2899780273438</v>
       </c>
       <c r="F122">
-        <v>33002300</v>
+        <v>22333200</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>869.6799926757812</v>
+        <v>856.2999877929688</v>
       </c>
       <c r="B123">
-        <v>889.8800048828125</v>
+        <v>866.1400146484375</v>
       </c>
       <c r="C123">
-        <v>853.780029296875</v>
+        <v>804.5700073242188</v>
       </c>
       <c r="D123">
-        <v>864.3699951171875</v>
+        <v>804.5800170898438</v>
       </c>
       <c r="E123">
-        <v>864.3699951171875</v>
+        <v>804.5800170898438</v>
       </c>
       <c r="F123">
-        <v>24922300</v>
+        <v>24164700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>872.1300048828125</v>
+        <v>795.530029296875</v>
       </c>
       <c r="B124">
-        <v>886.47998046875</v>
+        <v>849.989990234375</v>
       </c>
       <c r="C124">
-        <v>844.27001953125</v>
+        <v>782.1699829101562</v>
       </c>
       <c r="D124">
-        <v>879.8900146484375</v>
+        <v>824.4000244140625</v>
       </c>
       <c r="E124">
-        <v>879.8900146484375</v>
+        <v>824.4000244140625</v>
       </c>
       <c r="F124">
-        <v>24881100</v>
+        <v>26799700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>878.77001953125</v>
+        <v>839.47998046875</v>
       </c>
       <c r="B125">
-        <v>886.4400024414062</v>
+        <v>860.5599975585938</v>
       </c>
       <c r="C125">
-        <v>832.5999755859375</v>
+        <v>832.010009765625</v>
       </c>
       <c r="D125">
-        <v>839.2899780273438</v>
+        <v>858.969970703125</v>
       </c>
       <c r="E125">
-        <v>839.2899780273438</v>
+        <v>858.969970703125</v>
       </c>
       <c r="F125">
-        <v>20373300</v>
+        <v>19728000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>849.0999755859375</v>
+        <v>851.4500122070312</v>
       </c>
       <c r="B126">
-        <v>855.6500244140625</v>
+        <v>854.4500122070312</v>
       </c>
       <c r="C126">
-        <v>825.160888671875</v>
+        <v>810.3599853515625</v>
       </c>
       <c r="D126">
-        <v>838.2899780273438</v>
+        <v>838.2999877929688</v>
       </c>
       <c r="E126">
-        <v>838.2899780273438</v>
+        <v>838.2999877929688</v>
       </c>
       <c r="F126">
-        <v>22294195</v>
+        <v>19549500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>840.197021484375</v>
+      </c>
+      <c r="B127">
+        <v>843.5499877929688</v>
+      </c>
+      <c r="C127">
+        <v>793.77001953125</v>
+      </c>
+      <c r="D127">
+        <v>795.3499755859375</v>
+      </c>
+      <c r="E127">
+        <v>795.3499755859375</v>
+      </c>
+      <c r="F127">
+        <v>22345722</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/TSLA/HighLow.xlsx
+++ b/Stocks/TSLA/HighLow.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -388,2554 +420,2572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>740.2100219726562</v>
-      </c>
-      <c r="B2">
-        <v>744.780029296875</v>
-      </c>
-      <c r="C2">
-        <v>708.8499755859375</v>
-      </c>
-      <c r="D2">
-        <v>743</v>
-      </c>
-      <c r="E2">
-        <v>743</v>
-      </c>
-      <c r="F2">
-        <v>22952500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>742.5700073242188</v>
-      </c>
-      <c r="B3">
-        <v>754.469970703125</v>
-      </c>
-      <c r="C3">
-        <v>736.4000244140625</v>
-      </c>
-      <c r="D3">
-        <v>744.489990234375</v>
-      </c>
-      <c r="E3">
-        <v>744.489990234375</v>
-      </c>
-      <c r="F3">
-        <v>18524900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>745</v>
-      </c>
-      <c r="B4">
-        <v>756.8599853515625</v>
-      </c>
-      <c r="C4">
-        <v>738.3599853515625</v>
-      </c>
-      <c r="D4">
-        <v>755.8300170898438</v>
-      </c>
-      <c r="E4">
-        <v>755.8300170898438</v>
-      </c>
-      <c r="F4">
-        <v>15357700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>752.8300170898438</v>
-      </c>
-      <c r="B5">
-        <v>758.9099731445312</v>
-      </c>
-      <c r="C5">
-        <v>747.6099853515625</v>
-      </c>
-      <c r="D5">
-        <v>756.989990234375</v>
-      </c>
-      <c r="E5">
-        <v>756.989990234375</v>
-      </c>
-      <c r="F5">
-        <v>13923400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>757.1500244140625</v>
-      </c>
-      <c r="B6">
-        <v>761.0399780273438</v>
-      </c>
-      <c r="C6">
-        <v>750</v>
-      </c>
-      <c r="D6">
-        <v>759.489990234375</v>
-      </c>
-      <c r="E6">
-        <v>759.489990234375</v>
-      </c>
-      <c r="F6">
-        <v>28204200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>734.5599975585938</v>
       </c>
-      <c r="B7">
+      <c r="B2" t="n">
         <v>742</v>
       </c>
-      <c r="C7">
+      <c r="C2" t="n">
         <v>718.6199951171875</v>
       </c>
-      <c r="D7">
+      <c r="D2" t="n">
         <v>730.1699829101562</v>
       </c>
-      <c r="E7">
+      <c r="E2" t="n">
         <v>730.1699829101562</v>
       </c>
-      <c r="F7">
+      <c r="F2" t="n">
         <v>24757700</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="3">
+      <c r="A3" t="n">
         <v>734.7899780273438</v>
       </c>
-      <c r="B8">
+      <c r="B3" t="n">
         <v>744.739990234375</v>
       </c>
-      <c r="C8">
+      <c r="C3" t="n">
         <v>730.4400024414062</v>
       </c>
-      <c r="D8">
+      <c r="D3" t="n">
         <v>739.3800048828125</v>
       </c>
-      <c r="E8">
+      <c r="E3" t="n">
         <v>739.3800048828125</v>
       </c>
-      <c r="F8">
+      <c r="F3" t="n">
         <v>16330700</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    <row r="4">
+      <c r="A4" t="n">
         <v>743.530029296875</v>
       </c>
-      <c r="B9">
+      <c r="B4" t="n">
         <v>753.6699829101562</v>
       </c>
-      <c r="C9">
+      <c r="C4" t="n">
         <v>739.1199951171875</v>
       </c>
-      <c r="D9">
+      <c r="D4" t="n">
         <v>751.9400024414062</v>
       </c>
-      <c r="E9">
+      <c r="E4" t="n">
         <v>751.9400024414062</v>
       </c>
-      <c r="F9">
+      <c r="F4" t="n">
         <v>15126300</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    <row r="5">
+      <c r="A5" t="n">
         <v>755</v>
       </c>
-      <c r="B10">
+      <c r="B5" t="n">
         <v>758.2000122070312</v>
       </c>
-      <c r="C10">
+      <c r="C5" t="n">
         <v>747.9199829101562</v>
       </c>
-      <c r="D10">
+      <c r="D5" t="n">
         <v>753.6400146484375</v>
       </c>
-      <c r="E10">
+      <c r="E5" t="n">
         <v>753.6400146484375</v>
       </c>
-      <c r="F10">
+      <c r="F5" t="n">
         <v>11947500</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    <row r="6">
+      <c r="A6" t="n">
         <v>745.8900146484375</v>
       </c>
-      <c r="B11">
+      <c r="B6" t="n">
         <v>774.7999877929688</v>
       </c>
-      <c r="C11">
+      <c r="C6" t="n">
         <v>744.5599975585938</v>
       </c>
-      <c r="D11">
+      <c r="D6" t="n">
         <v>774.3900146484375</v>
       </c>
-      <c r="E11">
+      <c r="E6" t="n">
         <v>774.3900146484375</v>
       </c>
-      <c r="F11">
+      <c r="F6" t="n">
         <v>21373000</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    <row r="7">
+      <c r="A7" t="n">
         <v>773.1199951171875</v>
       </c>
-      <c r="B12">
+      <c r="B7" t="n">
         <v>799</v>
       </c>
-      <c r="C12">
+      <c r="C7" t="n">
         <v>769.3099975585938</v>
       </c>
-      <c r="D12">
+      <c r="D7" t="n">
         <v>791.3599853515625</v>
       </c>
-      <c r="E12">
+      <c r="E7" t="n">
         <v>791.3599853515625</v>
       </c>
-      <c r="F12">
+      <c r="F7" t="n">
         <v>28070700</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
+    <row r="8">
+      <c r="A8" t="n">
         <v>787.2000122070312</v>
       </c>
-      <c r="B13">
+      <c r="B8" t="n">
         <v>795.6400146484375</v>
       </c>
-      <c r="C13">
+      <c r="C8" t="n">
         <v>766.1799926757812</v>
       </c>
-      <c r="D13">
+      <c r="D8" t="n">
         <v>777.5599975585938</v>
       </c>
-      <c r="E13">
+      <c r="E8" t="n">
         <v>777.5599975585938</v>
       </c>
-      <c r="F13">
+      <c r="F8" t="n">
         <v>25381400</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
+    <row r="9">
+      <c r="A9" t="n">
         <v>779.7999877929688</v>
       </c>
-      <c r="B14">
+      <c r="B9" t="n">
         <v>793.5</v>
       </c>
-      <c r="C14">
+      <c r="C9" t="n">
         <v>770.6799926757812</v>
       </c>
-      <c r="D14">
+      <c r="D9" t="n">
         <v>781.3099975585938</v>
       </c>
-      <c r="E14">
+      <c r="E9" t="n">
         <v>781.3099975585938</v>
       </c>
-      <c r="F14">
+      <c r="F9" t="n">
         <v>20942900</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
+    <row r="10">
+      <c r="A10" t="n">
         <v>781</v>
       </c>
-      <c r="B15">
+      <c r="B10" t="n">
         <v>789.1300048828125</v>
       </c>
-      <c r="C15">
+      <c r="C10" t="n">
         <v>775</v>
       </c>
-      <c r="D15">
+      <c r="D10" t="n">
         <v>775.47998046875</v>
       </c>
-      <c r="E15">
+      <c r="E10" t="n">
         <v>775.47998046875</v>
       </c>
-      <c r="F15">
+      <c r="F10" t="n">
         <v>17956000</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+    <row r="11">
+      <c r="A11" t="n">
         <v>778.4000244140625</v>
       </c>
-      <c r="B16">
+      <c r="B11" t="n">
         <v>780.780029296875</v>
       </c>
-      <c r="C16">
+      <c r="C11" t="n">
         <v>763.5900268554688</v>
       </c>
-      <c r="D16">
+      <c r="D11" t="n">
         <v>775.219970703125</v>
       </c>
-      <c r="E16">
+      <c r="E11" t="n">
         <v>775.219970703125</v>
       </c>
-      <c r="F16">
+      <c r="F11" t="n">
         <v>17031400</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
+    <row r="12">
+      <c r="A12" t="n">
         <v>796.5</v>
       </c>
-      <c r="B17">
+      <c r="B12" t="n">
         <v>806.969970703125</v>
       </c>
-      <c r="C17">
+      <c r="C12" t="n">
         <v>776.1199951171875</v>
       </c>
-      <c r="D17">
+      <c r="D12" t="n">
         <v>781.530029296875</v>
       </c>
-      <c r="E17">
+      <c r="E12" t="n">
         <v>781.530029296875</v>
       </c>
-      <c r="F17">
+      <c r="F12" t="n">
         <v>30483300</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
+    <row r="13">
+      <c r="A13" t="n">
         <v>784.7999877929688</v>
       </c>
-      <c r="B18">
+      <c r="B13" t="n">
         <v>797.3099975585938</v>
       </c>
-      <c r="C18">
+      <c r="C13" t="n">
         <v>774.2000122070312</v>
       </c>
-      <c r="D18">
+      <c r="D13" t="n">
         <v>780.5900268554688</v>
       </c>
-      <c r="E18">
+      <c r="E13" t="n">
         <v>780.5900268554688</v>
       </c>
-      <c r="F18">
+      <c r="F13" t="n">
         <v>18432600</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
+    <row r="14">
+      <c r="A14" t="n">
         <v>776.2000122070312</v>
       </c>
-      <c r="B19">
+      <c r="B14" t="n">
         <v>786.6599731445312</v>
       </c>
-      <c r="C19">
+      <c r="C14" t="n">
         <v>773.219970703125</v>
       </c>
-      <c r="D19">
+      <c r="D14" t="n">
         <v>782.75</v>
       </c>
-      <c r="E19">
+      <c r="E14" t="n">
         <v>782.75</v>
       </c>
-      <c r="F19">
+      <c r="F14" t="n">
         <v>14632800</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
+    <row r="15">
+      <c r="A15" t="n">
         <v>785.4600219726562</v>
       </c>
-      <c r="B20">
+      <c r="B15" t="n">
         <v>805</v>
       </c>
-      <c r="C20">
+      <c r="C15" t="n">
         <v>783.3800048828125</v>
       </c>
-      <c r="D20">
+      <c r="D15" t="n">
         <v>793.6099853515625</v>
       </c>
-      <c r="E20">
+      <c r="E15" t="n">
         <v>793.6099853515625</v>
       </c>
-      <c r="F20">
+      <c r="F15" t="n">
         <v>19195800</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
+    <row r="16">
+      <c r="A16" t="n">
         <v>796.2100219726562</v>
       </c>
-      <c r="B21">
+      <c r="B16" t="n">
         <v>796.3800048828125</v>
       </c>
-      <c r="C21">
+      <c r="C16" t="n">
         <v>780.9099731445312</v>
       </c>
-      <c r="D21">
+      <c r="D16" t="n">
         <v>785.489990234375</v>
       </c>
-      <c r="E21">
+      <c r="E16" t="n">
         <v>785.489990234375</v>
       </c>
-      <c r="F21">
+      <c r="F16" t="n">
         <v>16711100</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
+    <row r="17">
+      <c r="A17" t="n">
         <v>787.6500244140625</v>
       </c>
-      <c r="B22">
+      <c r="B17" t="n">
         <v>801.239990234375</v>
       </c>
-      <c r="C22">
+      <c r="C17" t="n">
         <v>785.5</v>
       </c>
-      <c r="D22">
+      <c r="D17" t="n">
         <v>791.9400024414062</v>
       </c>
-      <c r="E22">
+      <c r="E17" t="n">
         <v>791.9400024414062</v>
       </c>
-      <c r="F22">
+      <c r="F17" t="n">
         <v>14200300</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
+    <row r="18">
+      <c r="A18" t="n">
         <v>800.9299926757812</v>
       </c>
-      <c r="B23">
+      <c r="B18" t="n">
         <v>812.3200073242188</v>
       </c>
-      <c r="C23">
+      <c r="C18" t="n">
         <v>796.5700073242188</v>
       </c>
-      <c r="D23">
+      <c r="D18" t="n">
         <v>805.719970703125</v>
       </c>
-      <c r="E23">
+      <c r="E18" t="n">
         <v>805.719970703125</v>
       </c>
-      <c r="F23">
+      <c r="F18" t="n">
         <v>22020000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
+    <row r="19">
+      <c r="A19" t="n">
         <v>810.469970703125</v>
       </c>
-      <c r="B24">
+      <c r="B19" t="n">
         <v>815.4099731445312</v>
       </c>
-      <c r="C24">
+      <c r="C19" t="n">
         <v>805.780029296875</v>
       </c>
-      <c r="D24">
+      <c r="D19" t="n">
         <v>811.0800170898438</v>
       </c>
-      <c r="E24">
+      <c r="E19" t="n">
         <v>811.0800170898438</v>
       </c>
-      <c r="F24">
+      <c r="F19" t="n">
         <v>14120100</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
+    <row r="20">
+      <c r="A20" t="n">
         <v>815.489990234375</v>
       </c>
-      <c r="B25">
+      <c r="B20" t="n">
         <v>820.25</v>
       </c>
-      <c r="C25">
+      <c r="C20" t="n">
         <v>813.3499755859375</v>
       </c>
-      <c r="D25">
+      <c r="D20" t="n">
         <v>818.3200073242188</v>
       </c>
-      <c r="E25">
+      <c r="E20" t="n">
         <v>818.3200073242188</v>
       </c>
-      <c r="F25">
+      <c r="F20" t="n">
         <v>12247200</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
+    <row r="21">
+      <c r="A21" t="n">
         <v>823.739990234375</v>
       </c>
-      <c r="B26">
+      <c r="B21" t="n">
         <v>843.2100219726562</v>
       </c>
-      <c r="C26">
+      <c r="C21" t="n">
         <v>822.3499755859375</v>
       </c>
-      <c r="D26">
+      <c r="D21" t="n">
         <v>843.030029296875</v>
       </c>
-      <c r="E26">
+      <c r="E21" t="n">
         <v>843.030029296875</v>
       </c>
-      <c r="F26">
+      <c r="F21" t="n">
         <v>18818000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
+    <row r="22">
+      <c r="A22" t="n">
         <v>851.7899780273438</v>
       </c>
-      <c r="B27">
+      <c r="B22" t="n">
         <v>875.260009765625</v>
       </c>
-      <c r="C27">
+      <c r="C22" t="n">
         <v>851.469970703125</v>
       </c>
-      <c r="D27">
+      <c r="D22" t="n">
         <v>870.1099853515625</v>
       </c>
-      <c r="E27">
+      <c r="E22" t="n">
         <v>870.1099853515625</v>
       </c>
-      <c r="F27">
+      <c r="F22" t="n">
         <v>24207200</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
+    <row r="23">
+      <c r="A23" t="n">
         <v>877.530029296875</v>
       </c>
-      <c r="B28">
+      <c r="B23" t="n">
         <v>877.9500122070312</v>
       </c>
-      <c r="C28">
+      <c r="C23" t="n">
         <v>862.510009765625</v>
       </c>
-      <c r="D28">
+      <c r="D23" t="n">
         <v>864.27001953125</v>
       </c>
-      <c r="E28">
+      <c r="E23" t="n">
         <v>864.27001953125</v>
       </c>
-      <c r="F28">
+      <c r="F23" t="n">
         <v>17381100</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
+    <row r="24">
+      <c r="A24" t="n">
         <v>865.3499755859375</v>
       </c>
-      <c r="B29">
+      <c r="B24" t="n">
         <v>869.489990234375</v>
       </c>
-      <c r="C29">
+      <c r="C24" t="n">
         <v>857.3800048828125</v>
       </c>
-      <c r="D29">
+      <c r="D24" t="n">
         <v>865.7999877929688</v>
       </c>
-      <c r="E29">
+      <c r="E24" t="n">
         <v>865.7999877929688</v>
       </c>
-      <c r="F29">
+      <c r="F24" t="n">
         <v>14032100</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
+    <row r="25">
+      <c r="A25" t="n">
         <v>856</v>
       </c>
-      <c r="B30">
+      <c r="B25" t="n">
         <v>900</v>
       </c>
-      <c r="C30">
+      <c r="C25" t="n">
         <v>855.5</v>
       </c>
-      <c r="D30">
+      <c r="D25" t="n">
         <v>894</v>
       </c>
-      <c r="E30">
+      <c r="E25" t="n">
         <v>894</v>
       </c>
-      <c r="F30">
+      <c r="F25" t="n">
         <v>31481500</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
+    <row r="26">
+      <c r="A26" t="n">
         <v>895.5</v>
       </c>
-      <c r="B31">
+      <c r="B26" t="n">
         <v>910</v>
       </c>
-      <c r="C31">
+      <c r="C26" t="n">
         <v>890.9600219726562</v>
       </c>
-      <c r="D31">
+      <c r="D26" t="n">
         <v>909.6799926757812</v>
       </c>
-      <c r="E31">
+      <c r="E26" t="n">
         <v>909.6799926757812</v>
       </c>
-      <c r="F31">
+      <c r="F26" t="n">
         <v>22880800</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
+    <row r="27">
+      <c r="A27" t="n">
         <v>950.530029296875</v>
       </c>
-      <c r="B32">
+      <c r="B27" t="n">
         <v>1045.02001953125</v>
       </c>
-      <c r="C32">
+      <c r="C27" t="n">
         <v>944.2000122070312</v>
       </c>
-      <c r="D32">
+      <c r="D27" t="n">
         <v>1024.859985351562</v>
       </c>
-      <c r="E32">
+      <c r="E27" t="n">
         <v>1024.859985351562</v>
       </c>
-      <c r="F32">
+      <c r="F27" t="n">
         <v>62852100</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
+    <row r="28">
+      <c r="A28" t="n">
         <v>1024.68994140625</v>
       </c>
-      <c r="B33">
+      <c r="B28" t="n">
         <v>1094.93994140625</v>
       </c>
-      <c r="C33">
+      <c r="C28" t="n">
         <v>1001.440002441406</v>
       </c>
-      <c r="D33">
+      <c r="D28" t="n">
         <v>1018.429992675781</v>
       </c>
-      <c r="E33">
+      <c r="E28" t="n">
         <v>1018.429992675781</v>
       </c>
-      <c r="F33">
+      <c r="F28" t="n">
         <v>62415000</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1039.660034179688</v>
       </c>
-      <c r="B34">
+      <c r="B29" t="n">
         <v>1070.880004882812</v>
       </c>
-      <c r="C34">
+      <c r="C29" t="n">
         <v>1030.780029296875</v>
       </c>
-      <c r="D34">
+      <c r="D29" t="n">
         <v>1037.859985351562</v>
       </c>
-      <c r="E34">
+      <c r="E29" t="n">
         <v>1037.859985351562</v>
       </c>
-      <c r="F34">
+      <c r="F29" t="n">
         <v>38526500</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
+    <row r="30">
+      <c r="A30" t="n">
         <v>1068.31005859375</v>
       </c>
-      <c r="B35">
+      <c r="B30" t="n">
         <v>1081</v>
       </c>
-      <c r="C35">
+      <c r="C30" t="n">
         <v>1054.199951171875</v>
       </c>
-      <c r="D35">
+      <c r="D30" t="n">
         <v>1077.0400390625</v>
       </c>
-      <c r="E35">
+      <c r="E30" t="n">
         <v>1077.0400390625</v>
       </c>
-      <c r="F35">
+      <c r="F30" t="n">
         <v>27213200</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    <row r="31">
+      <c r="A31" t="n">
         <v>1081.859985351562</v>
       </c>
-      <c r="B36">
+      <c r="B31" t="n">
         <v>1115.2099609375</v>
       </c>
-      <c r="C36">
+      <c r="C31" t="n">
         <v>1073.2099609375</v>
       </c>
-      <c r="D36">
+      <c r="D31" t="n">
         <v>1114</v>
       </c>
-      <c r="E36">
+      <c r="E31" t="n">
         <v>1114</v>
       </c>
-      <c r="F36">
+      <c r="F31" t="n">
         <v>29918400</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    <row r="32">
+      <c r="A32" t="n">
         <v>1145</v>
       </c>
-      <c r="B37">
+      <c r="B32" t="n">
         <v>1209.75</v>
       </c>
-      <c r="C37">
+      <c r="C32" t="n">
         <v>1118.660034179688</v>
       </c>
-      <c r="D37">
+      <c r="D32" t="n">
         <v>1208.589965820312</v>
       </c>
-      <c r="E37">
+      <c r="E32" t="n">
         <v>1208.589965820312</v>
       </c>
-      <c r="F37">
+      <c r="F32" t="n">
         <v>56048700</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    <row r="33">
+      <c r="A33" t="n">
         <v>1159.359985351562</v>
       </c>
-      <c r="B38">
+      <c r="B33" t="n">
         <v>1208.589965820312</v>
       </c>
-      <c r="C38">
+      <c r="C33" t="n">
         <v>1146</v>
       </c>
-      <c r="D38">
+      <c r="D33" t="n">
         <v>1172</v>
       </c>
-      <c r="E38">
+      <c r="E33" t="n">
         <v>1172</v>
       </c>
-      <c r="F38">
+      <c r="F33" t="n">
         <v>42737800</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    <row r="34">
+      <c r="A34" t="n">
         <v>1177.329956054688</v>
       </c>
-      <c r="B39">
+      <c r="B34" t="n">
         <v>1215.390014648438</v>
       </c>
-      <c r="C39">
+      <c r="C34" t="n">
         <v>1152.619995117188</v>
       </c>
-      <c r="D39">
+      <c r="D34" t="n">
         <v>1213.859985351562</v>
       </c>
-      <c r="E39">
+      <c r="E34" t="n">
         <v>1213.859985351562</v>
       </c>
-      <c r="F39">
+      <c r="F34" t="n">
         <v>34628500</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+    <row r="35">
+      <c r="A35" t="n">
         <v>1234.410034179688</v>
       </c>
-      <c r="B40">
+      <c r="B35" t="n">
         <v>1243.489990234375</v>
       </c>
-      <c r="C40">
+      <c r="C35" t="n">
         <v>1217</v>
       </c>
-      <c r="D40">
+      <c r="D35" t="n">
         <v>1229.910034179688</v>
       </c>
-      <c r="E40">
+      <c r="E35" t="n">
         <v>1229.910034179688</v>
       </c>
-      <c r="F40">
+      <c r="F35" t="n">
         <v>25397400</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
+    <row r="36">
+      <c r="A36" t="n">
         <v>1228</v>
       </c>
-      <c r="B41">
+      <c r="B36" t="n">
         <v>1239.869995117188</v>
       </c>
-      <c r="C41">
+      <c r="C36" t="n">
         <v>1208</v>
       </c>
-      <c r="D41">
+      <c r="D36" t="n">
         <v>1222.089965820312</v>
       </c>
-      <c r="E41">
+      <c r="E36" t="n">
         <v>1222.089965820312</v>
       </c>
-      <c r="F41">
+      <c r="F36" t="n">
         <v>21579900</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
+    <row r="37">
+      <c r="A37" t="n">
         <v>1149.7900390625</v>
       </c>
-      <c r="B42">
+      <c r="B37" t="n">
         <v>1197</v>
       </c>
-      <c r="C42">
+      <c r="C37" t="n">
         <v>1133</v>
       </c>
-      <c r="D42">
+      <c r="D37" t="n">
         <v>1162.93994140625</v>
       </c>
-      <c r="E42">
+      <c r="E37" t="n">
         <v>1162.93994140625</v>
       </c>
-      <c r="F42">
+      <c r="F37" t="n">
         <v>33445700</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
+    <row r="38">
+      <c r="A38" t="n">
         <v>1173.599975585938</v>
       </c>
-      <c r="B43">
+      <c r="B38" t="n">
         <v>1174.5</v>
       </c>
-      <c r="C43">
+      <c r="C38" t="n">
         <v>1011.52001953125</v>
       </c>
-      <c r="D43">
+      <c r="D38" t="n">
         <v>1023.5</v>
       </c>
-      <c r="E43">
+      <c r="E38" t="n">
         <v>1023.5</v>
       </c>
-      <c r="F43">
+      <c r="F38" t="n">
         <v>59105800</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
+    <row r="39">
+      <c r="A39" t="n">
         <v>1010.409973144531</v>
       </c>
-      <c r="B44">
+      <c r="B39" t="n">
         <v>1078.099975585938</v>
       </c>
-      <c r="C44">
+      <c r="C39" t="n">
         <v>987.3099975585938</v>
       </c>
-      <c r="D44">
+      <c r="D39" t="n">
         <v>1067.949951171875</v>
       </c>
-      <c r="E44">
+      <c r="E39" t="n">
         <v>1067.949951171875</v>
       </c>
-      <c r="F44">
+      <c r="F39" t="n">
         <v>42802700</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
+    <row r="40">
+      <c r="A40" t="n">
         <v>1102.77001953125</v>
       </c>
-      <c r="B45">
+      <c r="B40" t="n">
         <v>1104.969970703125</v>
       </c>
-      <c r="C45">
+      <c r="C40" t="n">
         <v>1054.680053710938</v>
       </c>
-      <c r="D45">
+      <c r="D40" t="n">
         <v>1063.510009765625</v>
       </c>
-      <c r="E45">
+      <c r="E40" t="n">
         <v>1063.510009765625</v>
       </c>
-      <c r="F45">
+      <c r="F40" t="n">
         <v>22396600</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
+    <row r="41">
+      <c r="A41" t="n">
         <v>1047.5</v>
       </c>
-      <c r="B46">
+      <c r="B41" t="n">
         <v>1054.5</v>
       </c>
-      <c r="C46">
+      <c r="C41" t="n">
         <v>1019.200012207031</v>
       </c>
-      <c r="D46">
+      <c r="D41" t="n">
         <v>1033.420043945312</v>
       </c>
-      <c r="E46">
+      <c r="E41" t="n">
         <v>1033.420043945312</v>
       </c>
-      <c r="F46">
+      <c r="F41" t="n">
         <v>25182300</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
+    <row r="42">
+      <c r="A42" t="n">
         <v>1017.630004882812</v>
       </c>
-      <c r="B47">
+      <c r="B42" t="n">
         <v>1031.97998046875</v>
       </c>
-      <c r="C47">
+      <c r="C42" t="n">
         <v>978.5999755859375</v>
       </c>
-      <c r="D47">
+      <c r="D42" t="n">
         <v>1013.390014648438</v>
       </c>
-      <c r="E47">
+      <c r="E42" t="n">
         <v>1013.390014648438</v>
       </c>
-      <c r="F47">
+      <c r="F42" t="n">
         <v>34775600</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
+    <row r="43">
+      <c r="A43" t="n">
         <v>1003.309997558594</v>
       </c>
-      <c r="B48">
+      <c r="B43" t="n">
         <v>1057.199951171875</v>
       </c>
-      <c r="C48">
+      <c r="C43" t="n">
         <v>1002.179992675781</v>
       </c>
-      <c r="D48">
+      <c r="D43" t="n">
         <v>1054.72998046875</v>
       </c>
-      <c r="E48">
+      <c r="E43" t="n">
         <v>1054.72998046875</v>
       </c>
-      <c r="F48">
+      <c r="F43" t="n">
         <v>26542400</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
+    <row r="44">
+      <c r="A44" t="n">
         <v>1063.510009765625</v>
       </c>
-      <c r="B49">
+      <c r="B44" t="n">
         <v>1119.640014648438</v>
       </c>
-      <c r="C49">
+      <c r="C44" t="n">
         <v>1055.5</v>
       </c>
-      <c r="D49">
+      <c r="D44" t="n">
         <v>1089.010009765625</v>
       </c>
-      <c r="E49">
+      <c r="E44" t="n">
         <v>1089.010009765625</v>
       </c>
-      <c r="F49">
+      <c r="F44" t="n">
         <v>31445400</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
+    <row r="45">
+      <c r="A45" t="n">
         <v>1106.550048828125</v>
       </c>
-      <c r="B50">
+      <c r="B45" t="n">
         <v>1112</v>
       </c>
-      <c r="C50">
+      <c r="C45" t="n">
         <v>1075.02001953125</v>
       </c>
-      <c r="D50">
+      <c r="D45" t="n">
         <v>1096.380004882812</v>
       </c>
-      <c r="E50">
+      <c r="E45" t="n">
         <v>1096.380004882812</v>
       </c>
-      <c r="F50">
+      <c r="F45" t="n">
         <v>20898900</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
+    <row r="46">
+      <c r="A46" t="n">
         <v>1098.869995117188</v>
       </c>
-      <c r="B51">
+      <c r="B46" t="n">
         <v>1138.719970703125</v>
       </c>
-      <c r="C51">
+      <c r="C46" t="n">
         <v>1092.699951171875</v>
       </c>
-      <c r="D51">
+      <c r="D46" t="n">
         <v>1137.06005859375</v>
       </c>
-      <c r="E51">
+      <c r="E46" t="n">
         <v>1137.06005859375</v>
       </c>
-      <c r="F51">
+      <c r="F46" t="n">
         <v>21642300</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
+    <row r="47">
+      <c r="A47" t="n">
         <v>1162.329956054688</v>
       </c>
-      <c r="B52">
+      <c r="B47" t="n">
         <v>1201.949951171875</v>
       </c>
-      <c r="C52">
+      <c r="C47" t="n">
         <v>1132.430053710938</v>
       </c>
-      <c r="D52">
+      <c r="D47" t="n">
         <v>1156.869995117188</v>
       </c>
-      <c r="E52">
+      <c r="E47" t="n">
         <v>1156.869995117188</v>
       </c>
-      <c r="F52">
+      <c r="F47" t="n">
         <v>33072500</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
+    <row r="48">
+      <c r="A48" t="n">
         <v>1167.510009765625</v>
       </c>
-      <c r="B53">
+      <c r="B48" t="n">
         <v>1180.5</v>
       </c>
-      <c r="C53">
+      <c r="C48" t="n">
         <v>1062.699951171875</v>
       </c>
-      <c r="D53">
+      <c r="D48" t="n">
         <v>1109.030029296875</v>
       </c>
-      <c r="E53">
+      <c r="E48" t="n">
         <v>1109.030029296875</v>
       </c>
-      <c r="F53">
+      <c r="F48" t="n">
         <v>36171700</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
+    <row r="49">
+      <c r="A49" t="n">
         <v>1080.390014648438</v>
       </c>
-      <c r="B54">
+      <c r="B49" t="n">
         <v>1132.77001953125</v>
       </c>
-      <c r="C54">
+      <c r="C49" t="n">
         <v>1062</v>
       </c>
-      <c r="D54">
+      <c r="D49" t="n">
         <v>1116</v>
       </c>
-      <c r="E54">
+      <c r="E49" t="n">
         <v>1116</v>
       </c>
-      <c r="F54">
+      <c r="F49" t="n">
         <v>22560200</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
+    <row r="50">
+      <c r="A50" t="n">
         <v>1099.469970703125</v>
       </c>
-      <c r="B55">
+      <c r="B50" t="n">
         <v>1108.780029296875</v>
       </c>
-      <c r="C55">
+      <c r="C50" t="n">
         <v>1081</v>
       </c>
-      <c r="D55">
+      <c r="D50" t="n">
         <v>1081.920043945312</v>
       </c>
-      <c r="E55">
+      <c r="E50" t="n">
         <v>1081.920043945312</v>
       </c>
-      <c r="F55">
+      <c r="F50" t="n">
         <v>11680900</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
+    <row r="51">
+      <c r="A51" t="n">
         <v>1100.989990234375</v>
       </c>
-      <c r="B56">
+      <c r="B51" t="n">
         <v>1142.670043945312</v>
       </c>
-      <c r="C56">
+      <c r="C51" t="n">
         <v>1100.18994140625</v>
       </c>
-      <c r="D56">
+      <c r="D51" t="n">
         <v>1136.989990234375</v>
       </c>
-      <c r="E56">
+      <c r="E51" t="n">
         <v>1136.989990234375</v>
       </c>
-      <c r="F56">
+      <c r="F51" t="n">
         <v>19464500</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
+    <row r="52">
+      <c r="A52" t="n">
         <v>1144.369995117188</v>
       </c>
-      <c r="B57">
+      <c r="B52" t="n">
         <v>1168</v>
       </c>
-      <c r="C57">
+      <c r="C52" t="n">
         <v>1118</v>
       </c>
-      <c r="D57">
+      <c r="D52" t="n">
         <v>1144.760009765625</v>
       </c>
-      <c r="E57">
+      <c r="E52" t="n">
         <v>1144.760009765625</v>
       </c>
-      <c r="F57">
+      <c r="F52" t="n">
         <v>27092000</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
+    <row r="53">
+      <c r="A53" t="n">
         <v>1160.699951171875</v>
       </c>
-      <c r="B58">
+      <c r="B53" t="n">
         <v>1172.839965820312</v>
       </c>
-      <c r="C58">
+      <c r="C53" t="n">
         <v>1090.760009765625</v>
       </c>
-      <c r="D58">
+      <c r="D53" t="n">
         <v>1095</v>
       </c>
-      <c r="E58">
+      <c r="E53" t="n">
         <v>1095</v>
       </c>
-      <c r="F58">
+      <c r="F53" t="n">
         <v>22816800</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
+    <row r="54">
+      <c r="A54" t="n">
         <v>1099.06005859375</v>
       </c>
-      <c r="B59">
+      <c r="B54" t="n">
         <v>1113</v>
       </c>
-      <c r="C59">
+      <c r="C54" t="n">
         <v>1056.650024414062</v>
       </c>
-      <c r="D59">
+      <c r="D54" t="n">
         <v>1084.599975585938</v>
       </c>
-      <c r="E59">
+      <c r="E54" t="n">
         <v>1084.599975585938</v>
       </c>
-      <c r="F59">
+      <c r="F54" t="n">
         <v>24371600</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
+    <row r="55">
+      <c r="A55" t="n">
         <v>1084.7900390625</v>
       </c>
-      <c r="B60">
+      <c r="B55" t="n">
         <v>1090.579956054688</v>
       </c>
-      <c r="C60">
+      <c r="C55" t="n">
         <v>1000.210021972656</v>
       </c>
-      <c r="D60">
+      <c r="D55" t="n">
         <v>1014.969970703125</v>
       </c>
-      <c r="E60">
+      <c r="E55" t="n">
         <v>1014.969970703125</v>
       </c>
-      <c r="F60">
+      <c r="F55" t="n">
         <v>30696300</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
+    <row r="56">
+      <c r="A56" t="n">
         <v>1001.510009765625</v>
       </c>
-      <c r="B61">
+      <c r="B56" t="n">
         <v>1021.640014648438</v>
       </c>
-      <c r="C61">
+      <c r="C56" t="n">
         <v>950.5</v>
       </c>
-      <c r="D61">
+      <c r="D56" t="n">
         <v>1009.010009765625</v>
       </c>
-      <c r="E61">
+      <c r="E56" t="n">
         <v>1009.010009765625</v>
       </c>
-      <c r="F61">
+      <c r="F56" t="n">
         <v>27221000</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
+    <row r="57">
+      <c r="A57" t="n">
         <v>1044.199951171875</v>
       </c>
-      <c r="B62">
+      <c r="B57" t="n">
         <v>1057.670043945312</v>
       </c>
-      <c r="C62">
+      <c r="C57" t="n">
         <v>1026.81005859375</v>
       </c>
-      <c r="D62">
+      <c r="D57" t="n">
         <v>1051.75</v>
       </c>
-      <c r="E62">
+      <c r="E57" t="n">
         <v>1051.75</v>
       </c>
-      <c r="F62">
+      <c r="F57" t="n">
         <v>18694900</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
+    <row r="58">
+      <c r="A58" t="n">
         <v>1052.7099609375</v>
       </c>
-      <c r="B63">
+      <c r="B58" t="n">
         <v>1072.380004882812</v>
       </c>
-      <c r="C63">
+      <c r="C58" t="n">
         <v>1033</v>
       </c>
-      <c r="D63">
+      <c r="D58" t="n">
         <v>1068.9599609375</v>
       </c>
-      <c r="E63">
+      <c r="E58" t="n">
         <v>1068.9599609375</v>
       </c>
-      <c r="F63">
+      <c r="F58" t="n">
         <v>13968800</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
+    <row r="59">
+      <c r="A59" t="n">
         <v>1060.640014648438</v>
       </c>
-      <c r="B64">
+      <c r="B59" t="n">
         <v>1062.489990234375</v>
       </c>
-      <c r="C64">
+      <c r="C59" t="n">
         <v>1002.359985351562</v>
       </c>
-      <c r="D64">
+      <c r="D59" t="n">
         <v>1003.799987792969</v>
       </c>
-      <c r="E64">
+      <c r="E59" t="n">
         <v>1003.799987792969</v>
       </c>
-      <c r="F64">
+      <c r="F59" t="n">
         <v>19812800</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
+    <row r="60">
+      <c r="A60" t="n">
         <v>1008.75</v>
       </c>
-      <c r="B65">
+      <c r="B60" t="n">
         <v>1020.97998046875</v>
       </c>
-      <c r="C65">
+      <c r="C60" t="n">
         <v>982.530029296875</v>
       </c>
-      <c r="D65">
+      <c r="D60" t="n">
         <v>1017.030029296875</v>
       </c>
-      <c r="E65">
+      <c r="E60" t="n">
         <v>1017.030029296875</v>
       </c>
-      <c r="F65">
+      <c r="F60" t="n">
         <v>19855000</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
+    <row r="61">
+      <c r="A61" t="n">
         <v>1001.090026855469</v>
       </c>
-      <c r="B66">
+      <c r="B61" t="n">
         <v>1005</v>
       </c>
-      <c r="C66">
+      <c r="C61" t="n">
         <v>951.4199829101562</v>
       </c>
-      <c r="D66">
+      <c r="D61" t="n">
         <v>966.4099731445312</v>
       </c>
-      <c r="E66">
+      <c r="E61" t="n">
         <v>966.4099731445312</v>
       </c>
-      <c r="F66">
+      <c r="F61" t="n">
         <v>26198500</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
+    <row r="62">
+      <c r="A62" t="n">
         <v>945</v>
       </c>
-      <c r="B67">
+      <c r="B62" t="n">
         <v>966.4099731445312</v>
       </c>
-      <c r="C67">
+      <c r="C62" t="n">
         <v>930</v>
       </c>
-      <c r="D67">
+      <c r="D62" t="n">
         <v>958.510009765625</v>
       </c>
-      <c r="E67">
+      <c r="E62" t="n">
         <v>958.510009765625</v>
       </c>
-      <c r="F67">
+      <c r="F62" t="n">
         <v>23602100</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
+    <row r="63">
+      <c r="A63" t="n">
         <v>953.2100219726562</v>
       </c>
-      <c r="B68">
+      <c r="B63" t="n">
         <v>978.75</v>
       </c>
-      <c r="C68">
+      <c r="C63" t="n">
         <v>928.25</v>
       </c>
-      <c r="D68">
+      <c r="D63" t="n">
         <v>975.989990234375</v>
       </c>
-      <c r="E68">
+      <c r="E63" t="n">
         <v>975.989990234375</v>
       </c>
-      <c r="F68">
+      <c r="F63" t="n">
         <v>25056400</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
+    <row r="64">
+      <c r="A64" t="n">
         <v>994.5</v>
       </c>
-      <c r="B69">
+      <c r="B64" t="n">
         <v>994.97998046875</v>
       </c>
-      <c r="C69">
+      <c r="C64" t="n">
         <v>921.8499755859375</v>
       </c>
-      <c r="D69">
+      <c r="D64" t="n">
         <v>926.9199829101562</v>
       </c>
-      <c r="E69">
+      <c r="E64" t="n">
         <v>926.9199829101562</v>
       </c>
-      <c r="F69">
+      <c r="F64" t="n">
         <v>27590500</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
+    <row r="65">
+      <c r="A65" t="n">
         <v>914.77001953125</v>
       </c>
-      <c r="B70">
+      <c r="B65" t="n">
         <v>960.6599731445312</v>
       </c>
-      <c r="C70">
+      <c r="C65" t="n">
         <v>909.0399780273438</v>
       </c>
-      <c r="D70">
+      <c r="D65" t="n">
         <v>932.5700073242188</v>
       </c>
-      <c r="E70">
+      <c r="E65" t="n">
         <v>932.5700073242188</v>
       </c>
-      <c r="F70">
+      <c r="F65" t="n">
         <v>33479100</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
+    <row r="66">
+      <c r="A66" t="n">
         <v>910.7000122070312</v>
       </c>
-      <c r="B71">
+      <c r="B66" t="n">
         <v>921.6900024414062</v>
       </c>
-      <c r="C71">
+      <c r="C66" t="n">
         <v>893.3900146484375</v>
       </c>
-      <c r="D71">
+      <c r="D66" t="n">
         <v>899.9400024414062</v>
       </c>
-      <c r="E71">
+      <c r="E66" t="n">
         <v>899.9400024414062</v>
       </c>
-      <c r="F71">
+      <c r="F66" t="n">
         <v>18826700</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
+    <row r="67">
+      <c r="A67" t="n">
         <v>916.8699951171875</v>
       </c>
-      <c r="B72">
+      <c r="B67" t="n">
         <v>939.5</v>
       </c>
-      <c r="C72">
+      <c r="C67" t="n">
         <v>886.1199951171875</v>
       </c>
-      <c r="D72">
+      <c r="D67" t="n">
         <v>938.530029296875</v>
       </c>
-      <c r="E72">
+      <c r="E67" t="n">
         <v>938.530029296875</v>
       </c>
-      <c r="F72">
+      <c r="F67" t="n">
         <v>23839300</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
+    <row r="68">
+      <c r="A68" t="n">
         <v>965.6599731445312</v>
       </c>
-      <c r="B73">
+      <c r="B68" t="n">
         <v>1015.659973144531</v>
       </c>
-      <c r="C73">
+      <c r="C68" t="n">
         <v>957.0499877929688</v>
       </c>
-      <c r="D73">
+      <c r="D68" t="n">
         <v>1008.869995117188</v>
       </c>
-      <c r="E73">
+      <c r="E68" t="n">
         <v>1008.869995117188</v>
       </c>
-      <c r="F73">
+      <c r="F68" t="n">
         <v>31211400</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
+    <row r="69">
+      <c r="A69" t="n">
         <v>1006.799987792969</v>
       </c>
-      <c r="B74">
+      <c r="B69" t="n">
         <v>1072.97998046875</v>
       </c>
-      <c r="C74">
+      <c r="C69" t="n">
         <v>997.5599975585938</v>
       </c>
-      <c r="D74">
+      <c r="D69" t="n">
         <v>1067</v>
       </c>
-      <c r="E74">
+      <c r="E69" t="n">
         <v>1067</v>
       </c>
-      <c r="F74">
+      <c r="F69" t="n">
         <v>30904400</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
+    <row r="70">
+      <c r="A70" t="n">
         <v>1073.670043945312</v>
       </c>
-      <c r="B75">
+      <c r="B70" t="n">
         <v>1117</v>
       </c>
-      <c r="C75">
+      <c r="C70" t="n">
         <v>1070.719970703125</v>
       </c>
-      <c r="D75">
+      <c r="D70" t="n">
         <v>1093.93994140625</v>
       </c>
-      <c r="E75">
+      <c r="E70" t="n">
         <v>1093.93994140625</v>
       </c>
-      <c r="F75">
+      <c r="F70" t="n">
         <v>23715300</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
+    <row r="71">
+      <c r="A71" t="n">
         <v>1109.489990234375</v>
       </c>
-      <c r="B76">
+      <c r="B71" t="n">
         <v>1119</v>
       </c>
-      <c r="C76">
+      <c r="C71" t="n">
         <v>1078.420043945312</v>
       </c>
-      <c r="D76">
+      <c r="D71" t="n">
         <v>1088.469970703125</v>
       </c>
-      <c r="E76">
+      <c r="E71" t="n">
         <v>1088.469970703125</v>
       </c>
-      <c r="F76">
+      <c r="F71" t="n">
         <v>20108000</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
+    <row r="72">
+      <c r="A72" t="n">
         <v>1098.640014648438</v>
       </c>
-      <c r="B77">
+      <c r="B72" t="n">
         <v>1104</v>
       </c>
-      <c r="C77">
+      <c r="C72" t="n">
         <v>1064.140014648438</v>
       </c>
-      <c r="D77">
+      <c r="D72" t="n">
         <v>1086.18994140625</v>
       </c>
-      <c r="E77">
+      <c r="E72" t="n">
         <v>1086.18994140625</v>
       </c>
-      <c r="F77">
+      <c r="F72" t="n">
         <v>18718000</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
+    <row r="73">
+      <c r="A73" t="n">
         <v>1061.329956054688</v>
       </c>
-      <c r="B78">
+      <c r="B73" t="n">
         <v>1095.550048828125</v>
       </c>
-      <c r="C78">
+      <c r="C73" t="n">
         <v>1053.150024414062</v>
       </c>
-      <c r="D78">
+      <c r="D73" t="n">
         <v>1070.339965820312</v>
       </c>
-      <c r="E78">
+      <c r="E73" t="n">
         <v>1070.339965820312</v>
       </c>
-      <c r="F78">
+      <c r="F73" t="n">
         <v>15680300</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
+    <row r="74">
+      <c r="A74" t="n">
         <v>1073.43994140625</v>
       </c>
-      <c r="B79">
+      <c r="B74" t="n">
         <v>1082</v>
       </c>
-      <c r="C79">
+      <c r="C74" t="n">
         <v>1054.589965820312</v>
       </c>
-      <c r="D79">
+      <c r="D74" t="n">
         <v>1056.780029296875</v>
       </c>
-      <c r="E79">
+      <c r="E74" t="n">
         <v>1056.780029296875</v>
       </c>
-      <c r="F79">
+      <c r="F74" t="n">
         <v>13577900</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
+    <row r="75">
+      <c r="A75" t="n">
         <v>1147.75</v>
       </c>
-      <c r="B80">
+      <c r="B75" t="n">
         <v>1201.069946289062</v>
       </c>
-      <c r="C80">
+      <c r="C75" t="n">
         <v>1136.0400390625</v>
       </c>
-      <c r="D80">
+      <c r="D75" t="n">
         <v>1199.780029296875</v>
       </c>
-      <c r="E80">
+      <c r="E75" t="n">
         <v>1199.780029296875</v>
       </c>
-      <c r="F80">
+      <c r="F75" t="n">
         <v>34643800</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
+    <row r="76">
+      <c r="A76" t="n">
         <v>1189.550048828125</v>
       </c>
-      <c r="B81">
+      <c r="B76" t="n">
         <v>1208</v>
       </c>
-      <c r="C81">
+      <c r="C76" t="n">
         <v>1123.050048828125</v>
       </c>
-      <c r="D81">
+      <c r="D76" t="n">
         <v>1149.589965820312</v>
       </c>
-      <c r="E81">
+      <c r="E76" t="n">
         <v>1149.589965820312</v>
       </c>
-      <c r="F81">
+      <c r="F76" t="n">
         <v>33416100</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
+    <row r="77">
+      <c r="A77" t="n">
         <v>1146.650024414062</v>
       </c>
-      <c r="B82">
+      <c r="B77" t="n">
         <v>1170.339965820312</v>
       </c>
-      <c r="C82">
+      <c r="C77" t="n">
         <v>1081.010009765625</v>
       </c>
-      <c r="D82">
+      <c r="D77" t="n">
         <v>1088.119995117188</v>
       </c>
-      <c r="E82">
+      <c r="E77" t="n">
         <v>1088.119995117188</v>
       </c>
-      <c r="F82">
+      <c r="F77" t="n">
         <v>26706600</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
+    <row r="78">
+      <c r="A78" t="n">
         <v>1077</v>
       </c>
-      <c r="B83">
+      <c r="B78" t="n">
         <v>1088</v>
       </c>
-      <c r="C83">
+      <c r="C78" t="n">
         <v>1020.5</v>
       </c>
-      <c r="D83">
+      <c r="D78" t="n">
         <v>1064.699951171875</v>
       </c>
-      <c r="E83">
+      <c r="E78" t="n">
         <v>1064.699951171875</v>
       </c>
-      <c r="F83">
+      <c r="F78" t="n">
         <v>30112200</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
+    <row r="79">
+      <c r="A79" t="n">
         <v>1080.369995117188</v>
       </c>
-      <c r="B84">
+      <c r="B79" t="n">
         <v>1080.930053710938</v>
       </c>
-      <c r="C84">
+      <c r="C79" t="n">
         <v>1010</v>
       </c>
-      <c r="D84">
+      <c r="D79" t="n">
         <v>1026.9599609375</v>
       </c>
-      <c r="E84">
+      <c r="E79" t="n">
         <v>1026.9599609375</v>
       </c>
-      <c r="F84">
+      <c r="F79" t="n">
         <v>27919000</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
+    <row r="80">
+      <c r="A80" t="n">
         <v>1000</v>
       </c>
-      <c r="B85">
+      <c r="B80" t="n">
         <v>1059.099975585938</v>
       </c>
-      <c r="C85">
+      <c r="C80" t="n">
         <v>980</v>
       </c>
-      <c r="D85">
+      <c r="D80" t="n">
         <v>1058.119995117188</v>
       </c>
-      <c r="E85">
+      <c r="E80" t="n">
         <v>1058.119995117188</v>
       </c>
-      <c r="F85">
+      <c r="F80" t="n">
         <v>30605000</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
+    <row r="81">
+      <c r="A81" t="n">
         <v>1053.670043945312</v>
       </c>
-      <c r="B86">
+      <c r="B81" t="n">
         <v>1075.849975585938</v>
       </c>
-      <c r="C86">
+      <c r="C81" t="n">
         <v>1038.819946289062</v>
       </c>
-      <c r="D86">
+      <c r="D81" t="n">
         <v>1064.400024414062</v>
       </c>
-      <c r="E86">
+      <c r="E81" t="n">
         <v>1064.400024414062</v>
       </c>
-      <c r="F86">
+      <c r="F81" t="n">
         <v>22021100</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
+    <row r="82">
+      <c r="A82" t="n">
         <v>1078.849975585938</v>
       </c>
-      <c r="B87">
+      <c r="B82" t="n">
         <v>1114.839965820312</v>
       </c>
-      <c r="C87">
+      <c r="C82" t="n">
         <v>1072.589965820312</v>
       </c>
-      <c r="D87">
+      <c r="D82" t="n">
         <v>1106.219970703125</v>
       </c>
-      <c r="E87">
+      <c r="E82" t="n">
         <v>1106.219970703125</v>
       </c>
-      <c r="F87">
+      <c r="F82" t="n">
         <v>27913000</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
+    <row r="83">
+      <c r="A83" t="n">
         <v>1109.069946289062</v>
       </c>
-      <c r="B88">
+      <c r="B83" t="n">
         <v>1115.599975585938</v>
       </c>
-      <c r="C88">
+      <c r="C83" t="n">
         <v>1026.5400390625</v>
       </c>
-      <c r="D88">
+      <c r="D83" t="n">
         <v>1031.56005859375</v>
       </c>
-      <c r="E88">
+      <c r="E83" t="n">
         <v>1031.56005859375</v>
       </c>
-      <c r="F88">
+      <c r="F83" t="n">
         <v>32403300</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
+    <row r="84">
+      <c r="A84" t="n">
         <v>1019.880004882812</v>
       </c>
-      <c r="B89">
+      <c r="B84" t="n">
         <v>1052</v>
       </c>
-      <c r="C89">
+      <c r="C84" t="n">
         <v>1013.380004882812</v>
       </c>
-      <c r="D89">
+      <c r="D84" t="n">
         <v>1049.609985351562</v>
       </c>
-      <c r="E89">
+      <c r="E84" t="n">
         <v>1049.609985351562</v>
       </c>
-      <c r="F89">
+      <c r="F84" t="n">
         <v>24246600</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
+    <row r="85">
+      <c r="A85" t="n">
         <v>1026.609985351562</v>
       </c>
-      <c r="B90">
+      <c r="B85" t="n">
         <v>1070.7900390625</v>
       </c>
-      <c r="C90">
+      <c r="C85" t="n">
         <v>1016.059997558594</v>
       </c>
-      <c r="D90">
+      <c r="D85" t="n">
         <v>1030.510009765625</v>
       </c>
-      <c r="E90">
+      <c r="E85" t="n">
         <v>1030.510009765625</v>
       </c>
-      <c r="F90">
+      <c r="F85" t="n">
         <v>22247800</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
+    <row r="86">
+      <c r="A86" t="n">
         <v>1041.7099609375</v>
       </c>
-      <c r="B91">
+      <c r="B86" t="n">
         <v>1054.670043945312</v>
       </c>
-      <c r="C91">
+      <c r="C86" t="n">
         <v>995</v>
       </c>
-      <c r="D91">
+      <c r="D86" t="n">
         <v>995.6500244140625</v>
       </c>
-      <c r="E91">
+      <c r="E86" t="n">
         <v>995.6500244140625</v>
       </c>
-      <c r="F91">
+      <c r="F86" t="n">
         <v>25147500</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
+    <row r="87">
+      <c r="A87" t="n">
         <v>1009.72998046875</v>
       </c>
-      <c r="B92">
+      <c r="B87" t="n">
         <v>1041.660034179688</v>
       </c>
-      <c r="C92">
+      <c r="C87" t="n">
         <v>994</v>
       </c>
-      <c r="D92">
+      <c r="D87" t="n">
         <v>996.27001953125</v>
       </c>
-      <c r="E92">
+      <c r="E87" t="n">
         <v>996.27001953125</v>
       </c>
-      <c r="F92">
+      <c r="F87" t="n">
         <v>23496200</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
+    <row r="88">
+      <c r="A88" t="n">
         <v>996.3400268554688</v>
       </c>
-      <c r="B93">
+      <c r="B88" t="n">
         <v>1004.549987792969</v>
       </c>
-      <c r="C93">
+      <c r="C88" t="n">
         <v>940.5</v>
       </c>
-      <c r="D93">
+      <c r="D88" t="n">
         <v>943.9000244140625</v>
       </c>
-      <c r="E93">
+      <c r="E88" t="n">
         <v>943.9000244140625</v>
       </c>
-      <c r="F93">
+      <c r="F88" t="n">
         <v>34472000</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
+    <row r="89">
+      <c r="A89" t="n">
         <v>904.760009765625</v>
       </c>
-      <c r="B94">
+      <c r="B89" t="n">
         <v>933.510009765625</v>
       </c>
-      <c r="C94">
+      <c r="C89" t="n">
         <v>851.469970703125</v>
       </c>
-      <c r="D94">
+      <c r="D89" t="n">
         <v>930</v>
       </c>
-      <c r="E94">
+      <c r="E89" t="n">
         <v>930</v>
       </c>
-      <c r="F94">
+      <c r="F89" t="n">
         <v>50521900</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
+    <row r="90">
+      <c r="A90" t="n">
         <v>914.2000122070312</v>
       </c>
-      <c r="B95">
+      <c r="B90" t="n">
         <v>951.260009765625</v>
       </c>
-      <c r="C95">
+      <c r="C90" t="n">
         <v>903.2100219726562</v>
       </c>
-      <c r="D95">
+      <c r="D90" t="n">
         <v>918.4000244140625</v>
       </c>
-      <c r="E95">
+      <c r="E90" t="n">
         <v>918.4000244140625</v>
       </c>
-      <c r="F95">
+      <c r="F90" t="n">
         <v>28865300</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
+    <row r="91">
+      <c r="A91" t="n">
         <v>952.4299926757812</v>
       </c>
-      <c r="B96">
+      <c r="B91" t="n">
         <v>987.6900024414062</v>
       </c>
-      <c r="C96">
+      <c r="C91" t="n">
         <v>906</v>
       </c>
-      <c r="D96">
+      <c r="D91" t="n">
         <v>937.4099731445312</v>
       </c>
-      <c r="E96">
+      <c r="E91" t="n">
         <v>937.4099731445312</v>
       </c>
-      <c r="F96">
+      <c r="F91" t="n">
         <v>34955800</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
+    <row r="92">
+      <c r="A92" t="n">
         <v>933.3599853515625</v>
       </c>
-      <c r="B97">
+      <c r="B92" t="n">
         <v>935.3900146484375</v>
       </c>
-      <c r="C97">
+      <c r="C92" t="n">
         <v>829</v>
       </c>
-      <c r="D97">
+      <c r="D92" t="n">
         <v>829.0999755859375</v>
       </c>
-      <c r="E97">
+      <c r="E92" t="n">
         <v>829.0999755859375</v>
       </c>
-      <c r="F97">
+      <c r="F92" t="n">
         <v>49036500</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
+    <row r="93">
+      <c r="A93" t="n">
         <v>831.5599975585938</v>
       </c>
-      <c r="B98">
+      <c r="B93" t="n">
         <v>857.5</v>
       </c>
-      <c r="C98">
+      <c r="C93" t="n">
         <v>792.010009765625</v>
       </c>
-      <c r="D98">
+      <c r="D93" t="n">
         <v>846.3499755859375</v>
       </c>
-      <c r="E98">
+      <c r="E93" t="n">
         <v>846.3499755859375</v>
       </c>
-      <c r="F98">
+      <c r="F93" t="n">
         <v>44929700</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
+    <row r="94">
+      <c r="A94" t="n">
         <v>872.7100219726562</v>
       </c>
-      <c r="B99">
+      <c r="B94" t="n">
         <v>937.989990234375</v>
       </c>
-      <c r="C99">
+      <c r="C94" t="n">
         <v>862.0499877929688</v>
       </c>
-      <c r="D99">
+      <c r="D94" t="n">
         <v>936.719970703125</v>
       </c>
-      <c r="E99">
+      <c r="E94" t="n">
         <v>936.719970703125</v>
       </c>
-      <c r="F99">
+      <c r="F94" t="n">
         <v>34812000</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
+    <row r="95">
+      <c r="A95" t="n">
         <v>935.2100219726562</v>
       </c>
-      <c r="B100">
+      <c r="B95" t="n">
         <v>943.7000122070312</v>
       </c>
-      <c r="C100">
+      <c r="C95" t="n">
         <v>905</v>
       </c>
-      <c r="D100">
+      <c r="D95" t="n">
         <v>931.25</v>
       </c>
-      <c r="E100">
+      <c r="E95" t="n">
         <v>931.25</v>
       </c>
-      <c r="F100">
+      <c r="F95" t="n">
         <v>24379400</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
+    <row r="96">
+      <c r="A96" t="n">
         <v>928.1799926757812</v>
       </c>
-      <c r="B101">
+      <c r="B96" t="n">
         <v>931.5</v>
       </c>
-      <c r="C101">
+      <c r="C96" t="n">
         <v>889.4099731445312</v>
       </c>
-      <c r="D101">
+      <c r="D96" t="n">
         <v>905.6599731445312</v>
       </c>
-      <c r="E101">
+      <c r="E96" t="n">
         <v>905.6599731445312</v>
       </c>
-      <c r="F101">
+      <c r="F96" t="n">
         <v>22264300</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
+    <row r="97">
+      <c r="A97" t="n">
         <v>882</v>
       </c>
-      <c r="B102">
+      <c r="B97" t="n">
         <v>937</v>
       </c>
-      <c r="C102">
+      <c r="C97" t="n">
         <v>880.52001953125</v>
       </c>
-      <c r="D102">
+      <c r="D97" t="n">
         <v>891.1400146484375</v>
       </c>
-      <c r="E102">
+      <c r="E97" t="n">
         <v>891.1400146484375</v>
       </c>
-      <c r="F102">
+      <c r="F97" t="n">
         <v>26285200</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
+    <row r="98">
+      <c r="A98" t="n">
         <v>897.219970703125</v>
       </c>
-      <c r="B103">
+      <c r="B98" t="n">
         <v>936.5</v>
       </c>
-      <c r="C103">
+      <c r="C98" t="n">
         <v>881.1699829101562</v>
       </c>
-      <c r="D103">
+      <c r="D98" t="n">
         <v>923.3200073242188</v>
       </c>
-      <c r="E103">
+      <c r="E98" t="n">
         <v>923.3200073242188</v>
       </c>
-      <c r="F103">
+      <c r="F98" t="n">
         <v>24472600</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
+    <row r="99">
+      <c r="A99" t="n">
         <v>923.7899780273438</v>
       </c>
-      <c r="B104">
+      <c r="B99" t="n">
         <v>947.77001953125</v>
       </c>
-      <c r="C104">
+      <c r="C99" t="n">
         <v>902.7100219726562</v>
       </c>
-      <c r="D104">
+      <c r="D99" t="n">
         <v>907.3400268554688</v>
       </c>
-      <c r="E104">
+      <c r="E99" t="n">
         <v>907.3400268554688</v>
       </c>
-      <c r="F104">
+      <c r="F99" t="n">
         <v>20331500</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
+    <row r="100">
+      <c r="A100" t="n">
         <v>905.530029296875</v>
       </c>
-      <c r="B105">
+      <c r="B100" t="n">
         <v>926.2899780273438</v>
       </c>
-      <c r="C105">
+      <c r="C100" t="n">
         <v>894.7999877929688</v>
       </c>
-      <c r="D105">
+      <c r="D100" t="n">
         <v>922</v>
       </c>
-      <c r="E105">
+      <c r="E100" t="n">
         <v>922</v>
       </c>
-      <c r="F105">
+      <c r="F100" t="n">
         <v>16909700</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
+    <row r="101">
+      <c r="A101" t="n">
         <v>935</v>
       </c>
-      <c r="B106">
+      <c r="B101" t="n">
         <v>946.27001953125</v>
       </c>
-      <c r="C106">
+      <c r="C101" t="n">
         <v>920</v>
       </c>
-      <c r="D106">
+      <c r="D101" t="n">
         <v>932</v>
       </c>
-      <c r="E106">
+      <c r="E101" t="n">
         <v>932</v>
       </c>
-      <c r="F106">
+      <c r="F101" t="n">
         <v>17419800</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
+    <row r="102">
+      <c r="A102" t="n">
         <v>908.3699951171875</v>
       </c>
-      <c r="B107">
+      <c r="B102" t="n">
         <v>943.8099975585938</v>
       </c>
-      <c r="C107">
+      <c r="C102" t="n">
         <v>896.7000122070312</v>
       </c>
-      <c r="D107">
+      <c r="D102" t="n">
         <v>904.5499877929688</v>
       </c>
-      <c r="E107">
+      <c r="E102" t="n">
         <v>904.5499877929688</v>
       </c>
-      <c r="F107">
+      <c r="F102" t="n">
         <v>22042300</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
+    <row r="103">
+      <c r="A103" t="n">
         <v>909.6300048828125</v>
       </c>
-      <c r="B108">
+      <c r="B103" t="n">
         <v>915.9600219726562</v>
       </c>
-      <c r="C108">
+      <c r="C103" t="n">
         <v>850.7000122070312</v>
       </c>
-      <c r="D108">
+      <c r="D103" t="n">
         <v>860</v>
       </c>
-      <c r="E108">
+      <c r="E103" t="n">
         <v>860</v>
       </c>
-      <c r="F108">
+      <c r="F103" t="n">
         <v>26492700</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
+    <row r="104">
+      <c r="A104" t="n">
         <v>861.5700073242188</v>
       </c>
-      <c r="B109">
+      <c r="B104" t="n">
         <v>898.8800048828125</v>
       </c>
-      <c r="C109">
+      <c r="C104" t="n">
         <v>853.1500244140625</v>
       </c>
-      <c r="D109">
+      <c r="D104" t="n">
         <v>875.760009765625</v>
       </c>
-      <c r="E109">
+      <c r="E104" t="n">
         <v>875.760009765625</v>
       </c>
-      <c r="F109">
+      <c r="F104" t="n">
         <v>22585500</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
+    <row r="105">
+      <c r="A105" t="n">
         <v>900</v>
       </c>
-      <c r="B110">
+      <c r="B105" t="n">
         <v>923</v>
       </c>
-      <c r="C110">
+      <c r="C105" t="n">
         <v>893.3800048828125</v>
       </c>
-      <c r="D110">
+      <c r="D105" t="n">
         <v>922.4299926757812</v>
       </c>
-      <c r="E110">
+      <c r="E105" t="n">
         <v>922.4299926757812</v>
       </c>
-      <c r="F110">
+      <c r="F105" t="n">
         <v>19095400</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
+    <row r="106">
+      <c r="A106" t="n">
         <v>914.0499877929688</v>
       </c>
-      <c r="B111">
+      <c r="B106" t="n">
         <v>926.4299926757812</v>
       </c>
-      <c r="C111">
+      <c r="C106" t="n">
         <v>901.2100219726562</v>
       </c>
-      <c r="D111">
+      <c r="D106" t="n">
         <v>923.3900146484375</v>
       </c>
-      <c r="E111">
+      <c r="E106" t="n">
         <v>923.3900146484375</v>
       </c>
-      <c r="F111">
+      <c r="F106" t="n">
         <v>17098100</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
+    <row r="107">
+      <c r="A107" t="n">
         <v>913.260009765625</v>
       </c>
-      <c r="B112">
+      <c r="B107" t="n">
         <v>918.5</v>
       </c>
-      <c r="C112">
+      <c r="C107" t="n">
         <v>874.0999755859375</v>
       </c>
-      <c r="D112">
+      <c r="D107" t="n">
         <v>876.3499755859375</v>
       </c>
-      <c r="E112">
+      <c r="E107" t="n">
         <v>876.3499755859375</v>
       </c>
-      <c r="F112">
+      <c r="F107" t="n">
         <v>18392800</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
+    <row r="108">
+      <c r="A108" t="n">
         <v>886</v>
       </c>
-      <c r="B113">
+      <c r="B108" t="n">
         <v>886.8699951171875</v>
       </c>
-      <c r="C113">
+      <c r="C108" t="n">
         <v>837.6099853515625</v>
       </c>
-      <c r="D113">
+      <c r="D108" t="n">
         <v>856.97998046875</v>
       </c>
-      <c r="E113">
+      <c r="E108" t="n">
         <v>856.97998046875</v>
       </c>
-      <c r="F113">
+      <c r="F108" t="n">
         <v>22833900</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
+    <row r="109">
+      <c r="A109" t="n">
         <v>834.1300048828125</v>
       </c>
-      <c r="B114">
+      <c r="B109" t="n">
         <v>856.72998046875</v>
       </c>
-      <c r="C114">
+      <c r="C109" t="n">
         <v>801.0999755859375</v>
       </c>
-      <c r="D114">
+      <c r="D109" t="n">
         <v>821.530029296875</v>
       </c>
-      <c r="E114">
+      <c r="E109" t="n">
         <v>821.530029296875</v>
       </c>
-      <c r="F114">
+      <c r="F109" t="n">
         <v>27762700</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
+    <row r="110">
+      <c r="A110" t="n">
         <v>830.4299926757812</v>
       </c>
-      <c r="B115">
+      <c r="B110" t="n">
         <v>835.2999877929688</v>
       </c>
-      <c r="C115">
+      <c r="C110" t="n">
         <v>760.5599975585938</v>
       </c>
-      <c r="D115">
+      <c r="D110" t="n">
         <v>764.0399780273438</v>
       </c>
-      <c r="E115">
+      <c r="E110" t="n">
         <v>764.0399780273438</v>
       </c>
-      <c r="F115">
+      <c r="F110" t="n">
         <v>31752300</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
+    <row r="111">
+      <c r="A111" t="n">
         <v>700.3900146484375</v>
       </c>
-      <c r="B116">
+      <c r="B111" t="n">
         <v>802.47998046875</v>
       </c>
-      <c r="C116">
+      <c r="C111" t="n">
         <v>700</v>
       </c>
-      <c r="D116">
+      <c r="D111" t="n">
         <v>800.77001953125</v>
       </c>
-      <c r="E116">
+      <c r="E111" t="n">
         <v>800.77001953125</v>
       </c>
-      <c r="F116">
+      <c r="F111" t="n">
         <v>45107400</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
+    <row r="112">
+      <c r="A112" t="n">
         <v>809.22998046875</v>
       </c>
-      <c r="B117">
+      <c r="B112" t="n">
         <v>819.5</v>
       </c>
-      <c r="C117">
+      <c r="C112" t="n">
         <v>782.4000244140625</v>
       </c>
-      <c r="D117">
+      <c r="D112" t="n">
         <v>809.8699951171875</v>
       </c>
-      <c r="E117">
+      <c r="E112" t="n">
         <v>809.8699951171875</v>
       </c>
-      <c r="F117">
+      <c r="F112" t="n">
         <v>25355900</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
+    <row r="113">
+      <c r="A113" t="n">
         <v>815.010009765625</v>
       </c>
-      <c r="B118">
+      <c r="B113" t="n">
         <v>876.8599853515625</v>
       </c>
-      <c r="C118">
+      <c r="C113" t="n">
         <v>814.7100219726562</v>
       </c>
-      <c r="D118">
+      <c r="D113" t="n">
         <v>870.4299926757812</v>
       </c>
-      <c r="E118">
+      <c r="E113" t="n">
         <v>870.4299926757812</v>
       </c>
-      <c r="F118">
+      <c r="F113" t="n">
         <v>33002300</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
+    <row r="114">
+      <c r="A114" t="n">
         <v>869.6799926757812</v>
       </c>
-      <c r="B119">
+      <c r="B114" t="n">
         <v>889.8800048828125</v>
       </c>
-      <c r="C119">
+      <c r="C114" t="n">
         <v>853.780029296875</v>
       </c>
-      <c r="D119">
+      <c r="D114" t="n">
         <v>864.3699951171875</v>
       </c>
-      <c r="E119">
+      <c r="E114" t="n">
         <v>864.3699951171875</v>
       </c>
-      <c r="F119">
+      <c r="F114" t="n">
         <v>24922300</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
+    <row r="115">
+      <c r="A115" t="n">
         <v>872.1300048828125</v>
       </c>
-      <c r="B120">
+      <c r="B115" t="n">
         <v>886.47998046875</v>
       </c>
-      <c r="C120">
+      <c r="C115" t="n">
         <v>844.27001953125</v>
       </c>
-      <c r="D120">
+      <c r="D115" t="n">
         <v>879.8900146484375</v>
       </c>
-      <c r="E120">
+      <c r="E115" t="n">
         <v>879.8900146484375</v>
       </c>
-      <c r="F120">
+      <c r="F115" t="n">
         <v>24881100</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
+    <row r="116">
+      <c r="A116" t="n">
         <v>878.77001953125</v>
       </c>
-      <c r="B121">
+      <c r="B116" t="n">
         <v>886.4400024414062</v>
       </c>
-      <c r="C121">
+      <c r="C116" t="n">
         <v>832.5999755859375</v>
       </c>
-      <c r="D121">
+      <c r="D116" t="n">
         <v>839.2899780273438</v>
       </c>
-      <c r="E121">
+      <c r="E116" t="n">
         <v>839.2899780273438</v>
       </c>
-      <c r="F121">
+      <c r="F116" t="n">
         <v>20541200</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
+    <row r="117">
+      <c r="A117" t="n">
         <v>849.0999755859375</v>
       </c>
-      <c r="B122">
+      <c r="B117" t="n">
         <v>855.6500244140625</v>
       </c>
-      <c r="C122">
+      <c r="C117" t="n">
         <v>825.1599731445312</v>
       </c>
-      <c r="D122">
+      <c r="D117" t="n">
         <v>838.2899780273438</v>
       </c>
-      <c r="E122">
+      <c r="E117" t="n">
         <v>838.2899780273438</v>
       </c>
-      <c r="F122">
+      <c r="F117" t="n">
         <v>22333200</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
+    <row r="118">
+      <c r="A118" t="n">
         <v>856.2999877929688</v>
       </c>
-      <c r="B123">
+      <c r="B118" t="n">
         <v>866.1400146484375</v>
       </c>
-      <c r="C123">
+      <c r="C118" t="n">
         <v>804.5700073242188</v>
       </c>
-      <c r="D123">
+      <c r="D118" t="n">
         <v>804.5800170898438</v>
       </c>
-      <c r="E123">
+      <c r="E118" t="n">
         <v>804.5800170898438</v>
       </c>
-      <c r="F123">
+      <c r="F118" t="n">
         <v>24164700</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
+    <row r="119">
+      <c r="A119" t="n">
         <v>795.530029296875</v>
       </c>
-      <c r="B124">
+      <c r="B119" t="n">
         <v>849.989990234375</v>
       </c>
-      <c r="C124">
+      <c r="C119" t="n">
         <v>782.1699829101562</v>
       </c>
-      <c r="D124">
+      <c r="D119" t="n">
         <v>824.4000244140625</v>
       </c>
-      <c r="E124">
+      <c r="E119" t="n">
         <v>824.4000244140625</v>
       </c>
-      <c r="F124">
+      <c r="F119" t="n">
         <v>26799700</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
+    <row r="120">
+      <c r="A120" t="n">
         <v>839.47998046875</v>
       </c>
-      <c r="B125">
+      <c r="B120" t="n">
         <v>860.5599975585938</v>
       </c>
-      <c r="C125">
+      <c r="C120" t="n">
         <v>832.010009765625</v>
       </c>
-      <c r="D125">
+      <c r="D120" t="n">
         <v>858.969970703125</v>
       </c>
-      <c r="E125">
+      <c r="E120" t="n">
         <v>858.969970703125</v>
       </c>
-      <c r="F125">
+      <c r="F120" t="n">
         <v>19728000</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
+    <row r="121">
+      <c r="A121" t="n">
         <v>851.4500122070312</v>
       </c>
-      <c r="B126">
+      <c r="B121" t="n">
         <v>854.4500122070312</v>
       </c>
-      <c r="C126">
+      <c r="C121" t="n">
         <v>810.3599853515625</v>
       </c>
-      <c r="D126">
+      <c r="D121" t="n">
         <v>838.2999877929688</v>
       </c>
-      <c r="E126">
+      <c r="E121" t="n">
         <v>838.2999877929688</v>
       </c>
-      <c r="F126">
+      <c r="F121" t="n">
         <v>19549500</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>840.197021484375</v>
-      </c>
-      <c r="B127">
-        <v>843.5499877929688</v>
-      </c>
-      <c r="C127">
+    <row r="122">
+      <c r="A122" t="n">
+        <v>840.2000122070312</v>
+      </c>
+      <c r="B122" t="n">
+        <v>843.7999877929688</v>
+      </c>
+      <c r="C122" t="n">
         <v>793.77001953125</v>
       </c>
-      <c r="D127">
+      <c r="D122" t="n">
         <v>795.3499755859375</v>
       </c>
-      <c r="E127">
+      <c r="E122" t="n">
         <v>795.3499755859375</v>
       </c>
-      <c r="F127">
-        <v>22345722</v>
+      <c r="F122" t="n">
+        <v>22272800</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>780.6099853515625</v>
+      </c>
+      <c r="B123" t="n">
+        <v>800.7000122070312</v>
+      </c>
+      <c r="C123" t="n">
+        <v>756.0399780273438</v>
+      </c>
+      <c r="D123" t="n">
+        <v>766.3699951171875</v>
+      </c>
+      <c r="E123" t="n">
+        <v>766.3699951171875</v>
+      </c>
+      <c r="F123" t="n">
+        <v>23717400</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>775.27001953125</v>
+      </c>
+      <c r="B124" t="n">
+        <v>805.5700073242188</v>
+      </c>
+      <c r="C124" t="n">
+        <v>756.5700073242188</v>
+      </c>
+      <c r="D124" t="n">
+        <v>801.8900146484375</v>
+      </c>
+      <c r="E124" t="n">
+        <v>801.8900146484375</v>
+      </c>
+      <c r="F124" t="n">
+        <v>22280400</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>809</v>
+      </c>
+      <c r="B125" t="n">
+        <v>842</v>
+      </c>
+      <c r="C125" t="n">
+        <v>802.260009765625</v>
+      </c>
+      <c r="D125" t="n">
+        <v>840.22998046875</v>
+      </c>
+      <c r="E125" t="n">
+        <v>840.22998046875</v>
+      </c>
+      <c r="F125" t="n">
+        <v>28009600</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>830.989990234375</v>
+      </c>
+      <c r="B126" t="n">
+        <v>875</v>
+      </c>
+      <c r="C126" t="n">
+        <v>825.719970703125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>871.5999755859375</v>
+      </c>
+      <c r="E126" t="n">
+        <v>871.5999755859375</v>
+      </c>
+      <c r="F126" t="n">
+        <v>22194300</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>874.489990234375</v>
+      </c>
+      <c r="B127" t="n">
+        <v>907.8499755859375</v>
+      </c>
+      <c r="C127" t="n">
+        <v>867.3900146484375</v>
+      </c>
+      <c r="D127" t="n">
+        <v>905.3900146484375</v>
+      </c>
+      <c r="E127" t="n">
+        <v>905.3900146484375</v>
+      </c>
+      <c r="F127" t="n">
+        <v>33408500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>